--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/wind-lidar-ontology/</t>
+          <t>http://data.windenergy.dtu.dk/controlled-terminologies/wind-lidar-ontology/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/wind-lidar-ontology/</t>
+          <t>http://data.windenergy.dtu.dk/controlled-terminologies/wind-lidar-ontology/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminologies/wind-lidar-ontology/</t>
+          <t>http://data.windenergy.dtu.dk/controlled-terminology/wind-lidar-ontology/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminologies/wind-lidar-ontology/</t>
+          <t>http://data.windenergy.dtu.dk/controlled-terminology/wind-lidar-ontology/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -790,7 +790,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Andy Insert your ORCID here</t>
+          <t>https://orcid.org/0000-0001-9698-5083</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Paco insert your ORCID here</t>
+          <t>https://orcid.org/0000-0003-1318-9677</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/wind-lidar-ontology/</t>
+          <t>http://vocab.ieawindtask32.org/wind-lidar-ontology/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://data.windenergy.dtu.dk/controlled-terminology/wind-lidar-ontology/</t>
+          <t>http://vocab.ieawindtask32.org/wind-lidar-ontology/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1238,7 +1238,2924 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ways that wind lidar can be used</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ontolidar:usecase</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>use case</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ontolidar:virtualmetmast</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>virtual met mast</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Crossed RHI</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Wind lidar generic design structure</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ontolidar:Chassismodule</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chassis module</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ontolidar:design</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ontolidar:Controlmodule</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Control module</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ontolidar:design</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ontolidar:Communicationsmodule</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Communications module</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ontolidar:controlmodule</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ontolidar:Signalprocessingmodule</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Signal processing module</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ontolidar:controlmodule</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ontolidar:Storagemodule</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Storage module</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ontolidar:controlmodule</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ontolidar:Safetyinterlocks</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Safety interlocks</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ontolidar:design</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ontolidar:Opticsmodule</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Optics module</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ontolidar:design</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ontolidar:Telescope</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Telescope</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ontolidar:opticsmodule</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ontolidar:Telescopeaperture</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Telescope aperture</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>The aperture through which laser light is emitted and received</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ontolidar:telescope</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ontolidar:Telescopeaperturediameter</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Telescope aperture diameter</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Characteristic optical diameter of the lidar telescope</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ontolidar:telescopeaperture</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ontolidar:Photonicsmodule</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Photonics module</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ontolidar:design</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Detector</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>An assembly to gather and detect incident light</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ontolidar:photonicsmodule</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ontolidar:photodetector</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>photodetector</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Semiconductor light sensor.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ontolidar:detector</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ontolidar:photodetectorgain</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>photodetector gain</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>The gain of the photodetector transimpedance amplifier.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ontolidar:photodetector</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ontolidar:Photodetectorvoltagenoise</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Photodetector voltage noise</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ontolidar:photodetector</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ontolidar:Opticalamplifier</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Optical amplifier</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>An assembly to amplify the outgoing laser light signal without coverting it into an electrical signal.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ontolidar:detector</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier"</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ontolidar:Beamsplitter</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beam splitter </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>An optical assembly to split a laser beam into two or more beams.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>beamsplitter</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ontolidar:detector</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ontolidar:Lasersource</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Laser source</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>An assembly to generate and manage laser light.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ontolidar:photonicsmodule</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ontolidar:Laserdiode</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Laser diode</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A semiconductor component to generate laser light of a defined frequency.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ontolidar:lasersource</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ontolidar:Laserdiodewavelength</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Laser diode wavelength</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ontolidar:laserdiode</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ontolidar:Powermodule</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Power module</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ontolidar:design</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ontolidar:Uninterruptiblepowersupply</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Uninterruptible power supply</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Uninterruptible power supply (UPS)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ontolidar:powermodule</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ontolidar:UPSBattery</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UPS Battery</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>An energy storage component</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ontolidar:uninterruptablepowersupply</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ontolidar:UPSbatteryvoltage</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>UPS battery voltage</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>The battery voltage. Units are Volts.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ontolidar:UPSbattery</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>volts</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ontolidar:UPSbatterycapacity</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UPS battery capacity</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ontolidar:UPSbattery</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Amp hours</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ontolidar:Scannermodule</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Scanner module</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ontolidar:design</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ontolidar:Scannerazimuthpositioningservo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Scanner azimuth positioning servo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ontolidar:scannermodule</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ontolidar:Azimuthslewrate</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Azimuth slew rate</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ontolidar:Scannerazimuthpositioningservo</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ontolidar:Scannerelevationpositioningservo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Scanner elevation positioning servo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ontolidar:scannermodule</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ontolidar:Elevationslewrate</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Elevation slew rate</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ontolidar:Scannerelevationpositioningservo</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ontolidar:Scannermirrors</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Scanner mirrors</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ontolidar:scannermodule</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ontolidar:devices</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>devices</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Specific implementations of wind lidar technologies.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ontolidar:Windscanner</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Windscanner</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ontolidar:devices</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ontolidar:WindIris</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Wind Iris</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ontolidar:devices</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ontolidar:instances</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>instances</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Wind lidar instances.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ontolidar:serialnumber</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>serial number</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>wind lidar serial number</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ontolidar:instances</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ontolidar:lidartype</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>lidar type</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>The type of lidar device</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ontolidar:instances</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ontolidar:devices</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ontolidar:Measurementprinciples</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Measurement principles</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>The means by which a lidar makes a measurement of the wind</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ontolidar:Lineofsight</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Line-of-sight</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>time of flight</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ontolidar:Measurementvolume</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Measurement volume</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ontolidar:Probe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Probe</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>In the case of scanning lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ontolidar:Probevolume</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Probe volume</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ontolidar:Probe</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ontolidar:radialvelocity</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>radial velocity</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Radial wind speed</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ontolidar:Scanninggeometry</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Scanning geometry</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>scan pattern</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ontolidar:Singlelidar</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Single lidar</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Measurements made by a single lidar.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ontolidar:scanninggeometry</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ontolidar:staring</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>staring</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>A scan geometry comprised of a single beam orientation.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ontolidar:Singlelidar</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ontolidar:stopstare</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>stop-stare</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>ontolidar:Singlelidar</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ontolidar:sweepstare</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sweep-stare</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ontolidar:Simplescan</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Simple scan</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>ontolidar:singlelidar</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ontolidar:Variableazimuthscan</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Variable azimuth scan</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>A simple scan geometry with variable azimuth angle</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ontolidar:simplescan</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ontolidar:Completecone</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Complete cone</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ontolidar:variableazimuthscan</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ontolidar:Conesector</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Cone sector</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ontolidar:variableazimuthscan</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ontolidar:Dopplerbeamswinging</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Doppler beam swinging</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ontolidar:variableazimuthscan</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ontolidar:Variableelevation</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Variable elevation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>A simple scan geometry with variable elevation angle</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ontolidar:simplescan</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ontolidar:Verticalslice</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Vertical slice</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ontolidar:variableelevationscan</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ontolidar:Compoundscan</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Compound scan</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Compound scans include more degrees of freedom and can follow an arbitrary trajectory or be made up of a sequence of simple scans</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ontolidar:singlelidar</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ontolidar:Arbitrarytrajectory</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Arbitrary trajectory</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>ontolidar:singlelidar</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ontolidar:Sequentialscan</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sequential scan</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>ontolidar:compoundscan</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ontolidar:Multilidar</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Multi-lidar</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>multilidar</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ontolidar:scanninggeometry</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ontolidar:Convergentscan</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Convergent scan</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Convergent beam, convergent-beam lidar</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ontolidar:multilidar</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ontolidar:parameters</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>parameters</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Wind lidar-specific parameters.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ontolidar:Carriertonoiseratio</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Carrier to noise ratio</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>A measure of signal strength</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>ontolidar:parameters</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ontolidar:Measurementheight</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Measurement height</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ontolidar:parameters</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ontolidar:Datumelevation</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Datum elevation</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>The height of the datum plane above sea level</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>ontolidar:parameters</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ontolidar:Datumplane</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Datum plane</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>ontolidar:parameters</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>ontolidar:datumfeature</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ontolidar:Datumfeature</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ontolidar:parameters</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,7 +1077,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ontolidar:units</t>
+          <t>ontolidar:Units</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1198,12 +1198,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ontolidar:velocityaziumthdisplay</t>
+          <t>ontolidar:VelocityAzimuthDisplay</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>velocity-aziumth display</t>
+          <t>Velocity-azimuth display</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1276,12 +1276,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ontolidar:usecase</t>
+          <t>ontolidar:UseCase</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>use case</t>
+          <t>Use case</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1315,12 +1315,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ontolidar:virtualmetmast</t>
+          <t>ontolidar:VirtualMetMast</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>virtual met mast</t>
+          <t>Virtual met mast</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1397,7 +1397,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ontolidar:Chassismodule</t>
+          <t>ontolidar:ChassisModule</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1440,7 +1440,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ontolidar:Controlmodule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1483,7 +1483,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ontolidar:Communicationsmodule</t>
+          <t>ontolidar:CommunicationsModule</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1526,7 +1526,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ontolidar:Signalprocessingmodule</t>
+          <t>ontolidar:SignalProcessingModule</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ontolidar:Storagemodule</t>
+          <t>ontolidar:StorageModule</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ontolidar:Safetyinterlocks</t>
+          <t>ontolidar:SafetyInterlocks</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1655,7 +1655,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ontolidar:Opticsmodule</t>
+          <t>ontolidar:OpticsModule</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ontolidar:Telescopeaperture</t>
+          <t>ontolidar:TelescopeAperture</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1776,7 +1776,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ontolidar:Telescopeaperturediameter</t>
+          <t>ontolidar:TelescopeApertureDiameter</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1819,7 +1819,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ontolidar:Photonicsmodule</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ontolidar:photodetector</t>
+          <t>ontolidar:Photodetector</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>photodetector</t>
+          <t>Photodetector</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1940,12 +1940,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ontolidar:photodetectorgain</t>
+          <t>ontolidar:PhotodetectorGain</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>photodetector gain</t>
+          <t>Photodetector gain</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1979,7 +1979,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ontolidar:Photodetectorvoltagenoise</t>
+          <t>ontolidar:PhotodetectorVoltageNoise</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ontolidar:Opticalamplifier</t>
+          <t>ontolidar:OpticalAmplifier</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ontolidar:Beamsplitter</t>
+          <t>ontolidar:BeamSplitter</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ontolidar:Lasersource</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2147,7 +2147,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ontolidar:Laserdiode</t>
+          <t>ontolidar:LaserDiode</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2186,7 +2186,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ontolidar:Laserdiodewavelength</t>
+          <t>ontolidar:LaserDiodeWavelength</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ontolidar:Powermodule</t>
+          <t>ontolidar:PowerModule</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ontolidar:Uninterruptiblepowersupply</t>
+          <t>ontolidar:UninterruptiblePowerSupply</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2311,7 +2311,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ontolidar:UPSBattery</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2350,7 +2350,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ontolidar:UPSbatteryvoltage</t>
+          <t>ontolidar:UpsBatteryVoltage</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ontolidar:UPSbatterycapacity</t>
+          <t>ontolidar:UpsBatteryCapacity</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ontolidar:Scannermodule</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ontolidar:Scannerazimuthpositioningservo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ontolidar:Azimuthslewrate</t>
+          <t>ontolidar:AzimuthSlewRate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ontolidar:Scannerelevationpositioningservo</t>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2600,7 +2600,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ontolidar:Elevationslewrate</t>
+          <t>ontolidar:ElevationSlewRate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2643,7 +2643,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ontolidar:Scannermirrors</t>
+          <t>ontolidar:ScannerMirrors</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ontolidar:devices</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>devices</t>
+          <t>Devices</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2772,7 +2772,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle.</t>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2803,19 +2803,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ontolidar:instances</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>instances</t>
+          <t>Instances</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Wind lidar instances.</t>
+          <t>Wind lidar instances</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2838,12 +2838,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ontolidar:serialnumber</t>
+          <t>ontolidar:SerialNumber</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>serial number</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2877,12 +2877,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ontolidar:lidartype</t>
+          <t>ontolidar:LidarType</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>lidar type</t>
+          <t>Lidar type</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2895,7 +2895,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ontolidar:instances</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2920,7 +2920,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ontolidar:Measurementprinciples</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2955,12 +2955,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ontolidar:Lineofsight</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Line-of-sight</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2992,10 +2992,14 @@
       <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ontolidar:TimeOfFlight</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>time of flight</t>
+          <t>Time of flight</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3033,7 +3037,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ontolidar:Measurementvolume</t>
+          <t>ontolidar:MeasurementVolume</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3111,7 +3115,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ontolidar:Probevolume</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3150,12 +3154,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ontolidar:radialvelocity</t>
+          <t>ontolidar:RadialVelocity</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>radial velocity</t>
+          <t>Radial velocity</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3193,7 +3197,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ontolidar:Scanninggeometry</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3210,7 +3214,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>scan pattern</t>
+          <t>Scan pattern</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3240,7 +3244,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ontolidar:Singlelidar</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3258,7 +3262,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ontolidar:scanninggeometry</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3283,12 +3287,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ontolidar:staring</t>
+          <t>ontolidar:Staring</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>staring</t>
+          <t>Staring</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3301,7 +3305,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ontolidar:Singlelidar</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3322,12 +3326,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ontolidar:stopstare</t>
+          <t>ontolidar:StopStare</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>stop-stare</t>
+          <t>Stop-stare</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3340,7 +3344,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ontolidar:Singlelidar</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3361,12 +3365,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ontolidar:sweepstare</t>
+          <t>ontolidar:SweepStare</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sweep-stare</t>
+          <t>Sweep-stare</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3377,7 +3381,11 @@
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3396,7 +3404,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ontolidar:Simplescan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3414,7 +3422,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ontolidar:singlelidar</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3439,7 +3447,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ontolidar:Variableazimuthscan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3457,7 +3465,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ontolidar:simplescan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3482,7 +3490,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ontolidar:Completecone</t>
+          <t>ontolidar:CompleteCone</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3500,7 +3508,7 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ontolidar:variableazimuthscan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3521,7 +3529,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ontolidar:Conesector</t>
+          <t>ontolidar:ConeSector</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3539,7 +3547,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ontolidar:variableazimuthscan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3560,7 +3568,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ontolidar:Dopplerbeamswinging</t>
+          <t>ontolidar:DopplerBeamSwinging</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3582,7 +3590,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ontolidar:variableazimuthscan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3603,7 +3611,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ontolidar:Variableelevation</t>
+          <t>ontolidar:VariableElevation</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3621,7 +3629,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ontolidar:simplescan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3646,7 +3654,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ontolidar:Verticalslice</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3668,7 +3676,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ontolidar:variableelevationscan</t>
+          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3689,7 +3697,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ontolidar:Compoundscan</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3707,7 +3715,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ontolidar:singlelidar</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3732,7 +3740,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ontolidar:Arbitrarytrajectory</t>
+          <t>ontolidar:ArbitraryTrajectory</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3750,7 +3758,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ontolidar:singlelidar</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3771,7 +3779,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ontolidar:Sequentialscan</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3789,7 +3797,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ontolidar:compoundscan</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3814,7 +3822,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ontolidar:Multilidar</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3836,7 +3844,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ontolidar:scanninggeometry</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3857,7 +3865,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ontolidar:Convergentscan</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3879,7 +3887,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ontolidar:multilidar</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3900,12 +3908,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ontolidar:parameters</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>parameters</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3935,7 +3943,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ontolidar:Carriertonoiseratio</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3957,7 +3965,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ontolidar:parameters</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3978,37 +3986,45 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:Measurementheight</t>
+          <t>ontolidar:Azimuth</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Azimuth</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Azimuth angle</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ontolidar:parameters</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
@@ -4021,41 +4037,41 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ontolidar:Datumelevation</t>
+          <t>ontolidar:Elevation</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The height of the datum plane above sea level</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Elevation angle</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ontolidar:parameters</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
@@ -4068,37 +4084,33 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ontolidar:Datumplane</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Measurement height</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Reference height</t>
-        </is>
-      </c>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>ontolidar:parameters</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>ontolidar:datumfeature</t>
-        </is>
-      </c>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -4115,37 +4127,41 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ontolidar:Datumfeature</t>
+          <t>ontolidar:DatumElevation</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Datum elevation</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
+          <t>The height of the datum plane above sea level</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ontolidar:parameters</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -4155,6 +4171,96 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumPlane</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Datum plane</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>ontolidar:datumfeature</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U96"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,7 +1415,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ontolidar:design</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1458,7 +1458,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ontolidar:design</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ontolidar:controlmodule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1544,7 +1544,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ontolidar:controlmodule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1587,7 +1587,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ontolidar:controlmodule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ontolidar:design</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ontolidar:design</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ontolidar:opticsmodule</t>
+          <t>ontolidar:OpticsModule</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1755,7 +1755,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ontolidar:telescope</t>
+          <t>ontolidar:Telescope</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1794,7 +1794,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ontolidar:telescopeaperture</t>
+          <t>ontolidar:TelescopeAperture</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1837,7 +1837,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ontolidar:design</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1880,7 +1880,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ontolidar:photonicsmodule</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1919,7 +1919,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ontolidar:detector</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1958,7 +1958,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ontolidar:photodetector</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ontolidar:photodetector</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ontolidar:detector</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ontolidar:detector</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2126,7 +2126,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ontolidar:photonicsmodule</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ontolidar:lasersource</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ontolidar:laserdiode</t>
+          <t>ontolidar:LaserDiode</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2247,7 +2247,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ontolidar:design</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ontolidar:powermodule</t>
+          <t>ontolidar:PowerModule</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ontolidar:uninterruptablepowersupply</t>
+          <t>ontolidar:UninterruptablePowerSupply</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ontolidar:UPSbattery</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2411,7 +2411,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ontolidar:UPSbattery</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2454,7 +2454,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ontolidar:design</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ontolidar:scannermodule</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ontolidar:Scannerazimuthpositioningservo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ontolidar:scannermodule</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ontolidar:Scannerelevationpositioningservo</t>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2661,7 +2661,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ontolidar:scannermodule</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2735,7 +2735,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ontolidar:devices</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2745,7 +2745,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
+          <t>Describing a wind lidar unit as "a windscanner" is insufficient information to uniquely describe it's capabilities.</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -2778,7 +2778,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ontolidar:devices</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ontolidar:instances</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ontolidar:devices</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3544,7 +3544,11 @@
           <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Plan-position indicator, PPI</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>ontolidar:VariableAzimuthScan</t>
@@ -3955,7 +3959,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A measure of signal strength</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3973,7 +3977,11 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Often used interchangably with SNR</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
@@ -3986,24 +3994,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:Azimuth</t>
+          <t>ontolidar:SignalToNoiseRatio</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Azimuth</t>
+          <t>Signal to noise ratio</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Azimuth angle</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4011,18 +4019,14 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+          <t>Often used interchangably with CNR</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -4037,24 +4041,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ontolidar:Elevation</t>
+          <t>ontolidar:Azimuth</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Elevation</t>
+          <t>Azimuth</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Elevation angle</t>
+          <t>Azimuth angle</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4071,7 +4075,11 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
@@ -4084,22 +4092,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementHeight</t>
+          <t>ontolidar:Elevation</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Elevation angle</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -4107,7 +4119,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -4127,19 +4139,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ontolidar:DatumElevation</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Measurement height</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>The height of the datum plane above sea level</t>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4157,11 +4169,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -4174,41 +4182,41 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ontolidar:DatumPlane</t>
+          <t>ontolidar:DatumElevation</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Datum elevation</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Reference height</t>
-        </is>
-      </c>
+          <t>The height of the datum plane above sea level</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>ontolidar:datumfeature</t>
-        </is>
-      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
@@ -4221,24 +4229,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>ontolidar:DatumPlane</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Datum plane</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Reference marker</t>
+          <t>Reference height</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4247,7 +4255,11 @@
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -4261,6 +4273,49 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,7 +1210,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method. The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
+          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1228,7 +1228,11 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -1819,35 +1823,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:All-fiberLidar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Photonics module</t>
+          <t>Beam transmission system</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
+          <t>All-fiber transmission Lidar system</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+          <t>True if lidar is all-fiber</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -1862,25 +1866,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Detector</t>
+          <t>Photonics module</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>An assembly to gather and detect incident light</t>
+          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1888,7 +1892,11 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -1901,25 +1909,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ontolidar:Photodetector</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Photodetector</t>
+          <t>Detector</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Semiconductor light sensor.</t>
+          <t>An assembly to gather and detect incident light</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1940,25 +1948,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorGain</t>
+          <t>ontolidar:Photodetector</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Photodetector gain</t>
+          <t>Photodetector</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The gain of the photodetector transimpedance amplifier.</t>
+          <t>Semiconductor light sensor.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1979,19 +1987,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorVoltageNoise</t>
+          <t>ontolidar:PhotodetectorGain</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Photodetector voltage noise</t>
+          <t>Photodetector gain</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
+          <t>The gain of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2018,25 +2026,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ontolidar:OpticalAmplifier</t>
+          <t>ontolidar:PhotodetectorVoltageNoise</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Optical amplifier</t>
+          <t>Photodetector voltage noise</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>An assembly to amplify the outgoing laser light signal without coverting it into an electrical signal.</t>
+          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2044,11 +2052,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier"</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -2061,29 +2065,29 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ontolidar:BeamSplitter</t>
+          <t>ontolidar:AcoustoOpticModulator</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beam splitter </t>
+          <t>Acousto optic modulator</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>An optical assembly to split a laser beam into two or more beams.</t>
+          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>beamsplitter</t>
+          <t>AOM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:Signal modulation</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2093,7 +2097,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+          <t>Only pulsed lidar</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -2108,25 +2112,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:OpticalAmplifier</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Laser source</t>
+          <t>Optical amplifier</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>An assembly to generate and manage laser light.</t>
+          <t>An assembly to amplify the outgoing laser light signal without coverting it into an electrical signal.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2134,7 +2138,11 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier"</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -2147,25 +2155,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
+          <t>ontolidar:BeamSplitter</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Laser diode</t>
+          <t xml:space="preserve">Beam splitter </t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A semiconductor component to generate laser light of a defined frequency.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>An optical assembly to split a laser beam into two or more beams.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>beamsplitter</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2173,7 +2185,11 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -2186,32 +2202,28 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiodeWavelength</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Laser diode wavelength</t>
+          <t>Laser source</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
+          <t>An assembly to generate and manage laser light.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2229,25 +2241,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
+          <t>ontolidar:LaserDiode</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Power module</t>
+          <t>Laser diode</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
+          <t>A semiconductor component to generate laser light of a defined frequency.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2255,11 +2267,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -2272,28 +2280,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptiblePowerSupply</t>
+          <t>ontolidar:LaserDiodeWavelength</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply</t>
+          <t>Laser diode wavelength</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply (UPS)</t>
+          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>ontolidar:LaserDiode</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2311,25 +2323,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
+          <t>ontolidar:PowerModule</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>UPS Battery</t>
+          <t>Power module</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>An energy storage component</t>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptablePowerSupply</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2337,7 +2349,11 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -2350,32 +2366,28 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryVoltage</t>
+          <t>ontolidar:UninterruptiblePowerSupply</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>UPS battery voltage</t>
+          <t>Uninterruptible power supply</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The battery voltage. Units are Volts.</t>
+          <t>Uninterruptible power supply (UPS)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>volts</t>
-        </is>
-      </c>
+          <t>ontolidar:PowerModule</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2393,32 +2405,28 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryCapacity</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UPS battery capacity</t>
+          <t>UPS Battery</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
+          <t>An energy storage component</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Amp hours</t>
-        </is>
-      </c>
+          <t>ontolidar:UninterruptablePowerSupply</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2436,37 +2444,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>ontolidar:UpsBatteryVoltage</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Scanner module</t>
+          <t>UPS battery voltage</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
+          <t>The battery voltage. Units are Volts.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>volts</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -2479,28 +2487,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+          <t>ontolidar:UpsBatteryCapacity</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Scanner azimuth positioning servo</t>
+          <t>UPS battery capacity</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
+          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Amp hours</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2518,37 +2530,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ontolidar:AzimuthSlewRate</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Azimuth slew rate</t>
+          <t>Scanner module</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
+          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -2561,19 +2573,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Scanner elevation positioning servo</t>
+          <t>Scanner azimuth positioning servo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
+          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2600,25 +2612,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ontolidar:ElevationSlewRate</t>
+          <t>ontolidar:AzimuthSlewRate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Elevation slew rate</t>
+          <t>Azimuth slew rate</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2643,19 +2655,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerMirrors</t>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Scanner mirrors</t>
+          <t>Scanner elevation positioning servo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
+          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2682,24 +2694,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ElevationSlewRate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Devices</t>
+          <t>Elevation slew rate</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Specific implementations of wind lidar technologies.</t>
+          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2717,25 +2737,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ontolidar:Windscanner</t>
+          <t>ontolidar:ScannerMirrors</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Windscanner</t>
+          <t>Scanner mirrors</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
+          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2743,11 +2763,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as "a windscanner" is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
@@ -2760,37 +2776,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ontolidar:WindIris</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wind Iris</t>
+          <t>Devices</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
+          <t>Specific implementations of wind lidar technologies.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -2803,29 +2811,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Windscanner</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Instances</t>
+          <t>Windscanner</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Wind lidar instances</t>
+          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as "a windscanner" is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
@@ -2838,25 +2854,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ontolidar:SerialNumber</t>
+          <t>ontolidar:WindIris</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Serial number</t>
+          <t>Wind Iris</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>wind lidar serial number</t>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2864,7 +2880,11 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -2877,33 +2897,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ontolidar:LidarType</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lidar type</t>
+          <t>Instances</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>The type of lidar device</t>
+          <t>Wind lidar instances</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>ontolidar:Instances</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -2920,23 +2932,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:SerialNumber</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Measurement principles</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The means by which a lidar makes a measurement of the wind</t>
+          <t>wind lidar serial number</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ontolidar:Instances</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2955,29 +2971,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ontolidar:LineOfSight</t>
+          <t>ontolidar:LidarType</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Line of sight</t>
+          <t>Lidar type</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
+          <t>The type of lidar device</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -2994,31 +3014,23 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ontolidar:TimeOfFlight</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Time of flight</t>
+          <t>Measurement principles</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>TOF</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
+          <t>The means by which a lidar makes a measurement of the wind</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3037,19 +3049,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementVolume</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Measurement volume</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3076,22 +3088,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:TimeOfFlight</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Probe</t>
+          <t>Time of flight</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>In the case of scanning lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -3115,25 +3131,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ontolidar:ProbeVolume</t>
+          <t>ontolidar:MeasurementVolume</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Probe volume</t>
+          <t>Measurement volume</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3154,26 +3170,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ontolidar:RadialVelocity</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Radial velocity</t>
+          <t>Probe</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Radial wind speed</t>
-        </is>
-      </c>
+          <t>In the case of scanning lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -3197,29 +3209,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Scanning geometry</t>
+          <t>Probe volume</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Scan pattern</t>
-        </is>
-      </c>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3227,11 +3235,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -3244,25 +3248,29 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:RadialVelocity</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Single lidar</t>
+          <t>Radial velocity</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Measurements made by a single lidar.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Radial wind speed</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3270,11 +3278,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -3287,25 +3291,29 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ontolidar:Staring</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Staring</t>
+          <t>Scanning geometry</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A scan geometry comprised of a single beam orientation.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Scan pattern</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3313,7 +3321,11 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
@@ -3326,25 +3338,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ontolidar:StopStare</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Stop-stare</t>
+          <t>Single lidar</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
+          <t>Measurements made by a single lidar.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3352,7 +3364,11 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -3365,19 +3381,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ontolidar:SweepStare</t>
+          <t>ontolidar:Staring</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sweep-stare</t>
+          <t>Staring</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
+          <t>A scan geometry comprised of a single beam orientation.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -3404,19 +3420,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:StopStare</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Simple scan</t>
+          <t>Stop-stare</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -3430,11 +3446,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
@@ -3447,25 +3459,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SweepStare</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Variable azimuth scan</t>
+          <t>Sweep-stare</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable azimuth angle</t>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3473,11 +3485,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -3490,25 +3498,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ontolidar:CompleteCone</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Complete cone</t>
+          <t>Simple scan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3516,7 +3524,11 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
@@ -3529,29 +3541,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ontolidar:ConeSector</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cone sector</t>
+          <t>Variable azimuth scan</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Plan-position indicator, PPI</t>
-        </is>
-      </c>
+          <t>A simple scan geometry with variable azimuth angle</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3559,7 +3567,11 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
@@ -3572,26 +3584,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ontolidar:DopplerBeamSwinging</t>
+          <t>ontolidar:CompleteCone</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Doppler beam swinging</t>
+          <t>Complete cone</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>DBS</t>
-        </is>
-      </c>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>ontolidar:VariableAzimuthScan</t>
@@ -3615,25 +3623,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevation</t>
+          <t>ontolidar:ConeSector</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Variable elevation</t>
+          <t>Cone sector</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable elevation angle</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Plan-position indicator, PPI</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3641,11 +3653,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
@@ -3658,29 +3666,29 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ontolidar:VerticalSlice</t>
+          <t>ontolidar:DopplerBeamSwinging</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vertical slice</t>
+          <t>Doppler beam swinging</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Range-height indicator, RHI</t>
+          <t>DBS</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevationScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3701,25 +3709,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:VariableElevation</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Compound scan</t>
+          <t>Variable elevation</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compound scans include more degrees of freedom and can follow an arbitrary trajectory or be made up of a sequence of simple scans</t>
+          <t>A simple scan geometry with variable elevation angle</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3744,25 +3752,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ontolidar:ArbitraryTrajectory</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Arbitrary trajectory</t>
+          <t>Vertical slice</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3783,25 +3795,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ontolidar:SequentialScan</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sequential scan</t>
+          <t>Compound scan</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3826,29 +3838,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:ArbitraryTrajectory</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Arbitrary trajectory</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>multilidar</t>
-        </is>
-      </c>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3869,29 +3877,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ontolidar:ConvergentScan</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Convergent scan</t>
+          <t>Sequential scan</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3899,7 +3903,11 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
@@ -3912,23 +3920,31 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Wind lidar-specific parameters.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>multilidar, multistatic</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ontolidar:ScanningGeometry</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3947,29 +3963,29 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ontolidar:CarrierToNoiseRatio</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Carrier to noise ratio</t>
+          <t>Convergent scan</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CNR</t>
+          <t>Convergent beam, convergent-beam lidar</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3977,11 +3993,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Often used interchangably with SNR</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
@@ -3994,41 +4006,29 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:SignalToNoiseRatio</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Signal to noise ratio</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
+          <t>Wind lidar-specific parameters.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
@@ -4041,24 +4041,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ontolidar:Azimuth</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Azimuth</t>
+          <t>Carrier to noise ratio</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Azimuth angle</t>
+          <t>CNR</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4066,18 +4066,14 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+          <t>Often used interchangably with SNR</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -4092,24 +4088,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ontolidar:Elevation</t>
+          <t>ontolidar:SignalToNoiseRatio</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Elevation</t>
+          <t>Signal to noise ratio</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Elevation angle</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4117,16 +4113,16 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Often used interchangably with CNR</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
@@ -4139,22 +4135,26 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementHeight</t>
+          <t>ontolidar:Azimuth</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Azimuth</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Azimuth angle</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -4162,14 +4162,18 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -4182,22 +4186,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ontolidar:DatumElevation</t>
+          <t>ontolidar:Elevation</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The height of the datum plane above sea level</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Elevation angle</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -4205,18 +4213,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
@@ -4229,37 +4233,33 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ontolidar:DatumPlane</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Measurement height</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Reference height</t>
-        </is>
-      </c>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>ontolidar:DatumFeature</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -4276,37 +4276,41 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>ontolidar:DatumElevation</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Datum elevation</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
+          <t>The height of the datum plane above sea level</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
@@ -4316,6 +4320,96 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumPlane</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Datum plane</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U99"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,10 @@
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +490,10 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,6 +529,10 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -556,6 +568,10 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -591,6 +607,10 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -626,6 +646,10 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -657,6 +681,10 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +716,10 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -719,6 +751,10 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -750,6 +786,10 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -781,6 +821,10 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -812,6 +856,10 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,6 +891,10 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -874,6 +926,10 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -901,6 +957,10 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -932,6 +992,10 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -963,6 +1027,10 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -994,6 +1062,10 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1003,76 +1075,96 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@it</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>rdf:type</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>rdfs:label</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>skos:definition@en</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:definition@it</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ontolidar:units</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>skos:related(separator=",")</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>skos:note@en</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1085,23 +1177,23 @@
           <t>units</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>rdf:Property</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>units</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>A unit for parameter or variable being defined.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1116,6 +1208,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1130,13 +1226,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Ways that wind lidar data can be processed to extract useful data</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1151,6 +1247,10 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1165,25 +1265,25 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Wind field reconstruction</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ontolidar:Analysis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Wind field reconstruction</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ontolidar:Analysis</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1194,6 +1294,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1208,39 +1312,43 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>VAD</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VAD</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ontolidar:WindfieldReconstruction</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1255,13 +1363,13 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Ways that wind lidar can be used</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,6 +1384,10 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1290,21 +1402,21 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1315,6 +1427,10 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1329,25 +1445,25 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Crossed RHI</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Crossed RHI</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1358,6 +1474,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1370,33 +1490,41 @@
           <t>Design</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Auslegung</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Wind lidar generic design structure</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1411,35 +1539,39 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1454,35 +1586,39 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1497,35 +1633,39 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ontolidar:ControlModule</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1540,35 +1680,39 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ontolidar:ControlModule</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1583,35 +1727,39 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ontolidar:ControlModule</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1626,35 +1774,39 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1669,35 +1821,39 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1710,23 +1866,27 @@
           <t>Telescope</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Teleskop</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ontolidar:OpticsModule</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -1737,6 +1897,10 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1751,21 +1915,21 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>The aperture through which laser light is emitted and received</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>The aperture through which laser light is emitted and received</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ontolidar:Telescope</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -1776,6 +1940,10 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1790,26 +1958,26 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Characteristic optical diameter of the lidar telescope</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>Characteristic optical diameter of the lidar telescope</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ontolidar:TelescopeAperture</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -1819,6 +1987,10 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1833,35 +2005,39 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>All-fiber transmission Lidar system</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>True if lidar is all-fiber</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>True if lidar is all-fiber</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1876,35 +2052,39 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1919,21 +2099,21 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>An assembly to gather and detect incident light</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>An assembly to gather and detect incident light</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -1944,6 +2124,10 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1958,21 +2142,21 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Semiconductor light sensor.</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>Semiconductor light sensor.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -1983,6 +2167,10 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1997,21 +2185,21 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>The gain of the photodetector transimpedance amplifier.</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>The gain of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotoDetector</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2022,6 +2210,10 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2036,21 +2228,21 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotoDetector</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -2061,6 +2253,10 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2075,39 +2271,43 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>AOM</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>ontolidar:Signal modulation</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>AOM</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ontolidar:Signal modulation</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Only pulsed lidar</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Only pulsed lidar</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2122,35 +2322,39 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>An assembly to amplify the outgoing laser light signal without coverting it into an electrical signal.</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>An assembly to amplify the outgoing laser light signal without coverting it into an electrical signal.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier"</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier"</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2165,39 +2369,43 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>An optical assembly to split a laser beam into two or more beams.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>beamsplitter</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>beamsplitter</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2212,21 +2420,21 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>An assembly to generate and manage laser light.</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>An assembly to generate and manage laser light.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -2237,6 +2445,10 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2251,21 +2463,21 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>A semiconductor component to generate laser light of a defined frequency.</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>A semiconductor component to generate laser light of a defined frequency.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ontolidar:LaserSource</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -2276,6 +2488,10 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2290,26 +2506,26 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ontolidar:LaserDiode</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2319,6 +2535,10 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2333,35 +2553,39 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2376,21 +2600,21 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Uninterruptible power supply (UPS)</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
+          <t>Uninterruptible power supply (UPS)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ontolidar:PowerModule</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -2401,6 +2625,10 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2415,21 +2643,21 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>An energy storage component</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptablePowerSupply</t>
+          <t>An energy storage component</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ontolidar:UninterruptablePowerSupply</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -2440,6 +2668,10 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2454,26 +2686,26 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>The battery voltage. Units are Volts.</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>volts</t>
-        </is>
-      </c>
+          <t>The battery voltage. Units are Volts.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>volts</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2483,6 +2715,10 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2497,26 +2733,26 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Amp hours</t>
-        </is>
-      </c>
+          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Amp hours</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2526,6 +2762,10 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2540,35 +2780,39 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2583,21 +2827,21 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -2608,6 +2852,10 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2622,26 +2870,26 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -2651,6 +2899,10 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2665,21 +2917,21 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -2690,6 +2942,10 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2704,26 +2960,26 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
+          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -2733,6 +2989,10 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2747,21 +3007,21 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -2772,6 +3032,10 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2784,15 +3048,19 @@
           <t>Devices</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Geräte</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Specific implementations of wind lidar technologies.</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2807,6 +3075,10 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2821,35 +3093,39 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as "a windscanner" is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as "a windscanner" is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2864,35 +3140,39 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2905,15 +3185,19 @@
           <t>Instances</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Instanzen</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Wind lidar instances</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2928,6 +3212,10 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2942,21 +3230,21 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>wind lidar serial number</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>wind lidar serial number</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ontolidar:Instances</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -2967,6 +3255,10 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2981,27 +3273,27 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>The type of lidar device</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>The type of lidar device</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
           <t>ontolidar:Instances</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
         <is>
           <t>ontolidar:Devices</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
@@ -3010,6 +3302,10 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3024,13 +3320,13 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>The means by which a lidar makes a measurement of the wind</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3045,6 +3341,10 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3059,21 +3359,21 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3084,6 +3384,10 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3098,25 +3402,25 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>TOF</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -3127,6 +3431,10 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3141,21 +3449,21 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -3166,6 +3474,10 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3180,21 +3492,21 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>In the case of scanning lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>In the case of scanning lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -3205,6 +3517,10 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3219,21 +3535,21 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ontolidar:Probe</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -3244,6 +3560,10 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3258,25 +3578,25 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Radial wind speed</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Radial wind speed</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -3287,6 +3607,10 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3301,39 +3625,43 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Scan pattern</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Scan pattern</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3348,35 +3676,39 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Measurements made by a single lidar.</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>Measurements made by a single lidar.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ontolidar:ScanningGeometry</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3391,21 +3723,21 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>A scan geometry comprised of a single beam orientation.</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>A scan geometry comprised of a single beam orientation.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -3416,6 +3748,10 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3430,21 +3766,21 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -3455,6 +3791,10 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3469,21 +3809,21 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -3494,6 +3834,10 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3508,35 +3852,39 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3551,35 +3899,39 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>A simple scan geometry with variable azimuth angle</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>A simple scan geometry with variable azimuth angle</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ontolidar:SimpleScan</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3594,21 +3946,21 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableAzimuthScan</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -3619,6 +3971,10 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3633,25 +3989,25 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Plan-position indicator, PPI</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Plan-position indicator, PPI</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableAzimuthScan</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -3662,6 +4018,10 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3676,25 +4036,25 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>DBS</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableAzimuthScan</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -3705,6 +4065,10 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3719,35 +4083,39 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>A simple scan geometry with variable elevation angle</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>A simple scan geometry with variable elevation angle</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ontolidar:SimpleScan</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3762,25 +4130,25 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Range-height indicator, RHI</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableElevationScan</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -3791,6 +4159,10 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3805,35 +4177,39 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
-        </is>
-      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3848,21 +4224,21 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -3873,6 +4249,10 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3887,35 +4267,39 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ontolidar:CompoundScan</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3930,25 +4314,25 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>multilidar, multistatic</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>multilidar, multistatic</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>ontolidar:ScanningGeometry</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
@@ -3959,6 +4343,10 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3973,25 +4361,25 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Convergent beam, convergent-beam lidar</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ontolidar:MultiLidar</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -4002,6 +4390,10 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4016,13 +4408,13 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>Wind lidar-specific parameters.</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4037,6 +4429,10 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4051,39 +4447,43 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>A measure of lidar return signal strength</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Often used interchangably with SNR</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Often used interchangably with SNR</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4098,39 +4498,43 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>A measure of lidar return signal strength</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Often used interchangably with CNR</t>
+        </is>
+      </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4145,43 +4549,47 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
         <is>
           <t>Azimuth angle</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>degrees</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4196,30 +4604,30 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>The angle between the line of sight of the lidar and the datum plane.</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
         <is>
           <t>Elevation angle</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>degrees</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -4229,6 +4637,10 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4243,26 +4655,26 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4272,6 +4684,10 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4286,39 +4702,43 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>The height of the datum plane above sea level</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>The height of the datum plane above sea level</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4333,31 +4753,31 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
         <is>
           <t>Reference height</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>ontolidar:DatumFeature</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
@@ -4366,6 +4786,10 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4380,25 +4804,25 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
@@ -4409,6 +4833,10 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,10 @@
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +498,10 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,6 +541,10 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,6 +584,10 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -611,6 +627,10 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -650,6 +670,10 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -685,6 +709,10 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -720,6 +748,10 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -755,6 +787,10 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -790,6 +826,10 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -825,6 +865,10 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -860,6 +904,10 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -895,6 +943,10 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -930,6 +982,10 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -961,6 +1017,10 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -996,6 +1056,10 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1031,6 +1095,10 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1066,6 +1134,10 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1155,16 +1227,36 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>skos:editorialNote@de</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@it</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>skos:note@en</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>skos:note@de</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>skos:note@it</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1195,7 +1287,11 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Unità di misura per una quantità fisica o un parametro</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1212,6 +1308,10 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1234,7 +1334,11 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1251,6 +1355,10 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1273,7 +1381,11 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Wind field reconstruction</t>
@@ -1298,6 +1410,10 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1320,7 +1436,11 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>VAD</t>
@@ -1349,6 +1469,10 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1371,7 +1495,11 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1388,6 +1516,10 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1410,7 +1542,11 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1431,6 +1567,10 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1453,7 +1593,11 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Crossed RHI</t>
@@ -1478,6 +1622,10 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1504,7 +1652,11 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1525,6 +1677,10 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1547,7 +1703,11 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1572,6 +1732,10 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1594,7 +1758,11 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1619,6 +1787,10 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1641,7 +1813,11 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1666,6 +1842,10 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1688,7 +1868,11 @@
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1713,6 +1897,10 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1735,7 +1923,11 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1760,6 +1952,10 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1782,7 +1978,11 @@
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1807,6 +2007,10 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1829,7 +2033,11 @@
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1854,6 +2062,10 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1880,7 +2092,11 @@
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1901,6 +2117,10 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1923,7 +2143,11 @@
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1944,6 +2168,10 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1966,7 +2194,11 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Diametro ottico del telescopio del lidar.</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1991,6 +2223,10 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2013,7 +2249,11 @@
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
@@ -2038,6 +2278,10 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2060,7 +2304,11 @@
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2085,6 +2333,10 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2107,7 +2359,11 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2128,6 +2384,10 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2150,7 +2410,11 @@
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Fotosensore a semi-conduttori.</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2171,6 +2435,10 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2193,7 +2461,11 @@
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2214,6 +2486,10 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2236,7 +2512,11 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2257,6 +2537,10 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2279,7 +2563,11 @@
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>AOM</t>
@@ -2308,6 +2596,10 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2326,11 +2618,15 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An assembly to amplify the outgoing laser light signal without coverting it into an electrical signal.</t>
+          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2355,6 +2651,10 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2377,7 +2677,11 @@
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>beamsplitter</t>
@@ -2406,6 +2710,10 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2428,7 +2736,11 @@
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Un sistema di generazione e controllo della luce laser.</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2449,6 +2761,10 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2471,7 +2787,11 @@
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2492,6 +2812,10 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2514,7 +2838,11 @@
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2539,6 +2867,10 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2561,7 +2893,11 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2586,6 +2922,10 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2608,7 +2948,11 @@
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Gruppo di continuità (UPS).</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2629,6 +2973,10 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2651,7 +2999,11 @@
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2672,6 +3024,10 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2694,7 +3050,11 @@
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Il voltaggio della batteria (in unità di Volt).</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2719,6 +3079,10 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2741,7 +3105,11 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2766,6 +3134,10 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2788,7 +3160,11 @@
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2813,6 +3189,10 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2835,7 +3215,11 @@
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2856,6 +3240,10 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2878,7 +3266,11 @@
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2903,6 +3295,10 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2925,7 +3321,11 @@
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2946,6 +3346,10 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2968,7 +3372,11 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2993,6 +3401,10 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3015,7 +3427,11 @@
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3036,6 +3452,10 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3062,7 +3482,11 @@
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -3079,6 +3503,10 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3101,7 +3529,11 @@
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -3126,6 +3558,10 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3148,7 +3584,11 @@
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -3173,6 +3613,10 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3199,7 +3643,11 @@
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Esempi di lidar eolici.</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3216,6 +3664,10 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3238,7 +3690,11 @@
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Numero di serie del lidar.</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3259,6 +3715,10 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3281,7 +3741,11 @@
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Tipologia di lidar.</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -3306,6 +3770,10 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3328,7 +3796,11 @@
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -3345,6 +3817,10 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3367,7 +3843,11 @@
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3388,6 +3868,10 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3410,7 +3894,11 @@
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>TOF</t>
@@ -3435,6 +3923,10 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3457,7 +3949,11 @@
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3478,6 +3974,10 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3496,11 +3996,15 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>In the case of scanning lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
+          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3521,6 +4025,10 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3543,7 +4051,11 @@
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3564,6 +4076,10 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3586,7 +4102,11 @@
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>Radial wind speed</t>
@@ -3611,6 +4131,10 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3633,7 +4157,11 @@
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>Scan pattern</t>
@@ -3662,6 +4190,10 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3680,11 +4212,15 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Measurements made by a single lidar.</t>
+          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Misurazioni effettuate da un lidar singolo</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3709,6 +4245,10 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3731,7 +4271,11 @@
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3752,6 +4296,10 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3774,7 +4322,11 @@
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3795,6 +4347,10 @@
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3817,7 +4373,11 @@
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3838,6 +4398,10 @@
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3860,7 +4424,11 @@
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3885,6 +4453,10 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3907,7 +4479,11 @@
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3932,6 +4508,10 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3954,7 +4534,11 @@
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3975,6 +4559,10 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3997,7 +4585,11 @@
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>Plan-position indicator, PPI</t>
@@ -4022,6 +4614,10 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4044,7 +4640,11 @@
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>DBS</t>
@@ -4069,6 +4669,10 @@
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4091,7 +4695,11 @@
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -4116,6 +4724,10 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4138,7 +4750,11 @@
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>Range-height indicator, RHI</t>
@@ -4163,6 +4779,10 @@
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4181,7 +4801,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -4210,6 +4830,10 @@
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4232,7 +4856,11 @@
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -4253,6 +4881,10 @@
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4275,7 +4907,11 @@
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -4300,6 +4936,10 @@
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4322,7 +4962,11 @@
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>multilidar, multistatic</t>
@@ -4347,6 +4991,10 @@
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4369,7 +5017,11 @@
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>Convergent beam, convergent-beam lidar</t>
@@ -4394,6 +5046,10 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4416,7 +5072,11 @@
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Specifici parametri del lidar.</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -4433,6 +5093,10 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4455,7 +5119,11 @@
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>CNR</t>
@@ -4484,6 +5152,10 @@
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4506,7 +5178,11 @@
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>SNR</t>
@@ -4535,6 +5211,10 @@
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4557,7 +5237,11 @@
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>Azimuth angle</t>
@@ -4590,6 +5274,10 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4612,7 +5300,11 @@
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>Elevation angle</t>
@@ -4641,6 +5333,10 @@
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4663,7 +5359,11 @@
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4688,6 +5388,10 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4710,7 +5414,11 @@
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Altezza di un piano di riferimento sul livello del mare.</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4739,6 +5447,10 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4761,7 +5473,11 @@
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>Reference height</t>
@@ -4790,6 +5506,10 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4812,7 +5532,11 @@
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>Reference marker</t>
@@ -4837,6 +5561,10 @@
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -1270,7 +1270,11 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Unità</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>rdf:Property</t>
@@ -1325,7 +1329,11 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Analisi</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
@@ -1372,7 +1380,11 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ricostruzione del campo di vento</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
@@ -1486,7 +1498,11 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Applicazioni</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
@@ -1533,7 +1549,11 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Casi di uso</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
@@ -1584,7 +1604,11 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Torre meteorologica virtuale</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
@@ -1643,7 +1667,11 @@
           <t>Auslegung</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Struttura generale</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
@@ -1694,7 +1722,11 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Telaio</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
@@ -1749,7 +1781,11 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Componente di controllo</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
@@ -1804,7 +1840,11 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Componente di comunicazione</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
@@ -1859,7 +1899,11 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Componente di processamento dati</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
@@ -1914,7 +1958,11 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Componente di stoccaggio dati</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
@@ -1969,7 +2017,11 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Dispositivi di sicurezza</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
@@ -2024,7 +2076,11 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Componenti ottiche</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
@@ -2083,7 +2139,11 @@
           <t>Teleskop</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Telescopio</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
@@ -2134,7 +2194,11 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Apertura del telescopio</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
@@ -2185,7 +2249,11 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Diametro dell'apertura del telescopio</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
@@ -2240,7 +2308,11 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sistema di trasmissione del fascio</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
@@ -2295,7 +2367,11 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Componente fotonica</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
@@ -2350,7 +2426,11 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rilevatore</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
@@ -2401,7 +2481,11 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fotorivelatore</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
@@ -2452,7 +2536,11 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Guadagno del fotorivelatore</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
@@ -2503,7 +2591,11 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Rumore di tensione del fotorivelatore</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
@@ -2554,7 +2646,11 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Modulatore acusto-ottico</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
@@ -2613,7 +2709,11 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Amplificatore ottico</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
@@ -2668,7 +2768,11 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sdoppiatore ottico</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
@@ -2727,7 +2831,11 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sorgente laser</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
@@ -2778,7 +2886,11 @@
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Diodo laser</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
@@ -2829,7 +2941,11 @@
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Lunghezza d'onda del diodo laser</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
@@ -2884,7 +3000,11 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Componente di alimentazione</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
@@ -2939,7 +3059,11 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Gruppo di continuità (UPS)</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
@@ -2990,7 +3114,11 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Batteria dell'UPS</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
@@ -3041,7 +3169,11 @@
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Voltaggio della batteria dell'UPS</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
@@ -3096,7 +3228,11 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Capacità della batteria dell'UPS</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
@@ -3151,7 +3287,11 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Componente di scansione</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
@@ -3206,7 +3346,11 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Servomotore per la scansione nella direzione azimutale</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
@@ -3257,7 +3401,11 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Velocità massima azimutale</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
@@ -3312,7 +3460,11 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Servomotore per la scansione nella direzione di elevazione</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
@@ -3363,7 +3515,11 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Velocità massima di elevazione</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
@@ -3418,7 +3574,11 @@
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Specchi dello scanner</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
@@ -3473,7 +3633,11 @@
           <t>Geräte</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Strumenti lidar</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
@@ -3520,7 +3684,11 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Lidar "WindScanner"</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
@@ -3575,7 +3743,11 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Lidar "Wind Iris"</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
@@ -3634,7 +3806,11 @@
           <t>Instanzen</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Esempi di lidars</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
@@ -3681,7 +3857,11 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Numero seriale</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
@@ -3732,7 +3912,11 @@
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tipologia di lidar</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
@@ -3787,7 +3971,11 @@
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Principi di misurazione</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
@@ -3885,7 +4073,11 @@
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Tempo di volo</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
@@ -3940,7 +4132,11 @@
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Volume di misurazione</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
@@ -3991,7 +4187,11 @@
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Sonda</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
@@ -4042,7 +4242,11 @@
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Volume della sonda</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
@@ -4093,7 +4297,11 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Velocità radiale</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
@@ -4148,7 +4356,11 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Geometria di scansione</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
@@ -4207,7 +4419,11 @@
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Lidar singolo</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
@@ -4262,7 +4478,11 @@
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Geometria fissa</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
@@ -4313,7 +4533,11 @@
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Geometria "osserva da fisso"</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
@@ -4364,7 +4588,11 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Geometria "osserva in movimento"</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
@@ -4415,7 +4643,11 @@
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Scansione semplice</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
@@ -4470,7 +4702,11 @@
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Scansione ad azimut variabile</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
@@ -4525,7 +4761,11 @@
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Geometria a cono completo</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
@@ -4576,7 +4816,11 @@
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Geometria a settore di cono</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
@@ -4686,7 +4930,11 @@
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Geometria ad elevazione variabile</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
@@ -4741,7 +4989,11 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Geometria a taglio verticale</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
@@ -4847,7 +5099,11 @@
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Traiettoria arbitraria</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
@@ -4898,7 +5154,11 @@
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Scansione sequenziale</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
@@ -4953,7 +5213,11 @@
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Multi-lidar</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
@@ -5008,7 +5272,11 @@
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Scansione convergente</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
@@ -5063,7 +5331,11 @@
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Parametri</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
@@ -5228,7 +5500,11 @@
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Azimut</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
@@ -5291,7 +5567,11 @@
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Elevazione</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
@@ -5350,7 +5630,11 @@
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Altezza di misurazione</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
@@ -5405,7 +5689,11 @@
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Elevazione di riferimento</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
@@ -5464,7 +5752,11 @@
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Piano di riferimento</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
@@ -5523,7 +5815,11 @@
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Elemento di riferimento</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -1497,7 +1497,11 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Anwendungen</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Applicazioni</t>
@@ -2740,7 +2744,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier"</t>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -3683,10 +3687,14 @@
           <t>Windscanner</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Windscanner</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lidar "WindScanner"</t>
+          <t>Lidar 'WindScanner'</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3715,7 +3723,7 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Describing a wind lidar unit as "a windscanner" is insufficient information to uniquely describe it's capabilities.</t>
+          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -3742,10 +3750,14 @@
           <t>Wind Iris</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Wind Iris</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Lidar "Wind Iris"</t>
+          <t>Lidar 'Wind Iris'</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ontolidar:Signal modulation</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,12 +554,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>dc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
+          <t>http://purl.org/dc/elements/1.1/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -597,12 +597,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rdf</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+          <t>http://purl.org/dc/terms/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -640,12 +640,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rdfs</t>
+          <t>rdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2000/01/rdf-schema#</t>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -678,15 +678,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>rdfs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -717,12 +721,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>skos:editorialNote</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>This glossary is produced and maintained by IEA Wind Task 32.</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -756,12 +760,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>skos:historyNote</t>
+          <t>skos:editorialNote</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Suggestions for additions or changes should be made through the glossary repository at https://github.com/IEA-Wind-Task-32/wind-lidar-glossary.</t>
+          <t>This glossary is produced and maintained by IEA Wind Task 32.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -795,12 +799,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:historyNote</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
+          <t>Suggestions for additions or changes should be made through the glossary repository at https://github.com/IEA-Wind-Task-32/wind-lidar-glossary.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -834,12 +838,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title@en</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -873,12 +877,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description@en</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-9698-5083</t>
+          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -912,12 +916,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:title@de</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0002-9381-9693</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -951,12 +955,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description@de</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-1318-9677</t>
+          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -990,10 +994,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-9698-5083</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -1025,12 +1033,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>http://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1064,12 +1072,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020-11-06T00:00:00+01:00</t>
+          <t>https://orcid.org/0000-0003-1318-9677</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1103,14 +1111,10 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2021-01-13T00:00:00+01:00</t>
-        </is>
-      </c>
+          <t>dct:contributor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1142,114 +1146,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@de</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@it</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>rdfs:label</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>skos:definition@de</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>skos:definition@it</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>ontolidar:units</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@de</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@it</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>skos:note@de</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>skos:note@it</t>
-        </is>
-      </c>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
@@ -1261,41 +1185,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ontolidar:Units</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>2020-11-06T00:00:00+01:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Unità</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>rdf:Property</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>A unit for parameter or variable being defined.</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Unità di misura per una quantità fisica o un parametro</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1320,33 +1224,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ontolidar:Analysis</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>2021-01-13T00:00:00+01:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Analisi</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Ways that wind lidar data can be processed to extract useful data</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1371,54 +1263,114 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ontolidar:WindfieldReconstruction</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Windfield Reconstruction</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ricostruzione del campo di vento</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>skos:prefLabel@it</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
+          <t>skos:definition@it</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Wind field reconstruction</t>
+          <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ontolidar:Analysis</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ontolidar:units</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@de</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@it</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>skos:note@de</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>skos:note@it</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1430,49 +1382,49 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ontolidar:VelocityAzimuthDisplay</t>
+          <t>ontolidar:Units</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Velocity-azimuth display</t>
+          <t>units</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Unità</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>rdf:Property</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
+          <t>A unit for parameter or variable being defined.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>VAD</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ontolidar:WindfieldReconstruction</t>
-        </is>
-      </c>
+          <t>Unità di misura per una quantità fisica o un parametro</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1489,35 +1441,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:Analysis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Applications</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Anwendungen</t>
-        </is>
-      </c>
+          <t>Analysis</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Applicazioni</t>
+          <t>Analisi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ways that wind lidar can be used</t>
+          <t>Ways that wind lidar data can be processed to extract useful data</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
+          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1544,37 +1492,41 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ontolidar:UseCase</t>
+          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Use case</t>
+          <t>Windfield Reconstruction</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Casi di uso</t>
+          <t>Ricostruzione del campo di vento</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
+          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Wind field reconstruction</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:Analysis</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1599,41 +1551,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ontolidar:VirtualMetMast</t>
+          <t>ontolidar:VelocityAzimuthDisplay</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Virtual met mast</t>
+          <t>Velocity-azimuth display</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Torre meteorologica virtuale</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
+          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
+          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Crossed RHI</t>
+          <t>VAD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1641,7 +1589,11 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -1658,35 +1610,35 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Applications</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Auslegung</t>
+          <t>Anwendungen</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Struttura generale</t>
+          <t>Applicazioni</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Wind lidar generic design structure</t>
+          <t>Ways that wind lidar can be used</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
+          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1696,11 +1648,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -1717,37 +1665,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ontolidar:ChassisModule</t>
+          <t>ontolidar:UseCase</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chassis module</t>
+          <t>Use case</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Telaio</t>
+          <t>Casi di uso</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
+          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
+          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1755,11 +1703,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -1776,37 +1720,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:VirtualMetMast</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Control module</t>
+          <t>Virtual met mast</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Componente di controllo</t>
+          <t>Torre meteorologica virtuale</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
+          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Crossed RHI</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -1814,11 +1762,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -1835,39 +1779,39 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ontolidar:CommunicationsModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Communications module</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Auslegung</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Componente di comunicazione</t>
+          <t>Struttura generale</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
+          <t>Wind lidar generic design structure</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
+          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ontolidar:ControlModule</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -1894,37 +1838,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ontolidar:SignalProcessingModule</t>
+          <t>ontolidar:ChassisModule</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Signal processing module</t>
+          <t>Chassis module</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Componente di processamento dati</t>
+          <t>Telaio</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
+          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
+          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -1953,37 +1897,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ontolidar:StorageModule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Storage module</t>
+          <t>Control module</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Componente di stoccaggio dati</t>
+          <t>Componente di controllo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
+          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
+          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2012,37 +1956,37 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ontolidar:SafetyInterlocks</t>
+          <t>ontolidar:CommunicationsModule</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Safety interlocks</t>
+          <t>Communications module</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dispositivi di sicurezza</t>
+          <t>Componente di comunicazione</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
+          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
+          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2071,37 +2015,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>ontolidar:SignalProcessingModule</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optics module</t>
+          <t>Signal processing module</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Componenti ottiche</t>
+          <t>Componente di processamento dati</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
+          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
+          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2130,41 +2074,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>ontolidar:StorageModule</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Telescope</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Teleskop</t>
-        </is>
-      </c>
+          <t>Storage module</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Telescopio</t>
+          <t>Componente di stoccaggio dati</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
+          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
+          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2172,7 +2112,11 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2189,37 +2133,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
+          <t>ontolidar:SafetyInterlocks</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Telescope aperture</t>
+          <t>Safety interlocks</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Apertura del telescopio</t>
+          <t>Dispositivi di sicurezza</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>The aperture through which laser light is emitted and received</t>
+          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
+          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2227,7 +2171,11 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2244,49 +2192,49 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeApertureDiameter</t>
+          <t>ontolidar:OpticsModule</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Telescope aperture diameter</t>
+          <t>Optics module</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Diametro dell'apertura del telescopio</t>
+          <t>Componenti ottiche</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Characteristic optical diameter of the lidar telescope</t>
+          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Diametro ottico del telescopio del lidar.</t>
+          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2303,49 +2251,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ontolidar:All-fiberLidar</t>
+          <t>ontolidar:Telescope</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Beam transmission system</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>Telescope</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Teleskop</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del fascio</t>
+          <t>Telescopio</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>All-fiber transmission Lidar system</t>
+          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
+          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ontolidar:OpticsModule</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>True if lidar is all-fiber</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2362,37 +2310,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:TelescopeAperture</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Photonics module</t>
+          <t>Telescope aperture</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Componente fotonica</t>
+          <t>Apertura del telescopio</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
+          <t>The aperture through which laser light is emitted and received</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
+          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:Telescope</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2400,11 +2348,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -2421,40 +2365,44 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:TelescopeApertureDiameter</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Detector</t>
+          <t>Telescope aperture diameter</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rilevatore</t>
+          <t>Diametro dell'apertura del telescopio</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>An assembly to gather and detect incident light</t>
+          <t>Characteristic optical diameter of the lidar telescope</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
+          <t>Diametro ottico del telescopio del lidar.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>ontolidar:TelescopeAperture</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2476,45 +2424,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ontolidar:Photodetector</t>
+          <t>ontolidar:All-fiberLidar</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Photodetector</t>
+          <t>Beam transmission system</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fotorivelatore</t>
+          <t>Sistema di trasmissione del fascio</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Semiconductor light sensor.</t>
+          <t>All-fiber transmission Lidar system</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Fotosensore a semi-conduttori.</t>
+          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ontolidar:Detector</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>True if lidar is all-fiber</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -2531,37 +2483,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorGain</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Photodetector gain</t>
+          <t>Photonics module</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Guadagno del fotorivelatore</t>
+          <t>Componente fotonica</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>The gain of the photodetector transimpedance amplifier.</t>
+          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2569,7 +2521,11 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -2586,37 +2542,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorVoltageNoise</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Photodetector voltage noise</t>
+          <t>Detector</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rumore di tensione del fotorivelatore</t>
+          <t>Rilevatore</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
+          <t>An assembly to gather and detect incident light</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2641,41 +2597,37 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ontolidar:AcoustoOpticModulator</t>
+          <t>ontolidar:Photodetector</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Acousto optic modulator</t>
+          <t>Photodetector</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Modulatore acusto-ottico</t>
+          <t>Fotorivelatore</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
+          <t>Semiconductor light sensor.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>AOM</t>
-        </is>
-      </c>
+          <t>Fotosensore a semi-conduttori.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2683,11 +2635,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Only pulsed lidar</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -2704,37 +2652,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ontolidar:OpticalAmplifier</t>
+          <t>ontolidar:PhotodetectorGain</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Optical amplifier</t>
+          <t>Photodetector gain</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Amplificatore ottico</t>
+          <t>Guadagno del fotorivelatore</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
+          <t>The gain of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
+          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -2742,11 +2690,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -2763,41 +2707,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ontolidar:BeamSplitter</t>
+          <t>ontolidar:PhotodetectorVoltageNoise</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beam splitter </t>
+          <t>Photodetector voltage noise</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sdoppiatore ottico</t>
+          <t>Rumore di tensione del fotorivelatore</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>An optical assembly to split a laser beam into two or more beams.</t>
+          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>beamsplitter</t>
-        </is>
-      </c>
+          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -2805,11 +2745,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -2826,34 +2762,38 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:AcoustoOpticModulator</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Laser source</t>
+          <t>Acousto optic modulator</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sorgente laser</t>
+          <t>Modulatore acusto-ottico</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>An assembly to generate and manage laser light.</t>
+          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Un sistema di generazione e controllo della luce laser.</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>AOM</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>ontolidar:PhotonicsModule</t>
@@ -2864,7 +2804,11 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Only pulsed lidar</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -2881,37 +2825,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
+          <t>ontolidar:OpticalAmplifier</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Laser diode</t>
+          <t>Optical amplifier</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Diodo laser</t>
+          <t>Amplificatore ottico</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A semiconductor component to generate laser light of a defined frequency.</t>
+          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
+          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -2919,7 +2863,11 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -2936,49 +2884,53 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiodeWavelength</t>
+          <t>ontolidar:BeamSplitter</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Laser diode wavelength</t>
+          <t xml:space="preserve">Beam splitter </t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lunghezza d'onda del diodo laser</t>
+          <t>Sdoppiatore ottico</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
+          <t>An optical assembly to split a laser beam into two or more beams.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>beamsplitter</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -2995,37 +2947,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Power module</t>
+          <t>Laser source</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Componente di alimentazione</t>
+          <t>Sorgente laser</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
+          <t>An assembly to generate and manage laser light.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
+          <t>Un sistema di generazione e controllo della luce laser.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3033,11 +2985,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -3054,37 +3002,37 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptiblePowerSupply</t>
+          <t>ontolidar:LaserDiode</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply</t>
+          <t>Laser diode</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS)</t>
+          <t>Diodo laser</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply (UPS)</t>
+          <t>A semiconductor component to generate laser light of a defined frequency.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS).</t>
+          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3109,40 +3057,44 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
+          <t>ontolidar:LaserDiodeWavelength</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UPS Battery</t>
+          <t>Laser diode wavelength</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Batteria dell'UPS</t>
+          <t>Lunghezza d'onda del diodo laser</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>An energy storage component</t>
+          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
+          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptablePowerSupply</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>ontolidar:LaserDiode</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -3164,49 +3116,49 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryVoltage</t>
+          <t>ontolidar:PowerModule</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>UPS battery voltage</t>
+          <t>Power module</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Voltaggio della batteria dell'UPS</t>
+          <t>Componente di alimentazione</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>The battery voltage. Units are Volts.</t>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Il voltaggio della batteria (in unità di Volt).</t>
+          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>volts</t>
-        </is>
-      </c>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -3223,44 +3175,40 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryCapacity</t>
+          <t>ontolidar:UninterruptiblePowerSupply</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>UPS battery capacity</t>
+          <t>Uninterruptible power supply</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Capacità della batteria dell'UPS</t>
+          <t>Gruppo di continuità (UPS)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
+          <t>Uninterruptible power supply (UPS)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
+          <t>Gruppo di continuità (UPS).</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Amp hours</t>
-        </is>
-      </c>
+          <t>ontolidar:PowerModule</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -3282,37 +3230,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Scanner module</t>
+          <t>UPS Battery</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Componente di scansione</t>
+          <t>Batteria dell'UPS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
+          <t>An energy storage component</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
+          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:UninterruptablePowerSupply</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3320,11 +3268,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -3341,40 +3285,44 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+          <t>ontolidar:UpsBatteryVoltage</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Scanner azimuth positioning servo</t>
+          <t>UPS battery voltage</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione azimutale</t>
+          <t>Voltaggio della batteria dell'UPS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
+          <t>The battery voltage. Units are Volts.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
+          <t>Il voltaggio della batteria (in unità di Volt).</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>volts</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3396,42 +3344,42 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ontolidar:AzimuthSlewRate</t>
+          <t>ontolidar:UpsBatteryCapacity</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Azimuth slew rate</t>
+          <t>UPS battery capacity</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Velocità massima azimutale</t>
+          <t>Capacità della batteria dell'UPS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
+          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
+          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>degrees per second</t>
+          <t>Amp hours</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -3455,37 +3403,37 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Scanner elevation positioning servo</t>
+          <t>Scanner module</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione di elevazione</t>
+          <t>Componente di scansione</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
+          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
+          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3493,7 +3441,11 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -3510,44 +3462,40 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ontolidar:ElevationSlewRate</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Elevation slew rate</t>
+          <t>Scanner azimuth positioning servo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Velocità massima di elevazione</t>
+          <t>Servomotore per la scansione nella direzione azimutale</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
+          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
+          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3569,40 +3517,44 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerMirrors</t>
+          <t>ontolidar:AzimuthSlewRate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Scanner mirrors</t>
+          <t>Azimuth slew rate</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Specchi dello scanner</t>
+          <t>Velocità massima azimutale</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
+          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3624,39 +3576,39 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Devices</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Geräte</t>
-        </is>
-      </c>
+          <t>Scanner elevation positioning servo</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Strumenti lidar</t>
+          <t>Servomotore per la scansione nella direzione di elevazione</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Specific implementations of wind lidar technologies.</t>
+          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
+          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3679,53 +3631,49 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ontolidar:Windscanner</t>
+          <t>ontolidar:ElevationSlewRate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
+          <t>Elevation slew rate</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lidar 'WindScanner'</t>
+          <t>Velocità massima di elevazione</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
+          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
+          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -3742,41 +3690,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ontolidar:WindIris</t>
+          <t>ontolidar:ScannerMirrors</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wind Iris</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Wind Iris</t>
-        </is>
-      </c>
+          <t>Scanner mirrors</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Lidar 'Wind Iris'</t>
+          <t>Specchi dello scanner</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
+          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
+          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3784,11 +3728,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -3805,35 +3745,35 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Instances</t>
+          <t>Devices</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Instanzen</t>
+          <t>Geräte</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Esempi di lidars</t>
+          <t>Strumenti lidar</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Wind lidar instances</t>
+          <t>Specific implementations of wind lidar technologies.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Esempi di lidar eolici.</t>
+          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3860,37 +3800,41 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ontolidar:SerialNumber</t>
+          <t>ontolidar:Windscanner</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Serial number</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>Windscanner</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Windscanner</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Numero seriale</t>
+          <t>Lidar 'WindScanner'</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>wind lidar serial number</t>
+          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Numero di serie del lidar.</t>
+          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3898,7 +3842,11 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -3915,49 +3863,53 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ontolidar:LidarType</t>
+          <t>ontolidar:WindIris</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lidar type</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Wind Iris</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wind Iris</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tipologia di lidar</t>
+          <t>Lidar 'Wind Iris'</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>The type of lidar device</t>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Tipologia di lidar.</t>
+          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -3974,31 +3926,35 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Measurement principles</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Instances</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Instanzen</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Principi di misurazione</t>
+          <t>Esempi di lidars</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>The means by which a lidar makes a measurement of the wind</t>
+          <t>Wind lidar instances</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+          <t>Esempi di lidar eolici.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -4025,33 +3981,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ontolidar:LineOfSight</t>
+          <t>ontolidar:SerialNumber</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Line of sight</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Numero seriale</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
+          <t>wind lidar serial number</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+          <t>Numero di serie del lidar.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4076,45 +4036,45 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ontolidar:TimeOfFlight</t>
+          <t>ontolidar:LidarType</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Time of flight</t>
+          <t>Lidar type</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tempo di volo</t>
+          <t>Tipologia di lidar</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
+          <t>The type of lidar device</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>TOF</t>
-        </is>
-      </c>
+          <t>Tipologia di lidar.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -4135,39 +4095,35 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementVolume</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Measurement volume</t>
+          <t>Measurement principles</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Volume di misurazione</t>
+          <t>Principi di misurazione</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
+          <t>The means by which a lidar makes a measurement of the wind</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4190,31 +4146,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Probe</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Sonda</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -4245,37 +4197,41 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ontolidar:ProbeVolume</t>
+          <t>ontolidar:TimeOfFlight</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Probe volume</t>
+          <t>Time of flight</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Volume della sonda</t>
+          <t>Tempo di volo</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
+          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -4300,38 +4256,34 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ontolidar:RadialVelocity</t>
+          <t>ontolidar:MeasurementVolume</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Radial velocity</t>
+          <t>Measurement volume</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Velocità radiale</t>
+          <t>Volume di misurazione</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Radial wind speed</t>
-        </is>
-      </c>
+          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -4359,38 +4311,34 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Scanning geometry</t>
+          <t>Probe</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Geometria di scansione</t>
+          <t>Sonda</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
+          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Scan pattern</t>
-        </is>
-      </c>
+          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -4401,11 +4349,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -4422,37 +4366,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Single lidar</t>
+          <t>Probe volume</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Lidar singolo</t>
+          <t>Volume della sonda</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Misurazioni effettuate da un lidar singolo</t>
+          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4460,11 +4404,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -4481,37 +4421,41 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ontolidar:Staring</t>
+          <t>ontolidar:RadialVelocity</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Staring</t>
+          <t>Radial velocity</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Geometria fissa</t>
+          <t>Velocità radiale</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>A scan geometry comprised of a single beam orientation.</t>
+          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Radial wind speed</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4536,37 +4480,41 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ontolidar:StopStare</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Stop-stare</t>
+          <t>Scanning geometry</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Geometria "osserva da fisso"</t>
+          <t>Geometria di scansione</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
+          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Scan pattern</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4574,7 +4522,11 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -4591,37 +4543,37 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ontolidar:SweepStare</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sweep-stare</t>
+          <t>Single lidar</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Geometria "osserva in movimento"</t>
+          <t>Lidar singolo</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
+          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
+          <t>Misurazioni effettuate da un lidar singolo</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
@@ -4629,7 +4581,11 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -4646,31 +4602,31 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:Staring</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Simple scan</t>
+          <t>Staring</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Scansione semplice</t>
+          <t>Geometria fissa</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
+          <t>A scan geometry comprised of a single beam orientation.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4684,11 +4640,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -4705,37 +4657,37 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:StopStare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Variable azimuth scan</t>
+          <t>Stop-stare</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Scansione ad azimut variabile</t>
+          <t>Geometria "osserva da fisso"</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable azimuth angle</t>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -4743,11 +4695,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -4764,37 +4712,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ontolidar:CompleteCone</t>
+          <t>ontolidar:SweepStare</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Complete cone</t>
+          <t>Sweep-stare</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Geometria a cono completo</t>
+          <t>Geometria "osserva in movimento"</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -4819,41 +4767,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ontolidar:ConeSector</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cone sector</t>
+          <t>Simple scan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Geometria a settore di cono</t>
+          <t>Scansione semplice</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Plan-position indicator, PPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -4861,7 +4805,11 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -4878,37 +4826,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ontolidar:DopplerBeamSwinging</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Doppler beam swinging</t>
+          <t>Variable azimuth scan</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Scansione ad azimut variabile</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A simple scan geometry with variable azimuth angle</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>DBS</t>
-        </is>
-      </c>
+          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -4916,7 +4864,11 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -4933,37 +4885,37 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevation</t>
+          <t>ontolidar:CompleteCone</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Variable elevation</t>
+          <t>Complete cone</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Geometria ad elevazione variabile</t>
+          <t>Geometria a cono completo</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable elevation angle</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
@@ -4971,11 +4923,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -4992,41 +4940,41 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ontolidar:VerticalSlice</t>
+          <t>ontolidar:ConeSector</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Vertical slice</t>
+          <t>Cone sector</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Geometria a taglio verticale</t>
+          <t>Geometria a settore di cono</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Range-height indicator, RHI</t>
+          <t>Plan-position indicator, PPI</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevationScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -5051,12 +4999,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:DopplerBeamSwinging</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Compound scan</t>
+          <t>Doppler beam swinging</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -5065,15 +5013,23 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
@@ -5081,11 +5037,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -5102,37 +5054,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ontolidar:ArbitraryTrajectory</t>
+          <t>ontolidar:VariableElevation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Arbitrary trajectory</t>
+          <t>Variable elevation</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Traiettoria arbitraria</t>
+          <t>Geometria ad elevazione variabile</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
+          <t>A simple scan geometry with variable elevation angle</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
+          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
@@ -5140,7 +5092,11 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -5157,37 +5113,41 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ontolidar:SequentialScan</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sequential scan</t>
+          <t>Vertical slice</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Scansione sequenziale</t>
+          <t>Geometria a taglio verticale</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
@@ -5195,11 +5155,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -5216,41 +5172,29 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Compound scan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Multi-lidar</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
+          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>multilidar, multistatic</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
@@ -5258,7 +5202,11 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -5275,41 +5223,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ontolidar:ConvergentScan</t>
+          <t>ontolidar:ArbitraryTrajectory</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Convergent scan</t>
+          <t>Arbitrary trajectory</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Scansione convergente</t>
+          <t>Traiettoria arbitraria</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
+          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
@@ -5334,41 +5278,49 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Sequential scan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Parametri</t>
+          <t>Scansione sequenziale</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Wind lidar-specific parameters.</t>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Specifici parametri del lidar.</t>
+          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ontolidar:CompoundScan</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -5385,37 +5337,41 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ontolidar:CarrierToNoiseRatio</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Carrier to noise ratio</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Multi-lidar</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>CNR</t>
+          <t>multilidar, multistatic</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="L92" t="inlineStr"/>
@@ -5423,11 +5379,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>Often used interchangably with SNR</t>
-        </is>
-      </c>
+      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -5444,37 +5396,41 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ontolidar:SignalToNoiseRatio</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Signal to noise ratio</t>
+          <t>Convergent scan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Scansione convergente</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>SNR</t>
+          <t>Convergent beam, convergent-beam lidar</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -5482,11 +5438,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR</t>
-        </is>
-      </c>
+      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
@@ -5503,57 +5455,41 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ontolidar:Azimuth</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Azimuth</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Azimut</t>
+          <t>Parametri</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
+          <t>Wind lidar-specific parameters.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Azimuth angle</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+          <t>Specifici parametri del lidar.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
-        </is>
-      </c>
+      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
@@ -5570,36 +5506,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ontolidar:Elevation</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Elevation</t>
+          <t>Carrier to noise ratio</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Elevazione</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Elevation angle</t>
+          <t>CNR</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5607,16 +5539,16 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Often used interchangably with SNR</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
@@ -5633,49 +5565,49 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementHeight</t>
+          <t>ontolidar:SignalToNoiseRatio</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Signal to noise ratio</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Altezza di misurazione</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Often used interchangably with CNR</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -5692,34 +5624,38 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ontolidar:DatumElevation</t>
+          <t>ontolidar:Azimuth</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Azimuth</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Elevazione di riferimento</t>
+          <t>Azimut</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>The height of the datum plane above sea level</t>
+          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Altezza di un piano di riferimento sul livello del mare.</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Azimuth angle</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -5727,7 +5663,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5736,7 +5672,7 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -5755,36 +5691,36 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ontolidar:DatumPlane</t>
+          <t>ontolidar:Elevation</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Piano di riferimento</t>
+          <t>Elevazione</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+          <t>The angle between the line of sight of the lidar and the datum plane.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
+          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Reference height</t>
+          <t>Elevation angle</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5792,12 +5728,12 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>ontolidar:DatumFeature</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
@@ -5818,44 +5754,44 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Measurement height</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Elemento di riferimento</t>
+          <t>Altezza di misurazione</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
+          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -5874,6 +5810,191 @@
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumElevation</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Datum elevation</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Elevazione di riferimento</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>The height of the datum plane above sea level</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Altezza di un piano di riferimento sul livello del mare.</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumPlane</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Datum plane</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Piano di riferimento</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Elemento di riferimento</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,12 +1146,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>skosmos:defaultLanguage</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1185,12 +1185,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>skosmos:language</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020-11-06T00:00:00+01:00</t>
+          <t>EN, DE, IT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-01-13T00:00:00+01:00</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1263,114 +1263,34 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@de</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@it</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>rdfs:label</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>skos:definition@de</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>skos:definition@it</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>ontolidar:units</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@de</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@it</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>skos:note@de</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>skos:note@it</t>
-        </is>
-      </c>
+          <t>2020-11-06T00:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1382,41 +1302,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ontolidar:Units</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>2021-01-13T00:00:00+01:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Unità</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>rdf:Property</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>A unit for parameter or variable being defined.</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Unità di misura per una quantità fisica o un parametro</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1441,46 +1341,114 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ontolidar:Analysis</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Analysis</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Analisi</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>skos:prefLabel@it</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ways that wind lidar data can be processed to extract useful data</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+          <t>skos:definition@it</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ontolidar:units</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@de</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@it</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>skos:note@de</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>skos:note@it</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1492,43 +1460,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ontolidar:WindfieldReconstruction</t>
+          <t>ontolidar:Units</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Windfield Reconstruction</t>
+          <t>units</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ricostruzione del campo di vento</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>Unità</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>rdf:Property</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
+          <t>A unit for parameter or variable being defined.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Wind field reconstruction</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ontolidar:Analysis</t>
-        </is>
-      </c>
+          <t>Unità di misura per una quantità fisica o un parametro</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1551,49 +1519,41 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ontolidar:VelocityAzimuthDisplay</t>
+          <t>ontolidar:Analysis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Velocity-azimuth display</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Analisi</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
+          <t>Ways that wind lidar data can be processed to extract useful data</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>VAD</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ontolidar:WindfieldReconstruction</t>
-        </is>
-      </c>
+          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -1610,39 +1570,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Applications</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Anwendungen</t>
-        </is>
-      </c>
+          <t>Windfield Reconstruction</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Applicazioni</t>
+          <t>Ricostruzione del campo di vento</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ways that wind lidar can be used</t>
+          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Wind field reconstruction</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ontolidar:Analysis</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1665,37 +1629,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ontolidar:UseCase</t>
+          <t>ontolidar:VelocityAzimuthDisplay</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Use case</t>
+          <t>Velocity-azimuth display</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Casi di uso</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
+          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VAD</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1703,7 +1667,11 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -1720,43 +1688,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ontolidar:VirtualMetMast</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Virtual met mast</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Anwendungen</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Torre meteorologica virtuale</t>
+          <t>Applicazioni</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
+          <t>Ways that wind lidar can be used</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Crossed RHI</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ontolidar:Applications</t>
-        </is>
-      </c>
+          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -1779,49 +1743,45 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:UseCase</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Design</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Auslegung</t>
-        </is>
-      </c>
+          <t>Use case</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Struttura generale</t>
+          <t>Casi di uso</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Wind lidar generic design structure</t>
+          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
+          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -1838,37 +1798,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ontolidar:ChassisModule</t>
+          <t>ontolidar:VirtualMetMast</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chassis module</t>
+          <t>Virtual met mast</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Telaio</t>
+          <t>Torre meteorologica virtuale</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
+          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Crossed RHI</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -1876,11 +1840,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -1897,39 +1857,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Control module</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Auslegung</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Componente di controllo</t>
+          <t>Struttura generale</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
+          <t>Wind lidar generic design structure</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
+          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -1956,37 +1916,37 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ontolidar:CommunicationsModule</t>
+          <t>ontolidar:ChassisModule</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Communications module</t>
+          <t>Chassis module</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Componente di comunicazione</t>
+          <t>Telaio</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
+          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
+          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2015,37 +1975,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ontolidar:SignalProcessingModule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Signal processing module</t>
+          <t>Control module</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Componente di processamento dati</t>
+          <t>Componente di controllo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
+          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
+          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2074,31 +2034,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ontolidar:StorageModule</t>
+          <t>ontolidar:CommunicationsModule</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Storage module</t>
+          <t>Communications module</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Componente di stoccaggio dati</t>
+          <t>Componente di comunicazione</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
+          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
+          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2133,37 +2093,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ontolidar:SafetyInterlocks</t>
+          <t>ontolidar:SignalProcessingModule</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Safety interlocks</t>
+          <t>Signal processing module</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dispositivi di sicurezza</t>
+          <t>Componente di processamento dati</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
+          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
+          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2192,37 +2152,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>ontolidar:StorageModule</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Optics module</t>
+          <t>Storage module</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Componenti ottiche</t>
+          <t>Componente di stoccaggio dati</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
+          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
+          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -2251,41 +2211,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>ontolidar:SafetyInterlocks</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Telescope</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Teleskop</t>
-        </is>
-      </c>
+          <t>Safety interlocks</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Telescopio</t>
+          <t>Dispositivi di sicurezza</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
+          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
+          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2293,7 +2249,11 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2310,37 +2270,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
+          <t>ontolidar:OpticsModule</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Telescope aperture</t>
+          <t>Optics module</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Apertura del telescopio</t>
+          <t>Componenti ottiche</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>The aperture through which laser light is emitted and received</t>
+          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
+          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2348,7 +2308,11 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -2365,44 +2329,44 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeApertureDiameter</t>
+          <t>ontolidar:Telescope</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Telescope aperture diameter</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>Telescope</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Teleskop</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Diametro dell'apertura del telescopio</t>
+          <t>Telescopio</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Characteristic optical diameter of the lidar telescope</t>
+          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Diametro ottico del telescopio del lidar.</t>
+          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>ontolidar:OpticsModule</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2424,49 +2388,45 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ontolidar:All-fiberLidar</t>
+          <t>ontolidar:TelescopeAperture</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Beam transmission system</t>
+          <t>Telescope aperture</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del fascio</t>
+          <t>Apertura del telescopio</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>All-fiber transmission Lidar system</t>
+          <t>The aperture through which laser light is emitted and received</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
+          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ontolidar:Telescope</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>True if lidar is all-fiber</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -2483,49 +2443,49 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:TelescopeApertureDiameter</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Photonics module</t>
+          <t>Telescope aperture diameter</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Componente fotonica</t>
+          <t>Diametro dell'apertura del telescopio</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
+          <t>Characteristic optical diameter of the lidar telescope</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
+          <t>Diametro ottico del telescopio del lidar.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>ontolidar:TelescopeAperture</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -2542,45 +2502,49 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:All-fiberLidar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Detector</t>
+          <t>Beam transmission system</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rilevatore</t>
+          <t>Sistema di trasmissione del fascio</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>An assembly to gather and detect incident light</t>
+          <t>All-fiber transmission Lidar system</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
+          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ontolidar:PhotonicsModule</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>True if lidar is all-fiber</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -2597,37 +2561,37 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ontolidar:Photodetector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Photodetector</t>
+          <t>Photonics module</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fotorivelatore</t>
+          <t>Componente fotonica</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Semiconductor light sensor.</t>
+          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Fotosensore a semi-conduttori.</t>
+          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2635,7 +2599,11 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -2652,37 +2620,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorGain</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Photodetector gain</t>
+          <t>Detector</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Guadagno del fotorivelatore</t>
+          <t>Rilevatore</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>The gain of the photodetector transimpedance amplifier.</t>
+          <t>An assembly to gather and detect incident light</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -2707,37 +2675,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorVoltageNoise</t>
+          <t>ontolidar:Photodetector</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Photodetector voltage noise</t>
+          <t>Photodetector</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rumore di tensione del fotorivelatore</t>
+          <t>Fotorivelatore</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
+          <t>Semiconductor light sensor.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t>Fotosensore a semi-conduttori.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -2762,41 +2730,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ontolidar:AcoustoOpticModulator</t>
+          <t>ontolidar:PhotodetectorGain</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Acousto optic modulator</t>
+          <t>Photodetector gain</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Modulatore acusto-ottico</t>
+          <t>Guadagno del fotorivelatore</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
+          <t>The gain of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>AOM</t>
-        </is>
-      </c>
+          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -2804,11 +2768,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Only pulsed lidar</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -2825,37 +2785,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ontolidar:OpticalAmplifier</t>
+          <t>ontolidar:PhotodetectorVoltageNoise</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Optical amplifier</t>
+          <t>Photodetector voltage noise</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Amplificatore ottico</t>
+          <t>Rumore di tensione del fotorivelatore</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
+          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
+          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -2863,11 +2823,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -2884,41 +2840,41 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ontolidar:BeamSplitter</t>
+          <t>ontolidar:AcoustoOpticModulator</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beam splitter </t>
+          <t>Acousto optic modulator</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sdoppiatore ottico</t>
+          <t>Modulatore acusto-ottico</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>An optical assembly to split a laser beam into two or more beams.</t>
+          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
+          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>beamsplitter</t>
+          <t>AOM</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -2928,7 +2884,7 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+          <t>Only pulsed lidar</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -2947,37 +2903,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:OpticalAmplifier</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Laser source</t>
+          <t>Optical amplifier</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sorgente laser</t>
+          <t>Amplificatore ottico</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>An assembly to generate and manage laser light.</t>
+          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Un sistema di generazione e controllo della luce laser.</t>
+          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -2985,7 +2941,11 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -3002,37 +2962,41 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
+          <t>ontolidar:BeamSplitter</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Laser diode</t>
+          <t xml:space="preserve">Beam splitter </t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Diodo laser</t>
+          <t>Sdoppiatore ottico</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A semiconductor component to generate laser light of a defined frequency.</t>
+          <t>An optical assembly to split a laser beam into two or more beams.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>beamsplitter</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3040,7 +3004,11 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -3057,44 +3025,40 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiodeWavelength</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Laser diode wavelength</t>
+          <t>Laser source</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Lunghezza d'onda del diodo laser</t>
+          <t>Sorgente laser</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
+          <t>An assembly to generate and manage laser light.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
+          <t>Un sistema di generazione e controllo della luce laser.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -3116,37 +3080,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
+          <t>ontolidar:LaserDiode</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Power module</t>
+          <t>Laser diode</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Componente di alimentazione</t>
+          <t>Diodo laser</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
+          <t>A semiconductor component to generate laser light of a defined frequency.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
+          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3154,11 +3118,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -3175,40 +3135,44 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptiblePowerSupply</t>
+          <t>ontolidar:LaserDiodeWavelength</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply</t>
+          <t>Laser diode wavelength</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS)</t>
+          <t>Lunghezza d'onda del diodo laser</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply (UPS)</t>
+          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS).</t>
+          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>ontolidar:LaserDiode</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -3230,37 +3194,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
+          <t>ontolidar:PowerModule</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>UPS Battery</t>
+          <t>Power module</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Batteria dell'UPS</t>
+          <t>Componente di alimentazione</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>An energy storage component</t>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
+          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptablePowerSupply</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3268,7 +3232,11 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -3285,44 +3253,40 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryVoltage</t>
+          <t>ontolidar:UninterruptiblePowerSupply</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>UPS battery voltage</t>
+          <t>Uninterruptible power supply</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Voltaggio della batteria dell'UPS</t>
+          <t>Gruppo di continuità (UPS)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>The battery voltage. Units are Volts.</t>
+          <t>Uninterruptible power supply (UPS)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Il voltaggio della batteria (in unità di Volt).</t>
+          <t>Gruppo di continuità (UPS).</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>volts</t>
-        </is>
-      </c>
+          <t>ontolidar:PowerModule</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3344,44 +3308,40 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryCapacity</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UPS battery capacity</t>
+          <t>UPS Battery</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Capacità della batteria dell'UPS</t>
+          <t>Batteria dell'UPS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
+          <t>An energy storage component</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
+          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Amp hours</t>
-        </is>
-      </c>
+          <t>ontolidar:UninterruptablePowerSupply</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -3403,49 +3363,49 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>ontolidar:UpsBatteryVoltage</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Scanner module</t>
+          <t>UPS battery voltage</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Componente di scansione</t>
+          <t>Voltaggio della batteria dell'UPS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
+          <t>The battery voltage. Units are Volts.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
+          <t>Il voltaggio della batteria (in unità di Volt).</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>volts</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -3462,40 +3422,44 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+          <t>ontolidar:UpsBatteryCapacity</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Scanner azimuth positioning servo</t>
+          <t>UPS battery capacity</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione azimutale</t>
+          <t>Capacità della batteria dell'UPS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
+          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
+          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Amp hours</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3517,49 +3481,49 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ontolidar:AzimuthSlewRate</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Azimuth slew rate</t>
+          <t>Scanner module</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Velocità massima azimutale</t>
+          <t>Componente di scansione</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
+          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
+          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -3576,31 +3540,31 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Scanner elevation positioning servo</t>
+          <t>Scanner azimuth positioning servo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione di elevazione</t>
+          <t>Servomotore per la scansione nella direzione azimutale</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
+          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
+          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3631,37 +3595,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ontolidar:ElevationSlewRate</t>
+          <t>ontolidar:AzimuthSlewRate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Elevation slew rate</t>
+          <t>Azimuth slew rate</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Velocità massima di elevazione</t>
+          <t>Velocità massima azimutale</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
+          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3690,31 +3654,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerMirrors</t>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Scanner mirrors</t>
+          <t>Scanner elevation positioning servo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Specchi dello scanner</t>
+          <t>Servomotore per la scansione nella direzione di elevazione</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
+          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
+          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3745,40 +3709,44 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ElevationSlewRate</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Devices</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Geräte</t>
-        </is>
-      </c>
+          <t>Elevation slew rate</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Strumenti lidar</t>
+          <t>Velocità massima di elevazione</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Specific implementations of wind lidar technologies.</t>
+          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
+          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3800,41 +3768,37 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ontolidar:Windscanner</t>
+          <t>ontolidar:ScannerMirrors</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
+          <t>Scanner mirrors</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lidar 'WindScanner'</t>
+          <t>Specchi dello scanner</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
+          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
+          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3842,11 +3806,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -3863,53 +3823,45 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ontolidar:WindIris</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wind Iris</t>
+          <t>Devices</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wind Iris</t>
+          <t>Geräte</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Lidar 'Wind Iris'</t>
+          <t>Strumenti lidar</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
+          <t>Specific implementations of wind lidar technologies.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
+          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -3926,45 +3878,53 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Windscanner</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Instances</t>
+          <t>Windscanner</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Instanzen</t>
+          <t>Windscanner</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Esempi di lidars</t>
+          <t>Lidar 'WindScanner'</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Wind lidar instances</t>
+          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Esempi di lidar eolici.</t>
+          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -3981,37 +3941,41 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ontolidar:SerialNumber</t>
+          <t>ontolidar:WindIris</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Serial number</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>Wind Iris</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wind Iris</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Numero seriale</t>
+          <t>Lidar 'Wind Iris'</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>wind lidar serial number</t>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Numero di serie del lidar.</t>
+          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4019,7 +3983,11 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -4036,45 +4004,41 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ontolidar:LidarType</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lidar type</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>Instances</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Instanzen</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tipologia di lidar</t>
+          <t>Esempi di lidars</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>The type of lidar device</t>
+          <t>Wind lidar instances</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Tipologia di lidar.</t>
+          <t>Esempi di lidar eolici.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ontolidar:Instances</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -4095,35 +4059,39 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:SerialNumber</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Measurement principles</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Principi di misurazione</t>
+          <t>Numero seriale</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>The means by which a lidar makes a measurement of the wind</t>
+          <t>wind lidar serial number</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+          <t>Numero di serie del lidar.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ontolidar:Instances</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4146,37 +4114,45 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ontolidar:LineOfSight</t>
+          <t>ontolidar:LidarType</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Line of sight</t>
+          <t>Lidar type</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Tipologia di lidar</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
+          <t>The type of lidar device</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+          <t>Tipologia di lidar.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -4197,43 +4173,35 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ontolidar:TimeOfFlight</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Time of flight</t>
+          <t>Measurement principles</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tempo di volo</t>
+          <t>Principi di misurazione</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
+          <t>The means by which a lidar makes a measurement of the wind</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>TOF</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
+          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4256,31 +4224,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementVolume</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Measurement volume</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Volume di misurazione</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -4311,34 +4275,38 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:TimeOfFlight</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Probe</t>
+          <t>Time of flight</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sonda</t>
+          <t>Tempo di volo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
+          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -4366,37 +4334,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ontolidar:ProbeVolume</t>
+          <t>ontolidar:MeasurementVolume</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Probe volume</t>
+          <t>Measurement volume</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Volume della sonda</t>
+          <t>Volume di misurazione</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4421,38 +4389,34 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ontolidar:RadialVelocity</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Radial velocity</t>
+          <t>Probe</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Velocità radiale</t>
+          <t>Sonda</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
+          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Radial wind speed</t>
-        </is>
-      </c>
+          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -4480,41 +4444,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Scanning geometry</t>
+          <t>Probe volume</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Geometria di scansione</t>
+          <t>Volume della sonda</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Scan pattern</t>
-        </is>
-      </c>
+          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4522,11 +4482,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -4543,37 +4499,41 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:RadialVelocity</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Single lidar</t>
+          <t>Radial velocity</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lidar singolo</t>
+          <t>Velocità radiale</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
+          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Misurazioni effettuate da un lidar singolo</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Radial wind speed</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
@@ -4581,11 +4541,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -4602,37 +4558,41 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ontolidar:Staring</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Staring</t>
+          <t>Scanning geometry</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Geometria fissa</t>
+          <t>Geometria di scansione</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>A scan geometry comprised of a single beam orientation.</t>
+          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Scan pattern</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4640,7 +4600,11 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -4657,37 +4621,37 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ontolidar:StopStare</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Stop-stare</t>
+          <t>Single lidar</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Geometria "osserva da fisso"</t>
+          <t>Lidar singolo</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
+          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
+          <t>Misurazioni effettuate da un lidar singolo</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -4695,7 +4659,11 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -4712,31 +4680,31 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ontolidar:SweepStare</t>
+          <t>ontolidar:Staring</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sweep-stare</t>
+          <t>Staring</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Geometria "osserva in movimento"</t>
+          <t>Geometria fissa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
+          <t>A scan geometry comprised of a single beam orientation.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
+          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4767,31 +4735,31 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:StopStare</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Simple scan</t>
+          <t>Stop-stare</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Scansione semplice</t>
+          <t>Geometria "osserva da fisso"</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4805,11 +4773,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -4826,37 +4790,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SweepStare</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Variable azimuth scan</t>
+          <t>Sweep-stare</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Scansione ad azimut variabile</t>
+          <t>Geometria "osserva in movimento"</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable azimuth angle</t>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -4864,11 +4828,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -4885,37 +4845,37 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ontolidar:CompleteCone</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Complete cone</t>
+          <t>Simple scan</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Geometria a cono completo</t>
+          <t>Scansione semplice</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
@@ -4923,7 +4883,11 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -4940,41 +4904,37 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ontolidar:ConeSector</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cone sector</t>
+          <t>Variable azimuth scan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Geometria a settore di cono</t>
+          <t>Scansione ad azimut variabile</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A simple scan geometry with variable azimuth angle</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Plan-position indicator, PPI</t>
-        </is>
-      </c>
+          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -4982,7 +4942,11 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -4999,34 +4963,34 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ontolidar:DopplerBeamSwinging</t>
+          <t>ontolidar:CompleteCone</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Doppler beam swinging</t>
+          <t>Complete cone</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Geometria a cono completo</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>DBS</t>
-        </is>
-      </c>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>ontolidar:VariableAzimuthScan</t>
@@ -5054,37 +5018,41 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevation</t>
+          <t>ontolidar:ConeSector</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Variable elevation</t>
+          <t>Cone sector</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Geometria ad elevazione variabile</t>
+          <t>Geometria a settore di cono</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable elevation angle</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Plan-position indicator, PPI</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
@@ -5092,11 +5060,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -5113,41 +5077,37 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ontolidar:VerticalSlice</t>
+          <t>ontolidar:DopplerBeamSwinging</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vertical slice</t>
+          <t>Doppler beam swinging</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Geometria a taglio verticale</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Range-height indicator, RHI</t>
+          <t>DBS</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevationScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
@@ -5172,29 +5132,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:VariableElevation</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Compound scan</t>
+          <t>Variable elevation</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Geometria ad elevazione variabile</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
+          <t>A simple scan geometry with variable elevation angle</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
@@ -5223,37 +5191,41 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ontolidar:ArbitraryTrajectory</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Arbitrary trajectory</t>
+          <t>Vertical slice</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Traiettoria arbitraria</t>
+          <t>Geometria a taglio verticale</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
@@ -5278,37 +5250,29 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:SequentialScan</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sequential scan</t>
+          <t>Compound scan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Scansione sequenziale</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
@@ -5337,41 +5301,37 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:ArbitraryTrajectory</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Arbitrary trajectory</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Traiettoria arbitraria</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>multilidar, multistatic</t>
-        </is>
-      </c>
+          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L92" t="inlineStr"/>
@@ -5396,41 +5356,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ontolidar:ConvergentScan</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Convergent scan</t>
+          <t>Sequential scan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Scansione convergente</t>
+          <t>Scansione sequenziale</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
+          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -5438,7 +5394,11 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
@@ -5455,35 +5415,43 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Parametri</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Wind lidar-specific parameters.</t>
+          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Specifici parametri del lidar.</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>multilidar, multistatic</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ontolidar:ScanningGeometry</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
@@ -5506,37 +5474,41 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ontolidar:CarrierToNoiseRatio</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Carrier to noise ratio</t>
+          <t>Convergent scan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Scansione convergente</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>CNR</t>
+          <t>Convergent beam, convergent-beam lidar</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
@@ -5544,11 +5516,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>Often used interchangably with SNR</t>
-        </is>
-      </c>
+      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
@@ -5565,49 +5533,41 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ontolidar:SignalToNoiseRatio</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Signal to noise ratio</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Parametri</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>Wind lidar-specific parameters.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
+          <t>Specifici parametri del lidar.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR</t>
-        </is>
-      </c>
+      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -5624,36 +5584,32 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ontolidar:Azimuth</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Azimuth</t>
+          <t>Carrier to noise ratio</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Azimut</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Azimuth angle</t>
+          <t>CNR</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5661,18 +5617,14 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+          <t>Often used interchangably with SNR</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -5691,36 +5643,32 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ontolidar:Elevation</t>
+          <t>ontolidar:SignalToNoiseRatio</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Elevation</t>
+          <t>Signal to noise ratio</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Elevazione</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Elevation angle</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5728,16 +5676,16 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Often used interchangably with CNR</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -5754,34 +5702,38 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementHeight</t>
+          <t>ontolidar:Azimuth</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Azimuth</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Altezza di misurazione</t>
+          <t>Azimut</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Azimuth angle</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -5789,14 +5741,18 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+        </is>
+      </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -5813,34 +5769,38 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ontolidar:DatumElevation</t>
+          <t>ontolidar:Elevation</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Elevazione di riferimento</t>
+          <t>Elevazione</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>The height of the datum plane above sea level</t>
+          <t>The angle between the line of sight of the lidar and the datum plane.</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Altezza di un piano di riferimento sul livello del mare.</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
+          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Elevation angle</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -5848,18 +5808,14 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
@@ -5876,49 +5832,45 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ontolidar:DatumPlane</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Measurement height</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Piano di riferimento</t>
+          <t>Altezza di misurazione</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Reference height</t>
-        </is>
-      </c>
+          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>ontolidar:DatumFeature</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
@@ -5939,49 +5891,53 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>ontolidar:DatumElevation</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Datum elevation</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Elemento di riferimento</t>
+          <t>Elevazione di riferimento</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+          <t>The height of the datum plane above sea level</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
+          <t>Altezza di un piano di riferimento sul livello del mare.</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
@@ -5995,6 +5951,128 @@
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumPlane</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Datum plane</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Piano di riferimento</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Elemento di riferimento</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,15 +721,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>skosmos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>http://purl.org/net/skosmos#</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -760,12 +764,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>skos:editorialNote</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>This glossary is produced and maintained by IEA Wind Task 32.</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -799,12 +803,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>skos:historyNote</t>
+          <t>skos:editorialNote</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suggestions for additions or changes should be made through the glossary repository at https://github.com/IEA-Wind-Task-32/wind-lidar-glossary.</t>
+          <t>This glossary is produced and maintained by IEA Wind Task 32.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -838,12 +842,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:title@en</t>
+          <t>skos:historyNote</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
+          <t>Suggestions for additions or changes should be made through the glossary repository at https://github.com/IEA-Wind-Task-32/wind-lidar-glossary.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -877,12 +881,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:description@en</t>
+          <t>dct:title@en</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -916,12 +920,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:title@de</t>
+          <t>dct:description@en</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
+          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -955,12 +959,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:description@de</t>
+          <t>dct:title@de</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -994,12 +998,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description@de</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-9698-5083</t>
+          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1038,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0002-9381-9693</t>
+          <t>https://orcid.org/0000-0001-9698-5083</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1077,7 +1081,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-1318-9677</t>
+          <t>http://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1111,10 +1115,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-1318-9677</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1146,14 +1154,10 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>skosmos:defaultLanguage</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
+          <t>dct:contributor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1185,12 +1189,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>skosmos:language</t>
+          <t>skosmos:defaultLanguage</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EN, DE, IT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1224,12 +1228,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>skosmos:language</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>EN, DE, IT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1263,12 +1267,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>skosmos:uiLanguageDropdown</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020-11-06T00:00:00+01:00</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1302,12 +1306,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-01-13T00:00:00+01:00</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1341,114 +1345,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@de</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@it</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>rdfs:label</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>skos:definition@de</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>skos:definition@it</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>ontolidar:units</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@de</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@it</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>skos:note@de</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>skos:note@it</t>
-        </is>
-      </c>
+          <t>2020-11-06T00:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1460,41 +1384,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ontolidar:Units</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>2021-01-13T00:00:00+01:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Unità</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>rdf:Property</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>A unit for parameter or variable being defined.</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Unità di misura per una quantità fisica o un parametro</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1519,46 +1423,114 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ontolidar:Analysis</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Analysis</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Analisi</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>skos:prefLabel@it</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ways that wind lidar data can be processed to extract useful data</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+          <t>skos:definition@it</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ontolidar:units</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@de</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@it</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>skos:note@de</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>skos:note@it</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1570,43 +1542,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ontolidar:WindfieldReconstruction</t>
+          <t>ontolidar:Units</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Windfield Reconstruction</t>
+          <t>units</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ricostruzione del campo di vento</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>Unità</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>rdf:Property</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
+          <t>A unit for parameter or variable being defined.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Wind field reconstruction</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ontolidar:Analysis</t>
-        </is>
-      </c>
+          <t>Unità di misura per una quantità fisica o un parametro</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1629,49 +1601,41 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ontolidar:VelocityAzimuthDisplay</t>
+          <t>ontolidar:Analysis</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Velocity-azimuth display</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Analisi</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
+          <t>Ways that wind lidar data can be processed to extract useful data</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>VAD</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ontolidar:WindfieldReconstruction</t>
-        </is>
-      </c>
+          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -1688,39 +1652,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Applications</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Anwendungen</t>
-        </is>
-      </c>
+          <t>Windfield Reconstruction</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Applicazioni</t>
+          <t>Ricostruzione del campo di vento</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ways that wind lidar can be used</t>
+          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Wind field reconstruction</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ontolidar:Analysis</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -1743,37 +1711,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ontolidar:UseCase</t>
+          <t>ontolidar:VelocityAzimuthDisplay</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Use case</t>
+          <t>Velocity-azimuth display</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Casi di uso</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
+          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VAD</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -1781,7 +1749,11 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -1798,43 +1770,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ontolidar:VirtualMetMast</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Virtual met mast</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Anwendungen</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Torre meteorologica virtuale</t>
+          <t>Applicazioni</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
+          <t>Ways that wind lidar can be used</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Crossed RHI</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ontolidar:Applications</t>
-        </is>
-      </c>
+          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -1857,49 +1825,45 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:UseCase</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Design</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Auslegung</t>
-        </is>
-      </c>
+          <t>Use case</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Struttura generale</t>
+          <t>Casi di uso</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Wind lidar generic design structure</t>
+          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
+          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -1916,37 +1880,41 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ontolidar:ChassisModule</t>
+          <t>ontolidar:VirtualMetMast</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chassis module</t>
+          <t>Virtual met mast</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Telaio</t>
+          <t>Torre meteorologica virtuale</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
+          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Crossed RHI</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -1954,11 +1922,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -1975,39 +1939,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Control module</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Auslegung</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Componente di controllo</t>
+          <t>Struttura generale</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
+          <t>Wind lidar generic design structure</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
+          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2034,37 +1998,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ontolidar:CommunicationsModule</t>
+          <t>ontolidar:ChassisModule</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Communications module</t>
+          <t>Chassis module</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Componente di comunicazione</t>
+          <t>Telaio</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
+          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
+          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2093,37 +2057,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ontolidar:SignalProcessingModule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Signal processing module</t>
+          <t>Control module</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Componente di processamento dati</t>
+          <t>Componente di controllo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
+          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
+          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2152,31 +2116,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ontolidar:StorageModule</t>
+          <t>ontolidar:CommunicationsModule</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Storage module</t>
+          <t>Communications module</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Componente di stoccaggio dati</t>
+          <t>Componente di comunicazione</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
+          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
+          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2211,37 +2175,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ontolidar:SafetyInterlocks</t>
+          <t>ontolidar:SignalProcessingModule</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Safety interlocks</t>
+          <t>Signal processing module</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dispositivi di sicurezza</t>
+          <t>Componente di processamento dati</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
+          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
+          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2270,37 +2234,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>ontolidar:StorageModule</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Optics module</t>
+          <t>Storage module</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Componenti ottiche</t>
+          <t>Componente di stoccaggio dati</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
+          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
+          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2329,41 +2293,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>ontolidar:SafetyInterlocks</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Telescope</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Teleskop</t>
-        </is>
-      </c>
+          <t>Safety interlocks</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Telescopio</t>
+          <t>Dispositivi di sicurezza</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
+          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
+          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2371,7 +2331,11 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -2388,37 +2352,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
+          <t>ontolidar:OpticsModule</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Telescope aperture</t>
+          <t>Optics module</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Apertura del telescopio</t>
+          <t>Componenti ottiche</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>The aperture through which laser light is emitted and received</t>
+          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
+          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2426,7 +2390,11 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -2443,44 +2411,44 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeApertureDiameter</t>
+          <t>ontolidar:Telescope</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Telescope aperture diameter</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Telescope</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Teleskop</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Diametro dell'apertura del telescopio</t>
+          <t>Telescopio</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Characteristic optical diameter of the lidar telescope</t>
+          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Diametro ottico del telescopio del lidar.</t>
+          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>ontolidar:OpticsModule</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2502,49 +2470,45 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ontolidar:All-fiberLidar</t>
+          <t>ontolidar:TelescopeAperture</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Beam transmission system</t>
+          <t>Telescope aperture</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del fascio</t>
+          <t>Apertura del telescopio</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>All-fiber transmission Lidar system</t>
+          <t>The aperture through which laser light is emitted and received</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
+          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ontolidar:Telescope</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>True if lidar is all-fiber</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -2561,49 +2525,49 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:TelescopeApertureDiameter</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Photonics module</t>
+          <t>Telescope aperture diameter</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Componente fotonica</t>
+          <t>Diametro dell'apertura del telescopio</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
+          <t>Characteristic optical diameter of the lidar telescope</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
+          <t>Diametro ottico del telescopio del lidar.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>ontolidar:TelescopeAperture</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -2620,45 +2584,49 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:All-fiberLidar</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Detector</t>
+          <t>Beam transmission system</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rilevatore</t>
+          <t>Sistema di trasmissione del fascio</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An assembly to gather and detect incident light</t>
+          <t>All-fiber transmission Lidar system</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
+          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ontolidar:PhotonicsModule</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>True if lidar is all-fiber</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -2675,37 +2643,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ontolidar:Photodetector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Photodetector</t>
+          <t>Photonics module</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fotorivelatore</t>
+          <t>Componente fotonica</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Semiconductor light sensor.</t>
+          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Fotosensore a semi-conduttori.</t>
+          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -2713,7 +2681,11 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -2730,37 +2702,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorGain</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Photodetector gain</t>
+          <t>Detector</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Guadagno del fotorivelatore</t>
+          <t>Rilevatore</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>The gain of the photodetector transimpedance amplifier.</t>
+          <t>An assembly to gather and detect incident light</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -2785,37 +2757,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorVoltageNoise</t>
+          <t>ontolidar:Photodetector</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Photodetector voltage noise</t>
+          <t>Photodetector</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rumore di tensione del fotorivelatore</t>
+          <t>Fotorivelatore</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
+          <t>Semiconductor light sensor.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t>Fotosensore a semi-conduttori.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -2840,41 +2812,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ontolidar:AcoustoOpticModulator</t>
+          <t>ontolidar:PhotodetectorGain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Acousto optic modulator</t>
+          <t>Photodetector gain</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Modulatore acusto-ottico</t>
+          <t>Guadagno del fotorivelatore</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
+          <t>The gain of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>AOM</t>
-        </is>
-      </c>
+          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -2882,11 +2850,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Only pulsed lidar</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -2903,37 +2867,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ontolidar:OpticalAmplifier</t>
+          <t>ontolidar:PhotodetectorVoltageNoise</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Optical amplifier</t>
+          <t>Photodetector voltage noise</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Amplificatore ottico</t>
+          <t>Rumore di tensione del fotorivelatore</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
+          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
+          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotoDetector</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -2941,11 +2905,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -2962,41 +2922,41 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ontolidar:BeamSplitter</t>
+          <t>ontolidar:AcoustoOpticModulator</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beam splitter </t>
+          <t>Acousto optic modulator</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sdoppiatore ottico</t>
+          <t>Modulatore acusto-ottico</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>An optical assembly to split a laser beam into two or more beams.</t>
+          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
+          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>beamsplitter</t>
+          <t>AOM</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3006,7 +2966,7 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+          <t>Only pulsed lidar</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -3025,37 +2985,37 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:OpticalAmplifier</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Laser source</t>
+          <t>Optical amplifier</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sorgente laser</t>
+          <t>Amplificatore ottico</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>An assembly to generate and manage laser light.</t>
+          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Un sistema di generazione e controllo della luce laser.</t>
+          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3063,7 +3023,11 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -3080,37 +3044,41 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
+          <t>ontolidar:BeamSplitter</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Laser diode</t>
+          <t xml:space="preserve">Beam splitter </t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Diodo laser</t>
+          <t>Sdoppiatore ottico</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A semiconductor component to generate laser light of a defined frequency.</t>
+          <t>An optical assembly to split a laser beam into two or more beams.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>beamsplitter</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3118,7 +3086,11 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -3135,44 +3107,40 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiodeWavelength</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Laser diode wavelength</t>
+          <t>Laser source</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Lunghezza d'onda del diodo laser</t>
+          <t>Sorgente laser</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
+          <t>An assembly to generate and manage laser light.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
+          <t>Un sistema di generazione e controllo della luce laser.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -3194,37 +3162,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
+          <t>ontolidar:LaserDiode</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Power module</t>
+          <t>Laser diode</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Componente di alimentazione</t>
+          <t>Diodo laser</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
+          <t>A semiconductor component to generate laser light of a defined frequency.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
+          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3232,11 +3200,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -3253,40 +3217,44 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptiblePowerSupply</t>
+          <t>ontolidar:LaserDiodeWavelength</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply</t>
+          <t>Laser diode wavelength</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS)</t>
+          <t>Lunghezza d'onda del diodo laser</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply (UPS)</t>
+          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS).</t>
+          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>ontolidar:LaserDiode</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3308,37 +3276,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
+          <t>ontolidar:PowerModule</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UPS Battery</t>
+          <t>Power module</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Batteria dell'UPS</t>
+          <t>Componente di alimentazione</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>An energy storage component</t>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
+          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptablePowerSupply</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3346,7 +3314,11 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -3363,44 +3335,40 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryVoltage</t>
+          <t>ontolidar:UninterruptiblePowerSupply</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>UPS battery voltage</t>
+          <t>Uninterruptible power supply</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Voltaggio della batteria dell'UPS</t>
+          <t>Gruppo di continuità (UPS)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>The battery voltage. Units are Volts.</t>
+          <t>Uninterruptible power supply (UPS)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Il voltaggio della batteria (in unità di Volt).</t>
+          <t>Gruppo di continuità (UPS).</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>volts</t>
-        </is>
-      </c>
+          <t>ontolidar:PowerModule</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -3422,44 +3390,40 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryCapacity</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>UPS battery capacity</t>
+          <t>UPS Battery</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Capacità della batteria dell'UPS</t>
+          <t>Batteria dell'UPS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
+          <t>An energy storage component</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
+          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Amp hours</t>
-        </is>
-      </c>
+          <t>ontolidar:UninterruptablePowerSupply</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3481,49 +3445,49 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>ontolidar:UpsBatteryVoltage</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Scanner module</t>
+          <t>UPS battery voltage</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Componente di scansione</t>
+          <t>Voltaggio della batteria dell'UPS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
+          <t>The battery voltage. Units are Volts.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
+          <t>Il voltaggio della batteria (in unità di Volt).</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>volts</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -3540,40 +3504,44 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+          <t>ontolidar:UpsBatteryCapacity</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Scanner azimuth positioning servo</t>
+          <t>UPS battery capacity</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione azimutale</t>
+          <t>Capacità della batteria dell'UPS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
+          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
+          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Amp hours</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3595,49 +3563,49 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ontolidar:AzimuthSlewRate</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Azimuth slew rate</t>
+          <t>Scanner module</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Velocità massima azimutale</t>
+          <t>Componente di scansione</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
+          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
+          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -3654,31 +3622,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Scanner elevation positioning servo</t>
+          <t>Scanner azimuth positioning servo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione di elevazione</t>
+          <t>Servomotore per la scansione nella direzione azimutale</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
+          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
+          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3709,37 +3677,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ontolidar:ElevationSlewRate</t>
+          <t>ontolidar:AzimuthSlewRate</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Elevation slew rate</t>
+          <t>Azimuth slew rate</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Velocità massima di elevazione</t>
+          <t>Velocità massima azimutale</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
+          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3768,31 +3736,31 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerMirrors</t>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Scanner mirrors</t>
+          <t>Scanner elevation positioning servo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Specchi dello scanner</t>
+          <t>Servomotore per la scansione nella direzione di elevazione</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
+          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
+          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3823,40 +3791,44 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ElevationSlewRate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Devices</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Geräte</t>
-        </is>
-      </c>
+          <t>Elevation slew rate</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Strumenti lidar</t>
+          <t>Velocità massima di elevazione</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Specific implementations of wind lidar technologies.</t>
+          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
+          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3878,41 +3850,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ontolidar:Windscanner</t>
+          <t>ontolidar:ScannerMirrors</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
+          <t>Scanner mirrors</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lidar 'WindScanner'</t>
+          <t>Specchi dello scanner</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
+          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
+          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -3920,11 +3888,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -3941,53 +3905,45 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ontolidar:WindIris</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wind Iris</t>
+          <t>Devices</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wind Iris</t>
+          <t>Geräte</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Lidar 'Wind Iris'</t>
+          <t>Strumenti lidar</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
+          <t>Specific implementations of wind lidar technologies.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
+          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -4004,45 +3960,53 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Windscanner</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Instances</t>
+          <t>Windscanner</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Instanzen</t>
+          <t>Windscanner</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Esempi di lidars</t>
+          <t>Lidar 'WindScanner'</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Wind lidar instances</t>
+          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Esempi di lidar eolici.</t>
+          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -4059,37 +4023,41 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ontolidar:SerialNumber</t>
+          <t>ontolidar:WindIris</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Serial number</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>Wind Iris</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wind Iris</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Numero seriale</t>
+          <t>Lidar 'Wind Iris'</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>wind lidar serial number</t>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Numero di serie del lidar.</t>
+          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4097,7 +4065,11 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -4114,45 +4086,41 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ontolidar:LidarType</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lidar type</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>Instances</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Instanzen</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tipologia di lidar</t>
+          <t>Esempi di lidars</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>The type of lidar device</t>
+          <t>Wind lidar instances</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Tipologia di lidar.</t>
+          <t>Esempi di lidar eolici.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ontolidar:Instances</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -4173,35 +4141,39 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:SerialNumber</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Measurement principles</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Principi di misurazione</t>
+          <t>Numero seriale</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>The means by which a lidar makes a measurement of the wind</t>
+          <t>wind lidar serial number</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+          <t>Numero di serie del lidar.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ontolidar:Instances</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4224,37 +4196,45 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ontolidar:LineOfSight</t>
+          <t>ontolidar:LidarType</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Line of sight</t>
+          <t>Lidar type</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Tipologia di lidar</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
+          <t>The type of lidar device</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+          <t>Tipologia di lidar.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -4275,43 +4255,35 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ontolidar:TimeOfFlight</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Time of flight</t>
+          <t>Measurement principles</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tempo di volo</t>
+          <t>Principi di misurazione</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
+          <t>The means by which a lidar makes a measurement of the wind</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>TOF</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
+          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4334,31 +4306,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementVolume</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Measurement volume</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Volume di misurazione</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -4389,34 +4357,38 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:TimeOfFlight</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Probe</t>
+          <t>Time of flight</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sonda</t>
+          <t>Tempo di volo</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
+          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -4444,37 +4416,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ontolidar:ProbeVolume</t>
+          <t>ontolidar:MeasurementVolume</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Probe volume</t>
+          <t>Measurement volume</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Volume della sonda</t>
+          <t>Volume di misurazione</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4499,38 +4471,34 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ontolidar:RadialVelocity</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Radial velocity</t>
+          <t>Probe</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Velocità radiale</t>
+          <t>Sonda</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
+          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Radial wind speed</t>
-        </is>
-      </c>
+          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementPrinciples</t>
@@ -4558,41 +4526,37 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Scanning geometry</t>
+          <t>Probe volume</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Geometria di scansione</t>
+          <t>Volume della sonda</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Scan pattern</t>
-        </is>
-      </c>
+          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4600,11 +4564,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -4621,37 +4581,41 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:RadialVelocity</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Single lidar</t>
+          <t>Radial velocity</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Lidar singolo</t>
+          <t>Velocità radiale</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
+          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Misurazioni effettuate da un lidar singolo</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
+          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Radial wind speed</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -4659,11 +4623,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -4680,37 +4640,41 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ontolidar:Staring</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Staring</t>
+          <t>Scanning geometry</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Geometria fissa</t>
+          <t>Geometria di scansione</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>A scan geometry comprised of a single beam orientation.</t>
+          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Scan pattern</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -4718,7 +4682,11 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -4735,37 +4703,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ontolidar:StopStare</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Stop-stare</t>
+          <t>Single lidar</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Geometria "osserva da fisso"</t>
+          <t>Lidar singolo</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
+          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
+          <t>Misurazioni effettuate da un lidar singolo</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -4773,7 +4741,11 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -4790,31 +4762,31 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ontolidar:SweepStare</t>
+          <t>ontolidar:Staring</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sweep-stare</t>
+          <t>Staring</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Geometria "osserva in movimento"</t>
+          <t>Geometria fissa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
+          <t>A scan geometry comprised of a single beam orientation.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
+          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4845,31 +4817,31 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:StopStare</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Simple scan</t>
+          <t>Stop-stare</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Scansione semplice</t>
+          <t>Geometria "osserva da fisso"</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4883,11 +4855,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -4904,37 +4872,37 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SweepStare</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Variable azimuth scan</t>
+          <t>Sweep-stare</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Scansione ad azimut variabile</t>
+          <t>Geometria "osserva in movimento"</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable azimuth angle</t>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -4942,11 +4910,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -4963,37 +4927,37 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ontolidar:CompleteCone</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Complete cone</t>
+          <t>Simple scan</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Geometria a cono completo</t>
+          <t>Scansione semplice</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
@@ -5001,7 +4965,11 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -5018,41 +4986,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ontolidar:ConeSector</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cone sector</t>
+          <t>Variable azimuth scan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Geometria a settore di cono</t>
+          <t>Scansione ad azimut variabile</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A simple scan geometry with variable azimuth angle</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Plan-position indicator, PPI</t>
-        </is>
-      </c>
+          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
@@ -5060,7 +5024,11 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -5077,34 +5045,34 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ontolidar:DopplerBeamSwinging</t>
+          <t>ontolidar:CompleteCone</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Doppler beam swinging</t>
+          <t>Complete cone</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Geometria a cono completo</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>DBS</t>
-        </is>
-      </c>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>ontolidar:VariableAzimuthScan</t>
@@ -5132,37 +5100,41 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevation</t>
+          <t>ontolidar:ConeSector</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Variable elevation</t>
+          <t>Cone sector</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Geometria ad elevazione variabile</t>
+          <t>Geometria a settore di cono</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable elevation angle</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Plan-position indicator, PPI</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
@@ -5170,11 +5142,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -5191,41 +5159,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ontolidar:VerticalSlice</t>
+          <t>ontolidar:DopplerBeamSwinging</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Vertical slice</t>
+          <t>Doppler beam swinging</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Geometria a taglio verticale</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Range-height indicator, RHI</t>
+          <t>DBS</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevationScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
@@ -5250,29 +5214,37 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:VariableElevation</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Compound scan</t>
+          <t>Variable elevation</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Geometria ad elevazione variabile</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
+          <t>A simple scan geometry with variable elevation angle</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
@@ -5301,37 +5273,41 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ontolidar:ArbitraryTrajectory</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Arbitrary trajectory</t>
+          <t>Vertical slice</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Traiettoria arbitraria</t>
+          <t>Geometria a taglio verticale</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="L92" t="inlineStr"/>
@@ -5356,37 +5332,29 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ontolidar:SequentialScan</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sequential scan</t>
+          <t>Compound scan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Scansione sequenziale</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -5415,41 +5383,37 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:ArbitraryTrajectory</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Arbitrary trajectory</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Traiettoria arbitraria</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>multilidar, multistatic</t>
-        </is>
-      </c>
+          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
@@ -5474,41 +5438,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ontolidar:ConvergentScan</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Convergent scan</t>
+          <t>Sequential scan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Scansione convergente</t>
+          <t>Scansione sequenziale</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
+          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
@@ -5516,7 +5476,11 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
@@ -5533,35 +5497,43 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Parametri</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Wind lidar-specific parameters.</t>
+          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Specifici parametri del lidar.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>multilidar, multistatic</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ontolidar:ScanningGeometry</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
@@ -5584,37 +5556,41 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ontolidar:CarrierToNoiseRatio</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Carrier to noise ratio</t>
+          <t>Convergent scan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Scansione convergente</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>CNR</t>
+          <t>Convergent beam, convergent-beam lidar</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="L97" t="inlineStr"/>
@@ -5622,11 +5598,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>Often used interchangably with SNR</t>
-        </is>
-      </c>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -5643,49 +5615,41 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ontolidar:SignalToNoiseRatio</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Signal to noise ratio</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Parametri</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>Wind lidar-specific parameters.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
+          <t>Specifici parametri del lidar.</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR</t>
-        </is>
-      </c>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -5702,36 +5666,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ontolidar:Azimuth</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Azimuth</t>
+          <t>Carrier to noise ratio</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Azimut</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Azimuth angle</t>
+          <t>CNR</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5739,18 +5699,14 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+          <t>Often used interchangably with SNR</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -5769,36 +5725,32 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ontolidar:Elevation</t>
+          <t>ontolidar:SignalToNoiseRatio</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Elevation</t>
+          <t>Signal to noise ratio</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Elevazione</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and the datum plane.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Elevation angle</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5806,16 +5758,16 @@
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Often used interchangably with CNR</t>
+        </is>
+      </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
@@ -5832,34 +5784,38 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementHeight</t>
+          <t>ontolidar:Azimuth</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Azimuth</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Altezza di misurazione</t>
+          <t>Azimut</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Azimuth angle</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -5867,14 +5823,18 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -5891,34 +5851,38 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ontolidar:DatumElevation</t>
+          <t>ontolidar:Elevation</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Elevazione di riferimento</t>
+          <t>Elevazione</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>The height of the datum plane above sea level</t>
+          <t>The angle between the line of sight of the lidar and the datum plane.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Altezza di un piano di riferimento sul livello del mare.</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
+          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Elevation angle</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
@@ -5926,18 +5890,14 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>meters</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
@@ -5954,49 +5914,45 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ontolidar:DatumPlane</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Measurement height</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Piano di riferimento</t>
+          <t>Altezza di misurazione</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Reference height</t>
-        </is>
-      </c>
+          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>ontolidar:DatumFeature</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
@@ -6017,49 +5973,53 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>ontolidar:DatumElevation</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Datum elevation</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Elemento di riferimento</t>
+          <t>Elevazione di riferimento</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+          <t>The height of the datum plane above sea level</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
+          <t>Altezza di un piano di riferimento sul livello del mare.</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -6073,6 +6033,128 @@
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumPlane</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Datum plane</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Piano di riferimento</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Elemento di riferimento</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC106"/>
+  <dimension ref="A1:AK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,14 @@
       <c r="AA1" t="inlineStr"/>
       <c r="AB1" t="inlineStr"/>
       <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
+      <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
+      <c r="AH1" t="inlineStr"/>
+      <c r="AI1" t="inlineStr"/>
+      <c r="AJ1" t="inlineStr"/>
+      <c r="AK1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,6 +510,14 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,6 +561,14 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -588,6 +612,14 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -631,6 +663,14 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +714,14 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -717,6 +765,14 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -760,6 +816,14 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -799,6 +863,14 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +910,14 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -877,6 +957,14 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -916,6 +1004,14 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -955,6 +1051,14 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -964,7 +1068,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IEA Wind Task 32 Wind Lidar Ontology</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontologie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -994,6 +1098,14 @@
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1003,7 +1115,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ontological representation of wind lidar supporting development of modular tools and processes for wind lidars.</t>
+          <t>Ontologische Darstellung von Wind-Lidar zur Unterstützung der Entwicklung von modularen Werkzeugen und Prozessen für Wind-Lidar.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1033,16 +1145,24 @@
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:title@es</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-9698-5083</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontologie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1072,16 +1192,24 @@
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description@es</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://orcid.org/0000-0002-9381-9693</t>
+          <t>Ontologische Darstellung von Wind-Lidar zur Unterstützung der Entwicklung von modularen Werkzeugen und Prozessen für Wind-Lidar.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1111,16 +1239,24 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:title@cn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-1318-9677</t>
+          <t>IEA Wind Task 32 Wind Lidar Ontologie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1150,14 +1286,26 @@
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>dct:description@cn</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ontologische Darstellung von Wind-Lidar zur Unterstützung der Entwicklung von modularen Werkzeugen und Prozessen für Wind-Lidar.</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1185,16 +1333,24 @@
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>skosmos:defaultLanguage</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>https://orcid.org/0000-0001-9698-5083</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1224,16 +1380,24 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>skosmos:language</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EN, DE, IT</t>
+          <t>http://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1263,16 +1427,24 @@
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>skosmos:uiLanguageDropdown</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>https://orcid.org/0000-0003-1318-9677</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1302,18 +1474,22 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pav:version</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
+          <t>dct:contributor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1341,16 +1517,24 @@
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-11-06T00:00:00+01:00</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1380,16 +1564,24 @@
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-01-13T00:00:00+01:00</t>
+          <t>2020-11-06T00:00:00+01:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1419,118 +1611,46 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@de</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@it</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>rdfs:label</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>skos:definition@de</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>skos:definition@it</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>ontolidar:units</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@de</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@it</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>skos:note@en</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>skos:note@de</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>skos:note@it</t>
-        </is>
-      </c>
+          <t>2021-01-13T00:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1538,100 +1658,232 @@
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ontolidar:Units</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@de</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Unità</t>
+          <t>skos:prefLabel@it</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>rdf:Property</t>
+          <t>skos:prefLabel@es</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>skos:prefLabel@cn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A unit for parameter or variable being defined.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Unità di misura per una quantità fisica o un parametro</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>skos:definition@de</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>skos:definition@it</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>skos:definition@es</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>skos:definition@cn</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>ontolidar:units</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@de</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@it</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@es</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@cn</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>skos:note@de</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>skos:note@it</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>skos:note@es</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>skos:note@cn</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ontolidar:Analysis</t>
+          <t>ontolidar:Units</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>units</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Analisi</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+          <t>Unità</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ways that wind lidar data can be processed to extract useful data</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>rdf:Property</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
+          <t>A unit for parameter or variable being defined.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Unità di misura per una quantità fisica o un parametro</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Unidades de medida para un parámetro o varible.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>参数、变量等物理量的单位。</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -1648,49 +1900,65 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ontolidar:WindfieldReconstruction</t>
+          <t>ontolidar:Analysis</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Windfield Reconstruction</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ricostruzione del campo di vento</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
-        </is>
-      </c>
+          <t>Analisi</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Análisis</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>分析</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Wind field reconstruction</t>
-        </is>
-      </c>
+          <t>Ways that wind lidar data can be processed to extract useful data</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ontolidar:Analysis</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>Processo di estrazione di informazioni utili dai dati grezzi di un lidar.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Métodos aplicables a los datos lidar para extraer información útil.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>通过处理激光测风雷达数据，生成额外有用的数据</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -1707,53 +1975,77 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ontolidar:VelocityAzimuthDisplay</t>
+          <t>ontolidar:WindfieldReconstruction</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Velocity-azimuth display</t>
+          <t>Windfield Reconstruction</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ricostruzione del campo di vento</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Reconstrucción del campo de vientos</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>气流场重构</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>VAD</t>
-        </is>
-      </c>
+          <t>Approach to processing wind lidar data to estimate a wind vector at one or more points in the domain sampled by the lidar</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ontolidar:WindfieldReconstruction</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+          <t>Processo di derivazione del vettore campo del vento in uno o più punti dello spazio spazzato dal wind lidar.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Métodos de procesamiento de datos lidar para estimar el vector de viento en uno o varios puntos en el dominio muestreado por el dispositivo lidar.</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>通过处理激光测风雷达的测风数据，以推算激光雷达测量域中一个或多个点处的风矢量的方法</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Wind field reconstruction</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>ontolidar:Analysis</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -1766,53 +2058,85 @@
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:VelocityAzimuthDisplay</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Applications</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Anwendungen</t>
-        </is>
-      </c>
+          <t>Velocity-azimuth display</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Applicazioni</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Ways that wind lidar can be used</t>
-        </is>
-      </c>
+          <t>Campionamento di velocità in azimut</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Muestreo de velocidad en azimut</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>速度-方位角测量法</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
+          <t>VAD is a method of analyzing data from a complete conical scan whereby many closely spaced azimuthal points may be sampled by the lidar, and the data are used to estimate the wind speed at each height using a statistical fitting method.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Un particolare metodo di analisi dati di un lidar a geometria conica. Data una scansione completa del cono ad una specifica altezza, i punti di misurazione contigui l'uno all'altro nello spazio vengono combinati secondo metodi statistici di interpolazione per ricostruire la velocità del vento.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>VAD es un método de análisis de datos provenientes de un escaneo de geometría cónica en el que varios puntos azimutales estrechamente espaciados son muestreados por el lidar. Dichos datos se utilizan para estimar la velocidad del viento a una determinada altura utilizanso métodos de ajuste estadísticos.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>VAD是一种激光测风雷达的测量方法，通过倒圆锥形的扫描方式，雷达可以对许多间隔很近的方位角点进行采样，然后使用统计拟合方法将数据用于推算每个高度的风速。</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>VAD</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>ontolidar:WindfieldReconstruction</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>The VAD method is described in Lhermitte (1966) and Browning and Wexler (1968).</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
@@ -1821,45 +2145,69 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ontolidar:UseCase</t>
+          <t>ontolidar:Applications</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Use case</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Anwendungen</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Casi di uso</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
-        </is>
-      </c>
+          <t>Applicazioni</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Aplicaciones</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
+          <t>Ways that wind lidar can be used</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Formas en las que el lidar de viento puede ser utilizado.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>风力激光雷达的使用方法</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
@@ -1876,51 +2224,71 @@
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ontolidar:VirtualMetMast</t>
+          <t>ontolidar:UseCase</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Virtual met mast</t>
+          <t>Use case</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Torre meteorologica virtuale</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
-        </is>
-      </c>
+          <t>Casi di uso</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Caso de uso</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>应用场景</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Crossed RHI</t>
-        </is>
-      </c>
+          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
+          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Combinación de tres elementos: 1. Requisitos de datos orientados a los resultados (en contraposición a los requisitos orientados a las restricciones, véase sensor de primera generación / mediciones de primera generación); 2. Método de medición seleccionado para cumplirlos; 3. Las condiciones de operación que determinan el rendimiento del método con respecto a la precisión del mismo.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>满足三个要素： 1. 结果导向的数据要求（与约束导向的要求相反，请参阅第一代传感器/第一代测量）； 2. 选择可实现的测量方法； 3. 在决定方法在准确度方面的性能的操作条件</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>ontolidar:Applications</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -1935,53 +2303,77 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
+          <t>ontolidar:VirtualMetMast</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Design</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Auslegung</t>
-        </is>
-      </c>
+          <t>Virtual met mast</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Struttura generale</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Wind lidar generic design structure</t>
-        </is>
-      </c>
+          <t>Torre meteorologica virtuale</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Torre meteorológica virtual</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>虚拟测风塔</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
+          <t>A series of wind measurements made at discrete vertical locations, aping a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Una serie di misurazioni effettuate a varie altezze discrete da terra, in un modo del tutto simile alla distribuzione delle misurazioni dagli anemometri di una torre metereologica. Queste misurazioni possono essere effettuate utilizzando diversi approcci, inclusi il Crossed RHI (XRHI) ed altri sistemi di misurazione a due o tre sistemi laser.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Series de medición del viento localizadas en puntos concretos de la vertical, imitando un mástil meteorológico. Se pueden llevar a cabo utilizando muvhos enfoques, como RHI cruzado (XRHI) y otras mediciones utilizando dos o tres lidares conjuntamente. </t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>与测风塔相似，在竖直方向，离散的不同高度进行的测风。可以通过许多方法来实现，包括交叉 RHI (XRHI)方法，双雷达测量或三雷达测量等</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Crossed RHI</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>ontolidar:Applications</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -1994,57 +2386,81 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ontolidar:ChassisModule</t>
+          <t>ontolidar:Design</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chassis module</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Auslegung</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Telaio</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
-        </is>
-      </c>
+          <t>Struttura generale</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Diseño</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
+          <t>Wind lidar generic design structure</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>Descrizione delle componenti generali di un lidar e del raccordo fra di esse.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Estructura de diseño genérico del lidar de viento.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>测风激光雷达通用设计结构</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2053,57 +2469,81 @@
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
+          <t>ontolidar:ChassisModule</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Control module</t>
+          <t>Chassis module</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Componente di controllo</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
-        </is>
-      </c>
+          <t>Telaio</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Módulo de chasis</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>机架模块</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
+          <t>The Chassis module is responsible for the various mounting solutions for the lidar, including, but not limited to, mounting on a nacelle, a meteorological tower, the ground, a floating platform, or a mobile structure</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
+          <t>Modulo di ancoraggio del sistema lidar per ognuna delle sue possibili applicazioni. Include, ma non si limita alle varie soluzioni di montaggio sulla navicella di una turbina, su una torre metereologica, a terra, su una piattaforma flottante o su una struttura mobile.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>El módulo que representa el chásis representa las diversas soluciones de montaje del lidar, incluyendo (pero sin estar limitado a) montaje sobre góndola, torre meteorológica, sobre suelo, plataforma flotante o estructua móvil.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>底盘模块负责激光雷达的各种安装方案，包括但不限于安装在机舱、气象塔、地面、浮动平台或移动结构上</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>ontolidar:Design</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2112,57 +2552,81 @@
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ontolidar:CommunicationsModule</t>
+          <t>ontolidar:ControlModule</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Communications module</t>
+          <t>Control module</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Componente di comunicazione</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
-        </is>
-      </c>
+          <t>Componente di controllo</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Módulo de control</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>控制模块</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
+          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ontolidar:ControlModule</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>Modulo di interfaccia fra l'utente di controllo esterno (umano per controllo manuale o un software per un controllo automatico) ed il sistema lidar.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>El módulo de control representa la interfaz entre el controlador externo (humano o máquina) y el sistema lidar.</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>控制模块是外部控制器（人或机器）与激光雷达系统之间的接口</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2171,57 +2635,81 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ontolidar:SignalProcessingModule</t>
+          <t>ontolidar:CommunicationsModule</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Signal processing module</t>
+          <t>Communications module</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Componente di processamento dati</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
-        </is>
-      </c>
+          <t>Componente di comunicazione</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Componentes de comunicación</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>通讯模块</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
+          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
+          <t>Modulo (composto da parti hardware e software) che trasmette e riceve dati e comandi, da e per il sistema lidar.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Sistema de dispositivos y software que transmite y recibe datos.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>向激光雷达设备传输数据和命令以及从激光雷达设备接收数据和命令的设备和软件系统</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>ontolidar:ControlModule</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -2230,57 +2718,81 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ontolidar:StorageModule</t>
+          <t>ontolidar:SignalProcessingModule</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Storage module</t>
+          <t>Signal processing module</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Componente di stoccaggio dati</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
-        </is>
-      </c>
+          <t>Componente di processamento dati</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Módulo de procesamiento de señal</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>信号处理模块</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
+          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
+          <t>Modulo utilizzato per convertire i dati acquisiti dal lidar nei dati finali richiesti.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>El módulo de procesamiento de datos se utiliza para convertir los datos adquridos por el lidar en datos finales.</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>信号处理模块用于将激光雷达采集到的数据转化为数据产品</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>ontolidar:ControlModule</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
@@ -2289,57 +2801,81 @@
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ontolidar:SafetyInterlocks</t>
+          <t>ontolidar:StorageModule</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Safety interlocks</t>
+          <t>Storage module</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dispositivi di sicurezza</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
-        </is>
-      </c>
+          <t>Componente di stoccaggio dati</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Módulo de almacenamiento</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>存储模块</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
+          <t>The Storage module is responsible for saving data in the lidar system which will be accessed by users at some future time.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+          <t>Sistema di memoria dati del lidar. Utilizzato per avere accesso ai dati in ogni momento, su richiesta dell'utente.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>El módulo de almacenamiento se ocupa del almacenaje de datos que serán utilizados por el usuario en el futuro.</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>存储模块负责将数据保存在激光雷达系统中，用户将来可以访问这些数据。</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>ontolidar:ControlModule</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
@@ -2348,57 +2884,81 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
+          <t>ontolidar:SafetyInterlocks</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Optics module</t>
+          <t>Safety interlocks</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Componenti ottiche</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
-        </is>
-      </c>
+          <t>Dispositivi di sicurezza</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Dispositivos de seguidad</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>安全联锁</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
+          <t>The interlocks are a dispersed set of safety systems that prevent or mitigate potentially dangerous activities.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
+          <t xml:space="preserve">Meccanismi di sicurezza diffusi nel sistema lidar, atti a prevenire o mitigare le conseguenze di possibili malfunzionamenti. </t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Las interconexiones son un conjunto de sistemas de seguridad instalados a lo largo de los componentes del lidar que impiden o mitigan las actividades potencialmente peligrosas.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>联锁装置是一组分散的安全系统，可防止或减轻潜在危险活动。</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>ontolidar:Design</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -2407,57 +2967,81 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
+          <t>ontolidar:OpticsModule</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Telescope</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Teleskop</t>
-        </is>
-      </c>
+          <t>Optics module</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Telescopio</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
-        </is>
-      </c>
+          <t>Componenti ottiche</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Módulo óptico</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>光学模块</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
+          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ontolidar:OpticsModule</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>Parte del lidar che trasforma le proprietà della luce laser da quelle della sorgente a quelle ottimali per essere inviate sul target e poi raccolte dal ricevitore.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>El módulo óptico está diseñado para modificar el rayo láser original y converirlo en radiación con las especificiones  deseadas (modos) que pueda ser enviada al objetivo y racibida por el detector de forma adecuada.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>光学模块旨在将原始激光束转换为具有所需规格的辐射，可以将其发送到目标并由探测器正确接收。”</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
@@ -2466,47 +3050,75 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
+          <t>ontolidar:Telescope</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Telescope aperture</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>Telescope</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Teleskop</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Apertura del telescopio</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>The aperture through which laser light is emitted and received</t>
-        </is>
-      </c>
+          <t>Telescopio</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Telescopio</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>望远镜</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
+          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ontolidar:Telescope</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+          <t>Il sistema di lenti, specchi ed altri elementi ottici e meccanici che in un lidar emettono e ricevono luce laser.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Sistema de  lente, espejos y otros comonentes ópticos.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>发射和接收激光的透镜、反射镜和其他光学和机械组件的系统</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>ontolidar:OpticsModule</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2521,51 +3133,71 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeApertureDiameter</t>
+          <t>ontolidar:TelescopeAperture</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Telescope aperture diameter</t>
+          <t>Telescope aperture</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Diametro dell'apertura del telescopio</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Characteristic optical diameter of the lidar telescope</t>
-        </is>
-      </c>
+          <t>Apertura del telescopio</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Apertura del telescopio</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>望远镜光圈</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Diametro ottico del telescopio del lidar.</t>
+          <t>The aperture through which laser light is emitted and received</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ontolidar:TelescopeAperture</t>
+          <t>La finestra attraverso cui il laser viene emesso e ricevuto fra lo spazio interno del lidar e l'ambiente esterno.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>meters</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
+          <t>La aperture a través de la cual se emite y recibe la luz láser.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>发射和接收激光的孔径</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>ontolidar:Telescope</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -2580,53 +3212,77 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ontolidar:All-fiberLidar</t>
+          <t>ontolidar:TelescopeApertureDiameter</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Beam transmission system</t>
+          <t>Telescope aperture diameter</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del fascio</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>All-fiber transmission Lidar system</t>
-        </is>
-      </c>
+          <t>Diametro dell'apertura del telescopio</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Diámetro de apertura del telescopio</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>望远镜光圈直径</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
+          <t>Characteristic optical diameter of the lidar telescope</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Diametro ottico del telescopio del lidar.</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+          <t>Diámetro de la apertura del telescopio.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>激光雷达望远镜的特征光学直径</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>True if lidar is all-fiber</t>
-        </is>
-      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>ontolidar:TelescopeAperture</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -2639,57 +3295,81 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
+          <t>ontolidar:BeamTransmissionSystem(Photonics)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Photonics module</t>
+          <t>Beam transmission system (photonics)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Componente fotonica</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
-        </is>
-      </c>
+          <t>Sistema di trasmissione del fascio</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sistema de transmisión del haz</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>光束传输系统</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
+          <t>All-fiber transmission Lidar system</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>Sistema di trasmissione del lidar realizzato interamente in fibra ottica.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Sistema de transmisión de la señal lidar lidar íntegramente relizado con fibra óptica</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>全光纤传输激光雷达系统</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>True if lidar is all-fiber</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
@@ -2698,47 +3378,43 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
+          <t>ontolidar:BeamTransmissionSystem(Optics)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Detector</t>
+          <t>Beam transmission system (optics)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Rilevatore</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>An assembly to gather and detect incident light</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ontolidar:PhotonicsModule</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>ontolidar:OpticsModule</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2753,53 +3429,81 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ontolidar:Photodetector</t>
+          <t>ontolidar:PhotonicsModule</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Photodetector</t>
+          <t>Photonics module</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fotorivelatore</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Semiconductor light sensor.</t>
-        </is>
-      </c>
+          <t>Componente fotonica</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Módulo de fotónica</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>光子模块</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Fotosensore a semi-conduttori.</t>
+          <t>The photonics module is the source of emitted light that will be used for the measurements.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+          <t xml:space="preserve">Modulo sorgente della luce laser utilizzato per le misurazioni. </t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>El módulo fotónico es la fuente de emisión de  luz utilizada para efectuar las medidas.</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>光子学模块是将用于测量的发射光源。</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
@@ -2808,47 +3512,71 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorGain</t>
+          <t>ontolidar:Detector</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Photodetector gain</t>
+          <t>Detector</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Guadagno del fotorivelatore</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>The gain of the photodetector transimpedance amplifier.</t>
-        </is>
-      </c>
+          <t>Rilevatore</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Detector</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>探测器</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t>An assembly to gather and detect incident light</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+          <t>Gruppo di sistemi per ricevere, rilevare e misurare la luce incidente.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Conjunto de dispositivos encargados de recoger y detectar la luz incidente.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>用于收集和检测入射光的组件</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -2863,47 +3591,71 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ontolidar:PhotodetectorVoltageNoise</t>
+          <t>ontolidar:Photodetector</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Photodetector voltage noise</t>
+          <t>Photodetector</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rumore di tensione del fotorivelatore</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
-        </is>
-      </c>
+          <t>Fotorivelatore</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Fotodetector</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>光电探测器</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
+          <t>Semiconductor light sensor.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ontolidar:PhotoDetector</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>Fotosensore a semi-conduttori.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Sensor de luz semiconductor.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>半导体光传感器。</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -2918,57 +3670,73 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ontolidar:AcoustoOpticModulator</t>
+          <t>ontolidar:PhotodetectorGain</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Acousto optic modulator</t>
+          <t>Photodetector gain</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Modulatore acusto-ottico</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
-        </is>
-      </c>
+          <t>Guadagno del fotorivelatore</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ganancia del fotodetector</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>光电探测器增益</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>AOM</t>
-        </is>
-      </c>
+          <t>The gain of the photodetector transimpedance amplifier.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>Guadagno dell'amplificatore a transimpedenza del fotodetettore.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Ganancia del semiconductor.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>光电探测器跨阻放大器的增益。</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotoDetector</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Only pulsed lidar</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -2981,53 +3749,73 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ontolidar:OpticalAmplifier</t>
+          <t>ontolidar:PhotodetectorVoltageNoise</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Optical amplifier</t>
+          <t>Photodetector voltage noise</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Amplificatore ottico</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
-        </is>
-      </c>
+          <t>Rumore di tensione del fotorivelatore</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ruido de voltaje del fotodetector</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>光电探测器电压噪声</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
+          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>Rumore di tensione dell'amplificatore a transimpedenza del fotodetettore.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Ruido de voltaje del fotodetector.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>光电探测器跨阻放大器的电压噪声。</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotoDetector</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -3040,61 +3828,85 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ontolidar:BeamSplitter</t>
+          <t>ontolidar:AcoustoOpticModulator</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beam splitter </t>
+          <t>Acousto optic modulator</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sdoppiatore ottico</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>An optical assembly to split a laser beam into two or more beams.</t>
-        </is>
-      </c>
+          <t>Modulatore acusto-ottico</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Modulador acusto-óptico</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>声光调制器</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>beamsplitter</t>
-        </is>
-      </c>
+          <t>Bragg cell diffracting and shifting frequency of the light using sound waves (radio-frequency). Produces a pulsed output beam.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>ontolidar:Detector</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+          <t>Cella di Bragg per diffrangere e traslare in frequenza la luce utilizzando onde sonore a radiofrequenza. Produce un fascio pulsato in uscita.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Celda de Bragg utilizada para difractar y trasladar la frecuencia de la luz mediante el uso de ondas sonoras de radiofrecuencia. Produce un rayo pulsado a la salida.</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>布拉格细胞使用声波（射频）衍射和移动光的频率。产生脉冲输出光束。</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>AOM</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Only pulsed lidar</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
@@ -3103,53 +3915,81 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
+          <t>ontolidar:OpticalAmplifier</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Laser source</t>
+          <t>Optical amplifier</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sorgente laser</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>An assembly to generate and manage laser light.</t>
-        </is>
-      </c>
+          <t>Amplificatore ottico</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Amplificador óptico</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>光放大器</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Un sistema di generazione e controllo della luce laser.</t>
+          <t>An assembly to amplify the outgoing laser light signal without converting it into an electrical signal.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>ontolidar:PhotonicsModule</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>Sistema di amplificazione della potenza ottica della luce laser emessa.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Conjunto de dispositivos utilizados para amplificar la luz del láser emitido sin convertirlo previemente en señal eléctrica.</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>放大输出的激光信号而不将其转换为电信号的组件。</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Optical_amplifier</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -3158,53 +3998,85 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
+          <t>ontolidar:BeamSplitter</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Laser diode</t>
+          <t xml:space="preserve">Beam splitter </t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Diodo laser</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>A semiconductor component to generate laser light of a defined frequency.</t>
-        </is>
-      </c>
+          <t>Sdoppiatore ottico</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Divisor de haz</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>分束器</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
+          <t>An optical assembly to split a laser beam into two or more beams.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>ontolidar:LaserSource</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+          <t xml:space="preserve">Un sistema ottico per la divisione di un fascio laser in due o più fasci. </t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Sistema para dividir el rayo láser en dos o más rayos.</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>一种将激光束分成两束或更多束的光学组件。</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>beamsplitter</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>ontolidar:Detector</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -3213,51 +4085,71 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiodeWavelength</t>
+          <t>ontolidar:LaserSource</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Laser diode wavelength</t>
+          <t>Laser source</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Lunghezza d'onda del diodo laser</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
-        </is>
-      </c>
+          <t>Sorgente laser</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Fuente láser</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>激光源</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
+          <t>An assembly to generate and manage laser light.</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>ontolidar:LaserDiode</t>
+          <t>Un sistema di generazione e controllo della luce laser.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>meters</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>Conjunto de dispositivos para generar y regular el rayo de luz láser.</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>用于生成和管理激光的组件。</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>ontolidar:PhotonicsModule</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3272,53 +4164,73 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
+          <t>ontolidar:LaserDiode</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Power module</t>
+          <t>Laser diode</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Componente di alimentazione</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
-        </is>
-      </c>
+          <t>Diodo laser</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Diodo láser</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>激光二极管</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
+          <t>A semiconductor component to generate laser light of a defined frequency.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>Un dispositivo optoelettronico a semiconduttore che genera luce laser monocromatica.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Componente semiconductor destinado a generar luz láser de una frecuencia definida.</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>一种半导体元件，用于产生规定频率的激光。</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>ontolidar:LaserSource</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -3331,48 +4243,76 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptiblePowerSupply</t>
+          <t>ontolidar:LaserDiodeWavelength</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply</t>
+          <t>Laser diode wavelength</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS)</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Uninterruptible power supply (UPS)</t>
-        </is>
-      </c>
+          <t>Lunghezza d'onda del diodo laser</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Longitud de onda del diodo láser</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>激光二极管波长</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Gruppo di continuità (UPS).</t>
+          <t>The nominal wavelength of the laser source. This is defined in units of meters, e.g., 1450E-9 m for a near-infrared laser source.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ontolidar:PowerModule</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+          <t>La lunghezza d'onda nominale della sorgente laser. Definita in unità di lunghezzza (metri): ad esempio 1450E-9 m per una sorgente laser nel vicino infrarosso.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Longitud de onda nominal del láser</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>激光源的标称波长。这是以米为单位定义的，例如，对于近红外激光源，1450E-9 m。</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>ontolidar:LaserDiode</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -3386,53 +4326,81 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
+          <t>ontolidar:PowerModule</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>UPS Battery</t>
+          <t>Power module</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Batteria dell'UPS</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>An energy storage component</t>
-        </is>
-      </c>
+          <t>Componente di alimentazione</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Módulo de alimentación</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>电源模块</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ontolidar:UninterruptablePowerSupply</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+          <t>Modulo di rifornimento e distribuzione dell'energia in ogni parte del sistema lidar, inclusi i motori, il laser, i sensori ed il ricevitore.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>El módulo de potencia (o de alimentación) es responsable de abastecer al lidar de la energía necesaria para el funcionamiento del sistema.</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>电源模块负责为整个激光雷达系统供电，包括电机、激光器、传感器和探测器。</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
@@ -3441,51 +4409,71 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryVoltage</t>
+          <t>ontolidar:UninterruptiblePowerSupply</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>UPS battery voltage</t>
+          <t>Uninterruptible power supply</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Voltaggio della batteria dell'UPS</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>The battery voltage. Units are Volts.</t>
-        </is>
-      </c>
+          <t>Gruppo di continuità (UPS)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SAI</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>不间断电源(UPS)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Il voltaggio della batteria (in unità di Volt).</t>
+          <t>Uninterruptible power supply (UPS)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
+          <t>Gruppo di continuità (UPS).</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>volts</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr"/>
+          <t>Sistema de alimentación ininterrumpida (SAI).</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>不间断电源（UPS）</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>ontolidar:PowerModule</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3500,51 +4488,71 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBatteryCapacity</t>
+          <t>ontolidar:UpsBattery</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>UPS battery capacity</t>
+          <t>UPS Battery</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Capacità della batteria dell'UPS</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
-        </is>
-      </c>
+          <t>Batteria dell'UPS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Batería del SAI</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>UPS电池</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
+          <t>An energy storage component</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ontolidar:UpsBattery</t>
+          <t>Un sistema di riserva di energia - tipicamente una batteria.</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Amp hours</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+          <t>Componente de almacenamiento de energía.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>储能组件</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>ontolidar:UninterruptablePowerSupply</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3559,53 +4567,77 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
+          <t>ontolidar:UpsBatteryVoltage</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Scanner module</t>
+          <t>UPS battery voltage</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Componente di scansione</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
-        </is>
-      </c>
+          <t>Voltaggio della batteria dell'UPS</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Voltaje de batería del SAI</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>UPS电池电压</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
+          <t>The battery voltage. Units are Volts.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ontolidar:Design</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+          <t>Il voltaggio della batteria (in unità di Volt).</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Voltaje de la batería. Unidade en voltios.</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>电池电压。单位是伏特。</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
-        </is>
-      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>volts</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -3618,48 +4650,76 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+          <t>ontolidar:UpsBatteryCapacity</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Scanner azimuth positioning servo</t>
+          <t>UPS battery capacity</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione azimutale</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
-        </is>
-      </c>
+          <t>Capacità della batteria dell'UPS</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Capacidad de la batería del SAI</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>UPS电池容量</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
+          <t>The total stored energy in the battery voltage. Units are Amp Hours (Ah)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerModule</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Energía total acumulada en al batería.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>电池电压中存储的总能量。单位是安时 (Ah)</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>ontolidar:UpsBattery</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Amp hours</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
@@ -3673,57 +4733,89 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ontolidar:AzimuthSlewRate</t>
+          <t>ontolidar:AzimuthAngle</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Azimuth slew rate</t>
+          <t>Azimuth angle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Velocità massima azimutale</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
-        </is>
-      </c>
+          <t>Azimut</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Azimut</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>方位角</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
+          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+          <t>Angulo subtendido entre la línea de visión (line-of-sight o LOS, por sus siglas en inglés) del lidar y el vector de referencia del plano de referencia.</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>激光雷达的视线与基准平面上的参考向量之间的夹角。</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Azimuth angle</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -3732,48 +4824,80 @@
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>ontolidar:ElevationAngle</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Scanner elevation positioning servo</t>
+          <t>Elevation angle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Servomotore per la scansione nella direzione di elevazione</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>The azimuth servo motor drives the scanner in the elevation direction</t>
-        </is>
-      </c>
+          <t>Elevazione</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Elevación</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>仰角</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
+          <t>The angle between the line of sight of the lidar and the datum plane.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
+          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Angulo subtendido entre la línea de visión (line-of-sight o LOS, por sus siglas en inglés) del lidar y el plano de referencia.</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>激光雷达的视线与基准平面之间的夹角。</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Elevation angle</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>ontolidar:ScannerModule</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
@@ -3787,57 +4911,81 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ontolidar:ElevationSlewRate</t>
+          <t>ontolidar:ScannerModule</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Elevation slew rate</t>
+          <t>Scanner module</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Velocità massima di elevazione</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
-        </is>
-      </c>
+          <t>Componente di scansione</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Módulo del escáner</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>扫描器模块</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
+          <t>The scanner orients the beam with respect to the housing and other parts of the lidar system. The scanner may be capable of one or more degrees of freedom.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerElevationPositioningServo</t>
+          <t>Modulo che muove il fascio laser rispetto all'asse principale ed alle altre parti del sistema. Può essere dotato di uno o più gradi di libertà.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>degrees per second</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
+          <t>El escáner orienta el rayo láser con respecto al alojamiento y otros elementos del sistema. El escáner puede tener uno o más grados de libertad.</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>扫描仪相对于外壳和激光雷达系统的其他部分定向光束。扫描仪可以具有一个或多个自由度。</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>ontolidar:Design</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Definition based on the OpenLidar module definitions at https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
@@ -3846,47 +4994,71 @@
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ontolidar:ScannerMirrors</t>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Scanner mirrors</t>
+          <t>Scanner azimuth positioning servo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Specchi dello scanner</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
-        </is>
-      </c>
+          <t>Servomotore per la scansione nella direzione azimutale</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Servomotor de posicionamiento azimut del escáner</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>扫描器方位定位伺服</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
+          <t>The azimuth servo motor drives the scanner in the azimuthal direction</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
+          <t>Servomotore dedicato a muovere il modulo di scansione nel piano azimutale.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>El servomotor ayimutal gestiona el escáner en la dirección azimutal.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>方位伺服电机在方位方向驱动扫描仪</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
           <t>ontolidar:ScannerModule</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -3901,48 +5073,76 @@
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:AzimuthSlewRate</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Devices</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Geräte</t>
-        </is>
-      </c>
+          <t>Azimuth slew rate</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Strumenti lidar</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Specific implementations of wind lidar technologies.</t>
-        </is>
-      </c>
+          <t>Velocità massima azimutale</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Velocidad de giro azimutal</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>方位角回转率</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Massima velocità di operazione del servomotore nel piano azimutale.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Velocidad máxima de funcionamiento del servomotor en la dirección azimutal.</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>伺服电机在方位方向的最大运行速率</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerAzimuthPositioningServo</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -3956,57 +5156,77 @@
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ontolidar:Windscanner</t>
+          <t>ontolidar:ElevationSlewRate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Windscanner</t>
-        </is>
-      </c>
+          <t>Elevation slew rate</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Lidar 'WindScanner'</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
-        </is>
-      </c>
+          <t>Velocità massima di elevazione</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Velocidad de giro de elevación</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>海拔回转率</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
+          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>Massima velocità di modifica dell'altezza del fascio laser.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Velocidad máxima de funcionamiento del servomotor en la dirección de elevación.</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>伺服电机在仰角方向的最大运行速率</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>degrees per second</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -4019,57 +5239,73 @@
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ontolidar:WindIris</t>
+          <t>ontolidar:ScannerElevationPositioningServo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wind Iris</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Wind Iris</t>
-        </is>
-      </c>
+          <t>Scanner elevation positioning servo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lidar 'Wind Iris'</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
-        </is>
-      </c>
+          <t>Servomotore per la scansione nella direzione di elevazione</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Servomotor del posicionamiento de elevación del escáner</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>扫描仪仰角定位伺服</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
+          <t>The elevation servo motor drives the scanner in the elevation direction</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+          <t>Servomotore dedicato a modificare l'altezza sull'orizzonte del fascio laser.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>El servomotor de elevación acciona el escáner en la dirección de elevación.</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>升降伺服电机驱动扫描仪在升降方向</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -4082,47 +5318,71 @@
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
+          <t>ontolidar:ScannerMirrors</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Instances</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Instanzen</t>
-        </is>
-      </c>
+          <t>Scanner mirrors</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Esempi di lidars</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Wind lidar instances</t>
-        </is>
-      </c>
+          <t>Specchi dello scanner</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Espejos del escáner</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>扫描镜</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Esempi di lidar eolici.</t>
+          <t>Mirrors modifying the beam path between the telescope and atmosphere.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Specchi per modificare il cammino ottico del fascio laser fra il telescopio e l'atmosfera esterna.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Espejos destinados a modificar la trayectoria del haz entre el telescopio y la atmósfera.</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>镜子修改望远镜和大气之间的光束路径。</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -4137,45 +5397,69 @@
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ontolidar:SerialNumber</t>
+          <t>ontolidar:Devices</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Serial number</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Geräte</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Numero seriale</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>wind lidar serial number</t>
-        </is>
-      </c>
+          <t>Strumenti lidar</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Dispositivos</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Numero di serie del lidar.</t>
+          <t>Specific implementations of wind lidar technologies.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+          <t>Particolari realizzazioni di tecnologie lidar per applicazioni eoliche.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Implementaciones específicas de la tecnología del lidar de viento.</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>风力激光雷达技术的具体实现。</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -4192,57 +5476,85 @@
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ontolidar:LidarType</t>
+          <t>ontolidar:Windscanner</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Lidar type</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>Windscanner</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Windscanner</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tipologia di lidar</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>The type of lidar device</t>
-        </is>
-      </c>
+          <t>Lidar 'WindScanner'</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Escáner de viento</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Windscanner测风雷达</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Tipologia di lidar.</t>
+          <t>One of many different types of system that can be used to perform convergent scan geometries. Originally referred to the DTU-led windscanner.eu project.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>ontolidar:Instances</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>Uno dei vari tipi di sistemi che possono essere utilizzati per effettuare scansioni su geometrie convergenti. Originariamente noto come il progetto windscanner.eu project di DTU.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Uno de los varios tipos de sistemas que se pueden utilizar para realizar escaneos de geometría convergente.  Originariamente hace referencia al proyecto windscanner.eu de DTU.</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>可用于执行收敛扫描几何形状的许多不同类型的系统之一。原指DTU主导的windscanner.eu项目。</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
           <t>ontolidar:Devices</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -4251,49 +5563,85 @@
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:WindIris</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Measurement principles</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Wind Iris</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Wind Iris</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Principi di misurazione</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>The means by which a lidar makes a measurement of the wind</t>
-        </is>
-      </c>
+          <t>Lidar 'Wind Iris'</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Wind Iris</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Wind Iris测风雷达</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+          <t>Type of free-standing lidar device intended for use as a forward-looking lidar mounted on a wind turbine nacelle</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Un particolare tipo di sistema stand-alone lidar con applicazioni per misurazioni dalla navicella di una turbina eolica.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Tipo de dispositivo lidar autónomo destinado a ser utilizado como lidar de visión frontal de  flujo entrante, montado en la góndola de un aerogenerador.</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>一种独立式激光雷达设备，用作安装在风力涡轮机机舱上的前视激光雷达</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Describing a wind lidar unit as 'a wind iris' is insufficient information to uniquely describe it's capabilities.</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
@@ -4302,41 +5650,69 @@
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ontolidar:LineOfSight</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Line of sight</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
-        </is>
-      </c>
+          <t>Instances</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Instanzen</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Esempi di lidars</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Instancias</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>激光雷达示例</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+          <t>Wind lidar instances</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+          <t>Esempi di lidar eolici.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Instancias del lidar de viento.</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>风激光雷达实例</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -4353,51 +5729,71 @@
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ontolidar:TimeOfFlight</t>
+          <t>ontolidar:SerialNumber</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Time of flight</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tempo di volo</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
-        </is>
-      </c>
+          <t>Numero seriale</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Número de serie</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>序列号</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>TOF</t>
-        </is>
-      </c>
+          <t>wind lidar serial number</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+          <t>Numero di serie del lidar.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Número de serie del lidar de viento.</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>测风激光雷达序列号</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>ontolidar:Instances</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
@@ -4412,49 +5808,77 @@
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementVolume</t>
+          <t>ontolidar:LidarType</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Measurement volume</t>
+          <t>Lidar type</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Volume di misurazione</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
-        </is>
-      </c>
+          <t>Tipologia di lidar</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Tipo de lidar</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>激光雷达类型</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+          <t>The type of lidar device</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+          <t>Tipologia di lidar.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Tipo de dispositivo lidar.</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>激光雷达设备类型</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>ontolidar:Instances</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>ontolidar:Devices</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -4467,45 +5891,65 @@
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Probe</t>
+          <t>Measurement principles</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sonda</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
-        </is>
-      </c>
+          <t>Principi di misurazione</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Principios de medición</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>测量原理</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+          <t>The means by which a lidar makes a measurement of the wind</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Medios utilizados por el lidar para realizar medidas de viento.</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>激光雷达测量风的方法</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -4522,47 +5966,71 @@
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ontolidar:ProbeVolume</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Probe volume</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Volume della sonda</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
-        </is>
-      </c>
+          <t>Linea di visuale</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Línea de visión</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>观测线</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Línea a lo largo de la cual las señales lidar son emitidas y retrodispersadas para ser detectadas por el sistema.</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>激光雷达信号沿其发射和反向散射以供系统检测的线。</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4577,51 +6045,75 @@
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ontolidar:RadialVelocity</t>
+          <t>ontolidar:TimeOfFlight</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Radial velocity</t>
+          <t>Time of flight</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Velocità radiale</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
-        </is>
-      </c>
+          <t>Tempo di volo</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Tiempo de vuelo</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>飞行时间</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Radial wind speed</t>
-        </is>
-      </c>
+          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
+          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>El tiempo empleado por un sistema de lidar pulsado desde el momento en que es emitido hasta que es recibio por el sistema, durante el cual interacciona con la atmósfera a lo largo de un volumen de muestreo desde el cual la señal se retrodispersa.</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>激光雷达脉冲发射、与探测器体积中的大气相互作用以使其反向散射并返回以被系统检测所需的时间。</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
           <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -4636,57 +6128,73 @@
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ScanningSampleRate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Scanning geometry</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Geometria di scansione</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>Scanning sample rate</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ScanningSamplRate</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Tasa de muestreo del escáner</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>扫描采样率</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Scan pattern</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+          <t>Frequency of the scanning pattern. Time the scanner takes to complete a pattern</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Frecuencia del patrón de escaneo. Tiempo que tarda en completarse un patrón de escaneo.</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>扫描模式的频率。扫描仪完成图案所需的时间</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>ontolidar:ScannerModule</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -4699,53 +6207,73 @@
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:LidarSampleRate</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Single lidar</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Lidar singolo</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>Lidar sample rate</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>LidarSampleRate</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Tasa de muestreo lidar</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>激光雷达采样率</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Misurazioni effettuate da un lidar singolo</t>
+          <t>Sample rate frequency. Number of samples per second.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ontolidar:ScanningGeometry</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Frecuencia de medición lidar. Número de muestras por segundo.</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>采样率频率。每秒样本数。</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -4758,47 +6286,71 @@
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ontolidar:Staring</t>
+          <t>ontolidar:MeasurementVolume</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Staring</t>
+          <t>Measurement volume</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Geometria fissa</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>A scan geometry comprised of a single beam orientation.</t>
-        </is>
-      </c>
+          <t>Volume di misurazione</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Volumen de medición</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>测量空间（体积）</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Región caracterizada por el lidar de viento. Corresponde a la región en la que los diferentes rayos con diversas orientaciones (o líneas de visión, LOS por sus siglas en inglés) penetran en la atmósfera tomando datos a lo largo de un volumen de muestreo. A lo largo de estos volúmenes de muestreo, cada uno correspondiente a una orientación (o línea de visión) el sistema adquiere datos intermedios de los que se extraen las mediciones finales.</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>以风激光雷达为特征的区域。对应于各种光束方向/视线和探头体积所穿透的区域，在该区域中获取中间数据以产生最终测量值。</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -4813,47 +6365,71 @@
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ontolidar:StopStare</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Stop-stare</t>
+          <t>Probe</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Geometria "osserva da fisso"</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
-        </is>
-      </c>
+          <t>Sonda</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Sonda</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>探测</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
+          <t>In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a region of relatively elevated sensitivity along the line of sight determined by the optical focus of the system.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>En el caso de un lidar pulsado, el sondeo es un pulso láser emitido a lo largo de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) cuya orientación se determina por la configuración del lidar. En el caso de un lidar de onda continua el sondeo es una región relativamenta sensible a lo largo de la línea de visión determinada por la  distancia focal del sistema.</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>在脉冲激光雷达的情况下，探头是沿视线发射的激光脉冲，其方向由激光雷达的配置决定。在连续波激光雷达的情况下，探头是沿着由系统的光学焦点确定的视线的灵敏度相对较高的区域。</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
@@ -4868,47 +6444,71 @@
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ontolidar:SweepStare</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sweep-stare</t>
+          <t>Probe volume</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Geometria "osserva in movimento"</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
-        </is>
-      </c>
+          <t>Volume della sonda</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Volumen de la sonda</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>探测体积</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Volumen a lo largo del cual la sonda interactúa con la atmósfera dando como resultado la medida de la velocidad radial.</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>探头与大气相互作用导致径向速度测量的体积。</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>ontolidar:Probe</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -4923,53 +6523,65 @@
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:RayleighLength</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Simple scan</t>
+          <t>Rayleigh length</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Scansione semplice</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Longitud Rayleigh</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>瑞利长度</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+          <t>Distance, from the beam waist in the propagation direction, where the area of the beam section is increased by a factor of 2, or the radius is increased by a factor of the squared root of 2. The Rayleigh length is used to characterise the probe volume and corresponds to the half of the probe length.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ontolidar:SingleLidar</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Distancia tomando como referencia la distancia focal, en la dirección de propagación del haz, donde el área de la sección del haz se duplica, o dicho de otro modo, el radio se incrementa en un factor raíz de 2. La longitud de Rayleigh se utiliza para caracterizar el volumen de la sonda y corresponde a la mitad de la longitud de muestreo.</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>距离，从束腰沿传播方向，其中光束截面面积增加 2 倍，或半径增加 2 的平方根。 瑞利长度用于表征探头体积，对应于探头长度的一半。</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>ontolidar:Probe</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -4982,53 +6594,77 @@
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:RadialVelocity</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Variable azimuth scan</t>
+          <t>Radial velocity</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Scansione ad azimut variabile</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>A simple scan geometry with variable azimuth angle</t>
-        </is>
-      </c>
+          <t>Velocità radiale</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Velocidad radial</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>观测线风速</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+          <t>An intermediate variable (see intermediate data), the radial velocity is the radial component of the wind velocity vector relative to the location of the lidar measuring it. It is the projection of the wind velocity vector onto the line of sight, directly measured by observing the Doppler shift of the backscattered laser pulse emitted along the line of sight.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+          <t>Una misurazione intermedia (vedasi intermediate data), specificamente la componente del vettore velocità del vento nella direzione del raggio laser emesso dal lidar (line of sight). La sua derivazione è immediata a partire dalla misurazione dello shift Doppler del raggio riflesso dall'atmosfera rispetto alla frequenza del raggio emesso dal lidar.</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Variable intermedia (ver datos intermedios). La velocidad radial es la componente radial del vector de velicidad del viento, relativo a la localización del lidar que realiza la medida. Es la proyección del vector de velocidad del viento sobrel la línea de visión (line-of-sight o LOS, por sus siglas en inglés) medida directamente mediante la observación del desplazamiento Doppler del pulso láser retrodispersado, y que fue previamente emitido a lo largo de la línea de visión.</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>一个中间变量（见中间数据），径向速度是风速矢量相对于测量它的激光雷达位置的径向分量。它是风速矢量在视线上的投影，通过观察沿视线发射的背向散射激光脉冲的多普勒频移直接测量。</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Radial wind speed</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -5041,53 +6677,85 @@
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ontolidar:CompleteCone</t>
+          <t>ontolidar:ScanningGeometry</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Complete cone</t>
+          <t>Scanning geometry</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Geometria a cono completo</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
+          <t>Geometria di scansione</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>扫描模式</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1. Serie de configuraciones de medidas realizadas por un lidar de escaneo que requieren que el haz lidar sea escaneado o barrido entre un número de orientacions diferentes. La geometría de barrido asegura que se adquieran mediciones en un volumen suficiente para posibilitar la reconstrucción del campo de viento. La secuencia de orientaciones del haz puede repetirse para adquirir una serie temporalde datos finales, adquiridos en cada iteración. Los escaneos pueden realizarse en modo stop-stare o sweep-stare. 2. La colección de líneas de visión (line-of-sight o LOS, por sus siglas en inglés)  del haz a lo largo de las cuales el lidar está programado para emitir su sondeo.</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1. 一系列扫描激光雷达配置的排列，需要在多个不同方向之间扫描或扫掠激光雷达波束。扫描几何结构确保在足以重建风场的整个测量体积中获取测量值。可以重复波束方向序列以获取从每次迭代获取的最终数据的时间序列。扫描可以在停止凝视或扫视模式下进行。 2. 视线/光束方向的集合，激光雷达被编程为沿着这些方向发射其探头。</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Scan pattern</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
@@ -5096,57 +6764,81 @@
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ontolidar:ConeSector</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cone sector</t>
+          <t>Single lidar</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Geometria a settore di cono</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
+          <t>Lidar singolo</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Lidar individual</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>单激光雷达</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Plan-position indicator, PPI</t>
-        </is>
-      </c>
+          <t>A single isolated lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+          <t>Misurazioni effettuate da un lidar singolo</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Un solo lidar aislado que devuelve datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés)  que se convierten en características del campo de viento sin el uso de datos de otro lidar o dispositivo de medición de la velocidad del viento.</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>一个单独的激光雷达，返回视线数据，这些数据被转换为风场特性，而无需使用来自另一个激光雷达或风速测量设备的数据。</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>ontolidar:ScanningGeometry</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
@@ -5155,47 +6847,71 @@
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ontolidar:DopplerBeamSwinging</t>
+          <t>ontolidar:Staring</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Doppler beam swinging</t>
+          <t>Staring</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Geometria fissa</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Geometría fija</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>单向扫描</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>DBS</t>
-        </is>
-      </c>
+          <t>A scan geometry comprised of a single beam orientation.</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo que comprende una sola orientación del rayo de medición.</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>由单个光束方向组成的扫描几何结构。</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
@@ -5210,53 +6926,73 @@
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevation</t>
+          <t>ontolidar:StopStare</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Variable elevation</t>
+          <t>Stop-stare</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Geometria ad elevazione variabile</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>A simple scan geometry with variable elevation angle</t>
-        </is>
-      </c>
+          <t>Geometria "osserva da fisso"</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Geometría de punto fijo</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>停止凝视</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position."@en ;</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos mientras el rayo permanece estacionario en una de las orientaciones predeterminada a lo largo de la secuencis de escaneo. Ninguna medida se realiza durante la fase de reposicionamiento del laser a su siguiente posición.</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>当光束在包括扫描几何形状的预定方向之一中保持静止时，获取视线数据。当光束移动到下一个位置时，不会获取任何数据。"@en ;</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -5269,51 +7005,71 @@
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ontolidar:VerticalSlice</t>
+          <t>ontolidar:SweepStare</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vertical slice</t>
+          <t>Sweep-stare</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Geometria a taglio verticale</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
-        </is>
-      </c>
+          <t>Geometria "osserva in movimento"</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Geometría de barrido</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>扫视</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Range-height indicator, RHI</t>
-        </is>
-      </c>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevationScan</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos continuamente, mientras el rayo recorre las posiciones de escaneo programadas.</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>当光束在预定位置之间扫描时，会连续获取视线数据。</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -5328,49 +7084,81 @@
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Compound scan</t>
+          <t>Simple scan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Scansione semplice</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Escaneo simple</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>简单扫描</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>A simple scan geometry entails variation in beam orientation in a single degree of freedom</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
+          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Una geometría de escaneo simple en que la posición del rayo depende de un solo parámetro.</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>简单的扫描几何结构需要在单个自由度内改变光束方向</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
           <t>ontolidar:SingleLidar</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
@@ -5379,53 +7167,81 @@
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ontolidar:ArbitraryTrajectory</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Arbitrary trajectory</t>
+          <t>Variable azimuth scan</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Traiettoria arbitraria</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
-        </is>
-      </c>
+          <t>Scansione ad azimut variabile</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Escaneo de azimut variable</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>变方位扫描</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
+          <t>A simple scan geometry with variable azimuth angle</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo simple que sólo depende del ángulo azimut.</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>具有可变方位角的简单扫描几何</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>ontolidar:SimpleScan</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
@@ -5434,53 +7250,73 @@
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ontolidar:SequentialScan</t>
+          <t>ontolidar:CompleteCone</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sequential scan</t>
+          <t>Complete cone</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Scansione sequenziale</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
-        </is>
-      </c>
+          <t>Geometria a cono completo</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Geometía de cono completo</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>完整的锥体</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Geometría en la que el azimut puede variar a lo largo de un intervalo de 360 grados. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>一种扫描几何，其中光束的方位角在可能的方位角的整个 360 度范围内变化。风速和风向值可以通过风场重建过程获得，例如通过假设对方位角的正弦依赖性。</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableAzimuthScan</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
@@ -5493,51 +7329,75 @@
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:ConeSector</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Cone sector</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
-        </is>
-      </c>
+          <t>Geometria a settore di cono</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Geometría de cono sectorial</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>圆锥扇区</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>multilidar, multistatic</t>
-        </is>
-      </c>
+          <t>A scan geometry in which the azimuth angle of the beam is varied over less than the full 360 degree range of possible azimuth angles. Wind speed and direction values can potentially be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía a lo largo de un intervalo inferior a 360 grados. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>一种扫描几何，其中光束的方位角在小于可能方位角的 360 度全范围内变化。风速和风向值可以潜在地通过风场重建过程获得，例如通过假设对方位角的正弦依赖性。</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Plan-position indicator, PPI</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableAzimuthScan</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -5552,51 +7412,75 @@
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ontolidar:ConvergentScan</t>
+          <t>ontolidar:DopplerBeamSwinging</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Convergent scan</t>
+          <t>Doppler beam swinging</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Scansione convergente</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
-        </is>
-      </c>
+          <t>Geometria ad oscillazione del fascio laser</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Geometría de oscilación del haz Doppler</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>多普勒波束摆动</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
+          <t>A scan geometry in which the azimuth angle of the beam is varied by 90 degrees over the full 360 degree range of possible azimuth angles. Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía enintervalos de 90 grados a lo largo de los 360 grados posibles del ángulo azimutal. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>一种扫描几何，其中光束的方位角在可能的方位角的整个 360 度范围内变化 90 度。风速和风向值可以通过风场重建过程获得，例如通过假设对方位角的正弦依赖性。</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableAzimuthScan</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
@@ -5611,49 +7495,81 @@
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:VariableElevation</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Variable elevation</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Parametri</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Wind lidar-specific parameters.</t>
-        </is>
-      </c>
+          <t>Geometria ad elevazione variabile</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Geometría de elevación variable</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>可变高程</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Specifici parametri del lidar.</t>
+          <t>A simple scan geometry with variable elevation angle</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo simple que sólo depende del ángulo de elevación.</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>具有可变仰角的简单扫描几何</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>ontolidar:SimpleScan</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
@@ -5662,53 +7578,77 @@
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ontolidar:CarrierToNoiseRatio</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Carrier to noise ratio</t>
+          <t>Vertical slice</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>A measure of lidar return signal strength</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Geometria a taglio verticale</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Geometría de corte vertical</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>垂直切片</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Geometría de medida en la que el haz realiza un barrido en sentido vertical variando el ángulo de elevación pero no el ángulo de azimut. Estos barridos también se conocen como RHI (del inglés, range-high-indicator). Esta geometría de escaneo puede utilizarse para observar los detalles del flujo en la superficie de la sección transversal muestreada por el escaneo.</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>通过改变仰角而不是方位角，可以在光束扫过垂直切片的情况下进行扫描。这些扫描也称为范围高度指示器 (RHI) 扫描。此扫描几何形状可用于查看扫描采样的横截面中的流动细节</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableElevationScan</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>Often used interchangably with SNR</t>
-        </is>
-      </c>
+      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -5721,57 +7661,81 @@
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="inlineStr"/>
+      <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ontolidar:SignalToNoiseRatio</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Signal to noise ratio</t>
+          <t>Compound scan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>A measure of lidar return signal strength</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Scansione composita</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Escaneo compuesto</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>复合扫描</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>SNR</t>
-        </is>
-      </c>
+          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+          <t>Una scansione composita include più gradi di libertà ed è tipicamente il risultato di una combinazione di più sequenze di scansioni semplici.</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Los escaneos compuestos incluyen más grados de libertad y suelen estar formados por una secuencia de escaneos simples.</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>复合扫描包括更多的自由度，通常由一系列简单的扫描组成</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR</t>
-        </is>
-      </c>
+      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
@@ -5780,61 +7744,73 @@
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ontolidar:Azimuth</t>
+          <t>ontolidar:ArbitraryTrajectory</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Azimuth</t>
+          <t>Arbitrary trajectory</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Azimut</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>The angle between the line of sight of the lidar and a reference vector on the datum plane.</t>
-        </is>
-      </c>
+          <t>Traiettoria arbitraria</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Trayectoria arbitraria</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>任意轨迹</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser ed un vettore di riferimento in un piano di riferimento.</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Azimuth angle</t>
-        </is>
-      </c>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>degrees</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
+          <t>Se pueden realizar escaneos en los que el haz realiza un barrido variando arbitrariamente los ángulos de elevación y acimut para seguir una trayectoria determinada. Esto podría considerarse análogo al seguimiento de la trayectoria de un pájaro en vuelo desde una ubicación fija.</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>可以在光束扫过仰角和方位角的任意组合以遵循所需轨迹的情况下进行扫描。这可以被认为类似于从固定位置跟踪飞鸟的路径。</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>ontolidar:SingleLidar</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>The reference vector from which the azimuth is defined is often true north, but could be some other defined vector.</t>
-        </is>
-      </c>
+      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -5847,61 +7823,81 @@
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
+      <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ontolidar:Elevation</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Elevation</t>
+          <t>Sequential scan</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Elevazione</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>The angle between the line of sight of the lidar and the datum plane.</t>
-        </is>
-      </c>
+          <t>Scansione sequenziale</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Escaneo secuencial</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>顺序扫描</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>L'angolo fra la direzione del fascio laser e un piano di riferimento.</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Elevation angle</t>
-        </is>
-      </c>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>degrees</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
+          <t>En un barrido secuencial, se ejecutan escaneos simples y/o compuestos, uno tras otro, realizados por el mismo dispositivo para revelar las características del flujo.</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>在顺序扫描中，简单和/或复合扫描由同一设备一个接一个地执行，以揭示流动特性。</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>ontolidar:CompoundScan</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
@@ -5910,51 +7906,75 @@
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementHeight</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Altezza di misurazione</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
-        </is>
-      </c>
+          <t>Multi-lidar</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Multi-lidar</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>多激光雷达</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
+          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>meters</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+          <t>Medidas coordinadas relizadas en la misma región por diferentes dispositivos lidar. Las medidas pueden estar sincronizadas en el tiempo.</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>多个激光雷达在同一区域进行的协调测量。测量可能会或可能不会在时间上同步。</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>multilidar, multistatic</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>ontolidar:ScanningGeometry</t>
+        </is>
+      </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
@@ -5969,57 +7989,77 @@
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ontolidar:DatumElevation</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Convergent scan</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Elevazione di riferimento</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>The height of the datum plane above sea level</t>
-        </is>
-      </c>
+          <t>Scansione convergente</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Escaneo convergente</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>会聚扫描</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Altezza di un piano di riferimento sul livello del mare.</t>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>meters</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
+          <t>Una configuración de medición que incluye múltiples unidades lidar que funcionan de forma coordinada y sincronizada para que sus haces converjan y se crucen en una sucesión de volúmenes de muestreo. Si se utilizan tres o más unidades lidar, es posible caracterizar el vector de la velocidad del viento en el volumen de muestreo donde se cruzan los haces, dentro de las limitaciones prescritas por la longitud del muestreo, el intervalo de muestreo y la geometría de escaneo.</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>涉及多个激光雷达单元的测量配置，这些单元以协调和同步的方式运行，以便它们的光束会聚并在一系列探测体积处相交。如果使用三个或更多激光雷达单元，则可以在探头长度、采样间隔和扫描几何形状规定的限制范围内表征光束相交处的探头体积中的风速矢量。</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Convergent beam, convergent-beam lidar</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>ontolidar:MultiLidar</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -6032,51 +8072,63 @@
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ontolidar:DatumPlane</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Piano di riferimento</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
-        </is>
-      </c>
+          <t>Parametri</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Parámetros</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Reference height</t>
-        </is>
-      </c>
+          <t>Wind lidar-specific parameters.</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
+          <t>Specifici parametri del lidar.</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Parámetros específicos del lidar de viento.</t>
+        </is>
+      </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>风激光雷达特定参数。</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6095,57 +8147,85 @@
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Carrier to noise ratio</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Elemento di riferimento</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
-        </is>
-      </c>
+          <t>Rapporto portante-rumore</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Relación portadora-ruido</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>载噪比</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
+          <t>A measure of lidar return signal strength</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Medida de la fuerza de la señal de retorno.</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>测量激光雷达返回信号强度</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
           <t>ontolidar:Parameters</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Often used interchangably with SNR</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
@@ -6154,6 +8234,535 @@
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ontolidar:SignalToNoiseRatio</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Signal to noise ratio</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Rapporto segnale-rumore</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Relación señal-ruido</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>信噪比</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>A measure of lidar return signal strength</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Medida de la fuerza de la señal de retorno.</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>测量激光雷达返回信号强度</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Often used interchangably with CNR</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementHeight</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Measurement height</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Altezza di misurazione</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Altura de medición</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>测量高度</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Altura nominal sobre el plano de referencia donde la reconstrucción del viento devuelve la velocidad del viento. Normalmente utilizado para lidar de viento de perfil vertical en comparación con medidas de viento procedentes de un anemómetro.</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>风场重建过程返回风速的基准平面上方的标称高度。 通常用于垂直剖面风激光雷达，以与风速计的点风速测量值进行比较。</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
+      <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="inlineStr"/>
+      <c r="AK108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumElevation</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Datum elevation</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Elevazione di riferimento</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Elevación de referencia</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>基准高程</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>The height of the datum plane above sea level</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Altezza di un piano di riferimento sul livello del mare.</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Altura de plano de referencia sobre el nivel del mar.</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>基准面在海平面以上的高度</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
+      <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="inlineStr"/>
+      <c r="AK109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumPlane</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Datum plane</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Piano di riferimento</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Plano de referencia</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>基准面</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Plano horizontal desde el que se definen la alrura de referencia. Típicamente ventana del lidar, plano local de tierra, parte superior de una plataforma u otra referencia.</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>定义测量高度的水平面，例如激光雷达窗口、局部地面、平台顶面或其他参考。</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
+      <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="inlineStr"/>
+      <c r="AK110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ontolidar:DatumFeature</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Datum feature</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Elemento di riferimento</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Característica de referencia</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>基准特征</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Característica específica utilizada para distinguir o definit el plano de referencia desde el que  se define la medida de altura.</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>用于识别或定义定义测量高度的基准平面的区别特征</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
+      <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ontolidar:DataFormats</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Data formats</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>数据格式</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
+      <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="inlineStr"/>
+      <c r="AK112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ontolidar:</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+      <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -8600,15 +8600,11 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:WindCube</t>
         </is>
       </c>
       <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>ontolidar:WindCube</t>
-        </is>
-      </c>
+      <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
@@ -8667,15 +8663,11 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:WindCube</t>
         </is>
       </c>
       <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>ontolidar:WindCube</t>
-        </is>
-      </c>
+      <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
@@ -8734,15 +8726,11 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:WindCube</t>
         </is>
       </c>
       <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>ontolidar:WindCube</t>
-        </is>
-      </c>
+      <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
@@ -8864,15 +8852,11 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:Zephir</t>
         </is>
       </c>
       <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>ontolidar:Zephir</t>
-        </is>
-      </c>
+      <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
@@ -8931,15 +8915,11 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:Zephir</t>
         </is>
       </c>
       <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>ontolidar:Zephir</t>
-        </is>
-      </c>
+      <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
@@ -8998,15 +8978,11 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>ontolidar:Devices</t>
+          <t>ontolidar:Zephir</t>
         </is>
       </c>
       <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>ontolidar:Zephir</t>
-        </is>
-      </c>
+      <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -2804,15 +2804,11 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>ontolidar: UseCase</t>
+          <t>ontolidar: WindCharacterisation</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>ontolidar: WindCharacterisation</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -2973,15 +2969,11 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>ontolidar: UseCase</t>
+          <t>ontolidar: PerformanceVerification</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>ontolidar: PerformanceVerification</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -3032,15 +3024,11 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>ontolidar: UseCase</t>
+          <t>ontolidar: PerformanceVerification</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>ontolidar: PerformanceVerification</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -3095,15 +3083,11 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>ontolidar: UseCase</t>
+          <t>ontolidar: PerformanceVerification</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>ontolidar: PerformanceVerification</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -3209,15 +3193,11 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>ontolidar: UseCase</t>
+          <t>ontolidar: WindTurbineControl</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>ontolidar: WindTurbineControl</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -3268,15 +3248,11 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>ontolidar: UseCase</t>
+          <t>ontolidar: WindTurbineControl</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>ontolidar: WindTurbineControl</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -8508,7 +8484,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>WindCube</t>
+          <t>Windcube</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8600,7 +8576,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>ontolidar:WindCube</t>
+          <t>ontolidar:Windcube</t>
         </is>
       </c>
       <c r="P131" t="inlineStr"/>
@@ -8663,7 +8639,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>ontolidar:WindCube</t>
+          <t>ontolidar:Windcube</t>
         </is>
       </c>
       <c r="P132" t="inlineStr"/>
@@ -8726,7 +8702,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>ontolidar:WindCube</t>
+          <t>ontolidar:Windcube</t>
         </is>
       </c>
       <c r="P133" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -2532,27 +2532,11 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Ways that wind lidar can be used</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Differenti scopi per cui un wind lidar può essere utilizzato.</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Formas en las que el lidar de viento puede ser utilizado.</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>风力激光雷达的使用方法</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -2609,31 +2593,27 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
+          <t>Ways that wind lidar can be used. The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
+          <t>Differenti scopi per cui un wind lidar può essere utilizzato. La combinazione di tre elementi: 1. Requisiti derivati dai risultati attesi (in opposizione ai requisiti definiti dai vincoli del sistema, come nel confronto fra i sensori di prima generazione e le misurazioni di prima generazione); 2. Il metodo di misurazione selezionati per soddisfarli; 3. Le condizioni di operazione che definiscono le prestazioni (in termine di precisione) del metodo impiegato.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Combinación de tres elementos: 1. Requisitos de datos orientados a los resultados (en contraposición a los requisitos orientados a las restricciones, véase sensor de primera generación / mediciones de primera generación); 2. Método de medición seleccionado para cumplirlos; 3. Las condiciones de operación que determinan el rendimiento del método con respecto a la precisión del mismo.</t>
+          <t>Formas en las que el lidar de viento puede ser utilizado. Combinación de tres elementos: 1. Requisitos de datos orientados a los resultados (en contraposición a los requisitos orientados a las restricciones, véase sensor de primera generación / mediciones de primera generación); 2. Método de medición seleccionado para cumplirlos; 3. Las condiciones de operación que determinan el rendimiento del método con respecto a la precisión del mismo.</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>三个要素的组合： 1. 结果导向的数据要求（与约束导向的要求相反，请参阅第一代传感器/第一代测量）； 2. 选择可实现的测量方法； 3. 决定该方法在准确度性能方面的操作条件</t>
+          <t>风力激光雷达的使用方法. 三个要素的组合： 1. 结果导向的数据要求（与约束导向的要求相反，请参阅第一代传感器/第一代测量）； 2. 选择可实现的测量方法； 3. 决定该方法在准确度性能方面的操作条件</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>ontolidar:Applications</t>
-        </is>
-      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -3440,7 +3420,11 @@
       <c r="AK54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ontolidar:WindTunnelMeasurements</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Wind tunnel measurements</t>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -3820,7 +3820,11 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>ontolidar:DataProcessing</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -3985,7 +3989,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>ontolidar:FrequencyAnaliser</t>
+          <t>ontolidar:FrequencyAnalyser</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -4040,7 +4044,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>ontolidar:FrequencyAnaliser</t>
+          <t>ontolidar:FrequencyAnalyser</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -4099,7 +4103,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>ontolidar:FrequencyAnaliser</t>
+          <t>ontolidar:FrequencyAnalyser</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -4158,7 +4162,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>ontolidar:FrequencyAnaliser</t>
+          <t>ontolidar:FrequencyAnalyser</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -4725,7 +4725,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly."</t>
+          <t>The optics module is designed to alter the original laser beam into radiation with desired specification that can be sent to the target and received by the detector properly.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -4818,7 +4818,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light</t>
+          <t>The system of lenses, mirrors and other optical and mechanical components that emit and receive laser light.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -4899,7 +4899,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Characteristic optical diameter of the lidar telescope. The aperture through which laser light is emitted and received</t>
+          <t>Characteristic optical diameter of the lidar telescopeaperture. The aperture through which laser light is emitted and received.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -5049,7 +5049,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Distance between the end-fibre and the lens. Continuous wave lidars use this distance to vary the focal length</t>
+          <t>Distance between the end-fibre and the lens. Continuous wave lidars use this distance to vary the focal length.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -5503,7 +5503,7 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Light frequency of the laser source</t>
+          <t>Light frequency of the laser source.</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Polarization of the laser source signal</t>
+          <t>Polarization of the laser source signal.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -5633,7 +5633,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Light phase of the laser source</t>
+          <t>Light phase of the laser source.</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Light intensity of the laser source</t>
+          <t>Light intensity of the laser source.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -6120,7 +6120,7 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Power loss due to the insertion of the acoustic modulator</t>
+          <t>Power loss due to the insertion of the acoustic modulator.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -8505,7 +8505,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>The azimuth servo motor that drives the scanner in the azimuthal direction</t>
+          <t xml:space="preserve">The azimuth servo motor that drives the scanner in the azimuthal direction. </t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -8586,7 +8586,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>The angle between the line of sight of the lidar and a reference vector on the reference coordinate system..</t>
+          <t>The angle between the line of sight of the lidar and a reference vector on the reference coordinate system.</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -8683,7 +8683,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the azimuthal direction</t>
+          <t>The maximum rate of operation of the servo motor in the azimuthal direction.</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -8768,7 +8768,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>The elevation servo motor that drives the scanner in the elevation direction</t>
+          <t>The elevation servo motor that drives the scanner in the elevation direction.</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -8938,7 +8938,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>The maximum rate of operation of the servo motor in the elevation direction</t>
+          <t>The maximum rate of operation of the servo motor in the elevation direction.</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -9019,7 +9019,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Scanner components intended to modify the beam trajectories of both, the laser beam and the backscattered one. The scanner mirrors steer the outgoing beam  towards the atmosphere and the backscattered incoming beam towards the receiver. Usually,some of these mirrors are coupled with servo motors, enabling the lidar to perform measurements in differents orientations by varying the mirror angles .</t>
+          <t>Scanner components intended to modify the beam trajectories of both, the laser beam and the backscattered one. The scanner mirrors steer the outgoing beam  towards the atmosphere and the backscattered incoming beam towards the receiver. Usually,some of these mirrors are coupled with servo motors, enabling the lidar to perform measurements in differents orientations by varying the mirror angles.</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -11412,12 +11412,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ontolidar:Instances(NewDefinition)</t>
+          <t>ontolidar:Instances</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Instances (new definition)</t>
+          <t>Instances</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -12956,7 +12956,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>The filtering methods that applied to clean raw data, which generated as outputs by lidar</t>
+          <t>The filtering methods that applied to clean raw data, which generated as outputs by lidar.</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Function used to weight the backscattered intensity from the probe volume. The closer to the focused point, the higher contribution to the estimation of the Doppler frequency at that point. In general, it can be aproximated by a Lorentzian function.  (to be moved to a suitable place)</t>
+          <t>Function used to weight the backscattered intensity from the probe volume. The closer to the focused point, the higher contribution to the estimation of the Doppler frequency at that point. In general, it can be aproximated by a Lorentzian function.  (to be moved to a suitable place).</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -13163,7 +13163,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Data that generated after filtering raw data by applying CNR thresholds and removing outliers</t>
+          <t>Data that generated after filtering raw data by applying CNR thresholds and removing outliers.</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -13228,7 +13228,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Observations that lie abnormal distances from other values in a random sample from a population</t>
+          <t>Observations that lie abnormal distances from other values in a random sample from a population.</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos mientras el rayo permanece estacionario en una de las orientaciones predeterminada a lo largo de la secuencis de escaneo. Ninguna medida se realiza durante la fase de reposicionamiento del laser a su siguiente posición.</t>
+          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos mientras el rayo permanece estacionario en una de las orientaciones predeterminada a lo largo de la secuencia de escaneo. Ninguna medida se realiza durante la fase de reposicionamiento del laser a su siguiente posición.</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -18338,7 +18338,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P252" t="inlineStr"/>
@@ -18391,7 +18391,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P253" t="inlineStr"/>
@@ -18444,7 +18444,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P254" t="inlineStr"/>
@@ -18497,7 +18497,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P255" t="inlineStr"/>
@@ -18550,7 +18550,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P256" t="inlineStr"/>
@@ -18603,7 +18603,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P257" t="inlineStr"/>
@@ -18656,7 +18656,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P258" t="inlineStr"/>
@@ -18709,7 +18709,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P259" t="inlineStr"/>
@@ -18762,7 +18762,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P260" t="inlineStr"/>
@@ -18815,7 +18815,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>ontolidar: Datacommunication</t>
+          <t>ontolidar:Datacommunication</t>
         </is>
       </c>
       <c r="P261" t="inlineStr"/>
@@ -18917,7 +18917,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>ontolidar: Installation</t>
+          <t>ontolidar:Installation</t>
         </is>
       </c>
       <c r="P263" t="inlineStr"/>
@@ -18970,7 +18970,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>ontolidar: Installation</t>
+          <t>ontolidar:Installation</t>
         </is>
       </c>
       <c r="P264" t="inlineStr"/>
@@ -19023,7 +19023,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>ontolidar: Installation</t>
+          <t>ontolidar:Installation</t>
         </is>
       </c>
       <c r="P265" t="inlineStr"/>
@@ -19076,7 +19076,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>ontolidar: Installation</t>
+          <t>ontolidar:Installation</t>
         </is>
       </c>
       <c r="P266" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -18338,7 +18338,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P252" t="inlineStr"/>
@@ -18391,7 +18391,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P253" t="inlineStr"/>
@@ -18444,7 +18444,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P254" t="inlineStr"/>
@@ -18497,7 +18497,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P255" t="inlineStr"/>
@@ -18550,7 +18550,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P256" t="inlineStr"/>
@@ -18603,7 +18603,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P257" t="inlineStr"/>
@@ -18656,7 +18656,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P258" t="inlineStr"/>
@@ -18709,7 +18709,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P259" t="inlineStr"/>
@@ -18762,7 +18762,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P260" t="inlineStr"/>
@@ -18815,7 +18815,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>ontolidar:Datacommunication</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="P261" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM266"/>
+  <dimension ref="A1:AM269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6364,12 +6364,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ontolidar:PulseShape</t>
+          <t>ontolidar:PulseDuration</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pulse shape</t>
+          <t>Pulse duration</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -6380,13 +6380,13 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Continuous wave light can be modulated (e.g. with an acousto-optic-modulator or AOM) to obtain pulses at high power intensities altering the transmitted power and concentrating this energy in a short space. The power intensity around this area can be described as a gaussian function centered around the frequency of interest, which is commonly used to describe the shape of the pulse.</t>
+          <t>Duration of the light pulse. When we represent the intensity of the light pulse in the time domain the pulse duration can be characterise by the FWHM of the function describing that intensity. Lidars do not measure in a single point but rather whithin a probe volume, so that the FWHM characterises the probe volume whithin which the lidar is actually measuring. Therefore, the pulse duration directly impacts lidar estimations, since higher pulse durations give rise to longer probe volumes.</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Forma dell'impulso emesso.</t>
+          <t>Durata dell'impulso emesso. Caratterizza la lunghezza della sonda.</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
@@ -6425,29 +6425,33 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ontolidar:PulseDuration</t>
+          <t>ontolidar:PulseSampleRate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Pulse duration</t>
+          <t>Pulse sample rate</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Frequenza di campionamento del laser pulsato</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Duration of the light pulse. When we represent the intensity of the light pulse in the time domain the pulse duration can be characterise by the FWHM of the function describing that intensity. Lidars do not measure in a single point but rather whithin a probe volume, so that the FWHM characterises the probe volume whithin which the lidar is actually measuring. Therefore, the pulse duration directly impacts lidar estimations, since higher pulse durations give rise to longer probe volumes.</t>
+          <t>Time slot between pulses sent to sample the wind.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Durata dell'impulso emesso. Caratterizza la lunghezza della sonda.</t>
+          <t>Tempo fra due impulsi laser inviati nell'ambiente da un lidar pulsato.</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
@@ -6486,33 +6490,29 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ontolidar:PulseSampleRate</t>
+          <t>ontolidar:PulseShape</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Pulse sample rate</t>
+          <t>Pulse shape</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Frequenza di campionamento del laser pulsato</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Time slot between pulses sent to sample the wind.</t>
+          <t>Continuous wave light can be modulated (e.g. with an acousto-optic-modulator or AOM) to obtain pulses at high power intensities altering the transmitted power and concentrating this energy in a short space. The power intensity around this area can be described as a gaussian function centered around the frequency of interest, which is commonly used to describe the shape of the pulse.</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Tempo fra due impulsi laser inviati nell'ambiente da un lidar pulsato.</t>
+          <t>Forma dell'impulso emesso.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
@@ -8246,12 +8246,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ontolidar:Power</t>
+          <t>ontolidar:UpsBatteryPower</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>UPS battery power</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -8315,12 +8315,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ontolidar:Intensity</t>
+          <t>ontolidar:UpsBatteryIntensity</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Intensity</t>
+          <t>UPS battery intensity</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -17250,59 +17250,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ontolidar:LineOfSight</t>
+          <t>ontolidar:ParticleTracking</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Line of sight</t>
+          <t>Particle tracking</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Linea di visuale</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Línea de visión</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>观测线</t>
-        </is>
-      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
-        </is>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Línea a lo largo de la cual las señales lidar son emitidas y retrodispersadas para ser detectadas por el sistema.</t>
-        </is>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>激光雷达信号沿其发射和反射（以被系统识别）的路径。</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
+      <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
@@ -17331,59 +17299,27 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ontolidar:LidarSampleRate</t>
+          <t>ontolidar:CrossCorrelation</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lidar sample rate</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>LidarSampleRate</t>
-        </is>
-      </c>
+          <t>Cross-correlation</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Tasa de muestreo lidar</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>激光雷达采样率</t>
-        </is>
-      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>Sample rate frequency. Number of samples per second.</t>
-        </is>
-      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Frecuencia de medición lidar. Número de muestras por segundo.</t>
-        </is>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>采样率频率。每秒采样的样本数。</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementPrinciples</t>
-        </is>
-      </c>
+      <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
       <c r="Q239" t="inlineStr"/>
       <c r="R239" t="inlineStr"/>
@@ -17412,63 +17348,27 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ontolidar:VerticalSlice</t>
+          <t>ontolidar:Doppler</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Vertical slice</t>
+          <t>Doppler</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Geometria a taglio verticale</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Geometría de corte vertical</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>垂直切面扫描法</t>
-        </is>
-      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
-        </is>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Geometría de medida en la que el haz realiza un barrido en sentido vertical variando el ángulo de elevación pero no el ángulo de azimut. Estos barridos también se conocen como RHI (del inglés, range-high-indicator). Esta geometría de escaneo puede utilizarse para observar los detalles del flujo en la superficie de la sección transversal muestreada por el escaneo.</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>通过改变仰角而非方位角，可以在光束扫过垂直切面的情况下进行扫描。这些扫描也称为范围高度指示器 (RHI) 扫描。该种扫描几何形状方式可用于观察采样横截面中的流场详细信息</t>
-        </is>
-      </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>Range-height indicator, RHI</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>ontolidar:VariableElevationScan</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr"/>
       <c r="R240" t="inlineStr"/>
@@ -17497,57 +17397,57 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ontolidar:SequentialScan</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Sequential scan</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Scansione sequenziale</t>
+          <t>Linea di visuale</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Escaneo secuencial</t>
+          <t>Línea de visión</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>顺序扫描扫描法</t>
+          <t>观测线</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
         </is>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
+          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>En un barrido secuencial, se ejecutan escaneos simples y/o compuestos, uno tras otro, realizados por el mismo dispositivo para revelar las características del flujo.</t>
+          <t>Línea a lo largo de la cual las señales lidar son emitidas y retrodispersadas para ser detectadas por el sistema.</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>在顺序扫描中，由同一个设备依次执行简单和/或复合扫描，以捕捉流场特性。</t>
+          <t>激光雷达信号沿其发射和反射（以被系统识别）的路径。</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="P241" t="inlineStr"/>
@@ -17555,17 +17455,9 @@
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="inlineStr"/>
       <c r="T241" t="inlineStr"/>
-      <c r="U241" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="U241" t="inlineStr"/>
       <c r="V241" t="inlineStr"/>
-      <c r="W241" t="inlineStr">
-        <is>
-          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="W241" t="inlineStr"/>
       <c r="X241" t="inlineStr"/>
       <c r="Y241" t="inlineStr"/>
       <c r="Z241" t="inlineStr"/>
@@ -17586,61 +17478,57 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ontolidar:ConvergentScan</t>
+          <t>ontolidar:LidarSampleRate</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Convergent scan</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Scansione convergente</t>
-        </is>
-      </c>
+          <t>Lidar sample rate</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>LidarSampleRate</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Escaneo convergente</t>
+          <t>Tasa de muestreo lidar</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>聚合扫描</t>
+          <t>激光雷达采样率</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
+          <t>Sample rate frequency. Number of samples per second.</t>
         </is>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Una configuración de medición que incluye múltiples unidades lidar que funcionan de forma coordinada y sincronizada para que sus haces converjan y se crucen en una sucesión de volúmenes de muestreo. Si se utilizan tres o más unidades lidar, es posible caracterizar el vector de la velocidad del viento en el volumen de muestreo donde se cruzan los haces, dentro de las limitaciones prescritas por la longitud del muestreo, el intervalo de muestreo y la geometría de escaneo.</t>
+          <t>Frecuencia de medición lidar. Número de muestras por segundo.</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>一种涉及多个激光雷达单元的测量配置，这些单元以协调和同步的方式运行，使其光束在连续的探测体积中汇聚并相交。如果使用三个或更多激光雷达单元，则可以在探头长度、采样间隔和扫描几何形状规定的限制范围内表征光束相交处的探头体积中的风速矢量。</t>
-        </is>
-      </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
+          <t>采样率频率。每秒采样的样本数。</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="P242" t="inlineStr"/>
@@ -17671,55 +17559,63 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Vertical slice</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Parametri</t>
+          <t>Geometria a taglio verticale</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Parámetros</t>
+          <t>Geometría de corte vertical</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>参数</t>
+          <t>垂直切面扫描法</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Wind lidar-specific parameters.</t>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
         </is>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Specifici parametri del lidar.</t>
+          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Parámetros específicos del lidar de viento.</t>
+          <t>Geometría de medida en la que el haz realiza un barrido en sentido vertical variando el ángulo de elevación pero no el ángulo de azimut. Estos barridos también se conocen como RHI (del inglés, range-high-indicator). Esta geometría de escaneo puede utilizarse para observar los detalles del flujo en la superficie de la sección transversal muestreada por el escaneo.</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>测风激光雷达特定参数。</t>
-        </is>
-      </c>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
+          <t>通过改变仰角而非方位角，可以在光束扫过垂直切面的情况下进行扫描。这些扫描也称为范围高度指示器 (RHI) 扫描。该种扫描几何形状方式可用于观察采样横截面中的流场详细信息</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>ontolidar:VariableElevationScan</t>
+        </is>
+      </c>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr"/>
@@ -17748,61 +17644,57 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ontolidar:CarrierToNoiseRatio</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Carrier to noise ratio</t>
+          <t>Sequential scan</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Rapporto portante-rumore</t>
+          <t>Scansione sequenziale</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Relación portadora-ruido</t>
+          <t>Escaneo secuencial</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>载噪比（载波与噪声比</t>
+          <t>顺序扫描扫描法</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
         </is>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Medida de la fuerza de la señal de retorno.</t>
+          <t>En un barrido secuencial, se ejecutan escaneos simples y/o compuestos, uno tras otro, realizados por el mismo dispositivo para revelar las características del flujo.</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>一种衡量激光雷达返回信号强度的指标</t>
-        </is>
-      </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
+          <t>在顺序扫描中，由同一个设备依次执行简单和/或复合扫描，以捕捉流场特性。</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="P244" t="inlineStr"/>
@@ -17812,13 +17704,13 @@
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="inlineStr">
         <is>
-          <t>Often used interchangably with SNR</t>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
         </is>
       </c>
       <c r="V244" t="inlineStr"/>
       <c r="W244" t="inlineStr">
         <is>
-          <t>Spesso usato in modo interscambiabile con SNR</t>
+          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
         </is>
       </c>
       <c r="X244" t="inlineStr"/>
@@ -17841,61 +17733,61 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ontolidar:SignalToNoiseRatio</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Signal to noise ratio</t>
+          <t>Convergent scan</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Rapporto segnale-rumore</t>
+          <t>Scansione convergente</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Relación señal-ruido</t>
+          <t>Escaneo convergente</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>信噪比</t>
+          <t>聚合扫描</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal strength</t>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
         </is>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Medida de la fuerza de la señal de retorno.</t>
+          <t>Una configuración de medición que incluye múltiples unidades lidar que funcionan de forma coordinada y sincronizada para que sus haces converjan y se crucen en una sucesión de volúmenes de muestreo. Si se utilizan tres o más unidades lidar, es posible caracterizar el vector de la velocidad del viento en el volumen de muestreo donde se cruzan los haces, dentro de las limitaciones prescritas por la longitud del muestreo, el intervalo de muestreo y la geometría de escaneo.</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>一种衡量激光雷达返回信号强度的指标</t>
+          <t>一种涉及多个激光雷达单元的测量配置，这些单元以协调和同步的方式运行，使其光束在连续的探测体积中汇聚并相交。如果使用三个或更多激光雷达单元，则可以在探头长度、采样间隔和扫描几何形状规定的限制范围内表征光束相交处的探头体积中的风速矢量。</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>SNR</t>
+          <t>Convergent beam, convergent-beam lidar</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="P245" t="inlineStr"/>
@@ -17903,17 +17795,9 @@
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="inlineStr"/>
       <c r="T245" t="inlineStr"/>
-      <c r="U245" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR</t>
-        </is>
-      </c>
+      <c r="U245" t="inlineStr"/>
       <c r="V245" t="inlineStr"/>
-      <c r="W245" t="inlineStr">
-        <is>
-          <t>Spesso usato in modo interscambiabile con CNR</t>
-        </is>
-      </c>
+      <c r="W245" t="inlineStr"/>
       <c r="X245" t="inlineStr"/>
       <c r="Y245" t="inlineStr"/>
       <c r="Z245" t="inlineStr"/>
@@ -17934,41 +17818,53 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ontolidar:DataFormats</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Data formats</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Formato dei dati</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
+          <t>Parametri</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Parámetros</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>数据格式</t>
+          <t>参数</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Format of the lidar data file. It is generally common across products from the same lidar manufacturer.</t>
+          <t>Wind lidar-specific parameters.</t>
         </is>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Formato del file dati prodotto dal lidar. Questo è tipicamente comune per tutti i tipi di lidars prodotti dallo stesso costruttore.</t>
-        </is>
-      </c>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
+          <t>Specifici parametri del lidar.</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Parámetros específicos del lidar de viento.</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>测风激光雷达特定参数。</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
@@ -17999,41 +17895,61 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ontolidar:Leosphere</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Leosphere</t>
+          <t>Carrier to noise ratio</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Leosphere</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
+          <t>Rapporto portante-rumore</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Relación portadora-ruido</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>载噪比（载波与噪声比</t>
+        </is>
+      </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Common data format for the products of the company Leosphere.</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Formato dati comune per i prodotti dell'azienda Leosphere.</t>
-        </is>
-      </c>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Medida de la fuerza de la señal de retorno.</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>一种衡量激光雷达返回信号强度的指标</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>ontolidar:DataFormats</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="P247" t="inlineStr"/>
@@ -18041,9 +17957,17 @@
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="inlineStr"/>
       <c r="T247" t="inlineStr"/>
-      <c r="U247" t="inlineStr"/>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>Often used interchangably with SNR</t>
+        </is>
+      </c>
       <c r="V247" t="inlineStr"/>
-      <c r="W247" t="inlineStr"/>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>Spesso usato in modo interscambiabile con SNR</t>
+        </is>
+      </c>
       <c r="X247" t="inlineStr"/>
       <c r="Y247" t="inlineStr"/>
       <c r="Z247" t="inlineStr"/>
@@ -18064,41 +17988,61 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ontolidar:Zx</t>
+          <t>ontolidar:SignalToNoiseRatio</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ZX</t>
+          <t>Signal to noise ratio</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>ZX</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
+          <t>Rapporto segnale-rumore</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Relación señal-ruido</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>信噪比</t>
+        </is>
+      </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Common data format for the products of the company ZX lidars (.zph extension).</t>
+          <t>A measure of lidar return signal strength</t>
         </is>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Formato dati comune per i prodotti dell'azienda ZX lidars (estensione .zph).</t>
-        </is>
-      </c>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Medida de la fuerza de la señal de retorno.</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>一种衡量激光雷达返回信号强度的指标</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>ontolidar:DataFormats</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="P248" t="inlineStr"/>
@@ -18106,9 +18050,17 @@
       <c r="R248" t="inlineStr"/>
       <c r="S248" t="inlineStr"/>
       <c r="T248" t="inlineStr"/>
-      <c r="U248" t="inlineStr"/>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>Often used interchangably with CNR</t>
+        </is>
+      </c>
       <c r="V248" t="inlineStr"/>
-      <c r="W248" t="inlineStr"/>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>Spesso usato in modo interscambiabile con CNR</t>
+        </is>
+      </c>
       <c r="X248" t="inlineStr"/>
       <c r="Y248" t="inlineStr"/>
       <c r="Z248" t="inlineStr"/>
@@ -18129,43 +18081,43 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ontolidar:HaloPhotonics</t>
+          <t>ontolidar:DataFormats</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Halo photonics</t>
+          <t>Data formats</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Halo photonics</t>
+          <t>Formato dei dati</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>数据格式</t>
+        </is>
+      </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Common data format for the products of the company Halo photonics.</t>
+          <t>Format of the lidar data file. It is generally common across products from the same lidar manufacturer.</t>
         </is>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Formato dati comune per i prodotti dell'azienda Halo photonics.</t>
+          <t>Formato del file dati prodotto dal lidar. Questo è tipicamente comune per tutti i tipi di lidars prodotti dallo stesso costruttore.</t>
         </is>
       </c>
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr"/>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>ontolidar:DataFormats</t>
-        </is>
-      </c>
+      <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="inlineStr"/>
       <c r="R249" t="inlineStr"/>
@@ -18194,18 +18146,18 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ontolidar:EWindlidar</t>
+          <t>ontolidar:Leosphere</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>e-windLidar</t>
+          <t>Leosphere</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>e-windLidar</t>
+          <t>Leosphere</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -18214,13 +18166,13 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t xml:space="preserve">An attempt to standardize wind lidar data formats and making them to follow the FAIR principle (Findable, Accessible, Interoperable, Reusable). </t>
+          <t>Common data format for the products of the company Leosphere.</t>
         </is>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Un tentativo di standardizzare il formato dati dei lidar e di costruirlo secondo i principi FAIR (dati ricercabili, accessibili, interoperabili e riutilizzabili).</t>
+          <t>Formato dati comune per i prodotti dell'azienda Leosphere.</t>
         </is>
       </c>
       <c r="L250" t="inlineStr"/>
@@ -18236,17 +18188,9 @@
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="inlineStr"/>
       <c r="T250" t="inlineStr"/>
-      <c r="U250" t="inlineStr">
-        <is>
-          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
-        </is>
-      </c>
+      <c r="U250" t="inlineStr"/>
       <c r="V250" t="inlineStr"/>
-      <c r="W250" t="inlineStr">
-        <is>
-          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
-        </is>
-      </c>
+      <c r="W250" t="inlineStr"/>
       <c r="X250" t="inlineStr"/>
       <c r="Y250" t="inlineStr"/>
       <c r="Z250" t="inlineStr"/>
@@ -18267,27 +18211,43 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ontolidar:DataCommunication</t>
+          <t>ontolidar:Zx</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Data communication</t>
+          <t>ZX</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>ZX</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Common data format for the products of the company ZX lidars (.zph extension).</t>
+        </is>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Formato dati comune per i prodotti dell'azienda ZX lidars (estensione .zph).</t>
+        </is>
+      </c>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
-      <c r="O251" t="inlineStr"/>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>ontolidar:DataFormats</t>
+        </is>
+      </c>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr"/>
@@ -18316,29 +18276,41 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ontolidar:NtpTimeSynchronisation</t>
+          <t>ontolidar:HaloPhotonics</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NTP time synchronisation</t>
+          <t>Halo photonics</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Halo photonics</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Common data format for the products of the company Halo photonics.</t>
+        </is>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Formato dati comune per i prodotti dell'azienda Halo photonics.</t>
+        </is>
+      </c>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>ontolidar:DataCommunication</t>
+          <t>ontolidar:DataFormats</t>
         </is>
       </c>
       <c r="P252" t="inlineStr"/>
@@ -18369,29 +18341,41 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ontolidar:FtpDataTransfer</t>
+          <t>ontolidar:EWindlidar</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FTP data transfer</t>
+          <t>e-windLidar</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>e-windLidar</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An attempt to standardize wind lidar data formats and making them to follow the FAIR principle (Findable, Accessible, Interoperable, Reusable). </t>
+        </is>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Un tentativo di standardizzare il formato dati dei lidar e di costruirlo secondo i principi FAIR (dati ricercabili, accessibili, interoperabili e riutilizzabili).</t>
+        </is>
+      </c>
       <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>ontolidar:DataCommunication</t>
+          <t>ontolidar:DataFormats</t>
         </is>
       </c>
       <c r="P253" t="inlineStr"/>
@@ -18399,9 +18383,17 @@
       <c r="R253" t="inlineStr"/>
       <c r="S253" t="inlineStr"/>
       <c r="T253" t="inlineStr"/>
-      <c r="U253" t="inlineStr"/>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
+        </is>
+      </c>
       <c r="V253" t="inlineStr"/>
-      <c r="W253" t="inlineStr"/>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
+        </is>
+      </c>
       <c r="X253" t="inlineStr"/>
       <c r="Y253" t="inlineStr"/>
       <c r="Z253" t="inlineStr"/>
@@ -18422,12 +18414,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ontolidar:UserInterface</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>User interface</t>
+          <t>Data communication</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -18442,11 +18434,7 @@
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr"/>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>ontolidar:DataCommunication</t>
-        </is>
-      </c>
+      <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="inlineStr"/>
       <c r="R254" t="inlineStr"/>
@@ -18475,12 +18463,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ontolidar:Wifi</t>
+          <t>ontolidar:NtpTimeSynchronisation</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>WIFI</t>
+          <t>NTP time synchronisation</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -18489,7 +18477,11 @@
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>A networking protocol for clock synchronization between computer systems and Lidar computer over packet-switched, variable-latency data networks. the maximum difference in the clock times between systems</t>
+        </is>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
@@ -18500,7 +18492,11 @@
           <t>ontolidar:DataCommunication</t>
         </is>
       </c>
-      <c r="P255" t="inlineStr"/>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>milliseconds</t>
+        </is>
+      </c>
       <c r="Q255" t="inlineStr"/>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="inlineStr"/>
@@ -18528,12 +18524,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ontolidar:Lan</t>
+          <t>ontolidar:FtpDataTransfer</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>LAN</t>
+          <t>FTP data transfer</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -18542,7 +18538,11 @@
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Data transfer protocol based on FTP</t>
+        </is>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
@@ -18553,7 +18553,11 @@
           <t>ontolidar:DataCommunication</t>
         </is>
       </c>
-      <c r="P256" t="inlineStr"/>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
       <c r="Q256" t="inlineStr"/>
       <c r="R256" t="inlineStr"/>
       <c r="S256" t="inlineStr"/>
@@ -18581,12 +18585,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ontolidar:SamplingFrequency</t>
+          <t>ontolidar:UserInterface</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sampling frequency</t>
+          <t>User interface</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -18595,7 +18599,11 @@
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>A graphical user interface implemented for Lidar data at  Lidar end or at user end</t>
+        </is>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
@@ -18606,7 +18614,11 @@
           <t>ontolidar:DataCommunication</t>
         </is>
       </c>
-      <c r="P257" t="inlineStr"/>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
       <c r="Q257" t="inlineStr"/>
       <c r="R257" t="inlineStr"/>
       <c r="S257" t="inlineStr"/>
@@ -18634,12 +18646,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ontolidar:LoggingFrequency</t>
+          <t>ontolidar:Wifi</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Logging frequency</t>
+          <t>WIFI</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -18648,7 +18660,11 @@
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Data transfer over WLAN protocol</t>
+        </is>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
@@ -18659,7 +18675,11 @@
           <t>ontolidar:DataCommunication</t>
         </is>
       </c>
-      <c r="P258" t="inlineStr"/>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
       <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="inlineStr"/>
@@ -18687,12 +18707,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ontolidar:FileGranulity</t>
+          <t>ontolidar:Lan</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>File granulity</t>
+          <t>LAN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -18701,7 +18721,11 @@
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Data transfer over LAN protocol</t>
+        </is>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
@@ -18712,7 +18736,11 @@
           <t>ontolidar:DataCommunication</t>
         </is>
       </c>
-      <c r="P259" t="inlineStr"/>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
       <c r="Q259" t="inlineStr"/>
       <c r="R259" t="inlineStr"/>
       <c r="S259" t="inlineStr"/>
@@ -18740,12 +18768,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ontolidar:DataTransferFrequency</t>
+          <t>ontolidar:SamplingFrequency</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Data transfer frequency</t>
+          <t>Sampling frequency</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -18754,7 +18782,11 @@
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>maximum sampling frequency of the Lidar measurement device</t>
+        </is>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
@@ -18765,7 +18797,11 @@
           <t>ontolidar:DataCommunication</t>
         </is>
       </c>
-      <c r="P260" t="inlineStr"/>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
       <c r="Q260" t="inlineStr"/>
       <c r="R260" t="inlineStr"/>
       <c r="S260" t="inlineStr"/>
@@ -18793,12 +18829,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ontolidar:DataAveragingPeriod</t>
+          <t>ontolidar:LoggingFrequency</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Data averaging period</t>
+          <t>Logging frequency</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -18807,7 +18843,11 @@
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>maximum logging frequency of the logger or the Lidar measurement device</t>
+        </is>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
@@ -18818,7 +18858,11 @@
           <t>ontolidar:DataCommunication</t>
         </is>
       </c>
-      <c r="P261" t="inlineStr"/>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
       <c r="Q261" t="inlineStr"/>
       <c r="R261" t="inlineStr"/>
       <c r="S261" t="inlineStr"/>
@@ -18846,12 +18890,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ontolidar:Installation</t>
+          <t>ontolidar:FileGranulity</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Installation</t>
+          <t>File granulity</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -18860,14 +18904,26 @@
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>the size of the file in terms of time period or samples e.g. 10-min files or 1 hour files</t>
+        </is>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr"/>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>ontolidar:DataCommunication</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
       <c r="Q262" t="inlineStr"/>
       <c r="R262" t="inlineStr"/>
       <c r="S262" t="inlineStr"/>
@@ -18895,12 +18951,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ontolidar:Deployment</t>
+          <t>ontolidar:DataTransferFrequency</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Data transfer frequency</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -18909,7 +18965,11 @@
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>the frequency at which data is transferred between the measurement device (primary) and a secondary device</t>
+        </is>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
@@ -18917,10 +18977,14 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>ontolidar:Installation</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr"/>
+          <t>ontolidar:DataCommunication</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
       <c r="Q263" t="inlineStr"/>
       <c r="R263" t="inlineStr"/>
       <c r="S263" t="inlineStr"/>
@@ -18948,12 +19012,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ontolidar:Repair</t>
+          <t>ontolidar:DataAveragingPeriod</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Data averaging period</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -18962,7 +19026,11 @@
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data averaging period for the data, e.g., 20 Hz data can be averaged to 10 min data </t>
+        </is>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
@@ -18970,10 +19038,14 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>ontolidar:Installation</t>
-        </is>
-      </c>
-      <c r="P264" t="inlineStr"/>
+          <t>ontolidar:DataCommunication</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>seconds</t>
+        </is>
+      </c>
       <c r="Q264" t="inlineStr"/>
       <c r="R264" t="inlineStr"/>
       <c r="S264" t="inlineStr"/>
@@ -19001,12 +19073,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ontolidar:Relocation</t>
+          <t>ontolidar:Installation</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Relocation</t>
+          <t>Installation</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -19015,17 +19087,17 @@
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Installation date and time, location (gps)</t>
+        </is>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr"/>
-      <c r="O265" t="inlineStr">
-        <is>
-          <t>ontolidar:Installation</t>
-        </is>
-      </c>
+      <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr"/>
       <c r="Q265" t="inlineStr"/>
       <c r="R265" t="inlineStr"/>
@@ -19054,12 +19126,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ontolidar:Decommission</t>
+          <t>ontolidar:Deployment</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Decommission</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -19068,7 +19140,11 @@
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Deployment data and time, location (gps)</t>
+        </is>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
@@ -19079,7 +19155,11 @@
           <t>ontolidar:Installation</t>
         </is>
       </c>
-      <c r="P266" t="inlineStr"/>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>DateTime, GPS coordinates</t>
+        </is>
+      </c>
       <c r="Q266" t="inlineStr"/>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="inlineStr"/>
@@ -19104,6 +19184,189 @@
       <c r="AL266" t="inlineStr"/>
       <c r="AM266" t="inlineStr"/>
     </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ontolidar:Repair</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Repair</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Repair data and time, location (gps)</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>ontolidar:Installation</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>DateTime, GPS coordinates</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr"/>
+      <c r="Z267" t="inlineStr"/>
+      <c r="AA267" t="inlineStr"/>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+      <c r="AD267" t="inlineStr"/>
+      <c r="AE267" t="inlineStr"/>
+      <c r="AF267" t="inlineStr"/>
+      <c r="AG267" t="inlineStr"/>
+      <c r="AH267" t="inlineStr"/>
+      <c r="AI267" t="inlineStr"/>
+      <c r="AJ267" t="inlineStr"/>
+      <c r="AK267" t="inlineStr"/>
+      <c r="AL267" t="inlineStr"/>
+      <c r="AM267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ontolidar:Relocation</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Relocation</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Relocation data and time, location (gps)</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>ontolidar:Installation</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>DateTime, GPS coordinates</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr"/>
+      <c r="AE268" t="inlineStr"/>
+      <c r="AF268" t="inlineStr"/>
+      <c r="AG268" t="inlineStr"/>
+      <c r="AH268" t="inlineStr"/>
+      <c r="AI268" t="inlineStr"/>
+      <c r="AJ268" t="inlineStr"/>
+      <c r="AK268" t="inlineStr"/>
+      <c r="AL268" t="inlineStr"/>
+      <c r="AM268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ontolidar:Decommission</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Decommission</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Decommission data and time, location (gps)</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>ontolidar:Installation</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>DateTime, GPS coordinates</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
+      <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="inlineStr"/>
+      <c r="AA269" t="inlineStr"/>
+      <c r="AB269" t="inlineStr"/>
+      <c r="AC269" t="inlineStr"/>
+      <c r="AD269" t="inlineStr"/>
+      <c r="AE269" t="inlineStr"/>
+      <c r="AF269" t="inlineStr"/>
+      <c r="AG269" t="inlineStr"/>
+      <c r="AH269" t="inlineStr"/>
+      <c r="AI269" t="inlineStr"/>
+      <c r="AJ269" t="inlineStr"/>
+      <c r="AK269" t="inlineStr"/>
+      <c r="AL269" t="inlineStr"/>
+      <c r="AM269" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -4479,7 +4479,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Defines the resolution of the analog to digital converter, and represents the number of values or "levels" the signal can be discretise in.</t>
+          <t xml:space="preserve">Converts the analog signal from the photodetector into a digital signal to properly be analised by the frequency analyser. </t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -8276,7 +8276,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Mean used to transport the light beam through the optical lidar components. Lidar hardware components are connected to each other by fibre optics to guide the beam along its path.</t>
+          <t>Mean used to transport the lidar signal when in its optical form.</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -8300,7 +8300,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Specially for the telescope module, using fibre optics makes possible to avoid costly and cumbersome alignment processes.</t>
+          <t>Lidar hardware components are connected to each other by fibre optics to guide the laser beam along its path. Specially for the telescope module, using fibre optics makes possible to avoid costly and cumbersome alignment processes.</t>
         </is>
       </c>
       <c r="V109" t="inlineStr"/>
@@ -18410,7 +18410,7 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Wind field model: particle tracking as a application where the lidar beam follows the particle in the flow (refer to Langrangian statistics)</t>
+          <t>Wind field model: particle tracking as an application where the lidar beam follows the particle in the flow (refer to Langrangian statistics)</t>
         </is>
       </c>
       <c r="J236" t="inlineStr"/>
@@ -18418,7 +18418,11 @@
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr"/>
-      <c r="O236" t="inlineStr"/>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>ontolidar:WindSpeedEvaluation</t>
+        </is>
+      </c>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="inlineStr"/>
       <c r="R236" t="inlineStr"/>
@@ -18479,7 +18483,11 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr"/>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>ontolidar:WindSpeedEvaluation</t>
+        </is>
+      </c>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr"/>
       <c r="R237" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Anemómetros y veleta montados sobre torre meteorológica</t>
+          <t>Anemómetros y veleta montados sobre torre meteorológica.</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2265,7 +2265,11 @@
           <t>Misurazioni lidar volte a definire le proprietà locali del vento.</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Medida lidar utilizada para identificar características locales del viento.</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
@@ -2342,7 +2346,11 @@
           <t>Standard interanzionali di riferimento per turbine eoliche, strumenti eolici e strumentazioni di misurazione del vento</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Directrices internacionales para la medición del rendimiento energético de las turbinas eólicas productoras de electricidad.</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
@@ -2419,7 +2427,11 @@
           <t>Processo di definizione dei livelli di garanzia e classe di operatività per generatori eolici. E' necessario per la commercializzazione delle turbine.</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Proceso mediante el que se definen los niveles de garantía de calidad y tipo de elemento para generadores eólicos. Es un requerimiento para la comercialización de turbinas eólicas.</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
@@ -2496,7 +2508,11 @@
           <t>Processo di verifica delle prestazioni di produzione delle turbine. Il riferimento sono le garanzie rilasciate dal costruttore delle turbine.</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Proceso mediante el que se verifica el rendimiento de la turbina eólica en cuanto a la producción de potencia, normalmente en función de las garantías emitidas por el fabricante.</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
@@ -2573,7 +2589,11 @@
           <t>Standard interanzionali di riferimento per misurazioni della prestazione delle turbine basata su lidar montati a terra.</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standards de medición del rendimiento en la generación de potencia de una turbina eólica que están basados en las mediciones de lidares montados en tierra. </t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
@@ -2650,7 +2670,11 @@
           <t>Standard interanzionali di riferimento per misurazioni della prestazione delle turbine basata su lidar montati sulla turbina.</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Standards de medición del rendimiento en la generación de potencia de una turbina eólica que están basados en las mediciones de lidares montados en góndola.</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
@@ -2727,7 +2751,11 @@
           <t>Raccomandazioni sulle procedure per misurazioni della perfomance in produzione offshore ed in terreni complessi.</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Recomendaciones prácticas propuestas por Task32 para la medición del rendimiento en la producción de potencia de una turbina eólica offshore o en terreno complejo.</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
@@ -2804,7 +2832,11 @@
           <t>Tecniche di controllo di una turbina eolica basate su misurazioni da lidar.</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Técnicas de control de una turbina eólica basadas en la información extraída de un lidar.</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
@@ -2867,7 +2899,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Lidar based techniques to control a wind turbine generator in presence of turbolence.</t>
+          <t>Lidar based techniques to control a wind turbine generator in presence of turbulence.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2881,7 +2913,11 @@
           <t>Tecniche di controllo di una turbina eolica in presenza di forte turbolenza basate su misurazioni da lidar.</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Técnicas basadas en datos lidar para el control de una turbina eólica en presencia de turbulencia atmosférica.</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
@@ -2958,7 +2994,11 @@
           <t>Tecniche di controllo delle scie di una turbina eolica basate su misurazioni da lidar.</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Técnicas basadas  en datos lidar para el control de estelas creadas por la turbina eólica.</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
@@ -3035,7 +3075,11 @@
           <t>Tecniche di controllo collettivo di turbine eoliche nello stesso parco basate su misurazioni da lidar.</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Estrategias basadas en información lidar para el control colectivo de turbinas eólicas en un mismo parque eólico.</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
@@ -3112,7 +3156,11 @@
           <t>Allineamento della navicella di una turbina con la direzione del vento basata su misurazioni da lidar.</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alineamiento de la turbina eólica con la dirección del viento obtenido mediante datos lidar. </t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
@@ -3175,7 +3223,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Lidar based measurments to verify the quality of measurments from met mast instrumentations</t>
+          <t>Lidar based measurements to verify the quality of measurments from met mast instrumentations</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3189,7 +3237,11 @@
           <t>Misurazioni lidar volte a verificare la qualità delle misurazioni effettuate da anemometri posizionati su torri meteorologiche.</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Medidas lidar para veificar la calidad de medidas tomadas por sensores montados sobre una torre meteorológica.</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
@@ -3266,7 +3318,11 @@
           <t>Misurazioni lidar effettuate in gallerie del vento.</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Medidas lidar tomadas en un tunel de viento.</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
@@ -3606,7 +3662,11 @@
           <t>Sistema per l'identificazione della posizione esatta e l'orientamento del lidar e, di conseguenza, della posizione dei punti di misurazione</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Componentes y métodos asociados para obtener la posición exacta del lidar y, por tanto derivar correctamente las posiciones de los puntos de medición.</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
@@ -3683,7 +3743,11 @@
           <t>Sistema di posizionamento globale. Sistema di posizionamento del lidar.</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Sistema de posicionamiento global que define de forma única la posición del lidar.</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
@@ -3746,7 +3810,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Lidar orientation system affixed to the bracket structure. In turn, the bracket structure is affixed to the ground or to another structure, like a nacelle wind turbine.  Lidar measurements orientation system.</t>
+          <t>Lidar orientation system affixed to the bracket structure. In turn, the bracket structure is affixed to the ground or to another structure, like the nacelle. Measurement system of the lidar orientation.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3757,10 +3821,14 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Sistema dimisurazione dell'orientazione del lidar.</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
+          <t>Sistema di misurazione dell'orientazione del lidar.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sistema de medida de la orientación del lidar. </t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
@@ -3823,7 +3891,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>System meant to detect and compensate for the lidar motion/vibrations due to, e.g. nacelle or buoy motion in nacelle or buoy mounted lidars. Its output is used in the lidar data processing stage to rectify its measurements and compensate for platform motion.</t>
+          <t>System meant to detect and compensate for the lidar motion/vibrations due to, e.g. nacelle or buoy motion in offshore mounted lidars. Its output is used in the lidar data processing stage to rectify its measurements and compensate for platform motion.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3837,7 +3905,11 @@
           <t>Sistema per la misurazione e la compensazione del moto del idar e delle sue vibrazioni. Questi movimenti possono esser dovuti al moto del supporto dove il lidar è montato - sia esso una navicella o una boa per i lidar marini. Le misurazioni di questo sistema sono usate per rettificare le misurazioni del vento.</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Sistema destinado a detectar y compensar el movimiento/vibraciones del lidar debido, por ejemplo, al movimiento ya sea de la góndola o de la boya para lidares marinos. Su resultado se utiliza en la etapa de procesamiento de datos del lidar para rectificar sus mediciones y compensar el movimiento de la plataforma.</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
@@ -3900,7 +3972,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Helps us to detect  the motion of the lidar in its own local inertial frame. In combination with the gyrometer provides us with an array of information that helps us to either filter of correct the lidar data due to the motion of the lidar.</t>
+          <t>Sensor to measure the motion of the lidar with respect to the inertial local system. In combination with the gyrometer provides us with an array of information that helps us to either filter of correct the lidar data due to the motion of the lidar.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3914,7 +3986,11 @@
           <t>Sensori atti alla misurazione del moto del lidar rispetto al suo sistema inerziale locale. In combinazione con i dati dai giroscopi, supporta il filtraggio e la correzione delle misurazioni del vento.</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Sensor utilizado para medir el movimiento del lidar con respecto al sistema local inercial. En combinación con el girómetro nos proporciona información que nos ayuda a filtrar o corregir los datos del lidar debido al movimiento del mismo.</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
@@ -3977,7 +4053,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Help us to determine the orientation of the lidar using Earth's gravity, thus the orientation of the laser beam. In combination with the accelerometer provides us with an array of information that helps us to either filter of correct the lidar data due to the motion of the lidar.</t>
+          <t>Sensor used to determine the orientation of the lidar with respect to the local Earth's gravity vector, thus the orientation of the laser beam. In combination with the accelerometer provides us with an array of information that helps us to either filter of correct the lidar data due to the motion of the lidar.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3991,7 +4067,11 @@
           <t>Sensori atti alla misurazione dell'orientazione del lidar rispetto al vettore di gravità terrestre locale.. In combinazione con i dati dagli accelerometri, supporta il filtraggio e la correzione delle misurazioni del vento.</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Sensor utilizado para determinar la orientación del lidar con respecto al vector de gravedad local de la Tierra, y por tanto la orientación del rayo láser. En combinación con el acelerómetro nos proporciona información que nos ayuda a filtrar o corregir los datos del lidar debido al movimiento del mismo.</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
@@ -4068,7 +4148,11 @@
           <t>Condizioni metereologiche nel luogo di installazione del lidar.</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Condiciones meteorológicas en el punto de instalación del lidar.</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
@@ -4131,7 +4215,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Local meteorology station. Integrated in the lidar chassis module. Reports the meteorological conditions under which the lidar is working.</t>
+          <t>Local meteorology station integrated in the lidar chassis module. Reports the meteorological conditions under which the lidar is working.</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4145,7 +4229,11 @@
           <t>Stazione meteo locale integrata nella scocca del lidar. Riporta le condizioni meteo in cui il lidar sta operando.</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Estación meteorológica local integrada en el chasis del lidar. Ofrece información sobre las condiciones atmosféricas en las que trabaja el lidar.</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
@@ -4479,7 +4567,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Converts the analog signal from the photodetector into a digital signal to properly be analised by the frequency analyser. </t>
+          <t xml:space="preserve">Device that converts the analog signal from the photodetector into a digital signal to properly be analised by the frequency analyser. </t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -4489,7 +4577,11 @@
           <t>Convertitore del segnale analogico del fotodetettore in segnale digitale per l'analizzatore di frequenza.</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dispositivo que convierte la señal analógica proveniente del fotodetector en una señal digital, con lo que puede ser analizada adecuadamente por el analizador de frecuencias. </t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
@@ -4546,7 +4638,11 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Número de bits del convertidor analógico-digital</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
@@ -4613,7 +4709,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low pass filter. Signal random noise from hardware and  unwanted backscattered light is whitenned and a threshold is applied to filter out undesired signal noise. </t>
+          <t>Low pass filter.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4623,7 +4719,11 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Filtro pasa-baja</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
@@ -4635,7 +4735,11 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Signal random noise from hardware and  unwanted backscattered light is whitenned and a threshold is applied to filter out undesired signal noise. </t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
@@ -4686,7 +4790,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Once the analog signal is converted to a digital signal, a frequency analyser is used to determine the frequency spectra of this digital signal. This device yields the beating frequency, so that, the Doppler frequency shift.</t>
+          <t>Device that processes the the signal from the analog-to-digital converter and performs the Doppler spectra.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4696,7 +4800,11 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dispositivo que procesa la señal proveniente del convertidor analógico-digital y computa el espectro de frecuencias. </t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
@@ -4708,10 +4816,18 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Once the analog signal is converted to a digital signal, a frequency analyser is used to determine its frequency spectra. This device yields the frequency spectrum of the dowmixed signal (original signal from the laser source + backscattered signal), therefore the Doppler frequency shift.</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Una vez que la señal analógica se convierte en una señal digital, se utiliza un analizador de frecuencias para determinar su espectro de frecuencias. Este aparato proporciona el espectro de frecuencias de la señal mezclada (señal original de la fuente láser + señal retrodispersada), y por tanto el desplazamiento de frecuencia Doppler.</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
@@ -4759,7 +4875,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Peak identification refers to the method used to retrieve the Doppler frequency shift from the frequency spectra. Common methods to obtain the Doppler frequency out of the frequency spectra are the maximum, the median and the centroid function</t>
+          <t>Peak identification refers to the method used to retrieve the Doppler frequency shift from the frequency spectra.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4769,7 +4885,11 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Detección de pico se refiere al método utilizado por el analizador de frecuencias para obtener la frecuencia Doppler.</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
@@ -4785,10 +4905,18 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Common methods to detect the peak are the maximum, the median and the centroid function of the frequency spectrum.</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Los métodos más comunes par la detección del pico son el máximo, la media o el centroide del espectro de frecuencias.</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -4836,7 +4964,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Fast fourier transform. Methodology to switch the lidar data time series to the frequency domain in order to achieve the frequency spectra.</t>
+          <t>Fast fourier transform. Methodology to transform the lidar data time series into their power spectra.</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4850,7 +4978,11 @@
           <t>Trasformata di Fourier rapida. Metodo per trasformare la serie temporale dei dati nel suo spettro di potenza.</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Transformada de Fourier rápida. Método para transformar las series temporales de datos lidar en su espectro de potencias.</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
@@ -4913,7 +5045,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Number of frequency spectra the lidar computes to obtain the radial velocity for one single realisation.</t>
+          <t>Number of frequency spectra the lidar computes (to obtain the radial velocity) during the time of one single realisation.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4927,7 +5059,11 @@
           <t>Frequenza di campionamento della velocità radiale. E' l'inverso del numero di spettri che vengono combinati per tale misurazione.</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Número de espectros de frecuencia que el lidar computa durante el tiempo necesario para una sola estimación de la velocidad radial. </t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
@@ -5192,7 +5328,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Sistema de  lente, espejos y otros comonentes ópticos.</t>
+          <t>Sistema de  lente, espejos y otros componentes ópticos y mecánicos que emiten y reciben el rayo láser.</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -5338,7 +5474,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Distance between the lense and the target.</t>
+          <t>Focal length of the telescope. Distance between the lense and its focal lenght.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5354,7 +5490,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Distancia focal del telescopio. Distancia entre la lente y el blanco.</t>
+          <t>Distancia focal del telescopio. Distancia entre la lente y su distancia focal.</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -5419,7 +5555,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Distance between the end-fibre and the lens. Continuous wave lidars use this distance to vary the focal length.</t>
+          <t xml:space="preserve">Distance between the end-fibre and the lens. </t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5433,7 +5569,11 @@
           <t>Distanza fra il punto terminale della fibra ottica ed il centro della lente.</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Distancia entre el punto final de la fibra óptica y la lente del telescopio.</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
@@ -5449,10 +5589,18 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Continuous wave lidars use this distance to vary the focal length.</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Los lidares de onda continua utilizan esta distancia para variar la distancia focal.</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -5500,7 +5648,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Expands the outgoing beam and collimates the backscattered one.</t>
+          <t>Optical system to expand the outgoing beam and collimate the backscattered one.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5514,7 +5662,11 @@
           <t>Sistema ottico per espandere e collimare un fascio di luce.</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Sistema óptico utilizado para expandir y colimar un hay de luz.</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
@@ -5618,7 +5770,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Definición basada en OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
@@ -5763,7 +5919,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Componente semiconductor destinado a generar luz láser de una frecuencia definida.</t>
+          <t>Componente semiconductor destinado a generar luz láser de frecuencia definida.</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -5824,7 +5980,7 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Integer characterising the relation between wavelength and laser cavity length. Is a combination of laser light and laser resonance cavity characteristics. Given a certain wavelength, and length of the laser cavity only certain modes are permitted.</t>
+          <t>Integer characterising the relation between wavelength and laser cavity length.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5838,7 +5994,11 @@
           <t>Numeri interi dati dal rapporto fra la lunghezza d'onda della luce emessa e la lunghezza della cavità laser emettitrice.</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Números enteros dados por la relación entre la longitud de onda de la luz emitida y la longitud de la cavidad del láser.</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
@@ -5850,10 +6010,18 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Is a combination of laser light and laser resonance cavity characteristics. Given a certain wavelength, and length of the laser cavity only certain modes are permitted.</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Dada una cierta longitud de onda de la luz y una longitud de la cavidad láser, sólo ciertos modos son permitidos.</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
@@ -5911,7 +6079,11 @@
           <t>Frequenza della luce della sorgente laser.</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Frecuencia de la luz de la fuente láser.</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
@@ -5984,7 +6156,11 @@
           <t>Polarizzazione della luce della sorgente laser.</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Polarización de la luz de la fuente láser.</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
@@ -6057,7 +6233,11 @@
           <t>Fase della luce della sorgente laser</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Fase de la luz de la fuente láser.</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
@@ -6130,7 +6310,11 @@
           <t>Intensità della luce della sorgente laser.</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Intensidad de la luz de la fuente láser.</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
@@ -6327,7 +6511,11 @@
           <t>Valido solo per sistemi lidar impulsati</t>
         </is>
       </c>
-      <c r="X83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Sólo válido para lidar pulsado</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
@@ -6385,7 +6573,11 @@
           <t>Frequenza radio usata dal modulatore acustico per modulare l'impulso luminoso (per lidar impulsati)</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Radio frecuencia utilizada por el modulador acústico-óptico para modular el pulso de luz. Sólo para lídares pulsados.</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
@@ -6444,7 +6636,7 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Method used to shape the pulse</t>
+          <t>Method used to shape the pulse in pulsed lidars</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6458,7 +6650,11 @@
           <t>Metodo per regolare la forma dell'impulso in lidar impulsati</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Método para regular la forma de un pulso de luz</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
@@ -6517,7 +6713,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Technique by which short light pulses, typically nanoseconds, can be obtained from a continuous wave laser source, with a given pulse repetition rate controlled via a modulator.</t>
+          <t>Technique by which short light pulses can be obtained from a continuous wave laser source, with a given pulse repetition rate controlled via a modulator.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6531,7 +6727,11 @@
           <t>Tecnica di produzione di impulsi brevi di luce a partire da una sorgente laser di luce continua. La frequenza dell'impulso è regolata da un modulatore.</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Técnica para la formación de pulsos de luz a partir the una fuente láser de radiación continua. Un modulador regula la frecuencia en la emisión del pulso. </t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
@@ -6590,7 +6790,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Power loss due to the insertion of the acoustic modulator.</t>
+          <t>Power loss due to the insertion of the acousto-optic modulator.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6604,7 +6804,11 @@
           <t>Perdita di potenza dovuta alla presenza di un modulatore acustico.</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Pérdida de potencia debido a la inserción del modulador acústico-óptico.</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
@@ -6663,7 +6867,7 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Characteristics of the emitted light, namely: intensity, frequency/wavelength and polarisation. Lidar can be classified differently according to different design parameters. One of the possible classifications is based on the difference of emmited light. In this sense lidar can be characterised as Pulsed lidar, where lidar emmits pulsed light or Continuous wave lidar, where lidar emmits light in a continuous form.</t>
+          <t>Characteristics of the emitted light, namely: intensity, frequency/wavelength and polarisation. Lidar can be classified differently according to different design parameters. One of the possible classifications is based on the difference of emmited light: pulsed or continuous wave.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6677,7 +6881,11 @@
           <t>Caratterisiche della luce emessa: intensità, frequenza (o lunghezza d'onda), polarizzazione. Non da ultimo, tipo di sorgente luminosa: pulsata o continua.</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Características de la luz emitida: intensidad, frecuencia/longitud de onda y polarización. Los lidares pueden clasificarse según distintos parámetros de diseño. Una de las posibles clasificaciones se basa en la diferencia de luz emitida: continua o pulsada.</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
@@ -6754,7 +6962,11 @@
           <t>Lidar la cui luce è emessa in modo continuo.</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Caracterización de los lidares basada en el tipo de luz emitida. Los lidares de onda continua (CW) se caracterizan por su emisión continua de radiación.</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
@@ -6813,7 +7025,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Lidar characterisation based on the emitted type of light. This type of lidar is characterised by its pulsed emission of radiation. The originally continuously emitted lidar signal is modulated to form pulses of radiation of specified duration, and emitted at a certain ratio, as opposed to continuous emission.</t>
+          <t>Lidar characterisation based on the emitted type of light. This type of lidar is characterised by its pulsed emission of radiation. The originally continuously emitted lidar signal is modulated to obtain radiation of specified duration emitted at a certain rate, as opposed to continuous emission.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6827,7 +7039,11 @@
           <t>Lidar la cui luce è modulata nella forma di impulsi.</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Caracterización del lidar basada en el tipo de luz emitida. Este tipo de lidar se caracteriza por su emisión pulsada de radiación. La señal lidar emitida originalmente de forma continua se modula para obtener una radiación de duración determinada emitida a un ritmo determinado, a diferencia de la emisión continua.</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
@@ -6886,7 +7102,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Duration of the light pulse. When representing the intensity of the light pulse in the time domain the pulse duration can be characterised by the full width at half maximum (FWHM) of the function describing that intensity.  </t>
+          <t xml:space="preserve">Duration of the light pulse. Characterises the length of the probe volume. </t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6900,12 +7116,12 @@
           <t>Durata dell'impulso emesso. Caratterizza la lunghezza della sonda.</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>FWHM</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Duración del pulso luminoso. Caracteriza la longitud del volumen de medición del lidar.</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
           <t>ontolidar:PulsedLidar</t>
@@ -6918,12 +7134,16 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Lidars do not measure in a single point but rather whithin a probe volume, so that the full width at half maximum (FWHM) of the function characterising the pulse shape defines the probe volume whithin which the lidar is measuring. Therefore, the pulse duration directly impacts lidar estimations, since higher pulse durations give rise to longer probe volumes.</t>
+          <t>Lidars do not measure in a single point but rather whithin a probe volume. The full width at half maximum (FWHM) of the function characterising the pulse shape defines the probe volume whithin which the lidar is measuring. Therefore, the pulse duration directly impacts lidar estimations, since higher pulse durations give rise to longer probe volumes.</t>
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Los lidares no miden en un solo punto, sino a lo largo de un volumen en la dirección del rayo. La anchura a media altura ( o FWHM por sus siglas en inglés) de la función que caracteriza la forma del pulso define el volumen de la sonda dentro del cual el lidar está midiendo. Por lo tanto, la duración del pulso influye directamente en las estimaciones del lidar, ya que una mayor duración del pulso da lugar a volúmenes de medición mayores.</t>
+        </is>
+      </c>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -6953,7 +7173,11 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Anchura a media altura</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -6965,8 +7189,16 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>En una distribución, la anchuraa media altura representa la distancia entre los dos valores de la variable independiente (eje x) cuando el valor de la variable dependiente (eje y) es la mitad de su valor máximo.</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>FWHM</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
           <t>ontolidar:PulseDuration</t>
@@ -7024,7 +7256,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Time slot between pulses sent to sample the wind.</t>
+          <t>Time slot between two pulses sent by a pulsed lidar to sample the wind.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7038,7 +7270,11 @@
           <t>Tempo fra due impulsi laser inviati nell'ambiente da un lidar pulsato.</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Espacio de tiempo entre dos pulsos enviados por un lidar pulsado para muestrear el viento.</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
@@ -7097,7 +7333,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Continuous wave light can be modulated (e.g. with an acousto-optic-modulator or AOM) to obtain pulses at high power intensities altering the transmitted power and concentrating this energy in a short space. The power intensity around this area can be described as a gaussian function centered around the frequency of interest, which is commonly used to describe the shape of the pulse.</t>
+          <t>Shape of the emitted pulse</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7111,7 +7347,11 @@
           <t>Forma dell'impulso emesso.</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Forma del pulso emitido.</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
@@ -7123,10 +7363,18 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Continuous wave light can be modulated (e.g. with an acousto-optic-modulator or AOM) to obtain pulses at high power intensities altering the transmitted power and concentrating this energy in a short space. The power intensity around this area can be described as a gaussian function centered around the frequency of interest, which is commonly used to describe the shape of the pulse.</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>La luz de onda continua puede modularse (por ejemplo, con un modulador acústico-óptico o AOM) para obtener pulsos a altas intensidades de potencia alterando la potencia transmitida y concentrando esta energía en un espacio corto. La intensidad de la potencia alrededor de esta zona puede describirse como una función gaussiana centrada en la frecuencia de interés y se suele utilizar para describir la forma del pulso.</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -7170,7 +7418,7 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Light reaching the detector.</t>
+          <t>Backscattered light reaching the lidar detector.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7184,7 +7432,11 @@
           <t>Luce che raggiunge il fotorivelatore del lidar.</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Luz retrodispersada que alcanza el detector del lidar.</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
@@ -7243,7 +7495,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Light from the lidar beam (desired frequency and polarization) reaching the detector.</t>
+          <t>Portion of the backscattered light with desired frequency and polarization, reaching the detector.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7257,7 +7509,11 @@
           <t>Porzione della luce che raggiunge il fotorivelatore proveniente dal moto ventoso (tipicamente polarizzata).</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Porción de señal lidar retrodispersada con componentes de frecuencia y polarización deseados. Señal  que se debe al movimiento del viento. </t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
@@ -7330,7 +7586,11 @@
           <t>Porzione della luce che raggiunge il fotorivelatore non dovuta al moto ventoso (tipicamente non polarizzata).</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Porción de la luz que llega al detector lidar que no se debe al movimiento del viento (normalmente no polarizada).</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
@@ -7573,7 +7833,11 @@
           <t>Guadagno di potenza dovuto all'amplificazione ottica</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Ganancia de potencia debida a la amplificación óptica.</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
@@ -7646,7 +7910,11 @@
           <t>Banda di frequenza attiva nell'amplificatore ottico</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Ancho de banda de la frecuencia de trabajo del amplificador óptico.</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
@@ -7709,7 +7977,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>An optical assembly to split the laser beam into two or more beams (multi beams). In a lidar, the laser source beam is split into two different beams. One is sent out to the atmosphere to detect the aerosols motion. The other one is sent to the photodetector, where it will be used as a local reference to identify the frequency shift of the backscattered beam. Usually the beam splitter also polarises the beam so that it is distinguishable from the atmospheric background light.</t>
+          <t xml:space="preserve">An optical assembly to split the laser beam into two or more beams (multi beams). </t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7725,7 +7993,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Sistema para dividir el rayo láser en dos o más rayos.</t>
+          <t>Sistema óptico para dividir el rayo láser en dos o más rayos.</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7745,16 +8013,16 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Definition based on Wikipedia entry at https://en.wikipedia.org/wiki/Beam_splitter</t>
+          <t xml:space="preserve">In a lidar, the laser source beam is split into two different beams. One is sent out to the atmosphere to detect the aerosols motion. The other one is sent to the photodetector, where it will be used as a local reference to identify the frequency shift of the backscattered beam. Usually the beam splitter also polarises the beam so that it is distinguishable from the atmospheric background light. </t>
         </is>
       </c>
       <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>Definizione basata sulla definizione presente in Wikipedia a: https://en.wikipedia.org/wiki/Beam_splitter</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En un lidar, el haz de la fuente láser se divide en dos haces diferentes. Uno se envía a la atmósfera para detectar el movimiento de los aerosoles. El otro se envía al fotodetector, donde se utilizará como referencia local para identificar el cambio de frecuencia del haz retrodispersado. Por lo general, el divisor de haz también polariza el haz para que se pueda distinguir de la luz de fondo atmosférica, típicamente no polarizada. </t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
@@ -7883,7 +8151,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Ratio between the output current of the photodetector and the current generated by the photons reaching the active area of the photodetector.</t>
+          <t>Ratio between the output current of the photodetector and the current generated by the photons reaching its active area.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7899,7 +8167,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Ganancia del semiconductor.</t>
+          <t>Relación entre la corriente de salida del fotodetector y la corriente generada por los fotones que llegan a su zona activa.</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -7960,7 +8228,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Photodiode area where the backscattered light is focused onto (and the photoelectric effect occurs) in order to convert it into an electrical signal. Can be any shape and can range in size from less than a square millimetre to over a square centimetre. Photodetector sensitivity is affected by the active area, since higher active areas yields better (lower) sensitivity.</t>
+          <t>Photodiode area where the backscattered light is focused onto (and the photoelectric effect occurs) in order to convert it into an electrical signal. Photodetector sensitivity is affected by the active area, since larger active areas yield better (lower) sensitivity.</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7974,7 +8242,11 @@
           <t>Area del fotodiodo dove la luce di backscatter viene convogliata per produrre un segnale elettrico via effetto fotoelettrico. La sua dimensione e forma possono variare molto, da meno di un millimetro quadrato a più di un centimetro quadrato. La sensività del fotodetettore è influenzata dalla sua area attiva, siccome l'area attiva produce migliore (inferiore) sensività.</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Área del fotodiodo donde se enfoca la luz retrodispersada (y se produce el efecto fotoeléctrico) para convertirla en una señal eléctrica. La sensibilidad del fotodetector depende del área activa, ya que las áreas activas más grandes proporcionan una mejor (menor) sensibilidad.</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
@@ -8051,7 +8323,11 @@
           <t>Rapporto segnale/rumore del fotodetettore. I principali contributi al rumore sono il rumore termico, il sumore di shot ed il rumore da correnti nere.</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relación señal /ruido del fotodetector. Principales contribuciones al ruido son la temperatura, el ruido de disparo (o shot noise en inglés) y la corriente de oscuridad ( o dark current in inglés). </t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
@@ -8114,7 +8390,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>The voltage noise of the photodetector transimpedance amplifier.</t>
+          <t>The voltage noise of the photodetector.</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8276,7 +8552,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Mean used to transport the lidar signal when in its optical form.</t>
+          <t>Transmission system for the laser beam based on fibre optic.</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -8286,7 +8562,11 @@
           <t>Sistema di trasmissione del fascio laser basato du un sistema di fibra ottica.</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Sistema de transmisión de la rayo lidar basado en fibra óptica.</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
@@ -8353,7 +8633,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, and detectors.</t>
+          <t>The Power Module is responsible for supplying power to the entire lidar system, including motors, lasers, sensors, detectors and active elements.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8369,7 +8649,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>El módulo de potencia (o de alimentación) es responsable de abastecer al lidar de la energía necesaria para el funcionamiento del sistema.</t>
+          <t xml:space="preserve">El módulo de potencia (o de alimentación) es responsable de abastecer al lidar de la energía necesaria para el funcionamiento del sistema, incluyendo motores, láser, sensores, detectores y cualquier elemento activo que requiera electricidad. </t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -8669,7 +8949,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve">The total stored energy in the battery voltage. </t>
+          <t xml:space="preserve">The maximum capacity of the uninterruptable power supplier in units of Ampere-hour </t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8685,7 +8965,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Energía total acumulada en al batería.</t>
+          <t>La capacidad máxima del sistema de alimentación ininterrumpida en unidades de amperio-hora.</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -8750,7 +9030,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Lidar working power provided by the USP when working off-line</t>
+          <t>Lidar working power provided by the UPS when working off-line</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8764,7 +9044,11 @@
           <t>Potenza emessa dal gruppo di continuità per garantire l'operabilità del lidar quando disconnesso dalla rete elettrica.</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Potencia de trabajo lidar proporcionada por el sistema de alimentación ininterrumpida cuando el lidar trabaja  desconectado de la red eléctrica.</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
@@ -8827,7 +9111,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Lidar working current intensity provided by the USP when working off-line</t>
+          <t>Lidar working current intensity provided by the UPS when working off-line</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8841,7 +9125,11 @@
           <t xml:space="preserve">Intensità della corrente elettrica provvigionata dal gruppo di continuità. </t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Intensidad de la corriente de trabajo lidar proporcionada por el sistema de alimentación ininterrumpida cuando el lidar trabaja  desconectado de la red eléctrica.</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
@@ -9974,7 +10262,11 @@
           <t>Famiglia di lidars prodotti da Leosphere - a Vaisala company. Per maggiori informazioni, visitare https://www.vaisala.com/en/wind-lidars/wind-energy.</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Leosphere  - a Vaisala company. Véase: https://www.vaisala.com/en/wind-lidars/wind-energy</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
@@ -10055,7 +10347,11 @@
           <t>Lidar verticale prodotto da Leosphere - a Vaisala company</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Perfilador vertical producido por Leosphere - a Vaisala company.</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
@@ -10136,7 +10432,11 @@
           <t>Scanner a lungo raggio prodotto da Leosphere - a Vaisala company.</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Lidar de largo alcance producido por Leosphere - a Vaisala company.</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
@@ -10203,8 +10503,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nacelle mounted lidar manufactured by Leosphere - a Vaisala company.
-</t>
+          <t>Nacelle mounted lidar manufactured by Leosphere - a Vaisala company.</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10219,7 +10518,11 @@
           <t>Lidar per navicella prodotto da Leosphere - a Vaisala company.</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Lidar de góndola producido por Leosphere - a Vaisala company.</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
@@ -10300,7 +10603,11 @@
           <t>Famiglia di lidars prodotti da ZX lidars. Per maggiori informazioni, visitare https://www.zxlidars.com/our-wind-lidars/</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Leosphere  - a Vaisala company. Véase:  https://www.zxlidars.com/our-wind-lidars/</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
@@ -10381,7 +10688,11 @@
           <t>Seconda generazione di lidar verticali compatti prodotti da ZX lidars.</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Perfilador vertical producido por ZX lidars.</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
@@ -10462,7 +10773,11 @@
           <t>Lidar per navicella prodotto da ZX lidars.</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Lidar de góndola producido por ZX lidars.</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
@@ -10543,7 +10858,11 @@
           <t>Famiglia di lidars prodotti da Windar Photonics. Per maggiori informazioni, visitare https://www.windarphotonics.com/.</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Windar Photonics. Véase: https://www.windarphotonics.com/</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
@@ -10624,7 +10943,11 @@
           <t>Lidar per navicella prodotto da Windar Photonics.</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Lidar de góndola producido por Windar Photonics.</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
@@ -10705,7 +11028,11 @@
           <t>Lidar per navicella prodotto da Windar Photonics.</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Lidar de góndola producido por Windar Photonics.</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
@@ -10786,7 +11113,11 @@
           <t>Famiglia di lidars prodotti da Epsiline. Per maggiori informazioni, visitare http://www.epsiline.com/.</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Epsiline. Véase: http://www.epsiline.com/</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
@@ -10867,7 +11198,11 @@
           <t>Lidar per navicella prodotto da Epsiline.</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Lidar de góndola producido por Epsiline.</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
@@ -10948,7 +11283,11 @@
           <t>Famiglia di lidars prodotti da Nanjing MoveLaser. Per maggiori informazioni, visitare https://mgwtradenservice.com.au/wind-measurement-lidars/.</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Nanjing MoveLaser. Véase: https://mgwtradenservice.com.au/wind-measurement-lidars/</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
@@ -11029,7 +11368,11 @@
           <t>Lidar verticale prodotto da Nanjing MoveLaser.</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Perfilador vertical producido por Nanjing MoveLaser.</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
@@ -11110,7 +11453,11 @@
           <t>Lidar per navicella prodotto da Nanjing MoveLaser.</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Lidar de góndola producido por Nanjing MoveLaser.</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
@@ -11191,7 +11538,11 @@
           <t>Famiglia di lidars prodotti da Leice. Per maggiori informazioni, visitare http://www.leice-lidar.com/en/index.html.</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Leice. Véase: http://www.leice-lidar.com/en/index.html</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
@@ -11272,7 +11623,11 @@
           <t>Lidar verticale prodotto da Leice.</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Perfilador vertical producido por Leice.</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
@@ -11353,7 +11708,11 @@
           <t>Lidar per navicella prodotto da Leice.</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Lidar de góndola producido por Leice.</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
@@ -11434,7 +11793,11 @@
           <t>Scanner a lungo raggio prodotto da Leice.</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Lidar de escaneo producido por Leice.</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
@@ -11515,7 +11878,11 @@
           <t>Famiglia di lidars prodotti da HaloPhotonics. Per maggiori informazioni, visitare https://halo-photonics.com/.</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por HaloPhotonics. Véase: https://halo-photonics.com/</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
@@ -11596,7 +11963,11 @@
           <t>Lidar verticale prodotto da Halophotonics.</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Perfilador vertical producido por Halo Photonics.</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
@@ -11677,7 +12048,11 @@
           <t>Lidar verticale prodotto da Halophotonics.</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Perfilador vertical producido por Halo Photonics.</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
@@ -11758,7 +12133,11 @@
           <t>Scanner a lungo raggio prodotto da HaloPhotonics.</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Lidar de escaneo producido por Halo Photonics.</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
@@ -11839,7 +12218,11 @@
           <t>Famiglia di lidars prodotti da Galion. Per maggiori informazioni, visitare https://www.woodplc.com/solutions/expertise/a-z-list-of-our-expertise/software-and-products/galion-lidar-unit.</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Wood. Véase: https://www.woodplc.com/solutions/expertise/a-z-list-of-our-expertise/software-and-products/galion-lidar-unit</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
@@ -11920,7 +12303,11 @@
           <t>Scanner a lungo raggio prodotto da Galion. Per maggiori informazioni, visitare https://www.woodplc.com/solutions/expertise/a-z-list-of-our-expertise/software-and-products/galion-lidar-unit</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Familia de lidares de viento producidos por Wood. Véase: https://www.woodplc.com/solutions/expertise/a-z-list-of-our-expertise/software-and-products/galion-lidar-unit</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
@@ -11993,7 +12380,11 @@
       </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Catch the Wind: https://news.softpedia.com/news/A-Good-Mix-LIDAR-and-Wind-Turbines-138511.shtml</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
@@ -12137,7 +12528,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Unique identification number for each wind lidar</t>
+          <t>Unique identification number for each wind lidar.</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -12218,7 +12609,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>The type of lidar device (ground based, nacelle mounted, etc)</t>
+          <t>The type of lidar device (ground based, nacelle mounted, etc).</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -12299,7 +12690,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Ways that wind lidar data can be processed to extract useful data</t>
+          <t>Ways that wind lidar data can be processed to extract useful data.</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -12396,7 +12787,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Variable intermedia (ver datos intermedios). La velocidad radial es la componente radial del vector de velicidad del viento, relativo a la localización del lidar que realiza la medida. Es la proyección del vector de velocidad del viento sobrel la línea de visión (line-of-sight o LOS, por sus siglas en inglés) medida directamente mediante la observación del desplazamiento Doppler del pulso láser retrodispersado, y que fue previamente emitido a lo largo de la línea de visión.</t>
+          <t>Variable intermedia (véase datos intermedios). La velocidad radial es la componente radial del vector de velicidad del viento, relativo a la localización del lidar que realiza la medida. Es la proyección del vector de velocidad del viento sobrel la línea de visión (line-of-sight o LOS, por sus siglas en inglés) medida directamente mediante la observación del desplazamiento Doppler del pulso láser retrodispersado, y que fue previamente emitido a lo largo de la línea de visión.</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -12469,7 +12860,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Frequency distribution of the power of the received signals</t>
+          <t>Frequency distribution of the power of the received signals.</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -12483,7 +12874,11 @@
           <t>Distribuzione di frequenza della luce in backscatter.</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Distribución de frecuencias de la potencia de la señal recibida.</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
@@ -12550,7 +12945,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Aggregation period of individual Doppler spectra</t>
+          <t>Aggregation period of individual Doppler spectra.</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -12564,7 +12959,11 @@
           <t>Periodo di aggregazione di spettri Doppler singoli</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Periodo de agregación de los espectros Doppler individuales.</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
@@ -12635,13 +13034,17 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>The power value calculated as the centorid of the Doppler spectrum which eventually is identified with the radial velocity measured by the lidar</t>
+          <t>The power value calculated as the centroid of the Doppler spectrum which eventually is identified with the radial velocity measured by the lidar.</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>El valor de potencia calculado como el centroide del espectro Doppler, que finalmente se identifica con la velocidad radial medida por el lidar.</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr">
         <is>
           <t>Median</t>
@@ -12718,7 +13121,11 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>El valor medio de la potencia en el espectro Doppler que finalmente se identifica con la velocidad radial medida por el lidar.</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
@@ -12781,13 +13188,17 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>The maximum power value in the Doppler spectrum which eventually is identified with the radial velocity measured by the lidar</t>
+          <t>The maximum power value in the Doppler spectrum which eventually is identified with the radial velocity measured by the lidar.</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>El valor máximo de potencia en el espectro Doppler que finalmente se identifica con la velocidad radial medida por el lidar.</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
@@ -12939,7 +13350,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>The minimum value of power in the frequency spectra to be accepted as the wind signal over the instrument noise</t>
+          <t>The minimum power value in the frequency spectrum, above the instrument noise, that is accepted as a signal relative to the wind.</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12949,7 +13360,11 @@
       </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>El valor mínimo de potencia en el espectro de frecuencias, por encima del ruido del instrumento, que se acepta como señal relativa al viento.</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
@@ -13105,7 +13520,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>The models used to describe the wind field characteristics.</t>
+          <t>The mathematical-based models used to describe the wind field characteristics.</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -13119,7 +13534,11 @@
           <t>Il modello che è utilizzato per descrivere le caratteristiche del campo di vento.</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Los modelos de base matemática utilizados para describir las características del campo de viento.</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
@@ -13186,7 +13605,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>the model that used to describe the wind turbine, which determine or affect the wind field characteristics, e.g. the induction zone, wake influence area, etc.</t>
+          <t>The model that is used to describe the wind turbine, e.g. the induction zone, wake influence area, etc.</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -13200,7 +13619,11 @@
           <t>Il modello utilizzato per descrivere la turbina eolica, la sua zona di induzione, l'area influenzata dalla sua scia etc.</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>El modelo que se utiliza para describir la turbina eólica, la zona de inducción, la zona de influencia de la estela, etc.</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
@@ -13281,7 +13704,11 @@
           <t>Flusso ventoso in assenza di turbolenza o in presenza di debole turbolenza. E' solitamente utilizzato per modelli di vento in terreno piatto o offshore.</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Flujo de viento definido como horizontal homogéneo, sin turbulencia o turbulencia despreciable que se suele utilizar para los modelos de campo de viento en terreno plano o en alta mar.</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr">
         <is>
           <t>Simple Flow</t>
@@ -13366,7 +13793,11 @@
           <t>Flusso ventoso in presenza di significativa turbolenza. E' solitamente utilizzato per modelli di vento in terreno complesso.</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Flujo de viento horizontalmento no homogéneo con turbulencia significativa, que suele utilizarse para el modelo de campo de viento en terrenos complejos.</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr">
         <is>
           <t>Complex Flow</t>
@@ -13437,7 +13868,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>The methods that correct the reconstructed wind field with motion information from lidar or other inertial measurement units, typically for floating lidars or lidars mounted on a floating platform or vessel</t>
+          <t>The methods that correct the reconstructed wind field with motion information from lidar or other inertial measurement units, typically for floating lidars or lidars mounted on a floating platform or vessel.</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -13451,7 +13882,11 @@
           <t>Metodo di correzione dei dati registrati dal lidar per il moto della sorgente di luce stessa o del supporto dove essa si situa. Algoritmi cruciali per floating lidars o lidars montati su piattaforme mobili.</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métodos de corrección de datos lidar durante el proceso de reconstrucción del campo de vientos. Para la corrección se incluyen datos sobre el movimiento del lidar registrados mediante el propio lidar u otras unidades de medición inercial. Típicamente utilizado para lidares flotantes u otras plataformas móviles como barcos. </t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
@@ -13524,7 +13959,11 @@
           <t>Sequenza dei posizionamenti del raggio laser del lidar nello spazio.</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Secuencia de posicionamientos del rayo láser lidar en el espacio, que requiere que el rayo lidar escanee o barra una serie de orientaciones diferentes. </t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
@@ -13587,7 +14026,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>A lidar scan geometry with fixed lidar beam orientations in space</t>
+          <t>A lidar scan geometry with fixed lidar beam orientations in space.</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -13597,7 +14036,11 @@
       </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo lidar de orientaciones fijas del haz lidar.</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
@@ -13656,7 +14099,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>A lidar scan geometry that with dynamic lidar beam orientations in space</t>
+          <t>A lidar scan geometry that with dynamic lidar beam orientations in space.</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -13666,7 +14109,11 @@
       </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Una geometría de escaneo lidar que deorientaciones dinámicas del haz lidar.</t>
+        </is>
+      </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
@@ -13735,7 +14182,11 @@
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Los métodos de filtrado que se aplican para procesar los datos brutos del lidar, para producir conjuntos de datos lidar más fiables, listos para la reconstrucción del campo de viento u otros fines.</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
@@ -13808,7 +14259,11 @@
           <t>Dati in uscita dalla DSP del lidar, prima di qualsiasi filtraggio ed algoritmo di post-processamento.</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Salida de datos del convertidor analógico-digital (ADC ) del lidar, previo a la aplicación de cualquier algoritmo de filtrado o post-procesamiento.</t>
+        </is>
+      </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
@@ -13881,7 +14336,11 @@
           <t>Dati ottenuti dopo aver applicato ai dati grezzi le soglie CNR ed averli puliti dalle anomalie.</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Datos generados tras filtrar los datos brutos aplicando umbrales CNR y eliminando los valores atípicos.</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
@@ -13954,7 +14413,11 @@
           <t>In un gruppo di misurazioni, singole misure dalle caratteristiche particolarmente differenti rispetto alle statistiche principali del gruppo stesso.</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Observaciones que se encuentran a distancias anómalas de otros valores en una muestra aleatoria de una población. Estas observaciones se consideran inválidas y son descartadas.</t>
+        </is>
+      </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
@@ -14013,7 +14476,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t xml:space="preserve">The CNR bandwidth (-30dB to 10dB) within which the doppler peak is clearly visiable with respect to noise of the freqency spectrum. </t>
+          <t xml:space="preserve">The CNR bandwidth within which the intensity of the Doppler peak is clearly visible with respect to the noise intensity in the freqency spectrum. </t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14023,7 +14486,11 @@
       </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>El ancho de banda de la CNR dentro del cual la intensidad del pico Doppler es claramente visible con respecto a la intensidad del ruido en el espectro de frecuencias.</t>
+        </is>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
@@ -14151,7 +14618,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Data that generated after data-processing</t>
+          <t>Data that generated after data-processing.</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14220,7 +14687,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>The wind velocity vector consist of wind speed and wind direction in a given time</t>
+          <t>The wind velocity vector consist of wind speed and wind direction in a given time.</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14299,7 +14766,11 @@
       </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Relación entre la desviación estándar de la velocidad del viento y la velocidad media del viento, determinada a partir del mismo conjunto de muestras de datos de viento observado, y tomados durante un periodo de tiempo específico, normalmente 10min o 60min.</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
@@ -14368,7 +14839,11 @@
       </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Cantidades para estimar el error estadístico de los datos de medición del lidar, que afecta a la disponibilidad de los datos del lidar, a su validez, etc.</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
@@ -14427,7 +14902,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Data filtering for various environmental factors, such as the detections of hard targets, fog, etc., which affect the CNR value</t>
+          <t>Data filtering for various environmental factors, such as the detections of hard targets, fog, etc., which affect the CNR value.</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14437,7 +14912,11 @@
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Métodos de filtrado de datos para diversos factores ambientales, como las detecciones de blanco sólido, niebla, etc., que afectan al ratio portadora/ruido (CNR).</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
@@ -14500,7 +14979,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>A range (or a quantity) to indicate the laser beam is reflected from an object, and the corresponding lidar measurement data shall be filtered out during the data processing</t>
+          <t>A range (or a quantity) to indicate the laser beam is reflected from an object, and the corresponding lidar measurement data shall be filtered out during the data processing.</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14510,7 +14989,11 @@
       </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Rango (o cantidad) que indica que el rayo láser ha sido reflejado por un blanco sólido, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos.</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
@@ -14569,7 +15052,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>A range (or a quantity) to indicate the laser beam is reflected from Cloud, and the corresponding lidar measurement data shall be filtered out during the data processing</t>
+          <t>A range (or a quantity) to indicate the laser beam is reflected from Cloud, and the corresponding lidar measurement data shall be filtered out during the data processing.</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -14579,7 +15062,11 @@
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Rango (o cantidad) para indicar que el rayo láser ha sido reflejado por una nube, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos</t>
+        </is>
+      </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
@@ -14648,7 +15135,11 @@
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Cantidad que indica condiciones de aire limpio (escasez de aerosoles), y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
+        </is>
+      </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
@@ -14717,7 +15208,11 @@
       </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Cantidad que indica condiciones de niebla, y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
@@ -14786,7 +15281,11 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Proceso matemático de transformación de los datos en el sistema de coordenadas por defecto del lidar (por ejemplo, el sistema de coordenadas esféricas, etc.) al sistema de coordenadas requerido por la aplicación que post procesará los datos (por ejemplo, el sistema inercial de coordenadas cartesianas definido por la regla de la mano derecha).</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
@@ -16351,7 +16850,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>The distance from the lidar to the laser beam convergent point, as specified by the telescope focal length.</t>
+          <t>The distance from the lidar to the telescope focal length.  Ideally coincides with the laser beam waist.</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16365,7 +16864,11 @@
           <t>La distanza fra il centro della lente ottica e il suo fuoco.</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>Distancia desde el lidar hasta la distancia focal del telescopio. Idealmente coincide con el punto de convergencia máxima de luz del rayo.</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
@@ -16499,7 +17002,11 @@
           <t>Risoluzione della distanza</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Resolución de distancia</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>探测间隔分辨率</t>
@@ -16523,7 +17030,11 @@
           <t>La distanza che può essere risolta dalla lunghezza dell'impulso laser. E' data dalla metà del prodotto fra la velocità della luce e la durata dall'impulso.</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>Distancia que puede ser resuelta por la longitud del pulso láser. Viene dada por la relación entre la velocidad de la luz y la mitad de la duración del pulso.</t>
+        </is>
+      </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
@@ -16694,7 +17205,11 @@
         </is>
       </c>
       <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>ontolidar:FullWidthAtHalfMaximum</t>
+        </is>
+      </c>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
@@ -16739,11 +17254,19 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Diameter of the laser beam</t>
+        </is>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Diámetro del rayo láser.</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
@@ -17960,7 +18483,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Un sistema lidar donde el cambio de frecuencia se mide comparando la señal de retorno con una señal de referencia.</t>
+          <t>Sistema lidar donde el cambio de frecuencia se mide comparando la señal de retorno con una señal de referencia.</t>
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
@@ -18041,7 +18564,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Un sistema lidar donde la señal de retorno se filtra o se resuelve en sus componentes espectrales para obtener el cambio de frecuencia. También conocido como lidar de tiempo de vuelo o lidar de detección directa.</t>
+          <t>Sistema lidar donde la señal de retorno se filtra o se resuelve en sus componentes espectrales para obtener el cambio de frecuencia. También conocido como lidar de tiempo de vuelo o lidar de detección directa.</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -18187,7 +18710,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Un método de detección LIDAR en el que la radiación de referencia se deriva de la misma fuente que la señal antes del proceso de modulación.</t>
+          <t>Un método de detección lidar en el que la radiación de referencia se deriva de la misma fuente que la señal antes de ser modulada.</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
@@ -18268,7 +18791,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Un método de detección LIDAR en el que la radiación de referencia se deriva de una fuente diferente a la señal antes del proceso de modulación.</t>
+          <t>Un método de detección lidar en el que la radiación de referencia se deriva de una fuente diferente a la señal antes del proceso de modulación.</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
@@ -18416,7 +18939,11 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Modelo de campo de viento: seguimiento de partículas como aplicación en la que el haz lidar sigue a la partícula en el flujo.</t>
+        </is>
+      </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
@@ -18481,7 +19008,11 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Modelo de campo de viento: usa al correlación cruzada como término para describir la turbulencia en el campo utilizando la estadística.</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
@@ -19242,7 +19773,11 @@
           <t>Formato del file dati prodotto dal lidar. Questo è tipicamente comune per tutti i tipi di lidars prodotti dallo stesso costruttore.</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Formato de datos lidar. Esto suele ser común para todo tipo de lidares desarrollados por un mismo fabricante.</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
@@ -19311,7 +19846,11 @@
           <t>Formato dati comune per i prodotti dell'azienda Leosphere.</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Formato de datos común para productos de la compañía Leosphere.</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
@@ -19384,7 +19923,11 @@
           <t>Formato dati comune per i prodotti dell'azienda ZX lidars (estensione .zph).</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Formato de datos común para productos de la compañía Leosphere.</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
@@ -19457,7 +20000,11 @@
           <t>Formato dati comune per i prodotti dell'azienda Halo photonics.</t>
         </is>
       </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Formato de datos común para productos de la compañía Halo photonics.</t>
+        </is>
+      </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
@@ -19530,7 +20077,11 @@
           <t>Un tentativo di standardizzare il formato dati dei lidar e di costruirlo secondo i principi FAIR (dati ricercabili, accessibili, interoperabili e riutilizzabili).</t>
         </is>
       </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Intento de estandarización de los datos de los lidares de viento construidos según el principio FAIR (datos al alcance (Findable), accesibles (Accesible), interoperables (Interoperable) y reproducibles (reproducible)).</t>
+        </is>
+      </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
@@ -19654,7 +20205,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>A networking protocol for clock synchronization between computer systems and Lidar computer over packet-switched, variable-latency data networks. the maximum difference in the clock times between systems</t>
+          <t>A networking protocol for clock synchronization between computer systems and Lidar computer over packet-switched, variable-latency data networks. The maximum difference in the clock times between systems.</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -19664,7 +20215,11 @@
       </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un protocolo de red para la sincronización del reloj entre los sistemas informáticos y el ordenador del lidar a través de redes de datos con conmutación de paquetes y latencia variable. Corresponde a la diferencia máxima en los tiempos de reloj entre los sistemas. </t>
+        </is>
+      </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
@@ -19727,7 +20282,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Data transfer protocol based on FTP</t>
+          <t>Data transfer protocol based on FTP.</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -19737,7 +20292,11 @@
       </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Protocolo de transferencia de datos basado en FTP.</t>
+        </is>
+      </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
@@ -19800,7 +20359,7 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>A graphical user interface implemented for Lidar data at  Lidar end or at user end</t>
+          <t>A graphical user interface implemented for Lidar data at  Lidar end or at user end.</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -19810,7 +20369,11 @@
       </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Interfaz gráfica de usuario implementada para los datos lidar en el extremo del lidar o en el extremo del usuario.</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
@@ -19873,7 +20436,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Data transfer over WLAN protocol</t>
+          <t>Data transfer over WLAN protocol.</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -19883,7 +20446,11 @@
       </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Transferencia de datos a través del protocolo WLAN.</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
@@ -19946,7 +20513,7 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Data transfer over LAN protocol</t>
+          <t>Data transfer over LAN protocol.</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -19956,7 +20523,11 @@
       </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Transferencia de datos a través del protocolo LAN.</t>
+        </is>
+      </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
@@ -20019,7 +20590,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Maximum sampling frequency of the Lidar measurement device</t>
+          <t>Maximum sampling frequency of the Lidar measurement device.</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -20029,7 +20600,11 @@
       </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Frecuencia máxima de muestreo del dispositivo de medición lidar.</t>
+        </is>
+      </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
@@ -20092,7 +20667,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Maximum logging frequency of the logger or the Lidar measurement device</t>
+          <t>Maximum logging frequency of the logger or the Lidar measurement device.</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -20102,7 +20677,11 @@
       </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>Frecuencia máxima de registro del dispositivo de medición lidar.</t>
+        </is>
+      </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
@@ -20165,7 +20744,7 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>The size of the file in terms of time period or samples e.g. 10-min files or 1 hour files</t>
+          <t>The size of the file in terms of time period or samples e.g. 10-min files or 1 hour files.</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -20175,7 +20754,11 @@
       </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>El tamaño del archivo en términos de período de tiempo o muestras, por ejemplo, archivos de 10 minutos o archivos de 1 hora.</t>
+        </is>
+      </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
@@ -20248,7 +20831,11 @@
       </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>La frecuencia con la que se transfieren los datos entre el dispositivo de medición (primario) y un dispositivo secundario.</t>
+        </is>
+      </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
@@ -20311,7 +20898,7 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data averaging period for the data, e.g., 20 Hz data can be averaged to 10 min data </t>
+          <t>Data averaging period for the data, e.g., 20 Hz data can be averaged to 10 min data.</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -20321,7 +20908,11 @@
       </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Periodo de promediación de los datos, por ejemplo, los datos de 20 Hz se pueden promediar a datos de 10 minutos.</t>
+        </is>
+      </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
@@ -20384,7 +20975,7 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Installation date and time, location (gps)</t>
+          <t>Installation date and time, location (gps).</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -20394,7 +20985,11 @@
       </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Fecha y hora de instalación, ubicación (gps).</t>
+        </is>
+      </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
@@ -20449,7 +21044,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Deployment data and time, location (gps)</t>
+          <t>Deployment data and time, location (gps).</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -20459,7 +21054,11 @@
       </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>Datos y hora de instalación, ubicación (gps).</t>
+        </is>
+      </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
@@ -20522,7 +21121,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Repair data and time, location (gps)</t>
+          <t>Repair data and time, location (gps).</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -20532,7 +21131,11 @@
       </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>Datos y hora de reparación, ubicación (gps).</t>
+        </is>
+      </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
@@ -20595,7 +21198,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Relocation data and time, location (gps)</t>
+          <t>Relocation data and time, location (gps).</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -20605,7 +21208,11 @@
       </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Datos de la reubicación y hora, ubicación (gps).</t>
+        </is>
+      </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
@@ -20668,7 +21275,7 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Decommission data and time, location (gps)</t>
+          <t>Decommission data and time, location (gps).</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -20678,7 +21285,11 @@
       </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>Datos y hora de desmantelamiento, ubicación (gps).</t>
+        </is>
+      </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -6535,12 +6535,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ontolidar:AomRadioFrequency</t>
+          <t>ontolidar:RadioFrequency</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AOM radio frequency</t>
+          <t>Radio frequency</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -6612,12 +6612,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ontolidar:AomPulsedmethod</t>
+          <t>ontolidar:Pulsedmethod</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AOM PulsedMethod</t>
+          <t>PulsedMethod</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -6689,12 +6689,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ontolidar:AomQswitching</t>
+          <t>ontolidar:Qswitching</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AOM QSwitching</t>
+          <t>QSwitching</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -6735,7 +6735,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>ontolidar:AcoustoOpticModulator</t>
+          <t>ontolidar:Pulsedmethod</t>
         </is>
       </c>
       <c r="P86" t="inlineStr"/>
@@ -6766,12 +6766,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ontolidar:AomInsertionLoss</t>
+          <t>ontolidar:InsertionLoss</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AOM Insertion loss</t>
+          <t>Insertion loss</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM266"/>
+  <dimension ref="A1:AP266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,9 @@
       <c r="AK1" t="inlineStr"/>
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
+      <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +525,9 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -575,6 +581,9 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +637,9 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -681,6 +693,9 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +749,9 @@
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -787,6 +805,9 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -808,7 +829,11 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The idea is to download a lidar ontology concept and use its ```alternative label``` as input for user's in-built workflow.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -840,6 +865,9 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -889,6 +917,9 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -938,6 +969,9 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -987,6 +1021,9 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1036,6 +1073,9 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1085,6 +1125,9 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1134,6 +1177,9 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1183,6 +1229,9 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1232,6 +1281,9 @@
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1281,6 +1333,9 @@
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1330,6 +1385,9 @@
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1379,6 +1437,9 @@
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1428,6 +1489,9 @@
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1477,6 +1541,9 @@
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1530,6 +1597,9 @@
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1575,6 +1645,9 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1624,6 +1697,9 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1673,6 +1749,9 @@
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1722,6 +1801,9 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1883,6 +1965,9 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1968,6 +2053,9 @@
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1977,7 +2065,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Velocity-azimuth display</t>
+          <t>Velocity azimuth display</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1993,7 +2081,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>速度-方位角（VAD）测量法</t>
+          <t>VAD测量法</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2016,12 +2104,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>VAD es un método de análisis de datos provenientes de un escaneo de geometría cónica en el que varios puntos azimutales estrechamente espaciados son muestreados por el lidar. Dichos datos se utilizan para estimar la velocidad del viento a una determinada altura utilizanso métodos de ajuste estadísticos.</t>
+          <t>VAD es un método de análisis de datos provenientes de un escaneo de geometría cónica en el que varios puntos azimutales estrechamente espaciados son muestreados por el lidar. Dichos datos se utilizan para estimar la velocidad del viento a una determinada altura utilizando métodos de ajuste estadísticos.</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>VAD</t>
+          <t>VAD,VOOI</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2045,7 +2133,11 @@
           <t>Il metodo VAD è descritto in Lhermitte (1966) e Bowning e Wexler (1968).</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>El método VAD se describe en Lhermitte (1996) y en Browning and Wexler (1968)</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -2061,6 +2153,9 @@
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2098,7 +2193,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>测风激光雷达的常规用法</t>
+          <t>测风激光雷达的常见用法</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2138,6 +2233,9 @@
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2219,6 +2317,9 @@
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2251,7 +2352,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Lidar based measurement to identify the specific features of a local wind field</t>
+          <t>Lidar based measurement to identify the specific features of a local wind field.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2300,6 +2401,9 @@
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2332,7 +2436,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>International guidelines for Power performance measurements of electricity producing wind turbines</t>
+          <t>International guidelines for Power performance measurements of electricity producing wind turbines.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2381,6 +2485,9 @@
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2462,6 +2569,9 @@
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2543,6 +2653,9 @@
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2575,7 +2688,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Wind turbine's power performance measurement standards based on ground based lidars</t>
+          <t>Wind turbine's power performance measurement standards based on ground based lidars.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2624,6 +2737,9 @@
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2705,6 +2821,9 @@
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2737,7 +2856,7 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Task 32 Reccomended practices for Offshore Power Performance - Testing/Complex terrain</t>
+          <t>Task 32 Reccomended practices for Offshore Power Performance - Testing/Complex terrain.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2786,6 +2905,9 @@
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2867,6 +2989,9 @@
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2948,6 +3073,9 @@
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2980,7 +3108,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Lidar based techniques to control the wakes from turbines</t>
+          <t>Lidar based techniques to control the wakes from turbines.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3029,6 +3157,9 @@
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3110,6 +3241,9 @@
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3191,6 +3325,9 @@
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3223,7 +3360,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Lidar based measurements to verify the quality of measurments from met mast instrumentations</t>
+          <t>Lidar based measurements to verify the quality of measurments from met mast instrumentations.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3272,6 +3409,9 @@
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3304,7 +3444,7 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Lidar based measurments in wind tunnels</t>
+          <t>Lidar based measurments in wind tunnels.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3353,6 +3493,9 @@
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3385,7 +3528,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>A series of wind measurements made at discrete vertical locations, mimicking a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement</t>
+          <t>A series of wind measurements made at discrete vertical locations, mimicking a met mast. These can be implemented using many approaches including Crossed RHI (XRHI) and other dual- or triple-lidar measurement.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3438,6 +3581,9 @@
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3474,7 +3620,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Wind lidar generic design structure</t>
+          <t>Wind lidar generic design structure.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3511,7 +3657,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -3527,6 +3677,9 @@
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3564,7 +3717,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>底盘模块负责激光雷达的各种安装方案，包括但不限于安装在机舱、气象塔、地面、浮动平台或移动结构上</t>
+          <t>激光雷达的主要结构，旨在保护和容纳不同的激光雷达组件。其设计可能因激光雷达安装解决方案而异，包括但不限于安装在机舱、气象塔、地面、浮动平台或其他移动结构上。</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3600,7 +3753,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
@@ -3616,6 +3773,9 @@
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3653,7 +3813,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>检索激光雷达的准确位置和方向的设备和相关方法，从而获得正确的测量点。</t>
+          <t>读取激光雷达准确位置和朝向的设备和相关方法，从而保证可以获得准确的测量位置信息。</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3697,6 +3857,9 @@
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3734,7 +3897,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>全球定位系统，唯一地定义激光雷达的位置。</t>
+          <t>全球定位系统，可准确地描述激光雷达的位置。</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3778,6 +3941,9 @@
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3810,12 +3976,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Lidar orientation system affixed to the bracket structure. In turn, the bracket structure is affixed to the ground or to another structure, like the nacelle. Measurement system of the lidar orientation.</t>
+          <t>Lidar orientation system affixed to the bracket structure. In turn, the bracket structure is affixed to the ground or to another structure, like the nacelle.  of Lidar orientation measurement system.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>贴在支架结构上的激光雷达定位系统。反过来，支架结构被贴在地面上或另一个结构上，如风力发电机组机舱。 激光雷达测量定向系统。</t>
+          <t>贴在激光雷达支架结构上的定位系统，用于测量物体相对于重力方向的倾斜、仰角或俯角角度。而支架结构被固定在地面或其他结构上，如机舱。</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3859,6 +4025,9 @@
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3940,6 +4109,9 @@
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3977,7 +4149,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>帮助我们检测激光雷达在其自身本地惯性框架中的运动。与测距仪相结合，为我们提供了一系列信息，帮助我们过滤或纠正由于激光雷达的运动而产生的激光雷达数据。</t>
+          <t>用于测量激光雷达相对于当地惯性系统运动的传感器。与陀螺仪结合，提供了一系列的信息，用于过滤或纠正受雷达设备运动影响而产生的激光雷达数据。</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -4021,6 +4193,9 @@
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4058,7 +4233,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>帮助我们利用地球重力确定激光雷达的方向，从而确定激光束的方向。与加速度计相结合，为我们提供了一系列的信息，帮助我们过滤或纠正由于激光雷达的运动而产生的激光雷达数据。</t>
+          <t>用于测量激光雷达相对于当地地球重力矢量方向的传感器，从而确定激光束的方向。与加速度计相结合，提供一系列的信息，用于过滤或纠正受雷达设备运动影响而产生的激光雷达数据。</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -4102,6 +4277,9 @@
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4134,12 +4312,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Meteorological conditions on the lidar spot.</t>
+          <t xml:space="preserve">System to detect the meteorological conditions on the lidar spot. </t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>激光雷达点上的气象条件。</t>
+          <t>激光雷达所在位置的气象条件的检测系统。</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -4183,6 +4361,9 @@
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4220,7 +4401,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>当地气象站。集成在激光雷达底盘模块中。报告激光雷达工作时的气象条件。</t>
+          <t>集成在激光雷达底盘模块的本地气象站，用于记录或报告激光雷达工作时的气象条件。</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -4264,6 +4445,9 @@
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4296,12 +4480,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>The control module is the interface between the external controller (human or machine) and the lidar system</t>
+          <t>The control module is the interface between the external controller (human or machine) and the lidar system.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>控制模块是外部控制（人或机器）与激光雷达系统之间的接口</t>
+          <t>控制模块是外部控制器（人或机器）和激光雷达系统之间的接口</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -4337,7 +4521,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
@@ -4353,6 +4541,9 @@
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4385,7 +4576,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device</t>
+          <t>The system of devices and software that transmit and receive data and commands to and from the lidar device.</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4426,7 +4617,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar:https://github.com/e-WindLidar/OpenLidarModuleDefinitionss</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
@@ -4442,6 +4637,9 @@
       <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4474,7 +4672,7 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>The signal processing module is used to convert the data acquired by the lidar into a data product</t>
+          <t>The signal processing module is used to convert the data acquired by the lidar into a data product.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4519,7 +4717,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar:https://github.com/e-WindLidar/OpenLidarModuleDefinitionss</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
@@ -4535,6 +4737,9 @@
       <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4560,7 +4765,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>模拟到数字转换器</t>
+          <t>模拟数字转换器</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -4570,7 +4775,11 @@
           <t xml:space="preserve">Device that converts the analog signal from the photodetector into a digital signal to properly be analised by the frequency analyser. </t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>将光电探测器的模拟信号转换为数字信号的装置，以便由频率分析器进行合理地分析</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -4612,6 +4821,9 @@
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4625,9 +4837,17 @@
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Numero di bit</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>比特数</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -4635,9 +4855,17 @@
           <t>Number of bits of the analog to digital converter.</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>模拟数字转换器的比特数。</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Numero di bit del convertitore analogico-digitale</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>Número de bits del convertidor analógico-digital</t>
@@ -4660,8 +4888,16 @@
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Definisce la risoluzione del convertitore analogico-digitale e rappresenta il numero di valori (livelli) in cui il segnale viene separato</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Define la resolución del convertidos analógico-digital y representa el número de valores o "niveles" en que la señal puede ser cuantizada.</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -4677,6 +4913,9 @@
       <c r="AK61" t="inlineStr"/>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4714,11 +4953,15 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>低通滤波器。来自硬件和不需要的反向散射光的信号随机噪声被白化，并应用一个阈值来过滤掉不需要的信号噪声。</t>
+          <t>低通滤波器。</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Filtro passa-basso</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>Filtro pasa-baja</t>
@@ -4741,8 +4984,16 @@
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Segnala la presenza di rumore dall'hardware, da backscatter non legato al vento Tipicamente il filtro e' costituito da una semplice soglia sul livello di rumore.</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>El ruido aleatorio de la señal debida al hardware y luz retrodispersada se filtra aplicando un umbral que define qué parte de la señal corresponde a información sobre las características del viento y qué parte es simplemente ruido de señal .</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -4758,6 +5009,9 @@
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4790,16 +5044,20 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Device that processes the the signal from the analog-to-digital converter and performs the Doppler spectra.</t>
+          <t>Device that processes the signal from the analog-to-digital converter and calculates the Doppler spectra.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>一旦模拟信号被转换为数字信号，就用频率分析器来确定这个数字信号的频谱。这个设备可以得出跳动频率，因此，多普勒频移。</t>
+          <t>处理来自模拟数字转换器的信号并生成多普勒光谱的设备。</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Sistema che converte il segnale digitale in uscita dal convertitore analogico-digitale in spettri Doppler.</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
           <t xml:space="preserve">Dispositivo que procesa la señal proveniente del convertidor analógico-digital y computa el espectro de frecuencias. </t>
@@ -4822,7 +5080,11 @@
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Questo apparezzio produce lo spettro di potenza del segnale di battimento fra la sorgente laser originale ed il segnale di backscatter.</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr">
         <is>
           <t>Una vez que la señal analógica se convierte en una señal digital, se utiliza un analizador de frecuencias para determinar su espectro de frecuencias. Este aparato proporciona el espectro de frecuencias de la señal mezclada (señal original de la fuente láser + señal retrodispersada), y por tanto el desplazamiento de frecuencia Doppler.</t>
@@ -4843,6 +5105,9 @@
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4875,16 +5140,20 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Peak identification refers to the method used to retrieve the Doppler frequency shift from the frequency spectra.</t>
+          <t>Refers to the method used to retrieve the Doppler frequency shift from the frequency spectra.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>峰值识别指的是从频谱中检索出多普勒频移的方法。从频谱中获得多普勒频率的常用方法是最大值、中值和中心值法</t>
+          <t>用于从频谱中检索多普勒频移的方法。</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Metodo di determinazione della frequenza di shift Doppler dagli spettri di potenza</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
           <t>Detección de pico se refiere al método utilizado por el analizador de frecuencias para obtener la frecuencia Doppler.</t>
@@ -4911,7 +5180,11 @@
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Metodi comuni di identificazione del picco in una distribuzione di frequenza.</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr">
         <is>
           <t>Los métodos más comunes par la detección del pico son el máximo, la media o el centroide del espectro de frecuencias.</t>
@@ -4932,16 +5205,19 @@
       <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ontolidar:Fft</t>
+          <t>ontolidar:FastFourierTransform</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FFT</t>
+          <t>Fast fourier transform</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -4952,7 +5228,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FFT</t>
+          <t>Transformada de Fourier rápida</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4969,7 +5245,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>快速傅里叶变换。将激光雷达数据的时间序列转换为频域，以获得频谱的方法。</t>
+          <t>快速傅里叶变换。将激光雷达数据时间序列转化为其功率频谱的方法。</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4983,7 +5259,11 @@
           <t>Transformada de Fourier rápida. Método para transformar las series temporales de datos lidar en su espectro de potencias.</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>FFT</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
           <t>ontolidar:FrequencyAnalyser</t>
@@ -5013,6 +5293,9 @@
       <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5098,6 +5381,9 @@
       <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5171,7 +5457,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
@@ -5187,6 +5477,9 @@
       <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5260,7 +5553,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -5276,6 +5573,9 @@
       <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5361,6 +5661,9 @@
       <c r="AK69" t="inlineStr"/>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5446,6 +5749,9 @@
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5527,6 +5833,9 @@
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5595,7 +5904,11 @@
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>In sistemi a luce continua, parametro di controllo per la distanza di puntamento del sistema laser.</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr">
         <is>
           <t>Los lidares de onda continua utilizan esta distancia para variar la distancia focal.</t>
@@ -5616,6 +5929,9 @@
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5697,6 +6013,9 @@
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5772,7 +6091,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Definición basada en OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
@@ -5790,6 +6109,9 @@
       <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
+      <c r="AP74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5871,6 +6193,9 @@
       <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+      <c r="AO75" t="inlineStr"/>
+      <c r="AP75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5952,6 +6277,9 @@
       <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
+      <c r="AO76" t="inlineStr"/>
+      <c r="AP76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6016,7 +6344,11 @@
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Combinazione di luce laser e risonanza laser in cavita'.</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr">
         <is>
           <t>Dada una cierta longitud de onda de la luz y una longitud de la cavidad láser, sólo ciertos modos son permitidos.</t>
@@ -6037,6 +6369,9 @@
       <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6114,6 +6449,9 @@
       <c r="AK78" t="inlineStr"/>
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6191,6 +6529,9 @@
       <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6268,6 +6609,9 @@
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
+      <c r="AP80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6345,6 +6689,9 @@
       <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
+      <c r="AO81" t="inlineStr"/>
+      <c r="AP81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6417,8 +6764,16 @@
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>In unita' di metri.</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Unidad en metros</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
@@ -6434,6 +6789,9 @@
       <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
+      <c r="AO82" t="inlineStr"/>
+      <c r="AP82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6531,6 +6889,9 @@
       <c r="AK83" t="inlineStr"/>
       <c r="AL83" t="inlineStr"/>
       <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
+      <c r="AO83" t="inlineStr"/>
+      <c r="AP83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6559,7 +6920,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Radio frequency used by the acoustic modulator to modulate the pulse (for pulsed lidars)</t>
+          <t>Radio frequency used by the acoustic modulator to modulate the pulse (for pulsed lidars).</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6608,6 +6969,9 @@
       <c r="AK84" t="inlineStr"/>
       <c r="AL84" t="inlineStr"/>
       <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
+      <c r="AP84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6685,6 +7049,9 @@
       <c r="AK85" t="inlineStr"/>
       <c r="AL85" t="inlineStr"/>
       <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
+      <c r="AO85" t="inlineStr"/>
+      <c r="AP85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6762,6 +7129,9 @@
       <c r="AK86" t="inlineStr"/>
       <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6839,6 +7209,9 @@
       <c r="AK87" t="inlineStr"/>
       <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
+      <c r="AO87" t="inlineStr"/>
+      <c r="AP87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6920,6 +7293,9 @@
       <c r="AK88" t="inlineStr"/>
       <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
+      <c r="AP88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6997,6 +7373,9 @@
       <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
+      <c r="AO89" t="inlineStr"/>
+      <c r="AP89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7074,6 +7453,9 @@
       <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
+      <c r="AO90" t="inlineStr"/>
+      <c r="AP90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7107,7 +7489,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>光脉冲的持续时间。当我们在时域中表示光脉冲的强度时，脉冲持续时间可以由描述该强度的函数的FWHM来表征。激光雷达不是在一个点上测量，而是在一个探测体积内测量，因此，FWHM是激光雷达实际测量的探测体积的特征。因此，脉冲持续时间直接影响激光雷达的估计，因为较长的脉冲持续时间会产生较长的探测体积。</t>
+          <t>光脉冲的持续时间。表明探测体积的长度。</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -7159,6 +7541,9 @@
       <c r="AK91" t="inlineStr"/>
       <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
+      <c r="AO91" t="inlineStr"/>
+      <c r="AP91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7172,13 +7557,21 @@
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Larghezza a meta' altezza</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Anchura a media altura</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>半峰全宽</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -7186,9 +7579,17 @@
           <t>In a distribution, the full width at half maximum represents the distance between the two values of the independent variable (x axis) when the value of the dependent variable (y axis) is half of its maximum value.</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>是指在函数的一个峰当中，前后两个函数值等于峰值一半的点之间的距离</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>In una distribuzione, distanza fra due valori di ascissa che producono un'ordinata pari a meta' del valore massimo delle ordinate.</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr">
         <is>
           <t>En una distribución, la anchuraa media altura representa la distancia entre los dos valores de la variable independiente (eje x) cuando el valor de la variable dependiente (eje y) es la mitad de su valor máximo.</t>
@@ -7228,6 +7629,9 @@
       <c r="AK92" t="inlineStr"/>
       <c r="AL92" t="inlineStr"/>
       <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
+      <c r="AO92" t="inlineStr"/>
+      <c r="AP92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7305,6 +7709,9 @@
       <c r="AK93" t="inlineStr"/>
       <c r="AL93" t="inlineStr"/>
       <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
+      <c r="AO93" t="inlineStr"/>
+      <c r="AP93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7333,12 +7740,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Shape of the emitted pulse</t>
+          <t>Shape of the emitted pulse.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>连续波光可以被调制（例如用声光调制器或AOM），以获得高功率强度的脉冲，改变传输功率并将该能量集中在一个短的空间。这个区域周围的功率强度可以被描述为以感兴趣的频率为中心的高斯函数，这通常被用来描述脉冲的形状。</t>
+          <t>发射脉冲的形状</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -7390,6 +7797,9 @@
       <c r="AK94" t="inlineStr"/>
       <c r="AL94" t="inlineStr"/>
       <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7423,7 +7833,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>到达检测器的光线。</t>
+          <t>到达激光雷达探测器的反向散射光。</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -7467,6 +7877,9 @@
       <c r="AK95" t="inlineStr"/>
       <c r="AL95" t="inlineStr"/>
       <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
+      <c r="AP95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7500,7 +7913,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>来自激光雷达光束的光（所需频率和偏振）到达检测器。</t>
+          <t>到达检测器，具有所需频率和偏振的部分反向散射光。</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -7544,6 +7957,9 @@
       <c r="AK96" t="inlineStr"/>
       <c r="AL96" t="inlineStr"/>
       <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
+      <c r="AP96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7572,12 +7988,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Non-desired light from atmosphere (non polarised) reaching the detector</t>
+          <t>Non-desired light from atmosphere (non polarised) reaching the detector.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>来自大气层的非期望的光（非偏振）到达检测器</t>
+          <t>到达检测器的，来自大气（非偏振）的非期望光信号。</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -7621,6 +8037,9 @@
       <c r="AK97" t="inlineStr"/>
       <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
+      <c r="AO97" t="inlineStr"/>
+      <c r="AP97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7653,7 +8072,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>An assembly to gather and detect incident light</t>
+          <t>An assembly to gather and detect incident light.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7702,6 +8121,9 @@
       <c r="AK98" t="inlineStr"/>
       <c r="AL98" t="inlineStr"/>
       <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
+      <c r="AO98" t="inlineStr"/>
+      <c r="AP98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7734,12 +8156,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">An assembly to amplify the outgoing laser light signal. </t>
+          <t>An assembly to amplify the outgoing laser light signal.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>放大输出的激光信号而不将其转换为电信号的组件。</t>
+          <t>用于放大输出激光信号的组件。</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -7775,7 +8197,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Definición basada en el artícule de wikipedia: https://en.wikipedia.org/wiki/Optical_amplifier</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -7791,6 +8217,9 @@
       <c r="AK99" t="inlineStr"/>
       <c r="AL99" t="inlineStr"/>
       <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
+      <c r="AO99" t="inlineStr"/>
+      <c r="AP99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7819,7 +8248,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Power gain due to the optical amplification</t>
+          <t>Power gain due to the optical amplification.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7868,6 +8297,9 @@
       <c r="AK100" t="inlineStr"/>
       <c r="AL100" t="inlineStr"/>
       <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
+      <c r="AO100" t="inlineStr"/>
+      <c r="AP100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7896,12 +8328,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Working bandwith of the optical amplifier</t>
+          <t>Working bandwith of the optical amplifier.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>光放大器的工作频带</t>
+          <t>光放大器的工作带宽</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -7945,6 +8377,9 @@
       <c r="AK101" t="inlineStr"/>
       <c r="AL101" t="inlineStr"/>
       <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr"/>
+      <c r="AO101" t="inlineStr"/>
+      <c r="AP101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8038,6 +8473,9 @@
       <c r="AK102" t="inlineStr"/>
       <c r="AL102" t="inlineStr"/>
       <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
+      <c r="AO102" t="inlineStr"/>
+      <c r="AP102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8119,6 +8557,9 @@
       <c r="AK103" t="inlineStr"/>
       <c r="AL103" t="inlineStr"/>
       <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
+      <c r="AO103" t="inlineStr"/>
+      <c r="AP103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8156,7 +8597,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>光电探测器跨阻放大器的增益。</t>
+          <t>光电探测器的输出电流与到达其有效区域的光子所产生的电流之间的比率。</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -8200,6 +8641,9 @@
       <c r="AK104" t="inlineStr"/>
       <c r="AL104" t="inlineStr"/>
       <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
+      <c r="AO104" t="inlineStr"/>
+      <c r="AP104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8233,7 +8677,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>光电二极管区域，背向散射光被聚焦到这里（并发生光电效应），以便将其转换为电信号。可以是任何形状，尺寸范围从不到一平方毫米到超过一平方厘米。光电探测器的灵敏度受有效面积的影响，因为较高的有效面积会产生较好（较低）的灵敏度。</t>
+          <t>光电二极管区域，背向散射光被聚焦到这里（并发生光电效应），以便将其转换为电信号。光电探测器的灵敏度受有源区的影响，因为更大的有源区产生更好（更低）的灵敏度。</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -8265,7 +8709,11 @@
       </c>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>Por ejemplo, una sensibilidada de 1nW significa que puedo distinguir una señal de 1mW con respecto al ruido, lo cual corresponde a una sensibilidad mejor que 1W</t>
+        </is>
+      </c>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
@@ -8281,6 +8729,9 @@
       <c r="AK105" t="inlineStr"/>
       <c r="AL105" t="inlineStr"/>
       <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
+      <c r="AO105" t="inlineStr"/>
+      <c r="AP105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8314,7 +8765,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>光电探测器的信噪比。主要的贡献者是。热噪声、射击噪声和暗电流噪声。</t>
+          <t>光电探测器的信噪比。噪声的主要来源包括：热噪声、射击噪声和暗电流噪声。</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -8358,6 +8809,9 @@
       <c r="AK106" t="inlineStr"/>
       <c r="AL106" t="inlineStr"/>
       <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
+      <c r="AO106" t="inlineStr"/>
+      <c r="AP106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8395,7 +8849,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>光电探测器跨阻放大器的电压噪声。</t>
+          <t>光电探测器的电压噪声。</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -8439,6 +8893,9 @@
       <c r="AK107" t="inlineStr"/>
       <c r="AL107" t="inlineStr"/>
       <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
+      <c r="AO107" t="inlineStr"/>
+      <c r="AP107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8472,7 +8929,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>全光纤传输激光雷达系统</t>
+          <t>光束传输系统</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -8508,7 +8965,11 @@
           <t>Vero per sistemi all-fibre</t>
         </is>
       </c>
-      <c r="X108" t="inlineStr"/>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>True si el lidar es all-fibre</t>
+        </is>
+      </c>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
@@ -8524,6 +8985,9 @@
       <c r="AK108" t="inlineStr"/>
       <c r="AL108" t="inlineStr"/>
       <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
+      <c r="AO108" t="inlineStr"/>
+      <c r="AP108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8555,7 +9019,11 @@
           <t>Transmission system for the laser beam based on fibre optic.</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>基于光纤的激光束传输系统。</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -8585,7 +9053,11 @@
       </c>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>El hardware del lidar se conecta entre sí mediante fibra óptica para la transmisión del láser. El uso de fibra óptica es especialmente importante en el módulo óptico, ya que evita el costoso proceso de alineamiento del láser.</t>
+        </is>
+      </c>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
@@ -8601,6 +9073,9 @@
       <c r="AK109" t="inlineStr"/>
       <c r="AL109" t="inlineStr"/>
       <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
+      <c r="AO109" t="inlineStr"/>
+      <c r="AP109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8674,7 +9149,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="inlineStr"/>
@@ -8690,6 +9169,9 @@
       <c r="AK110" t="inlineStr"/>
       <c r="AL110" t="inlineStr"/>
       <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
+      <c r="AO110" t="inlineStr"/>
+      <c r="AP110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8751,6 +9233,9 @@
       <c r="AK111" t="inlineStr"/>
       <c r="AL111" t="inlineStr"/>
       <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
+      <c r="AO111" t="inlineStr"/>
+      <c r="AP111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8788,7 +9273,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>不间断电源（UPS）</t>
+          <t>一个配有电池和变压器的装置，确保了持续和可靠的电力供应。这个装置保证激光雷达短暂脱离供电线后依然可以工作。</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -8832,6 +9317,9 @@
       <c r="AK112" t="inlineStr"/>
       <c r="AL112" t="inlineStr"/>
       <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
+      <c r="AO112" t="inlineStr"/>
+      <c r="AP112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8869,7 +9357,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>电池电压，单位是伏特。</t>
+          <t>电池电压。</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -8917,6 +9405,9 @@
       <c r="AK113" t="inlineStr"/>
       <c r="AL113" t="inlineStr"/>
       <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
+      <c r="AO113" t="inlineStr"/>
+      <c r="AP113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8954,7 +9445,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>电池电压中存储的总能量，单位是安时 (Ah)</t>
+          <t>电池电压中存储的总能量，单位是安培小时 (Ah)</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -9002,6 +9493,9 @@
       <c r="AK114" t="inlineStr"/>
       <c r="AL114" t="inlineStr"/>
       <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
+      <c r="AO114" t="inlineStr"/>
+      <c r="AP114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9035,7 +9529,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>USP在脱机工作时提供的激光雷达工作功率</t>
+          <t>在未接电网工作时，不间断电源提供给激光雷达的电功率</t>
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
@@ -9083,6 +9577,9 @@
       <c r="AK115" t="inlineStr"/>
       <c r="AL115" t="inlineStr"/>
       <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
+      <c r="AO115" t="inlineStr"/>
+      <c r="AP115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9116,7 +9613,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>脱机工作时，USP提供的激光雷达工作电流强度</t>
+          <t>在未接电网工作时，不间断电源提供的激光雷达工作电流强度</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -9164,6 +9661,9 @@
       <c r="AK116" t="inlineStr"/>
       <c r="AL116" t="inlineStr"/>
       <c r="AM116" t="inlineStr"/>
+      <c r="AN116" t="inlineStr"/>
+      <c r="AO116" t="inlineStr"/>
+      <c r="AP116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9241,7 +9741,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr"/>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
@@ -9257,6 +9761,9 @@
       <c r="AK117" t="inlineStr"/>
       <c r="AL117" t="inlineStr"/>
       <c r="AM117" t="inlineStr"/>
+      <c r="AN117" t="inlineStr"/>
+      <c r="AO117" t="inlineStr"/>
+      <c r="AP117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9338,6 +9845,9 @@
       <c r="AK118" t="inlineStr"/>
       <c r="AL118" t="inlineStr"/>
       <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
+      <c r="AO118" t="inlineStr"/>
+      <c r="AP118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9419,7 +9929,11 @@
           <t>Il vettore di riferimento dell'angolo di azimith è spesso quello che indica il nord geografico. Un qualsiasi altro vettore, in realtà, potrebbe analogamente servire allo scopo.</t>
         </is>
       </c>
-      <c r="X119" t="inlineStr"/>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>El vector de referencia desde el que se define el ángulo azimut es a menudo el eje de coordenadas correspondiente al norte geográfico, pero cualquier otra definición es válida siempre y cuando la definición del sistema de coordenadas sea consistente.</t>
+        </is>
+      </c>
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
@@ -9435,6 +9949,9 @@
       <c r="AK119" t="inlineStr"/>
       <c r="AL119" t="inlineStr"/>
       <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
+      <c r="AO119" t="inlineStr"/>
+      <c r="AP119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9520,6 +10037,9 @@
       <c r="AK120" t="inlineStr"/>
       <c r="AL120" t="inlineStr"/>
       <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
+      <c r="AO120" t="inlineStr"/>
+      <c r="AP120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9601,6 +10121,9 @@
       <c r="AK121" t="inlineStr"/>
       <c r="AL121" t="inlineStr"/>
       <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
+      <c r="AO121" t="inlineStr"/>
+      <c r="AP121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9690,6 +10213,9 @@
       <c r="AK122" t="inlineStr"/>
       <c r="AL122" t="inlineStr"/>
       <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
+      <c r="AO122" t="inlineStr"/>
+      <c r="AP122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9775,6 +10301,9 @@
       <c r="AK123" t="inlineStr"/>
       <c r="AL123" t="inlineStr"/>
       <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
+      <c r="AO123" t="inlineStr"/>
+      <c r="AP123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9852,6 +10381,9 @@
       <c r="AK124" t="inlineStr"/>
       <c r="AL124" t="inlineStr"/>
       <c r="AM124" t="inlineStr"/>
+      <c r="AN124" t="inlineStr"/>
+      <c r="AO124" t="inlineStr"/>
+      <c r="AP124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9941,6 +10473,9 @@
       <c r="AK125" t="inlineStr"/>
       <c r="AL125" t="inlineStr"/>
       <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr"/>
+      <c r="AO125" t="inlineStr"/>
+      <c r="AP125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10014,7 +10549,11 @@
           <t>Definizione basata sulla definizione di modulo del progetto OpenLidar. Vedasi https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
         </is>
       </c>
-      <c r="X126" t="inlineStr"/>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>Definición basada en el proyecto OpenLidar: https://github.com/e-WindLidar/OpenLidarModuleDefinitions</t>
+        </is>
+      </c>
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="inlineStr"/>
@@ -10030,6 +10569,9 @@
       <c r="AK126" t="inlineStr"/>
       <c r="AL126" t="inlineStr"/>
       <c r="AM126" t="inlineStr"/>
+      <c r="AN126" t="inlineStr"/>
+      <c r="AO126" t="inlineStr"/>
+      <c r="AP126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10103,7 +10645,11 @@
           <t>Per favore, inviate informazioni relative a sistemi non presenti in questa lista.</t>
         </is>
       </c>
-      <c r="X127" t="inlineStr"/>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>Envíe por favor información relativa al dispositivo que no esté presente en esta lista todavía.</t>
+        </is>
+      </c>
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
@@ -10123,6 +10669,9 @@
       <c r="AK127" t="inlineStr"/>
       <c r="AL127" t="inlineStr"/>
       <c r="AM127" t="inlineStr"/>
+      <c r="AN127" t="inlineStr"/>
+      <c r="AO127" t="inlineStr"/>
+      <c r="AP127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10189,11 +10738,7 @@
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>Describing a wind lidar unit as 'a windscanner' is insufficient information to uniquely describe it's capabilities.</t>
-        </is>
-      </c>
+      <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
@@ -10212,6 +10757,9 @@
       <c r="AK128" t="inlineStr"/>
       <c r="AL128" t="inlineStr"/>
       <c r="AM128" t="inlineStr"/>
+      <c r="AN128" t="inlineStr"/>
+      <c r="AO128" t="inlineStr"/>
+      <c r="AP128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10297,6 +10845,9 @@
       <c r="AK129" t="inlineStr"/>
       <c r="AL129" t="inlineStr"/>
       <c r="AM129" t="inlineStr"/>
+      <c r="AN129" t="inlineStr"/>
+      <c r="AO129" t="inlineStr"/>
+      <c r="AP129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10382,6 +10933,9 @@
       <c r="AK130" t="inlineStr"/>
       <c r="AL130" t="inlineStr"/>
       <c r="AM130" t="inlineStr"/>
+      <c r="AN130" t="inlineStr"/>
+      <c r="AO130" t="inlineStr"/>
+      <c r="AP130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10467,6 +11021,9 @@
       <c r="AK131" t="inlineStr"/>
       <c r="AL131" t="inlineStr"/>
       <c r="AM131" t="inlineStr"/>
+      <c r="AN131" t="inlineStr"/>
+      <c r="AO131" t="inlineStr"/>
+      <c r="AP131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10553,6 +11110,9 @@
       <c r="AK132" t="inlineStr"/>
       <c r="AL132" t="inlineStr"/>
       <c r="AM132" t="inlineStr"/>
+      <c r="AN132" t="inlineStr"/>
+      <c r="AO132" t="inlineStr"/>
+      <c r="AP132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10638,6 +11198,9 @@
       <c r="AK133" t="inlineStr"/>
       <c r="AL133" t="inlineStr"/>
       <c r="AM133" t="inlineStr"/>
+      <c r="AN133" t="inlineStr"/>
+      <c r="AO133" t="inlineStr"/>
+      <c r="AP133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10723,6 +11286,9 @@
       <c r="AK134" t="inlineStr"/>
       <c r="AL134" t="inlineStr"/>
       <c r="AM134" t="inlineStr"/>
+      <c r="AN134" t="inlineStr"/>
+      <c r="AO134" t="inlineStr"/>
+      <c r="AP134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10808,6 +11374,9 @@
       <c r="AK135" t="inlineStr"/>
       <c r="AL135" t="inlineStr"/>
       <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr"/>
+      <c r="AO135" t="inlineStr"/>
+      <c r="AP135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10893,6 +11462,9 @@
       <c r="AK136" t="inlineStr"/>
       <c r="AL136" t="inlineStr"/>
       <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr"/>
+      <c r="AO136" t="inlineStr"/>
+      <c r="AP136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10978,6 +11550,9 @@
       <c r="AK137" t="inlineStr"/>
       <c r="AL137" t="inlineStr"/>
       <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr"/>
+      <c r="AO137" t="inlineStr"/>
+      <c r="AP137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11063,6 +11638,9 @@
       <c r="AK138" t="inlineStr"/>
       <c r="AL138" t="inlineStr"/>
       <c r="AM138" t="inlineStr"/>
+      <c r="AN138" t="inlineStr"/>
+      <c r="AO138" t="inlineStr"/>
+      <c r="AP138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11148,6 +11726,9 @@
       <c r="AK139" t="inlineStr"/>
       <c r="AL139" t="inlineStr"/>
       <c r="AM139" t="inlineStr"/>
+      <c r="AN139" t="inlineStr"/>
+      <c r="AO139" t="inlineStr"/>
+      <c r="AP139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11233,6 +11814,9 @@
       <c r="AK140" t="inlineStr"/>
       <c r="AL140" t="inlineStr"/>
       <c r="AM140" t="inlineStr"/>
+      <c r="AN140" t="inlineStr"/>
+      <c r="AO140" t="inlineStr"/>
+      <c r="AP140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11318,6 +11902,9 @@
       <c r="AK141" t="inlineStr"/>
       <c r="AL141" t="inlineStr"/>
       <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr"/>
+      <c r="AO141" t="inlineStr"/>
+      <c r="AP141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11403,6 +11990,9 @@
       <c r="AK142" t="inlineStr"/>
       <c r="AL142" t="inlineStr"/>
       <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr"/>
+      <c r="AO142" t="inlineStr"/>
+      <c r="AP142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11488,6 +12078,9 @@
       <c r="AK143" t="inlineStr"/>
       <c r="AL143" t="inlineStr"/>
       <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr"/>
+      <c r="AO143" t="inlineStr"/>
+      <c r="AP143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11573,6 +12166,9 @@
       <c r="AK144" t="inlineStr"/>
       <c r="AL144" t="inlineStr"/>
       <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
+      <c r="AO144" t="inlineStr"/>
+      <c r="AP144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11658,6 +12254,9 @@
       <c r="AK145" t="inlineStr"/>
       <c r="AL145" t="inlineStr"/>
       <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr"/>
+      <c r="AO145" t="inlineStr"/>
+      <c r="AP145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11743,6 +12342,9 @@
       <c r="AK146" t="inlineStr"/>
       <c r="AL146" t="inlineStr"/>
       <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
+      <c r="AO146" t="inlineStr"/>
+      <c r="AP146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11828,6 +12430,9 @@
       <c r="AK147" t="inlineStr"/>
       <c r="AL147" t="inlineStr"/>
       <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
+      <c r="AO147" t="inlineStr"/>
+      <c r="AP147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11913,6 +12518,9 @@
       <c r="AK148" t="inlineStr"/>
       <c r="AL148" t="inlineStr"/>
       <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
+      <c r="AO148" t="inlineStr"/>
+      <c r="AP148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11998,6 +12606,9 @@
       <c r="AK149" t="inlineStr"/>
       <c r="AL149" t="inlineStr"/>
       <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
+      <c r="AO149" t="inlineStr"/>
+      <c r="AP149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12083,6 +12694,9 @@
       <c r="AK150" t="inlineStr"/>
       <c r="AL150" t="inlineStr"/>
       <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
+      <c r="AO150" t="inlineStr"/>
+      <c r="AP150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12168,6 +12782,9 @@
       <c r="AK151" t="inlineStr"/>
       <c r="AL151" t="inlineStr"/>
       <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr"/>
+      <c r="AO151" t="inlineStr"/>
+      <c r="AP151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12253,6 +12870,9 @@
       <c r="AK152" t="inlineStr"/>
       <c r="AL152" t="inlineStr"/>
       <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr"/>
+      <c r="AO152" t="inlineStr"/>
+      <c r="AP152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12338,6 +12958,9 @@
       <c r="AK153" t="inlineStr"/>
       <c r="AL153" t="inlineStr"/>
       <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr"/>
+      <c r="AO153" t="inlineStr"/>
+      <c r="AP153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12379,7 +13002,11 @@
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Catch the Wind  https://news.softpedia.com/news/A-Good-Mix-LIDAR-and-Wind-Turbines-138511.shtml</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr">
         <is>
           <t>Catch the Wind: https://news.softpedia.com/news/A-Good-Mix-LIDAR-and-Wind-Turbines-138511.shtml</t>
@@ -12415,6 +13042,9 @@
       <c r="AK154" t="inlineStr"/>
       <c r="AL154" t="inlineStr"/>
       <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
+      <c r="AO154" t="inlineStr"/>
+      <c r="AP154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12496,6 +13126,9 @@
       <c r="AK155" t="inlineStr"/>
       <c r="AL155" t="inlineStr"/>
       <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr"/>
+      <c r="AO155" t="inlineStr"/>
+      <c r="AP155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12577,6 +13210,9 @@
       <c r="AK156" t="inlineStr"/>
       <c r="AL156" t="inlineStr"/>
       <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr"/>
+      <c r="AO156" t="inlineStr"/>
+      <c r="AP156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12662,6 +13298,9 @@
       <c r="AK157" t="inlineStr"/>
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
+      <c r="AO157" t="inlineStr"/>
+      <c r="AP157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12735,6 +13374,9 @@
       <c r="AK158" t="inlineStr"/>
       <c r="AL158" t="inlineStr"/>
       <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
+      <c r="AO158" t="inlineStr"/>
+      <c r="AP158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12824,6 +13466,9 @@
       <c r="AK159" t="inlineStr"/>
       <c r="AL159" t="inlineStr"/>
       <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr"/>
+      <c r="AO159" t="inlineStr"/>
+      <c r="AP159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12909,6 +13554,9 @@
       <c r="AK160" t="inlineStr"/>
       <c r="AL160" t="inlineStr"/>
       <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr"/>
+      <c r="AO160" t="inlineStr"/>
+      <c r="AP160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12982,7 +13630,11 @@
       </c>
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiempo durante el cual el analizador de frecuencia se programa para acumula espectros de frecuencia individulaes provenientes de la señal lidar retrodispersada. Estos espectros son promediados para obtener el espectro Doppler que el lidar utiliza para estimar la velocidad radial del viento. </t>
+        </is>
+      </c>
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr"/>
       <c r="AA161" t="inlineStr"/>
@@ -12998,6 +13650,9 @@
       <c r="AK161" t="inlineStr"/>
       <c r="AL161" t="inlineStr"/>
       <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr"/>
+      <c r="AO161" t="inlineStr"/>
+      <c r="AP161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13039,7 +13694,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Valore dello spettro Doppler corrispondente al centroide della distribuzione</t>
+        </is>
+      </c>
       <c r="M162" t="inlineStr">
         <is>
           <t>El valor de potencia calculado como el centroide del espectro Doppler, que finalmente se identifica con la velocidad radial medida por el lidar.</t>
@@ -13083,6 +13742,9 @@
       <c r="AK162" t="inlineStr"/>
       <c r="AL162" t="inlineStr"/>
       <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr"/>
+      <c r="AO162" t="inlineStr"/>
+      <c r="AP162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13120,7 +13782,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Valore medio dello spettro Doppler</t>
+        </is>
+      </c>
       <c r="M163" t="inlineStr">
         <is>
           <t>El valor medio de la potencia en el espectro Doppler que finalmente se identifica con la velocidad radial medida por el lidar.</t>
@@ -13160,6 +13826,9 @@
       <c r="AK163" t="inlineStr"/>
       <c r="AL163" t="inlineStr"/>
       <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr"/>
+      <c r="AO163" t="inlineStr"/>
+      <c r="AP163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13193,7 +13862,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Valore massimo dello spettro Doppler.</t>
+        </is>
+      </c>
       <c r="M164" t="inlineStr">
         <is>
           <t>El valor máximo de potencia en el espectro Doppler que finalmente se identifica con la velocidad radial medida por el lidar.</t>
@@ -13233,6 +13906,9 @@
       <c r="AK164" t="inlineStr"/>
       <c r="AL164" t="inlineStr"/>
       <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr"/>
+      <c r="AO164" t="inlineStr"/>
+      <c r="AP164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13291,7 +13967,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>ontolidar:RawData</t>
+          <t>ontolidar:DopplerSpectra</t>
         </is>
       </c>
       <c r="P165" t="inlineStr"/>
@@ -13322,6 +13998,9 @@
       <c r="AK165" t="inlineStr"/>
       <c r="AL165" t="inlineStr"/>
       <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr"/>
+      <c r="AO165" t="inlineStr"/>
+      <c r="AP165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13359,7 +14038,11 @@
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Minimo valore di potenza nello spettro Doppler perche' il segnale sia distinguibile dal rumore di fondo.</t>
+        </is>
+      </c>
       <c r="M166" t="inlineStr">
         <is>
           <t>El valor mínimo de potencia en el espectro de frecuencias, por encima del ruido del instrumento, que se acepta como señal relativa al viento.</t>
@@ -13395,6 +14078,9 @@
       <c r="AK166" t="inlineStr"/>
       <c r="AL166" t="inlineStr"/>
       <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr"/>
+      <c r="AO166" t="inlineStr"/>
+      <c r="AP166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13484,6 +14170,9 @@
       <c r="AK167" t="inlineStr"/>
       <c r="AL167" t="inlineStr"/>
       <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr"/>
+      <c r="AO167" t="inlineStr"/>
+      <c r="AP167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13569,6 +14258,9 @@
       <c r="AK168" t="inlineStr"/>
       <c r="AL168" t="inlineStr"/>
       <c r="AM168" t="inlineStr"/>
+      <c r="AN168" t="inlineStr"/>
+      <c r="AO168" t="inlineStr"/>
+      <c r="AP168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13654,6 +14346,9 @@
       <c r="AK169" t="inlineStr"/>
       <c r="AL169" t="inlineStr"/>
       <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr"/>
+      <c r="AO169" t="inlineStr"/>
+      <c r="AP169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13743,6 +14438,9 @@
       <c r="AK170" t="inlineStr"/>
       <c r="AL170" t="inlineStr"/>
       <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
+      <c r="AO170" t="inlineStr"/>
+      <c r="AP170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13832,6 +14530,9 @@
       <c r="AK171" t="inlineStr"/>
       <c r="AL171" t="inlineStr"/>
       <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
+      <c r="AO171" t="inlineStr"/>
+      <c r="AP171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13917,6 +14618,9 @@
       <c r="AK172" t="inlineStr"/>
       <c r="AL172" t="inlineStr"/>
       <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
+      <c r="AO172" t="inlineStr"/>
+      <c r="AP172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13998,6 +14702,9 @@
       <c r="AK173" t="inlineStr"/>
       <c r="AL173" t="inlineStr"/>
       <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr"/>
+      <c r="AO173" t="inlineStr"/>
+      <c r="AP173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14035,7 +14742,11 @@
         </is>
       </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Geometria di scansionamento con il raggio laser fisso nello spazio.</t>
+        </is>
+      </c>
       <c r="M174" t="inlineStr">
         <is>
           <t>Geometría de escaneo lidar de orientaciones fijas del haz lidar.</t>
@@ -14071,6 +14782,9 @@
       <c r="AK174" t="inlineStr"/>
       <c r="AL174" t="inlineStr"/>
       <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr"/>
+      <c r="AO174" t="inlineStr"/>
+      <c r="AP174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14108,7 +14822,11 @@
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Geometria di scansionamento con il raggio laser in moto nello spazio.</t>
+        </is>
+      </c>
       <c r="M175" t="inlineStr">
         <is>
           <t>Una geometría de escaneo lidar que deorientaciones dinámicas del haz lidar.</t>
@@ -14144,6 +14862,9 @@
       <c r="AK175" t="inlineStr"/>
       <c r="AL175" t="inlineStr"/>
       <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr"/>
+      <c r="AO175" t="inlineStr"/>
+      <c r="AP175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14181,7 +14902,11 @@
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Strategia di rigetto dei dati grezzi del lidar, per produrre misurazioni finali piu' accurate e precise.</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr">
         <is>
           <t>Los métodos de filtrado que se aplican para procesar los datos brutos del lidar, para producir conjuntos de datos lidar más fiables, listos para la reconstrucción del campo de viento u otros fines.</t>
@@ -14217,6 +14942,9 @@
       <c r="AK176" t="inlineStr"/>
       <c r="AL176" t="inlineStr"/>
       <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
+      <c r="AO176" t="inlineStr"/>
+      <c r="AP176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14294,6 +15022,9 @@
       <c r="AK177" t="inlineStr"/>
       <c r="AL177" t="inlineStr"/>
       <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr"/>
+      <c r="AO177" t="inlineStr"/>
+      <c r="AP177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14371,6 +15102,9 @@
       <c r="AK178" t="inlineStr"/>
       <c r="AL178" t="inlineStr"/>
       <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr"/>
+      <c r="AO178" t="inlineStr"/>
+      <c r="AP178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14448,6 +15182,9 @@
       <c r="AK179" t="inlineStr"/>
       <c r="AL179" t="inlineStr"/>
       <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
+      <c r="AO179" t="inlineStr"/>
+      <c r="AP179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14485,7 +15222,11 @@
         </is>
       </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Soglia minima per distinguere il segnale del picco Doppler dal rumore di fondo.</t>
+        </is>
+      </c>
       <c r="M180" t="inlineStr">
         <is>
           <t>El ancho de banda de la CNR dentro del cual la intensidad del pico Doppler es claramente visible con respecto a la intensidad del ruido en el espectro de frecuencias.</t>
@@ -14521,6 +15262,9 @@
       <c r="AK180" t="inlineStr"/>
       <c r="AL180" t="inlineStr"/>
       <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
+      <c r="AO180" t="inlineStr"/>
+      <c r="AP180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14558,7 +15302,11 @@
         </is>
       </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Dati prodotti per applicazione di filtri sui dati pre-processati.</t>
+        </is>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
@@ -14590,6 +15338,9 @@
       <c r="AK181" t="inlineStr"/>
       <c r="AL181" t="inlineStr"/>
       <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
+      <c r="AO181" t="inlineStr"/>
+      <c r="AP181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14627,7 +15378,11 @@
         </is>
       </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Dati al termine della fase di processamento e filtraggio</t>
+        </is>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
@@ -14659,6 +15414,9 @@
       <c r="AK182" t="inlineStr"/>
       <c r="AL182" t="inlineStr"/>
       <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
+      <c r="AO182" t="inlineStr"/>
+      <c r="AP182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14696,7 +15454,11 @@
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Vettore della velocita' del vento, dato dalla combinazione di velocita assoluta e direzione</t>
+        </is>
+      </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
@@ -14728,6 +15490,9 @@
       <c r="AK183" t="inlineStr"/>
       <c r="AL183" t="inlineStr"/>
       <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
+      <c r="AO183" t="inlineStr"/>
+      <c r="AP183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14765,7 +15530,11 @@
         </is>
       </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Rapporto dra la deviazione standard e valor medio della velocita' del vento, misurati su un certo intervallo temporale (solitamente 10 o 60 minuti)</t>
+        </is>
+      </c>
       <c r="M184" t="inlineStr">
         <is>
           <t>Relación entre la desviación estándar de la velocidad del viento y la velocidad media del viento, determinada a partir del mismo conjunto de muestras de datos de viento observado, y tomados durante un periodo de tiempo específico, normalmente 10min o 60min.</t>
@@ -14801,6 +15570,9 @@
       <c r="AK184" t="inlineStr"/>
       <c r="AL184" t="inlineStr"/>
       <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
+      <c r="AO184" t="inlineStr"/>
+      <c r="AP184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14838,7 +15610,11 @@
         </is>
       </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Errore statistico della misurazione</t>
+        </is>
+      </c>
       <c r="M185" t="inlineStr">
         <is>
           <t>Cantidades para estimar el error estadístico de los datos de medición del lidar, que afecta a la disponibilidad de los datos del lidar, a su validez, etc.</t>
@@ -14874,6 +15650,9 @@
       <c r="AK185" t="inlineStr"/>
       <c r="AL185" t="inlineStr"/>
       <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr"/>
+      <c r="AO185" t="inlineStr"/>
+      <c r="AP185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14911,7 +15690,11 @@
         </is>
       </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Strategie di filtraggio dati per vari effetti meteorologici ed ambientali.</t>
+        </is>
+      </c>
       <c r="M186" t="inlineStr">
         <is>
           <t>Métodos de filtrado de datos para diversos factores ambientales, como las detecciones de blanco sólido, niebla, etc., que afectan al ratio portadora/ruido (CNR).</t>
@@ -14951,6 +15734,9 @@
       <c r="AK186" t="inlineStr"/>
       <c r="AL186" t="inlineStr"/>
       <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr"/>
+      <c r="AO186" t="inlineStr"/>
+      <c r="AP186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14988,7 +15774,11 @@
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di oggetti solidi nel tragitto del raggio laser.</t>
+        </is>
+      </c>
       <c r="M187" t="inlineStr">
         <is>
           <t>Rango (o cantidad) que indica que el rayo láser ha sido reflejado por un blanco sólido, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos.</t>
@@ -15024,6 +15814,9 @@
       <c r="AK187" t="inlineStr"/>
       <c r="AL187" t="inlineStr"/>
       <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr"/>
+      <c r="AO187" t="inlineStr"/>
+      <c r="AP187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15061,7 +15854,11 @@
         </is>
       </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di nuvole nel tragitto del raggio laser.</t>
+        </is>
+      </c>
       <c r="M188" t="inlineStr">
         <is>
           <t>Rango (o cantidad) para indicar que el rayo láser ha sido reflejado por una nube, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos</t>
@@ -15097,6 +15894,9 @@
       <c r="AK188" t="inlineStr"/>
       <c r="AL188" t="inlineStr"/>
       <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr"/>
+      <c r="AO188" t="inlineStr"/>
+      <c r="AP188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15134,7 +15934,11 @@
         </is>
       </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di aria pulita nel tragitto del raggio laser.</t>
+        </is>
+      </c>
       <c r="M189" t="inlineStr">
         <is>
           <t>Cantidad que indica condiciones de aire limpio (escasez de aerosoles), y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
@@ -15170,6 +15974,9 @@
       <c r="AK189" t="inlineStr"/>
       <c r="AL189" t="inlineStr"/>
       <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
+      <c r="AO189" t="inlineStr"/>
+      <c r="AP189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15207,7 +16014,11 @@
         </is>
       </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di nebbia nel tragitto del raggio laser.</t>
+        </is>
+      </c>
       <c r="M190" t="inlineStr">
         <is>
           <t>Cantidad que indica condiciones de niebla, y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
@@ -15243,6 +16054,9 @@
       <c r="AK190" t="inlineStr"/>
       <c r="AL190" t="inlineStr"/>
       <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
+      <c r="AO190" t="inlineStr"/>
+      <c r="AP190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15280,7 +16094,11 @@
         </is>
       </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Cambio di coordinate dal sistema solidale con il lidar (tipicamente coordinate sferiche) allo specifico sistema di coordinate richiesto dall'applicazione cui si ha interesse.</t>
+        </is>
+      </c>
       <c r="M191" t="inlineStr">
         <is>
           <t>Proceso matemático de transformación de los datos en el sistema de coordenadas por defecto del lidar (por ejemplo, el sistema de coordenadas esféricas, etc.) al sistema de coordenadas requerido por la aplicación que post procesará los datos (por ejemplo, el sistema inercial de coordenadas cartesianas definido por la regla de la mano derecha).</t>
@@ -15316,6 +16134,9 @@
       <c r="AK191" t="inlineStr"/>
       <c r="AL191" t="inlineStr"/>
       <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
+      <c r="AO191" t="inlineStr"/>
+      <c r="AP191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15373,6 +16194,9 @@
       <c r="AK192" t="inlineStr"/>
       <c r="AL192" t="inlineStr"/>
       <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
+      <c r="AO192" t="inlineStr"/>
+      <c r="AP192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15454,7 +16278,11 @@
           <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
         </is>
       </c>
-      <c r="X193" t="inlineStr"/>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>La taxonomía de la geometría de escaneo está basada en la Figura 3 de NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
@@ -15470,6 +16298,9 @@
       <c r="AK193" t="inlineStr"/>
       <c r="AL193" t="inlineStr"/>
       <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
+      <c r="AO193" t="inlineStr"/>
+      <c r="AP193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15555,6 +16386,9 @@
       <c r="AK194" t="inlineStr"/>
       <c r="AL194" t="inlineStr"/>
       <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr"/>
+      <c r="AO194" t="inlineStr"/>
+      <c r="AP194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15640,6 +16474,9 @@
       <c r="AK195" t="inlineStr"/>
       <c r="AL195" t="inlineStr"/>
       <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
+      <c r="AO195" t="inlineStr"/>
+      <c r="AP195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15729,6 +16566,9 @@
       <c r="AK196" t="inlineStr"/>
       <c r="AL196" t="inlineStr"/>
       <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
+      <c r="AO196" t="inlineStr"/>
+      <c r="AP196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15802,7 +16642,11 @@
       </c>
       <c r="V197" t="inlineStr"/>
       <c r="W197" t="inlineStr"/>
-      <c r="X197" t="inlineStr"/>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>La velocidad y dirección del viento puedens ser obtenidos mediante un proceso de reconstrucción del campo de vientos, asumiendo por ejemplo una dependencia senoidal con el ángulo azimutal.</t>
+        </is>
+      </c>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
@@ -15818,6 +16662,9 @@
       <c r="AK197" t="inlineStr"/>
       <c r="AL197" t="inlineStr"/>
       <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
+      <c r="AO197" t="inlineStr"/>
+      <c r="AP197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15895,7 +16742,11 @@
       </c>
       <c r="V198" t="inlineStr"/>
       <c r="W198" t="inlineStr"/>
-      <c r="X198" t="inlineStr"/>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>La velocidad y dirección del viento puedens ser obtenidos mediante un proceso de reconstrucción del campo de vientos, asumiendo por ejemplo una dependencia senoidal con el ángulo azimutal.</t>
+        </is>
+      </c>
       <c r="Y198" t="inlineStr"/>
       <c r="Z198" t="inlineStr"/>
       <c r="AA198" t="inlineStr"/>
@@ -15911,6 +16762,9 @@
       <c r="AK198" t="inlineStr"/>
       <c r="AL198" t="inlineStr"/>
       <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
+      <c r="AO198" t="inlineStr"/>
+      <c r="AP198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15988,7 +16842,11 @@
       </c>
       <c r="V199" t="inlineStr"/>
       <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>Referencias: Kelberlau, F. and Mann, J. “Cross-contamination effect on turbulence spectra from Doppler beam swinging wind lidar”, Wind Energ. Sci., 5, 519–541, 2020</t>
+        </is>
+      </c>
       <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="inlineStr"/>
       <c r="AA199" t="inlineStr"/>
@@ -16004,6 +16862,9 @@
       <c r="AK199" t="inlineStr"/>
       <c r="AL199" t="inlineStr"/>
       <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
+      <c r="AO199" t="inlineStr"/>
+      <c r="AP199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16081,7 +16942,11 @@
           <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
         </is>
       </c>
-      <c r="X200" t="inlineStr"/>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>La taxonomía de la geometría de escaneo se basa en la Figura 3 en NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="inlineStr"/>
       <c r="AA200" t="inlineStr"/>
@@ -16097,6 +16962,9 @@
       <c r="AK200" t="inlineStr"/>
       <c r="AL200" t="inlineStr"/>
       <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr"/>
+      <c r="AO200" t="inlineStr"/>
+      <c r="AP200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16178,6 +17046,9 @@
       <c r="AK201" t="inlineStr"/>
       <c r="AL201" t="inlineStr"/>
       <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr"/>
+      <c r="AO201" t="inlineStr"/>
+      <c r="AP201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16259,6 +17130,9 @@
       <c r="AK202" t="inlineStr"/>
       <c r="AL202" t="inlineStr"/>
       <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr"/>
+      <c r="AO202" t="inlineStr"/>
+      <c r="AP202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16340,6 +17214,9 @@
       <c r="AK203" t="inlineStr"/>
       <c r="AL203" t="inlineStr"/>
       <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
+      <c r="AO203" t="inlineStr"/>
+      <c r="AP203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16421,6 +17298,9 @@
       <c r="AK204" t="inlineStr"/>
       <c r="AL204" t="inlineStr"/>
       <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
+      <c r="AO204" t="inlineStr"/>
+      <c r="AP204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16502,6 +17382,9 @@
       <c r="AK205" t="inlineStr"/>
       <c r="AL205" t="inlineStr"/>
       <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
+      <c r="AO205" t="inlineStr"/>
+      <c r="AP205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -16587,6 +17470,9 @@
       <c r="AK206" t="inlineStr"/>
       <c r="AL206" t="inlineStr"/>
       <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
+      <c r="AO206" t="inlineStr"/>
+      <c r="AP206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -16668,6 +17554,9 @@
       <c r="AK207" t="inlineStr"/>
       <c r="AL207" t="inlineStr"/>
       <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr"/>
+      <c r="AO207" t="inlineStr"/>
+      <c r="AP207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -16749,6 +17638,9 @@
       <c r="AK208" t="inlineStr"/>
       <c r="AL208" t="inlineStr"/>
       <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr"/>
+      <c r="AO208" t="inlineStr"/>
+      <c r="AP208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -16822,6 +17714,9 @@
       <c r="AK209" t="inlineStr"/>
       <c r="AL209" t="inlineStr"/>
       <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
+      <c r="AO209" t="inlineStr"/>
+      <c r="AP209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -16899,6 +17794,9 @@
       <c r="AK210" t="inlineStr"/>
       <c r="AL210" t="inlineStr"/>
       <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr"/>
+      <c r="AO210" t="inlineStr"/>
+      <c r="AP210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -16984,6 +17882,9 @@
       <c r="AK211" t="inlineStr"/>
       <c r="AL211" t="inlineStr"/>
       <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr"/>
+      <c r="AO211" t="inlineStr"/>
+      <c r="AP211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -17065,6 +17966,9 @@
       <c r="AK212" t="inlineStr"/>
       <c r="AL212" t="inlineStr"/>
       <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr"/>
+      <c r="AO212" t="inlineStr"/>
+      <c r="AP212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -17146,6 +18050,9 @@
       <c r="AK213" t="inlineStr"/>
       <c r="AL213" t="inlineStr"/>
       <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr"/>
+      <c r="AO213" t="inlineStr"/>
+      <c r="AP213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -17232,6 +18139,9 @@
       <c r="AK214" t="inlineStr"/>
       <c r="AL214" t="inlineStr"/>
       <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr"/>
+      <c r="AO214" t="inlineStr"/>
+      <c r="AP214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17261,7 +18171,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Diametro del raggio laser</t>
+        </is>
+      </c>
       <c r="M215" t="inlineStr">
         <is>
           <t>Diámetro del rayo láser.</t>
@@ -17297,6 +18211,9 @@
       <c r="AK215" t="inlineStr"/>
       <c r="AL215" t="inlineStr"/>
       <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr"/>
+      <c r="AO215" t="inlineStr"/>
+      <c r="AP215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -17366,7 +18283,11 @@
       </c>
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="inlineStr"/>
-      <c r="X216" t="inlineStr"/>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>A menudo se utiliza para los lidares de viento de perfil vertical, para compararlos con las mediciones de velocidad del viento puntuales de un anemómetro.</t>
+        </is>
+      </c>
       <c r="Y216" t="inlineStr"/>
       <c r="Z216" t="inlineStr"/>
       <c r="AA216" t="inlineStr"/>
@@ -17382,6 +18303,9 @@
       <c r="AK216" t="inlineStr"/>
       <c r="AL216" t="inlineStr"/>
       <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr"/>
+      <c r="AO216" t="inlineStr"/>
+      <c r="AP216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17467,6 +18391,9 @@
       <c r="AK217" t="inlineStr"/>
       <c r="AL217" t="inlineStr"/>
       <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr"/>
+      <c r="AO217" t="inlineStr"/>
+      <c r="AP217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -17544,7 +18471,11 @@
           <t>Il livello del mare dovrebbe essere definito progetto per progetto e farlo non è fra gli obiettivi di questo progetto.</t>
         </is>
       </c>
-      <c r="X218" t="inlineStr"/>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>El nivel del mar debe definirse según el proyecto y está fuera del alcance de este esquema.</t>
+        </is>
+      </c>
       <c r="Y218" t="inlineStr"/>
       <c r="Z218" t="inlineStr"/>
       <c r="AA218" t="inlineStr"/>
@@ -17560,6 +18491,9 @@
       <c r="AK218" t="inlineStr"/>
       <c r="AL218" t="inlineStr"/>
       <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr"/>
+      <c r="AO218" t="inlineStr"/>
+      <c r="AP218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -17645,41 +18579,60 @@
       <c r="AK219" t="inlineStr"/>
       <c r="AL219" t="inlineStr"/>
       <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr"/>
+      <c r="AO219" t="inlineStr"/>
+      <c r="AP219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ontolidar:Safety</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Measurement principles</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Sicurezza</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
+          <t>Principi di misurazione</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Principios de medición</t>
+        </is>
+      </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>测量原则</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>to delete???</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr"/>
+          <t>The means by which a lidar makes a measurement of the wind</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>激光雷达的测风方法</t>
+        </is>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Medios utilizados por el lidar para realizar medidas de viento.</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr"/>
@@ -17706,68 +18659,83 @@
       <c r="AK220" t="inlineStr"/>
       <c r="AL220" t="inlineStr"/>
       <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr"/>
+      <c r="AO220" t="inlineStr"/>
+      <c r="AP220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Emitter/ReceiverConfiguration</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Measurement principles</t>
+          <t>Emitter/receiver configuration</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Principi di misurazione</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Principios de medición</t>
-        </is>
-      </c>
+          <t>Configurazione dell'emettitore/ricevitore</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>测量原则</t>
+          <t>发射器/接收器配置</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>The means by which a lidar makes a measurement of the wind</t>
+          <t>The positioning and arrangement of the emitter and receiver devices.</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>激光雷达的测风方法</t>
-        </is>
-      </c>
-      <c r="K221" t="inlineStr"/>
+          <t>发射器和接收器在雷达中的安装和配置。</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Die Positionierung und Anordnung der Sende- und Empfangsgeräte.</t>
+        </is>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+          <t>Il posizionamento e la disposizione dei dispositivi emettitore e ricevitore.</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Medios utilizados por el lidar para realizar medidas de viento.</t>
+          <t>El posicionamiento y disposición de los dispositivos emisores y receptores.</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
-      <c r="O221" t="inlineStr"/>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
-      <c r="U221" t="inlineStr"/>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>This can be monostatic (with biaxial or a coaxial sensor arrangement) or bistatic</t>
+        </is>
+      </c>
       <c r="V221" t="inlineStr"/>
       <c r="W221" t="inlineStr"/>
-      <c r="X221" t="inlineStr"/>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>Puede ser monoestático (con una configuración coaxial o biaxial) o biestático.</t>
+        </is>
+      </c>
       <c r="Y221" t="inlineStr"/>
       <c r="Z221" t="inlineStr"/>
       <c r="AA221" t="inlineStr"/>
@@ -17783,61 +18751,64 @@
       <c r="AK221" t="inlineStr"/>
       <c r="AL221" t="inlineStr"/>
       <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr"/>
+      <c r="AO221" t="inlineStr"/>
+      <c r="AP221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ontolidar:Emitter/ReceiverConfiguration</t>
+          <t>ontolidar:Monostatic</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Emitter/receiver configuration</t>
+          <t>Monostatic</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Configurazione dell'emettitore/ricevitore</t>
+          <t>Monostatico</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>发射器/接收器配置</t>
+          <t>单稳态</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>The positioning and arrangement of the emitter and receiver devices.</t>
+          <t xml:space="preserve">A lidar configuration where the transmitter and receiver are positioned in close proximity, the transmit and receive paths share common optics, and range determination is achieved by pulsed laser timing. </t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>發射器和接收器裝置的定位和佈置。</t>
+          <t>一种激光雷达配置，发射器和接收器的位置很近，通过脉冲激光计时来确定范围。</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Die Positionierung und Anordnung der Sende- und Empfangsgeräte.</t>
+          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger in unmittelbarer Nähe positioniert sind und die Entfernungsbestimmung durch gepulstes Laser-Timing erreicht wird.</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Il posizionamento e la disposizione dei dispositivi emettitore e ricevitore.</t>
+          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono posizionati nelle immediate vicinanze e la determinazione della portata è ottenuta mediante la temporizzazione del laser pulsato.</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>El posicionamiento y disposición de los dispositivos emisores y receptores.</t>
+          <t>Una configuración lidar en la que el transmisor y el receptor se colocan en estrecha proximidad, y la determinación del alcance se logra mediante la temporización de láser pulsado.</t>
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Emmiter/ReceiverConfiguration</t>
         </is>
       </c>
       <c r="P222" t="inlineStr"/>
@@ -17845,11 +18816,7 @@
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr"/>
-      <c r="U222" t="inlineStr">
-        <is>
-          <t>This can be monostatic (with biaxial or a coaxial sensor arrangement) or bistatic</t>
-        </is>
-      </c>
+      <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
       <c r="X222" t="inlineStr"/>
@@ -17868,55 +18835,58 @@
       <c r="AK222" t="inlineStr"/>
       <c r="AL222" t="inlineStr"/>
       <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr"/>
+      <c r="AO222" t="inlineStr"/>
+      <c r="AP222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ontolidar:Monostatic</t>
+          <t>ontolidar:Bistatic</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Monostatic</t>
+          <t>Bistatic</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Monostatico</t>
+          <t>Bistatico</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>单稳态</t>
+          <t>双稳态</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>A lidar configuration where the transmitter and receiver are positioned in close proximity, and range determination is achieved by pulsed laser timing.</t>
+          <t>A lidar configuration where the transmitter and receiver are arranged to have considerable spatial separation, and the transmit and receive paths do not share common optics.</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>一種激光雷達配置，其中發射器和接收器非常接近，並且通過脈衝激光定時來確定距離。</t>
+          <t>一种激光雷达配置，发射器和接收器被安排成具有相当大的空间距离，导致光学探测的直接空间分辨率。</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger in unmittelbarer Nähe positioniert sind und die Entfernungsbestimmung durch gepulstes Laser-Timing erreicht wird.</t>
+          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger so angeordnet sind, dass sie eine beträchtliche räumliche Trennung aufweisen, was zu einer direkten räumlichen Auflösung bei der optischen Sondierung führt.</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono posizionati nelle immediate vicinanze e la determinazione della portata è ottenuta mediante la temporizzazione del laser pulsato.</t>
+          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono disposti in modo da avere una notevole separazione spaziale, portando a una risoluzione spaziale diretta nel sondaggio ottico.</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Una configuración lidar en la que el transmisor y el receptor se colocan en estrecha proximidad, y la determinación del alcance se logra mediante la temporización de láser pulsado.</t>
+          <t>Una configuración lidar en la que el transmisor y el receptor están dispuestos para tener una separación espacial considerable, lo que lleva a una resolución espacial directa en el sondeo óptico.</t>
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
@@ -17949,61 +18919,64 @@
       <c r="AK223" t="inlineStr"/>
       <c r="AL223" t="inlineStr"/>
       <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr"/>
+      <c r="AO223" t="inlineStr"/>
+      <c r="AP223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ontolidar:Bistatic</t>
+          <t>ontolidar:Scattering</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Bistatic</t>
+          <t>Scattering</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Bistatico</t>
+          <t>Scattering</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>双稳态</t>
+          <t>散射</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>A lidar configuration where the transmitter and receiver are arranged to have considerable spatial separation, leading to direct spatial resolution in the optical probing.</t>
+          <t>The change in direction of motion of a particle or wave due to collision with another particle.</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>一種激光雷達配置，其中發射器和接收器佈置成具有相當大的空間分離，從而導致光學探測中的直接空間分辨率。</t>
+          <t>一个粒子或波由于与另一个粒子的碰撞而改变运动方向。</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger so angeordnet sind, dass sie eine beträchtliche räumliche Trennung aufweisen, was zu einer direkten räumlichen Auflösung bei der optischen Sondierung führt.</t>
+          <t>Die Änderung der Bewegungsrichtung eines Teilchens oder einer Welle durch Kollision mit einem anderen Teilchen.</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono disposti in modo da avere una notevole separazione spaziale, portando a una risoluzione spaziale diretta nel sondaggio ottico.</t>
+          <t>Il cambiamento nella direzione del movimento di una particella o di un'onda a causa della collisione con un'altra particella.</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Una configuración lidar en la que el transmisor y el receptor están dispuestos para tener una separación espacial considerable, lo que lleva a una resolución espacial directa en el sondeo óptico.</t>
+          <t>El cambio en la dirección del movimiento de una partícula u onda debido a la colisión con otra partícula.</t>
         </is>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>ontolidar:Emmiter/ReceiverConfiguration</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="P224" t="inlineStr"/>
@@ -18030,61 +19003,64 @@
       <c r="AK224" t="inlineStr"/>
       <c r="AL224" t="inlineStr"/>
       <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr"/>
+      <c r="AO224" t="inlineStr"/>
+      <c r="AP224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ontolidar:Scattering</t>
+          <t>ontolidar:Raman</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Scattering</t>
+          <t>Raman</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Scattering</t>
+          <t>Raman</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>散射</t>
+          <t>拉曼</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>The change in direction of motion of a particle or wave due to collision with another particle.</t>
+          <t>Inelastic scattering of light from objects whereby the scattered photon has a higher or lower energy than the incident photon.</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>由於與另一個粒子的碰撞，粒子或波的運動方向發生變化。</t>
+          <t>光的非弹性散射，散射的光子比入射的光子有更高或更低的能量。</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Die Änderung der Bewegungsrichtung eines Teilchens oder einer Welle durch Kollision mit einem anderen Teilchen.</t>
+          <t>Inelastische Streuung von Licht an Objekten, wobei das gestreute Photon eine höhere oder niedrigere Energie hat als das einfallende Photon.</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Il cambiamento nella direzione del movimento di una particella o di un'onda a causa della collisione con un'altra particella.</t>
+          <t>Diffusione anelastica della luce da oggetti per cui il fotone diffuso ha un'energia superiore o inferiore rispetto al fotone incidente.</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>El cambio en la dirección del movimiento de una partícula u onda debido a la colisión con otra partícula.</t>
+          <t>Dispersión inelástica de la luz de los objetos en la que el fotón dispersado tiene una energía mayor o menor que el fotón incidente.</t>
         </is>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Scattering</t>
         </is>
       </c>
       <c r="P225" t="inlineStr"/>
@@ -18111,55 +19087,58 @@
       <c r="AK225" t="inlineStr"/>
       <c r="AL225" t="inlineStr"/>
       <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr"/>
+      <c r="AO225" t="inlineStr"/>
+      <c r="AP225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ontolidar:Raman</t>
+          <t>ontolidar:Mie</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Raman</t>
+          <t>Mie</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Raman</t>
+          <t>Mie</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>拉曼</t>
+          <t>米氏</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Inelastic scattering of light from objects whereby the scattered photon has a higher or lower energy than the incident photon.</t>
+          <t>Elastic scattering of light where the scattering particles diameter is larger than about the wavelength of the incident light.</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>來自物體的光的非彈性散射，其中散射光子具有比入射光子更高或更低的能量。</t>
+          <t>光的弹性散射，散射粒子的直径大于入射光的波长。</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Inelastische Streuung von Licht an Objekten, wobei das gestreute Photon eine höhere oder niedrigere Energie hat als das einfallende Photon.</t>
+          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel größer ist als etwa die Wellenlänge des einfallenden Lichts.</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Diffusione anelastica della luce da oggetti per cui il fotone diffuso ha un'energia superiore o inferiore rispetto al fotone incidente.</t>
+          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è maggiore della lunghezza d'onda della luce incidente.</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Dispersión inelástica de la luz de los objetos en la que el fotón dispersado tiene una energía mayor o menor que el fotón incidente.</t>
+          <t>Dispersión elástica de la luz donde el diámetro de las partículas dispersas es mayor que la longitud de onda de la luz incidente.</t>
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
@@ -18192,55 +19171,58 @@
       <c r="AK226" t="inlineStr"/>
       <c r="AL226" t="inlineStr"/>
       <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr"/>
+      <c r="AO226" t="inlineStr"/>
+      <c r="AP226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ontolidar:Mie</t>
+          <t>ontolidar:Rayleigh</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Mie</t>
+          <t>Rayleigh</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Mie</t>
+          <t>Raylegih</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>米氏</t>
+          <t>瑞利</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Elastic scattering of light where the scattering particles diameter is larger than about the wavelength of the incident light.</t>
+          <t>Elastic scattering of light where the scattering particles diameter is less than about one-tenth of the wavelength of the incident light.</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>光的彈性散射，其中散射顆粒的直徑大於入射光的波長。</t>
+          <t>光的弹性散射，其中散射粒子的直径小于入射光波长的十分之一。</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel größer ist als etwa die Wellenlänge des einfallenden Lichts.</t>
+          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel kleiner als etwa ein Zehntel der Wellenlänge des einfallenden Lichts ist.</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è maggiore della lunghezza d'onda della luce incidente.</t>
+          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è inferiore a circa un decimo della lunghezza d'onda della luce incidente.</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Dispersión elástica de la luz donde el diámetro de las partículas dispersas es mayor que la longitud de onda de la luz incidente.</t>
+          <t>Dispersión elástica de la luz en la que el diámetro de las partículas dispersas es inferior a aproximadamente una décima parte de la longitud de onda de la luz incidente.</t>
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
@@ -18273,61 +19255,64 @@
       <c r="AK227" t="inlineStr"/>
       <c r="AL227" t="inlineStr"/>
       <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr"/>
+      <c r="AO227" t="inlineStr"/>
+      <c r="AP227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ontolidar:Rayleigh</t>
+          <t>ontolidar:DetectionType</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Rayleigh</t>
+          <t>Detection type</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Raylegih</t>
+          <t>Tipo di rilevamento</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>瑞利</t>
+          <t>检测类型</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Elastic scattering of light where the scattering particles diameter is less than about one-tenth of the wavelength of the incident light.</t>
+          <t>The method by which the frequency shift of the scattered radiation is determined.</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>光的彈性散射，其中散射粒子的直徑小於入射光波長的大約十分之一。</t>
+          <t>确定散射辐射的频移的方法。</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel kleiner als etwa ein Zehntel der Wellenlänge des einfallenden Lichts ist.</t>
+          <t>Das Verfahren, mit dem die Frequenzverschiebung der gestreuten Strahlung bestimmt wird.</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è inferiore a circa un decimo della lunghezza d'onda della luce incidente.</t>
+          <t>Il metodo con cui viene determinato lo spostamento di frequenza della radiazione diffusa.</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Dispersión elástica de la luz en la que el diámetro de las partículas dispersas es inferior a aproximadamente una décima parte de la longitud de onda de la luz incidente.</t>
+          <t>El método por el cual se determina el cambio de frecuencia de la radiación dispersada.</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>ontolidar:Scattering</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="P228" t="inlineStr"/>
@@ -18354,61 +19339,64 @@
       <c r="AK228" t="inlineStr"/>
       <c r="AL228" t="inlineStr"/>
       <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr"/>
+      <c r="AO228" t="inlineStr"/>
+      <c r="AP228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ontolidar:DetectionType</t>
+          <t>ontolidar:Coherent</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Detection type</t>
+          <t>Coherent</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Tipo di rilevamento</t>
+          <t>Coerente</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>检测类型</t>
+          <t>相干</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>The method by which the frequency shift of the scattered radiation is determined.</t>
+          <t>A lidar system where the frequency shift is measured by comparing the return signal to a reference signal.</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>確定散射輻射的頻移的方法。</t>
+          <t>一种激光雷达系统，其中频率偏移是通过比较返回信号和参考信号来测量的。</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Das Verfahren, mit dem die Frequenzverschiebung der gestreuten Strahlung bestimmt wird.</t>
+          <t>Ein Lidar-System, bei dem die Frequenzverschiebung gemessen wird, indem das Rücksignal mit einem Referenzsignal verglichen wird.</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Il metodo con cui viene determinato lo spostamento di frequenza della radiazione diffusa.</t>
+          <t>Un sistema lidar in cui lo spostamento di frequenza viene misurato confrontando il segnale di ritorno con un segnale di riferimento.</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>El método por el cual se determina el cambio de frecuencia de la radiación dispersada.</t>
+          <t>Sistema lidar donde el cambio de frecuencia se mide comparando la señal de retorno con una señal de referencia.</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:DetectionType</t>
         </is>
       </c>
       <c r="P229" t="inlineStr"/>
@@ -18435,58 +19423,65 @@
       <c r="AK229" t="inlineStr"/>
       <c r="AL229" t="inlineStr"/>
       <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr"/>
+      <c r="AO229" t="inlineStr"/>
+      <c r="AP229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ontolidar:Coherent</t>
+          <t>ontolidar:Incoherent</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coherent</t>
+          <t>Incoherent</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Coerente</t>
+          <t>Incoerente</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>相干</t>
+          <t>非相干</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>A lidar system where the frequency shift is measured by comparing the return signal to a reference signal.</t>
+          <t>A lidar system where the return signal is filtered or resolved into its spectral components to obtain the frequency shift. Also known as time-of-flight lidar or direct-detection lidar.</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>通過將返回信號與參考信號進行比較來測量頻移的激光雷達系統。</t>
+          <t>一种激光雷达系统，其中返回信号被过滤或分解成其光谱成分以获得频移。也被称为飞行时间激光雷达或直接探测激光雷达。</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Ein Lidar-System, bei dem die Frequenzverschiebung gemessen wird, indem das Rücksignal mit einem Referenzsignal verglichen wird.</t>
+          <t>Ein Lidar-System, bei dem das Rücksignal gefiltert oder in seine Spektralkomponenten aufgelöst wird, um die Frequenzverschiebung zu erhalten. Auch bekannt als Time-of-Flight-Lidar oder Direkterkennungs-Lidar.</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Un sistema lidar in cui lo spostamento di frequenza viene misurato confrontando il segnale di ritorno con un segnale di riferimento.</t>
+          <t>Un sistema lidar in cui il segnale di ritorno viene filtrato o risolto nelle sue componenti spettrali per ottenere lo spostamento di frequenza. Conosciuto anche come lidar del tempo di volo o lidar a rilevamento diretto.</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Sistema lidar donde el cambio de frecuencia se mide comparando la señal de retorno con una señal de referencia.</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr"/>
+          <t>Sistema lidar donde la señal de retorno se filtra o se resuelve en sus componentes espectrales para obtener el cambio de frecuencia. También conocido como lidar de tiempo de vuelo o lidar de detección directa.</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr">
         <is>
           <t>ontolidar:DetectionType</t>
@@ -18516,62 +19511,45 @@
       <c r="AK230" t="inlineStr"/>
       <c r="AL230" t="inlineStr"/>
       <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr"/>
+      <c r="AO230" t="inlineStr"/>
+      <c r="AP230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ontolidar:Incoherent</t>
+          <t>ontolidar:DetectionConfiguration</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Incoherent</t>
+          <t>Detection Configuration</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Incoerente</t>
+          <t>Configurazione</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>非相干</t>
+          <t>配置</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>A lidar system where the return signal is filtered or resolved into its spectral components to obtain the frequency shift. Also known as time-of-flight lidar or direct-detection lidar.</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>一種激光雷達系統，其中返回信號被過濾或解析為其頻譜分量以獲得頻移。也稱為飛行時間激光雷達或直接檢測激光雷達。</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>Ein Lidar-System, bei dem das Rücksignal gefiltert oder in seine Spektralkomponenten aufgelöst wird, um die Frequenzverschiebung zu erhalten. Auch bekannt als Time-of-Flight-Lidar oder Direkterkennungs-Lidar.</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Un sistema lidar in cui il segnale di ritorno viene filtrato o risolto nelle sue componenti spettrali per ottenere lo spostamento di frequenza. Conosciuto anche come lidar del tempo di volo o lidar a rilevamento diretto.</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>Sistema lidar donde la señal de retorno se filtra o se resuelve en sus componentes espectrales para obtener el cambio de frecuencia. También conocido como lidar de tiempo de vuelo o lidar de detección directa.</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
+          <t>The process of detecting a radio wave by the aid of a locally generated current or wave of exactly the same frequency as that of the incoming wave. A signal frequency that is created by combining or mixing two other frequencies using a signal processing technique called heterodyning.</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
           <t>ontolidar:DetectionType</t>
@@ -18601,41 +19579,64 @@
       <c r="AK231" t="inlineStr"/>
       <c r="AL231" t="inlineStr"/>
       <c r="AM231" t="inlineStr"/>
+      <c r="AN231" t="inlineStr"/>
+      <c r="AO231" t="inlineStr"/>
+      <c r="AP231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ontolidar:Configuration</t>
+          <t>ontolidar:Homodyne</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>Homodyne</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Configurazione</t>
+          <t>Omodinamico</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>配置</t>
+          <t>同位素</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>A frequency shift detection method. The lidar directly downmixes the reference and the backscattered signals retrieving a (Doppler) frequency shift. Only the magnitude of the Doppler shift can be known, but not the sign. This means that we can infer only the module (and not the direction) of the wind speed vector.</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>一种激光雷达检测方法，其中参考辐射在调制过程之前来自与信号相同的来源。</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von derselben Quelle stammt wie das Signal.</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata dalla stessa sorgente del segnale prima del processo di modulazione.</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Un método de detección de desplazamiento de frecuencia. El lidar mezcla directamente la señal de referencia y la retrodispersada, obteniendo un desplazamiento de frecuencia (Doppler). Sólo se puede conocer la magnitud del desplazamiento de la frecuencia, pero no la dirección del mismo. Esto significa que sólo podemos inferir el módulo (y no la dirección) del vector de velocidad del viento.</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>ontolidar:DetectionType</t>
+          <t>ontolidar:Configuration</t>
         </is>
       </c>
       <c r="P232" t="inlineStr"/>
@@ -18662,55 +19663,58 @@
       <c r="AK232" t="inlineStr"/>
       <c r="AL232" t="inlineStr"/>
       <c r="AM232" t="inlineStr"/>
+      <c r="AN232" t="inlineStr"/>
+      <c r="AO232" t="inlineStr"/>
+      <c r="AP232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ontolidar:Homodyne</t>
+          <t>ontolidar:Heterodyne</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Homodyne</t>
+          <t>Heterodyne</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Omodinamico</t>
+          <t>Eterodinamico</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>同位素</t>
+          <t>异频雷达</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>A lidar detection method in which the reference radiation is derived from the same source as the signal prior to the modulating process.</t>
+          <t>A frequency shift detection method. Prior to the dowmix of the original and the backscattered signals, the original one is frequency-shifted. This allows to retrieve not only the magnitude of the frequency shift between the original and the backscattered signals, but also the direction of the change. This means that we can infer both module and direction of the wind speed vector.</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>一種激光雷達檢測方法，其中參考輻射來自與調製過程之前的信號相同的源。</t>
+          <t>一种激光雷达检测方法，其中参考辐射在调制过程之前来自与信号不同的来源。</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von derselben Quelle stammt wie das Signal.</t>
+          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von einer anderen Quelle als das Signal stammt.</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata dalla stessa sorgente del segnale prima del processo di modulazione.</t>
+          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata da una sorgente diversa come il segnale prima del processo di modulazione.</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Un método de detección lidar en el que la radiación de referencia se deriva de la misma fuente que la señal antes de ser modulada.</t>
+          <t>Un método de detección de desplazamiento de frecuencia. Antes de la mezcla de las señales original y retrodispersada, la original se desplaza en frecuencia. Esto permite obtener no sólo la magnitud del cambio de frecuencia entre la señal original y la retrodispersa, sino también la dirección del cambio. Esto significa que podemos inferir tanto el módulo como la dirección del vector de velocidad del viento.</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
@@ -18743,61 +19747,64 @@
       <c r="AK233" t="inlineStr"/>
       <c r="AL233" t="inlineStr"/>
       <c r="AM233" t="inlineStr"/>
+      <c r="AN233" t="inlineStr"/>
+      <c r="AO233" t="inlineStr"/>
+      <c r="AP233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ontolidar:Heterodyne</t>
+          <t>ontolidar:WindSpeedEvaluation</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Heterodyne</t>
+          <t>Wind speed evaluation</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Eterodinamico</t>
+          <t>Valutazione della velocità del vento</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>异频雷达</t>
+          <t>风速评估</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>A lidar detection method in which the reference radiation is derived from a different source as the signal prior to the modulating process.</t>
+          <t>Calculation of the wind velocity using a wind field reconstruction method.</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>一種激光雷達檢測方法，其中參考輻射在調製過程之前來自與信號不同的源。</t>
+          <t>使用气流(风)流场重建方法计算风速。</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von einer anderen Quelle als das Signal stammt.</t>
+          <t>Berechnung der Windgeschwindigkeit mit einem Windfeld-Rekonstruktionsverfahren.</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata da una sorgente diversa come il segnale prima del processo di modulazione.</t>
+          <t>Calcolo della velocità del vento mediante un metodo di ricostruzione del campo eolico.</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Un método de detección lidar en el que la radiación de referencia se deriva de una fuente diferente a la señal antes del proceso de modulación.</t>
+          <t>Cálculo de la velocidad del viento mediante un método de reconstrucción del campo de viento.</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>ontolidar:Configuration</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="P234" t="inlineStr"/>
@@ -18824,61 +19831,60 @@
       <c r="AK234" t="inlineStr"/>
       <c r="AL234" t="inlineStr"/>
       <c r="AM234" t="inlineStr"/>
+      <c r="AN234" t="inlineStr"/>
+      <c r="AO234" t="inlineStr"/>
+      <c r="AP234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ontolidar:WindSpeedEvaluation</t>
+          <t>ontolidar:ParticleTracking</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Wind speed evaluation</t>
+          <t>Particle tracking</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Valutazione della velocità del vento</t>
+          <t>Tracciamento di particella</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>风速评估</t>
+          <t>粒子跟踪</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Calculation of the wind velocity using a wind field reconstruction method.</t>
+          <t>Particle tracking as a method where the lidar beam follows the particle in the flow (refer to Langrangian statistics).</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>使用風場重建方法計算風速。</t>
-        </is>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>Berechnung der Windgeschwindigkeit mit einem Windfeld-Rekonstruktionsverfahren.</t>
-        </is>
-      </c>
+          <t>一种气流流场模型：粒子跟踪作为一种应用，激光雷达光束在流动中跟随粒子（参考Langrangian统计）。</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Calcolo della velocità del vento mediante un metodo di ricostruzione del campo eolico.</t>
+          <t>Applicazione dove il raggio laser segue le singole prticelle nel loro moto nell'aria (statistica Lagrangiana)</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Cálculo de la velocidad del viento mediante un método de reconstrucción del campo de viento.</t>
+          <t>Seguimiento de partículas como método en la que el haz lidar sigue a la partícula en el flujo.</t>
         </is>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:WindSpeedEvaluation</t>
         </is>
       </c>
       <c r="P235" t="inlineStr"/>
@@ -18905,43 +19911,54 @@
       <c r="AK235" t="inlineStr"/>
       <c r="AL235" t="inlineStr"/>
       <c r="AM235" t="inlineStr"/>
+      <c r="AN235" t="inlineStr"/>
+      <c r="AO235" t="inlineStr"/>
+      <c r="AP235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ontolidar:ParticleTracking</t>
+          <t>ontolidar:CrossCorrelation</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Particle tracking</t>
+          <t>Cross-correlation</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Tracciamento di particella</t>
+          <t>Correlazione incrociata</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>粒子跟踪</t>
+          <t>交叉相关</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Wind field model: particle tracking as an application where the lidar beam follows the particle in the flow (refer to Langrangian statistics)</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr"/>
+          <t>Cross-correlation as a method to describe turbulence in the field using statistics.</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>一种气流流场模型：交叉相关作为一个术语，用统计学描述流场中的湍流情况</t>
+        </is>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metodo per calcolare la turbolenza con metodi prettamente statistici </t>
+        </is>
+      </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Modelo de campo de viento: seguimiento de partículas como aplicación en la que el haz lidar sigue a la partícula en el flujo.</t>
+          <t>Correlación cruzada como método para describir la turbulencia en el campo utilizando la estadística.</t>
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
@@ -18974,35 +19991,30 @@
       <c r="AK236" t="inlineStr"/>
       <c r="AL236" t="inlineStr"/>
       <c r="AM236" t="inlineStr"/>
+      <c r="AN236" t="inlineStr"/>
+      <c r="AO236" t="inlineStr"/>
+      <c r="AP236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ontolidar:CrossCorrelation</t>
+          <t>ontolidar:DopplerPeak</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cross-correlation</t>
+          <t>Doppler peak</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Correlazione incrociata</t>
-        </is>
-      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>交叉相关</t>
-        </is>
-      </c>
+      <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Wind field model: cross-correlation as a term to describe turbulence in the field using statistics</t>
+          <t>Doppler peak as a method to describe the amplitude of the wind speed asumming that the aerosols flow at the same speed as the wind.</t>
         </is>
       </c>
       <c r="J237" t="inlineStr"/>
@@ -19010,15 +20022,11 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Modelo de campo de viento: usa al correlación cruzada como término para describir la turbulencia en el campo utilizando la estadística.</t>
+          <t>Pico Doppler como método para describir la amplitud de la velocidad del viento asumiendo que los aerosoles se desplazan a la misma velocidad que el viento.</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>ontolidar:WindSpeedEvaluation</t>
-        </is>
-      </c>
+      <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr"/>
       <c r="R237" t="inlineStr"/>
@@ -19043,6 +20051,9 @@
       <c r="AK237" t="inlineStr"/>
       <c r="AL237" t="inlineStr"/>
       <c r="AM237" t="inlineStr"/>
+      <c r="AN237" t="inlineStr"/>
+      <c r="AO237" t="inlineStr"/>
+      <c r="AP237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -19124,6 +20135,9 @@
       <c r="AK238" t="inlineStr"/>
       <c r="AL238" t="inlineStr"/>
       <c r="AM238" t="inlineStr"/>
+      <c r="AN238" t="inlineStr"/>
+      <c r="AO238" t="inlineStr"/>
+      <c r="AP238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -19173,7 +20187,11 @@
         </is>
       </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Frequenza di campionamento. Numero di misurazioni al secondo.</t>
+        </is>
+      </c>
       <c r="M239" t="inlineStr">
         <is>
           <t>Frecuencia de medición lidar. Número de muestras por segundo.</t>
@@ -19209,6 +20227,9 @@
       <c r="AK239" t="inlineStr"/>
       <c r="AL239" t="inlineStr"/>
       <c r="AM239" t="inlineStr"/>
+      <c r="AN239" t="inlineStr"/>
+      <c r="AO239" t="inlineStr"/>
+      <c r="AP239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -19294,6 +20315,9 @@
       <c r="AK240" t="inlineStr"/>
       <c r="AL240" t="inlineStr"/>
       <c r="AM240" t="inlineStr"/>
+      <c r="AN240" t="inlineStr"/>
+      <c r="AO240" t="inlineStr"/>
+      <c r="AP240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -19367,7 +20391,11 @@
           <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
         </is>
       </c>
-      <c r="X241" t="inlineStr"/>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>La taxonomía de la geometría de escaneo se basa en la Figura 3 en NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="Y241" t="inlineStr"/>
       <c r="Z241" t="inlineStr"/>
       <c r="AA241" t="inlineStr"/>
@@ -19383,6 +20411,9 @@
       <c r="AK241" t="inlineStr"/>
       <c r="AL241" t="inlineStr"/>
       <c r="AM241" t="inlineStr"/>
+      <c r="AN241" t="inlineStr"/>
+      <c r="AO241" t="inlineStr"/>
+      <c r="AP241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -19468,6 +20499,9 @@
       <c r="AK242" t="inlineStr"/>
       <c r="AL242" t="inlineStr"/>
       <c r="AM242" t="inlineStr"/>
+      <c r="AN242" t="inlineStr"/>
+      <c r="AO242" t="inlineStr"/>
+      <c r="AP242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19545,6 +20579,9 @@
       <c r="AK243" t="inlineStr"/>
       <c r="AL243" t="inlineStr"/>
       <c r="AM243" t="inlineStr"/>
+      <c r="AN243" t="inlineStr"/>
+      <c r="AO243" t="inlineStr"/>
+      <c r="AP243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19577,12 +20614,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>In a modulated signal, the carrier to noise ratio is the ratio of the signal power to the signal noise power.</t>
+          <t>In a modulated signal (i.e. the pulse), the carrier to noise ratio is the ratio of the signal power to the signal noise power.</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>一种衡量激光雷达返回信号强度的指标</t>
+          <t>在调制信号中，载波噪声比是信号功率与信号噪声功率的比值。</t>
         </is>
       </c>
       <c r="K244" t="inlineStr"/>
@@ -19622,7 +20659,11 @@
           <t>Spesso usato in modo interscambiabile con SNR</t>
         </is>
       </c>
-      <c r="X244" t="inlineStr"/>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>Una medida de la calidad de la señal de retorno del lidar. Es la relación señal/ruido de la señal modulada enviada para sondear la atmósfera y define la disponibilidad de los datos lidar. Si el CNR está por debajo de un determinado umbral, la información transportada por la luz retrodispersada (modulada) se descarta. A menudo se utiliza de forma intercambiable con SNR.</t>
+        </is>
+      </c>
       <c r="Y244" t="inlineStr"/>
       <c r="Z244" t="inlineStr"/>
       <c r="AA244" t="inlineStr"/>
@@ -19638,6 +20679,9 @@
       <c r="AK244" t="inlineStr"/>
       <c r="AL244" t="inlineStr"/>
       <c r="AM244" t="inlineStr"/>
+      <c r="AN244" t="inlineStr"/>
+      <c r="AO244" t="inlineStr"/>
+      <c r="AP244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -19670,12 +20714,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Ratio of signal power to signal noise power.</t>
+          <t>The ratio of signal power to signal noise power before modulation.</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>一种衡量激光雷达返回信号强度的指标</t>
+          <t>信号功率与信号噪声功率之比。</t>
         </is>
       </c>
       <c r="K245" t="inlineStr"/>
@@ -19715,7 +20759,11 @@
           <t>Spesso usato in modo interscambiabile con CNR</t>
         </is>
       </c>
-      <c r="X245" t="inlineStr"/>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>A menudo se usa de forma intercambiable con CNR.</t>
+        </is>
+      </c>
       <c r="Y245" t="inlineStr"/>
       <c r="Z245" t="inlineStr"/>
       <c r="AA245" t="inlineStr"/>
@@ -19731,6 +20779,9 @@
       <c r="AK245" t="inlineStr"/>
       <c r="AL245" t="inlineStr"/>
       <c r="AM245" t="inlineStr"/>
+      <c r="AN245" t="inlineStr"/>
+      <c r="AO245" t="inlineStr"/>
+      <c r="AP245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -19804,6 +20855,9 @@
       <c r="AK246" t="inlineStr"/>
       <c r="AL246" t="inlineStr"/>
       <c r="AM246" t="inlineStr"/>
+      <c r="AN246" t="inlineStr"/>
+      <c r="AO246" t="inlineStr"/>
+      <c r="AP246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -19881,6 +20935,9 @@
       <c r="AK247" t="inlineStr"/>
       <c r="AL247" t="inlineStr"/>
       <c r="AM247" t="inlineStr"/>
+      <c r="AN247" t="inlineStr"/>
+      <c r="AO247" t="inlineStr"/>
+      <c r="AP247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -19958,6 +21015,9 @@
       <c r="AK248" t="inlineStr"/>
       <c r="AL248" t="inlineStr"/>
       <c r="AM248" t="inlineStr"/>
+      <c r="AN248" t="inlineStr"/>
+      <c r="AO248" t="inlineStr"/>
+      <c r="AP248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -20035,6 +21095,9 @@
       <c r="AK249" t="inlineStr"/>
       <c r="AL249" t="inlineStr"/>
       <c r="AM249" t="inlineStr"/>
+      <c r="AN249" t="inlineStr"/>
+      <c r="AO249" t="inlineStr"/>
+      <c r="AP249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -20068,7 +21131,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>试图使风雷达数据格式标准化，并使其遵循FAIR原则（可查找、可访问、可互用、可重复使用）。</t>
+          <t>测风雷达数据的一种标准化格式，并使其遵循FAIR（Findable, Accessible, Interoperable, Reusable）原则。</t>
         </is>
       </c>
       <c r="K250" t="inlineStr"/>
@@ -20104,7 +21167,11 @@
           <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
         </is>
       </c>
-      <c r="X250" t="inlineStr"/>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
+        </is>
+      </c>
       <c r="Y250" t="inlineStr"/>
       <c r="Z250" t="inlineStr"/>
       <c r="AA250" t="inlineStr"/>
@@ -20120,6 +21187,9 @@
       <c r="AK250" t="inlineStr"/>
       <c r="AL250" t="inlineStr"/>
       <c r="AM250" t="inlineStr"/>
+      <c r="AN250" t="inlineStr"/>
+      <c r="AO250" t="inlineStr"/>
+      <c r="AP250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -20147,7 +21217,11 @@
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>数据通信</t>
+        </is>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
@@ -20177,6 +21251,9 @@
       <c r="AK251" t="inlineStr"/>
       <c r="AL251" t="inlineStr"/>
       <c r="AM251" t="inlineStr"/>
+      <c r="AN251" t="inlineStr"/>
+      <c r="AO251" t="inlineStr"/>
+      <c r="AP251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -20210,11 +21287,15 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>一种网络协议，用于通过分组交换、可变延迟的数据网络实现计算机系统和激光雷达计算机之间的时钟同步。 系统之间时钟时间的最大差异</t>
+          <t xml:space="preserve">一种网络协议，用于通过分组交换、可变延迟的数据网络实现计算机系统和激光雷达计算机之间的时钟同步。 </t>
         </is>
       </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Un protocollo di rete per la sincronizzazione dei compute e del lidar.</t>
+        </is>
+      </c>
       <c r="M252" t="inlineStr">
         <is>
           <t xml:space="preserve">Un protocolo de red para la sincronización del reloj entre los sistemas informáticos y el ordenador del lidar a través de redes de datos con conmutación de paquetes y latencia variable. Corresponde a la diferencia máxima en los tiempos de reloj entre los sistemas. </t>
@@ -20254,6 +21335,9 @@
       <c r="AK252" t="inlineStr"/>
       <c r="AL252" t="inlineStr"/>
       <c r="AM252" t="inlineStr"/>
+      <c r="AN252" t="inlineStr"/>
+      <c r="AO252" t="inlineStr"/>
+      <c r="AP252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -20291,7 +21375,11 @@
         </is>
       </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Protocollo di trasferimento dati basato sul sistema FTP.</t>
+        </is>
+      </c>
       <c r="M253" t="inlineStr">
         <is>
           <t>Protocolo de transferencia de datos basado en FTP.</t>
@@ -20331,6 +21419,9 @@
       <c r="AK253" t="inlineStr"/>
       <c r="AL253" t="inlineStr"/>
       <c r="AM253" t="inlineStr"/>
+      <c r="AN253" t="inlineStr"/>
+      <c r="AO253" t="inlineStr"/>
+      <c r="AP253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -20364,11 +21455,15 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>在激光雷达端或用户端为激光雷达数据实施的图形用户界面</t>
+          <t>用户和激光雷达交互的图形界面</t>
         </is>
       </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Interfaccia grafica per la visualizzazione e l'interpretazione dei dati lidar.</t>
+        </is>
+      </c>
       <c r="M254" t="inlineStr">
         <is>
           <t>Interfaz gráfica de usuario implementada para los datos lidar en el extremo del lidar o en el extremo del usuario.</t>
@@ -20408,6 +21503,9 @@
       <c r="AK254" t="inlineStr"/>
       <c r="AL254" t="inlineStr"/>
       <c r="AM254" t="inlineStr"/>
+      <c r="AN254" t="inlineStr"/>
+      <c r="AO254" t="inlineStr"/>
+      <c r="AP254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -20445,7 +21543,11 @@
         </is>
       </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Protocollo di trasferimento dati basato sul sistema WLAN.</t>
+        </is>
+      </c>
       <c r="M255" t="inlineStr">
         <is>
           <t>Transferencia de datos a través del protocolo WLAN.</t>
@@ -20485,6 +21587,9 @@
       <c r="AK255" t="inlineStr"/>
       <c r="AL255" t="inlineStr"/>
       <c r="AM255" t="inlineStr"/>
+      <c r="AN255" t="inlineStr"/>
+      <c r="AO255" t="inlineStr"/>
+      <c r="AP255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -20522,7 +21627,11 @@
         </is>
       </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Protocollo di trasferimento dati basato sul sistema LAN.</t>
+        </is>
+      </c>
       <c r="M256" t="inlineStr">
         <is>
           <t>Transferencia de datos a través del protocolo LAN.</t>
@@ -20562,6 +21671,9 @@
       <c r="AK256" t="inlineStr"/>
       <c r="AL256" t="inlineStr"/>
       <c r="AM256" t="inlineStr"/>
+      <c r="AN256" t="inlineStr"/>
+      <c r="AO256" t="inlineStr"/>
+      <c r="AP256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -20595,11 +21707,15 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>激光雷达测量设备的最大采样频率</t>
+          <t>激光雷达的最大采样频率</t>
         </is>
       </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Frequenza massima di campionamento dei dati di un lidar</t>
+        </is>
+      </c>
       <c r="M257" t="inlineStr">
         <is>
           <t>Frecuencia máxima de muestreo del dispositivo de medición lidar.</t>
@@ -20639,6 +21755,9 @@
       <c r="AK257" t="inlineStr"/>
       <c r="AL257" t="inlineStr"/>
       <c r="AM257" t="inlineStr"/>
+      <c r="AN257" t="inlineStr"/>
+      <c r="AO257" t="inlineStr"/>
+      <c r="AP257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -20672,11 +21791,15 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>记录器或激光雷达测量设备的最大记录频率</t>
+          <t>记录器或激光雷达的最大记录频率</t>
         </is>
       </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Frequenza massima di scrittura dei logs di un lidar</t>
+        </is>
+      </c>
       <c r="M258" t="inlineStr">
         <is>
           <t>Frecuencia máxima de registro del dispositivo de medición lidar.</t>
@@ -20716,6 +21839,9 @@
       <c r="AK258" t="inlineStr"/>
       <c r="AL258" t="inlineStr"/>
       <c r="AM258" t="inlineStr"/>
+      <c r="AN258" t="inlineStr"/>
+      <c r="AO258" t="inlineStr"/>
+      <c r="AP258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -20749,11 +21875,15 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>以时间段或样本为单位的文件大小，例如，10分钟的文件或1小时的文件</t>
+          <t>以时间或采样单位来表示的文件大小，例如，10分钟文件或1小时文件</t>
         </is>
       </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Intervallo temporale coperto da dei dati contenuti in un file dati.</t>
+        </is>
+      </c>
       <c r="M259" t="inlineStr">
         <is>
           <t>El tamaño del archivo en términos de período de tiempo o muestras, por ejemplo, archivos de 10 minutos o archivos de 1 hora.</t>
@@ -20793,6 +21923,9 @@
       <c r="AK259" t="inlineStr"/>
       <c r="AL259" t="inlineStr"/>
       <c r="AM259" t="inlineStr"/>
+      <c r="AN259" t="inlineStr"/>
+      <c r="AO259" t="inlineStr"/>
+      <c r="AP259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -20830,7 +21963,11 @@
         </is>
       </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Frequenza di trasferimento dati da un sistema di misurazione (principale) ad uno secondario.</t>
+        </is>
+      </c>
       <c r="M260" t="inlineStr">
         <is>
           <t>La frecuencia con la que se transfieren los datos entre el dispositivo de medición (primario) y un dispositivo secundario.</t>
@@ -20870,6 +22007,9 @@
       <c r="AK260" t="inlineStr"/>
       <c r="AL260" t="inlineStr"/>
       <c r="AM260" t="inlineStr"/>
+      <c r="AN260" t="inlineStr"/>
+      <c r="AO260" t="inlineStr"/>
+      <c r="AP260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -20891,7 +22031,7 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>数据平均周期</t>
+          <t>数据均值周期</t>
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
@@ -20903,11 +22043,15 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>数据的平均周期，例如，20赫兹的数据可以被平均为10分钟的数据</t>
+          <t>计算均值所设定的周期，例如，用20赫兹的数据计算出10分钟平均的数据，10分钟就是数据均值周期</t>
         </is>
       </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Periodo temporale di media delle misurazioni grezze</t>
+        </is>
+      </c>
       <c r="M261" t="inlineStr">
         <is>
           <t>Periodo de promediación de los datos, por ejemplo, los datos de 20 Hz se pueden promediar a datos de 10 minutos.</t>
@@ -20947,6 +22091,9 @@
       <c r="AK261" t="inlineStr"/>
       <c r="AL261" t="inlineStr"/>
       <c r="AM261" t="inlineStr"/>
+      <c r="AN261" t="inlineStr"/>
+      <c r="AO261" t="inlineStr"/>
+      <c r="AP261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -20984,7 +22131,11 @@
         </is>
       </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Data, luogo e posizione della installazione di un lidar</t>
+        </is>
+      </c>
       <c r="M262" t="inlineStr">
         <is>
           <t>Fecha y hora de instalación, ubicación (gps).</t>
@@ -21016,6 +22167,9 @@
       <c r="AK262" t="inlineStr"/>
       <c r="AL262" t="inlineStr"/>
       <c r="AM262" t="inlineStr"/>
+      <c r="AN262" t="inlineStr"/>
+      <c r="AO262" t="inlineStr"/>
+      <c r="AP262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -21044,16 +22198,20 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Deployment data and time, location (gps).</t>
+          <t>Deployment date and time, location (gps).</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>部署数据和时间，位置（gps）</t>
+          <t>部署日期和时间，位置（gps）</t>
         </is>
       </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Data, luogo e posizione della messa in opera di un lidar</t>
+        </is>
+      </c>
       <c r="M263" t="inlineStr">
         <is>
           <t>Datos y hora de instalación, ubicación (gps).</t>
@@ -21093,6 +22251,9 @@
       <c r="AK263" t="inlineStr"/>
       <c r="AL263" t="inlineStr"/>
       <c r="AM263" t="inlineStr"/>
+      <c r="AN263" t="inlineStr"/>
+      <c r="AO263" t="inlineStr"/>
+      <c r="AP263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -21121,16 +22282,20 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Repair data and time, location (gps).</t>
+          <t>Repair date and time, location (gps).</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>维修数据和时间，位置（gps）</t>
+          <t>维修日期和时间，位置（gps）</t>
         </is>
       </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Data, luogo e posizione della riparazione di un lidar</t>
+        </is>
+      </c>
       <c r="M264" t="inlineStr">
         <is>
           <t>Datos y hora de reparación, ubicación (gps).</t>
@@ -21170,6 +22335,9 @@
       <c r="AK264" t="inlineStr"/>
       <c r="AL264" t="inlineStr"/>
       <c r="AM264" t="inlineStr"/>
+      <c r="AN264" t="inlineStr"/>
+      <c r="AO264" t="inlineStr"/>
+      <c r="AP264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -21198,16 +22366,20 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Relocation data and time, location (gps).</t>
+          <t>Relocation date and time, location (gps).</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>搬迁数据和时间，地点（gps）</t>
+          <t>搬迁日期和时间，地点（gps）</t>
         </is>
       </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Data, luogo e posizione di una nuova messa in opera di un lidar</t>
+        </is>
+      </c>
       <c r="M265" t="inlineStr">
         <is>
           <t>Datos de la reubicación y hora, ubicación (gps).</t>
@@ -21247,6 +22419,9 @@
       <c r="AK265" t="inlineStr"/>
       <c r="AL265" t="inlineStr"/>
       <c r="AM265" t="inlineStr"/>
+      <c r="AN265" t="inlineStr"/>
+      <c r="AO265" t="inlineStr"/>
+      <c r="AP265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -21275,16 +22450,20 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Decommission data and time, location (gps).</t>
+          <t>Decommission date and time, location (gps).</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>退役数据和时间，地点(gps)</t>
+          <t>退役日期和时间，地点(gps)</t>
         </is>
       </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Data, luogo e posizione di una rimozione di un lidar</t>
+        </is>
+      </c>
       <c r="M266" t="inlineStr">
         <is>
           <t>Datos y hora de desmantelamiento, ubicación (gps).</t>
@@ -21324,6 +22503,9 @@
       <c r="AK266" t="inlineStr"/>
       <c r="AL266" t="inlineStr"/>
       <c r="AM266" t="inlineStr"/>
+      <c r="AN266" t="inlineStr"/>
+      <c r="AO266" t="inlineStr"/>
+      <c r="AP266" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -3604,7 +3604,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>ontolidar:Applications</t>
+          <t>ontolidar:Multi-lidar</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
@@ -9305,7 +9305,11 @@
           <t>Converter di potenza</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Convertidor de potencia</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>电源转换器</t>
@@ -9845,7 +9849,7 @@
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="S117" t="inlineStr"/>
@@ -14854,7 +14858,7 @@
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="S173" t="inlineStr"/>
@@ -16618,7 +16622,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr"/>
@@ -17714,7 +17718,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr"/>
@@ -17799,7 +17803,7 @@
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>ontolidar:ScanningGeometry</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr"/>
@@ -18364,7 +18368,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Distance, from the beam waist in the propagation direction, where the area of the beam section is increased by a factor of 2, or the radius is increased by a factor of the squared root of 2. The Rayleigh length is used to characterise the probe volume and corresponds to the half of the probe length. It also can be defined as half of the FWHM of the weighting function characterising the probe volulme.</t>
+          <t>Distance, from the beam waist in the propagation direction, where the area of the beam section is increased by a factor of 2, or the radius is increased by a factor of the squared root of 2. The Rayleigh length is used to characterise the probe volume and corresponds to the half of the probe length. It also can be defined as half of the full-width half-maximum (FWHM) of the weighting function characterising the probe volume.</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -3604,7 +3604,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>ontolidar:Multi-lidar</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ267"/>
+  <dimension ref="A1:AQ266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Número de bits del convertidor analógico-digital</t>
+          <t>Número de bits del convertidor analógico-digital.</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Filtro pasa-baja</t>
+          <t>Filtro pasa-baja.</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Longitud de onda nominal del láser</t>
+          <t>Longitud de onda nominal del láser.</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -9317,11 +9317,19 @@
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Device used to convert the voltage, frequency or a combination of both from an external source into the volltage and frequency usable by the lidar and its various componets. </t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dispositivo utilizado para convertir el voltaje, la frecuencia o una combinación de ambos de una fuente externa en el voltaje y la frecuencia utilizables por el lidar y sus diversos componentes. </t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
@@ -9333,7 +9341,11 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lidar can operate in DC current. </t>
+        </is>
+      </c>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr"/>
@@ -9489,7 +9501,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Voltaje de la batería. Unidade en voltios.</t>
+          <t>Voltaje de la batería.</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -13260,7 +13272,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Cada uno de los objetos lidar</t>
+          <t>Cada uno de los objetos lidar.</t>
         </is>
       </c>
       <c r="O155" t="inlineStr"/>
@@ -13893,7 +13905,11 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>The centroid corresponds to the arithmetic mean of the averaged frequency spectrum yielded by the lidar frequency analiser</t>
+        </is>
+      </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr"/>
@@ -15496,7 +15512,11 @@
           <t>Dati prodotti per applicazione di filtri sui dati pre-processati.</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Datos generados tras el procesamiento de los datos pre-procesados mediante métodos especiales de filtrado u otros, en función del propósito.</t>
+        </is>
+      </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
@@ -15573,7 +15593,11 @@
           <t>Dati al termine della fase di processamento e filtraggio</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Datos generados como producto final del proceso de medición del viento.</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
@@ -15650,7 +15674,11 @@
           <t>Vettore della velocita' del vento, dato dalla combinazione di velocita assoluta e direzione</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>El vector de velocidad del viento está formado por la velocidad y la dirección del viento para un momento dado.</t>
+        </is>
+      </c>
       <c r="O183" t="inlineStr">
         <is>
           <t>Wind speed</t>
@@ -15692,32 +15720,56 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ontolidar:WindSpeed</t>
+          <t>ontolidar:TurbulenceIntensity</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Wind speed</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>wind_speed</t>
-        </is>
-      </c>
+          <t>Turbulence intensity</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Intensità della turbolenza</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>湍流强度</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Ratio of the wind speed standard deviation to the mean wind speed, determined from the same set of measured data samples of wind speed, and taken over a specified period of time, typically 10min or 60min.</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>指定时间段内，风速标准偏差与平均风速的比率，由同一组风速测量数据样本确定，通常为10分钟或60分钟。</t>
+        </is>
+      </c>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Rapporto dra la deviazione standard e valor medio della velocita' del vento, misurati su un certo intervallo temporale (solitamente 10 o 60 minuti)</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Relación entre la desviación estándar de la velocidad del viento y la velocidad media del viento, determinada a partir del mismo conjunto de muestras de datos de viento observado, y tomados durante un periodo de tiempo específico, normalmente 10min o 60min.</t>
+        </is>
+      </c>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>ontolidar:Outputs</t>
+        </is>
+      </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
@@ -15749,48 +15801,48 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ontolidar:TurbulenceIntensity</t>
+          <t>ontolidar:Uncertainties</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Turbulence intensity</t>
+          <t>Uncertainties</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Intensità della turbolenza</t>
+          <t>Incertezze</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>湍流强度</t>
+          <t>不确定性</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Ratio of the wind speed standard deviation to the mean wind speed, determined from the same set of measured data samples of wind speed, and taken over a specified period of time, typically 10min or 60min.</t>
+          <t>Quantities to indicate the statistical error from lidar measurement data, which affects the lidar data availability, validility, etc.</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>指定时间段内，风速标准偏差与平均风速的比率，由同一组风速测量数据样本确定，通常为10分钟或60分钟。</t>
+          <t>测风激光雷达测量数据的统计误差的度量，会影响数据的可利用率、有效性等。</t>
         </is>
       </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Rapporto dra la deviazione standard e valor medio della velocita' del vento, misurati su un certo intervallo temporale (solitamente 10 o 60 minuti)</t>
+          <t>Errore statistico della misurazione</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>Relación entre la desviación estándar de la velocidad del viento y la velocidad media del viento, determinada a partir del mismo conjunto de muestras de datos de viento observado, y tomados durante un periodo de tiempo específico, normalmente 10min o 60min.</t>
+          <t>Cantidades para estimar el error estadístico de los datos de medición del lidar, que afecta a la disponibilidad de los datos del lidar, a su validez, etc.</t>
         </is>
       </c>
       <c r="O185" t="inlineStr"/>
@@ -15830,58 +15882,62 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ontolidar:Uncertainties</t>
+          <t>ontolidar:DataFiltering</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Uncertainties</t>
+          <t>Data filtering</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Incertezze</t>
+          <t>Filtraggio dati per qualità</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>不确定性</t>
+          <t>数据过滤</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Quantities to indicate the statistical error from lidar measurement data, which affects the lidar data availability, validility, etc.</t>
+          <t>Data filtering for various environmental factors, such as the detections of hard targets, fog, etc., which affect the CNR value.</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>测风激光雷达测量数据的统计误差的度量，会影响数据的可利用率、有效性等。</t>
+          <t>对环境因素进行识别用于数据过滤，如对硬目标的探测、超净空气、大雾等，这些因素将对CNR的值产生影响。</t>
         </is>
       </c>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Errore statistico della misurazione</t>
+          <t>Strategie di filtraggio dati per vari effetti meteorologici ed ambientali.</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>Cantidades para estimar el error estadístico de los datos de medición del lidar, que afecta a la disponibilidad de los datos del lidar, a su validez, etc.</t>
+          <t>Métodos de filtrado de datos para diversos factores ambientales, como las detecciones de blanco sólido, niebla, etc., que afectan al ratio portadora/ruido (CNR).</t>
         </is>
       </c>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>ontolidar:Outputs</t>
+          <t>ontolidar:DataProcessing</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>ontolidar:FilteringStrategy</t>
+        </is>
+      </c>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
@@ -15911,62 +15967,58 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ontolidar:DataFiltering</t>
+          <t>ontolidar:HardTargetDetection</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Data filtering</t>
+          <t>Hard target detection</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Filtraggio dati per qualità</t>
+          <t>Rilevamento di oggetti solidi</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>数据过滤</t>
+          <t>硬目标识别</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Data filtering for various environmental factors, such as the detections of hard targets, fog, etc., which affect the CNR value.</t>
+          <t>A range (or a quantity) to indicate the laser beam is reflected from an object, and the corresponding lidar measurement data shall be filtered out during the data processing.</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>对环境因素进行识别用于数据过滤，如对硬目标的探测、超净空气、大雾等，这些因素将对CNR的值产生影响。</t>
+          <t>一个范围（或数值）用来表示激光光束被某个实体反射，在数据处理过程中应将对应的测量数据进行过滤去除。</t>
         </is>
       </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Strategie di filtraggio dati per vari effetti meteorologici ed ambientali.</t>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di oggetti solidi nel tragitto del raggio laser.</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>Métodos de filtrado de datos para diversos factores ambientales, como las detecciones de blanco sólido, niebla, etc., que afectan al ratio portadora/ruido (CNR).</t>
+          <t>Rango (o cantidad) que indica que el rayo láser ha sido reflejado por un blanco sólido, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos.</t>
         </is>
       </c>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
-          <t>ontolidar:DataProcessing</t>
+          <t>ontolidar:DataFiltering</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>ontolidar:FilteringStrategy</t>
-        </is>
-      </c>
+      <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
@@ -15996,48 +16048,48 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ontolidar:HardTargetDetection</t>
+          <t>ontolidar:CloudDetection</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Hard target detection</t>
+          <t>Cloud detection</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Rilevamento di oggetti solidi</t>
+          <t>Rilevamento di nuvole</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>硬目标识别</t>
+          <t>云层识别</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>A range (or a quantity) to indicate the laser beam is reflected from an object, and the corresponding lidar measurement data shall be filtered out during the data processing.</t>
+          <t>A range (or a quantity) to indicate the laser beam is reflected from Cloud, and the corresponding lidar measurement data shall be filtered out during the data processing.</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>一个范围（或数值）用来表示激光光束被某个实体反射，在数据处理过程中应将对应的测量数据进行过滤去除。</t>
+          <t>一个范围（或数值）用来表示激光束被云层反射，在数据处理过程中应将对应的测量数据进行过滤去除。</t>
         </is>
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di oggetti solidi nel tragitto del raggio laser.</t>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di nuvole nel tragitto del raggio laser.</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>Rango (o cantidad) que indica que el rayo láser ha sido reflejado por un blanco sólido, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos.</t>
+          <t>Rango (o cantidad) para indicar que el rayo láser ha sido reflejado por una nube, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos.</t>
         </is>
       </c>
       <c r="O188" t="inlineStr"/>
@@ -16077,48 +16129,48 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ontolidar:CloudDetection</t>
+          <t>ontolidar:CleanAirDetection</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cloud detection</t>
+          <t>Clean air detection</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Rilevamento di nuvole</t>
+          <t>Rilevamento di condizione di aria pulita</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>云层识别</t>
+          <t>超净空气识别</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A range (or a quantity) to indicate the laser beam is reflected from Cloud, and the corresponding lidar measurement data shall be filtered out during the data processing.</t>
+          <t>A quantity to indicate the weather is in clean air condition (less aerosols), and the correponsing lidar measurement data shall be specially processed during data filtering</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>一个范围（或数值）用来表示激光束被云层反射，在数据处理过程中应将对应的测量数据进行过滤去除。</t>
+          <t>一个范围（或数值）用来表示空气中含有较少的气溶胶，在数据过滤过程中应特别处理对应的测量数据。</t>
         </is>
       </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di nuvole nel tragitto del raggio laser.</t>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di aria pulita nel tragitto del raggio laser.</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>Rango (o cantidad) para indicar que el rayo láser ha sido reflejado por una nube, y que los datos de medición lidar correspondientes se filtrarán durante el procesamiento de datos</t>
+          <t>Cantidad que indica condiciones de aire limpio (escasez de aerosoles), y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
         </is>
       </c>
       <c r="O189" t="inlineStr"/>
@@ -16158,48 +16210,48 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ontolidar:CleanAirDetection</t>
+          <t>ontolidar:FogDetection</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Clean air detection</t>
+          <t>Fog detection</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Rilevamento di condizione di aria pulita</t>
+          <t>Rilevamento di nebbia</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>超净空气识别</t>
+          <t>大雾天气识别</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A quantity to indicate the weather is in clean air condition (less aerosols), and the correponsing lidar measurement data shall be specially processed during data filtering</t>
+          <t>A quantity to indicate the weather is in fog condition, and the correponsing lidar measurement data shall be specially processed during data filtering</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>一个范围（或数值）用来表示空气中含有较少的气溶胶，在数据过滤过程中应特别处理对应的测量数据。</t>
+          <t>表示天气处于大雾状态的数量，在数据过滤过程中应特别处理相关的激光雷达测量数据。</t>
         </is>
       </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di aria pulita nel tragitto del raggio laser.</t>
+          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di nebbia nel tragitto del raggio laser.</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>Cantidad que indica condiciones de aire limpio (escasez de aerosoles), y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
+          <t>Cantidad que indica condiciones de niebla, y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
         </is>
       </c>
       <c r="O190" t="inlineStr"/>
@@ -16239,54 +16291,54 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ontolidar:FogDetection</t>
+          <t>ontolidar:CoordinateSystemTransformation</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Fog detection</t>
+          <t>Coordinate system transformation</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Rilevamento di nebbia</t>
+          <t>Trasformazione del sistema di coordinate</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>大雾天气识别</t>
+          <t>坐标系统转换</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>A quantity to indicate the weather is in fog condition, and the correponsing lidar measurement data shall be specially processed during data filtering</t>
+          <t>Transfer the data from the lidar default coordinate system (e.g. spherical coordinate system, etc.) to the coordinate system required by data application (e.g. right hand inertial coordinate system)</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>表示天气处于大雾状态的数量，在数据过滤过程中应特别处理相关的激光雷达测量数据。</t>
+          <t>将数据从激光雷达默认坐标系（如球面坐标系等）转移到数据应用所需的坐标系（如右手惯性坐标系）。</t>
         </is>
       </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
         <is>
-          <t>Filtro specifico per rimuovere dati spuri dovuti alla presenza di nebbia nel tragitto del raggio laser.</t>
+          <t>Cambio di coordinate dal sistema solidale con il lidar (tipicamente coordinate sferiche) allo specifico sistema di coordinate richiesto dall'applicazione cui si ha interesse.</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>Cantidad que indica condiciones de niebla, y los datos de medición lidar correpondientes serán especialmente procesados durante el filtrado de datos.</t>
+          <t>Proceso matemático de transformación de los datos en el sistema de coordenadas por defecto del lidar (por ejemplo, el sistema de coordenadas esféricas, etc.) al sistema de coordenadas requerido por la aplicación que post procesará los datos (por ejemplo, el sistema inercial de coordenadas cartesianas definido por la regla de la mano derecha).</t>
         </is>
       </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr">
         <is>
-          <t>ontolidar:DataFiltering</t>
+          <t>ontolidar:DataProcessing</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr"/>
@@ -16320,56 +16372,36 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ontolidar:CoordinateSystemTransformation</t>
+          <t>ontolidar:MeasurementSetup</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Coordinate system transformation</t>
+          <t>Measurement setup</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Trasformazione del sistema di coordinate</t>
+          <t>Disposizione di misurazione</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>坐标系统转换</t>
+          <t>测量设置</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Transfer the data from the lidar default coordinate system (e.g. spherical coordinate system, etc.) to the coordinate system required by data application (e.g. right hand inertial coordinate system)</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>将数据从激光雷达默认坐标系（如球面坐标系等）转移到数据应用所需的坐标系（如右手惯性坐标系）。</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>Cambio di coordinate dal sistema solidale con il lidar (tipicamente coordinate sferiche) allo specifico sistema di coordinate richiesto dall'applicazione cui si ha interesse.</t>
-        </is>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>Proceso matemático de transformación de los datos en el sistema de coordenadas por defecto del lidar (por ejemplo, el sistema de coordenadas esféricas, etc.) al sistema de coordenadas requerido por la aplicación que post procesará los datos (por ejemplo, el sistema inercial de coordenadas cartesianas definido por la regla de la mano derecha).</t>
-        </is>
-      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>ontolidar:DataProcessing</t>
-        </is>
-      </c>
+      <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
@@ -16401,45 +16433,89 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementSetup</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Measurement setup</t>
+          <t>Scan geometry</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Geometrie scannen</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Disposizione di misurazione</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
+          <t>Geometria di scansione</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Geometría de escaneo</t>
+        </is>
+      </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>测量设置</t>
+          <t>扫描的几何路径</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>1. The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>1. 激光雷达扫描方式（顺序）的安排，要求激光雷达光束在一些不同的方向之间扫描或扫过。扫描的几何路径确保在整个测量范围内获得足够的测量结果以重建气流（风）流场。对应的光束方向的可以重复进行扫描，通过迭代扫描获得时间序列的数据集。扫描可以在停滞或扫掠模式下进行。2. 激光雷达的扫描光束方向，沿着雷达程序设定的发射其探测信号的方向。</t>
+        </is>
+      </c>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>1. Serie de configuraciones de medidas realizadas por un lidar de escaneo que requieren que el haz lidar sea escaneado o barrido entre un número de orientacions diferentes. La geometría de barrido asegura que se adquieran mediciones en un volumen suficiente para posibilitar la reconstrucción del campo de viento. La secuencia de orientaciones del haz puede repetirse para adquirir una serie temporalde datos finales, adquiridos en cada iteración. Los escaneos pueden realizarse en modo stop-stare o sweep-stare. 2. La colección de líneas de visión (line-of-sight o LOS, por sus siglas en inglés)  del haz a lo largo de las cuales el lidar está programado para emitir su sondeo.</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Scan pattern</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementSetup</t>
+        </is>
+      </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>La taxonomía de la geometría de escaneo está basada en la Figura 3 de NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="inlineStr"/>
@@ -16462,66 +16538,62 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ontolidar:ScanGeometry</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Scan geometry</t>
+          <t>Single lidar</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Geometrie scannen</t>
+          <t>Einzel-Lidar</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Geometria di scansione</t>
+          <t>Lidar singolo</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Geometría de escaneo</t>
+          <t>Lidar individual</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>扫描的几何路径</t>
+          <t>单个激光雷达</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>The arrangement of a sequence of scanning lidar configurations that require the lidar beam to be scanned or swept between a number of different orientations. The scan geometry ensures measurements are acquired throughout the measurement volume sufficient for wind field reconstruction. The sequence of beam orientations may be repeated to acquire a time series of final data acquired from each iteration. Scans may be performed in stop-stare or sweep-stare mode. 2. The collection of lines of sight / beam orientations along which the lidar is programmed to emit its probe.</t>
+          <t>A single lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>1. 激光雷达扫描方式（顺序）的安排，要求激光雷达光束在一些不同的方向之间扫描或扫过。扫描的几何路径确保在整个测量范围内获得足够的测量结果以重建气流（风）流场。对应的光束方向的可以重复进行扫描，通过迭代扫描获得时间序列的数据集。扫描可以在停滞或扫掠模式下进行。2. 激光雷达的扫描光束方向，沿着雷达程序设定的发射其探测信号的方向。</t>
+          <t>仅用单独的一个激光雷达，凭其自身测量的视向数据推算出气流（风）特性，而无需使用来自另一个激光雷达或风速测量设备的数据。</t>
         </is>
       </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr">
         <is>
-          <t>1. Una serie di configurazioni di misuraizone per uno scanning lidar che definisce come il fascio laser debba essere mosso e spostato fra una serie di posizioni pre-definite. Questa serie garantisce l'acquisizione in misura sufficiente di dati per ricostruire il campo di vento. La sequenza delle orientazioni può essere ripetuta per registrare una serie temporale della stessa quantità misurata. Il movimento da una posizione di misurazione alla successiva può essere effettuato in modalità stop-stare o sweep-stare. 2. L'insieme delle direzioni di misurazione / orientazioni del fascio laser in cui il lidar emette la sua sonda.</t>
+          <t>Misurazioni effettuate da un lidar singolo</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>1. Serie de configuraciones de medidas realizadas por un lidar de escaneo que requieren que el haz lidar sea escaneado o barrido entre un número de orientacions diferentes. La geometría de barrido asegura que se adquieran mediciones en un volumen suficiente para posibilitar la reconstrucción del campo de viento. La secuencia de orientaciones del haz puede repetirse para adquirir una serie temporalde datos finales, adquiridos en cada iteración. Los escaneos pueden realizarse en modo stop-stare o sweep-stare. 2. La colección de líneas de visión (line-of-sight o LOS, por sus siglas en inglés)  del haz a lo largo de las cuales el lidar está programado para emitir su sondeo.</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>Scan pattern</t>
-        </is>
-      </c>
+          <t>Un solo lidar aislado que devuelve datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés)  que se convierten en características del campo de viento sin el uso de datos de otro lidar o dispositivo de medición de la velocidad del viento.</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementSetup</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr"/>
@@ -16529,22 +16601,10 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="V194" t="inlineStr"/>
       <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr">
-        <is>
-          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
-      <c r="Y194" t="inlineStr">
-        <is>
-          <t>La taxonomía de la geometría de escaneo está basada en la Figura 3 de NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="inlineStr"/>
@@ -16567,62 +16627,62 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Single lidar</t>
+          <t>Simple scan</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Einzel-Lidar</t>
+          <t>einfacher Scan</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Lidar singolo</t>
+          <t>Scansione semplice</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Lidar individual</t>
+          <t>Escaneo simple</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>单个激光雷达</t>
+          <t>简单扫描</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>A single lidar that returns line-of-sight data that are converted in to windfield characteristics without the use of data from another lidar or wind speed measurement device.</t>
+          <t>A scan geometry which entails a variation in beam orientation in a single degree of freedom</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>仅用单独的一个激光雷达，凭其自身测量的视向数据推算出气流（风）特性，而无需使用来自另一个激光雷达或风速测量设备的数据。</t>
+          <t>一种简单的扫描路径，通过方向在单个自由度内的控制来改变扫描位置</t>
         </is>
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Misurazioni effettuate da un lidar singolo</t>
+          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>Un solo lidar aislado que devuelve datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés)  que se convierten en características del campo de viento sin el uso de datos de otro lidar o dispositivo de medición de la velocidad del viento.</t>
+          <t>Una geometría de escaneo simple en que la posición del rayo depende de un solo parámetro.</t>
         </is>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>ontolidar:ScanGeometry</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr"/>
@@ -16656,62 +16716,66 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Simple scan</t>
+          <t>Variable azimuth scan</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>einfacher Scan</t>
+          <t>Variabler Azimut-Scan</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Scansione semplice</t>
+          <t>Scansione ad azimut variabile</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Escaneo simple</t>
+          <t>Escaneo de azimut variable</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>简单扫描</t>
+          <t>变方位扫描法</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>A scan geometry which entails a variation in beam orientation in a single degree of freedom</t>
+          <t>A simple scan geometry with variable azimuth angle</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>一种简单的扫描路径，通过方向在单个自由度内的控制来改变扫描位置</t>
+          <t>通过改变方位角来控制扫描位置的简单扫描方式</t>
         </is>
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una geometria di scansione dello spazio dove la posizione del raggio laser dipende da un solo parametro. </t>
+          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>Una geometría de escaneo simple en que la posición del rayo depende de un solo parámetro.</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr"/>
+          <t>Geometría de escaneo simple que sólo depende del ángulo azimut.</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>PPI</t>
+        </is>
+      </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr"/>
@@ -16745,66 +16809,62 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:CompleteCone</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Variable azimuth scan</t>
+          <t>Complete cone</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Variabler Azimut-Scan</t>
+          <t>Vollständiger Kegel</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Scansione ad azimut variabile</t>
+          <t>Geometria a cono completo</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Escaneo de azimut variable</t>
+          <t>Geometía de cono completo</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>变方位扫描法</t>
+          <t>完整的锥体扫描法</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable azimuth angle</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied in increments over the full 360 degree range of possible azimuth angles.</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>通过改变方位角来控制扫描位置的简单扫描方式</t>
+          <t>一种扫描方式，其中光束的方位角在可能方位角的整个 360 度范围内变化。风速和风向值可以通过气流流场重建推算获得，例如通过假定计算值（风速，风向）与方位角存在正弦函数关系。</t>
         </is>
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio dipendente solo dall'angolo di azimut del sistema.</t>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>Geometría de escaneo simple que sólo depende del ángulo azimut.</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>PPI</t>
-        </is>
-      </c>
+          <t>Geometría en la que el azimut puede variar a lo largo de un intervalo de 360 grados. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:VariableAzimuthScan</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr"/>
@@ -16812,10 +16872,18 @@
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+        </is>
+      </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>La velocidad y dirección del viento puedens ser obtenidos mediante un proceso de reconstrucción del campo de vientos, asumiendo por ejemplo una dependencia senoidal con el ángulo azimutal.</t>
+        </is>
+      </c>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="inlineStr"/>
@@ -16838,59 +16906,63 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ontolidar:CompleteCone</t>
+          <t>ontolidar:ConeSector</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Complete cone</t>
+          <t>Cone sector</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Vollständiger Kegel</t>
+          <t>Kegelsektor</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Geometria a cono completo</t>
+          <t>Geometria a settore di cono</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Geometía de cono completo</t>
+          <t>Geometría de cono sectorial</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>完整的锥体扫描法</t>
+          <t>锥体扇形扫描法</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied in increments over the full 360 degree range of possible azimuth angles.</t>
+          <t>A scan geometry in which the azimuth angle of the beam is varied in increments over less than the full 360 degree range of possible azimuth angles.</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>一种扫描方式，其中光束的方位角在可能方位角的整个 360 度范围内变化。风速和风向值可以通过气流流场重建推算获得，例如通过假定计算值（风速，风向）与方位角存在正弦函数关系。</t>
+          <t>一种扫描方式，其中光束的方位角在小于360 度范围内变化。风速和风向值可以通过气流流场重建推算获得，例如通过假定计算值（风速，风向）与方位角存在正弦函数关系。</t>
         </is>
       </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo tutto l'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>Geometría en la que el azimut puede variar a lo largo de un intervalo de 360 grados. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr"/>
+          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía a lo largo de un intervalo inferior a 360 grados. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Plan-position indicator, PPI</t>
+        </is>
+      </c>
       <c r="P198" t="inlineStr">
         <is>
           <t>ontolidar:VariableAzimuthScan</t>
@@ -16935,61 +17007,61 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ontolidar:ConeSector</t>
+          <t>ontolidar:DopplerBeamSwinging</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Cone sector</t>
+          <t>Doppler beam swinging</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Kegelsektor</t>
+          <t>Schwingender Dopplerstrahl</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Geometria a settore di cono</t>
+          <t>Geometria ad oscillazione del fascio laser</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Geometría de cono sectorial</t>
+          <t>Geometría de oscilación del haz Doppler</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>锥体扇形扫描法</t>
+          <t>多普勒光束摆动扫描法</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>A scan geometry in which the azimuth angle of the beam is varied in increments over less than the full 360 degree range of possible azimuth angles.</t>
+          <t>A scan measurement principle in which the wind velocity reconstruction algorithm calculates wind velocity vector components immediately upon a new radial wind velocity becoming available. This technique provides the maximum sampling rate of the wind velocity components and consequently the wind velocity vector, which is desirable for instance in turbulence measurements.</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>一种扫描方式，其中光束的方位角在小于360 度范围内变化。风速和风向值可以通过气流流场重建推算获得，例如通过假定计算值（风速，风向）与方位角存在正弦函数关系。</t>
+          <t>一种扫描方式，其中光束的方位角在可能的方位角的整个 360 度范围内间隔90度变化。风速和风向值可以通过气流流场重建推算获得，例如通过假定计算值（风速，风向）与方位角存在正弦函数关系。</t>
         </is>
       </c>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso lungo una porzione dell'intervallo di 360 gradi dell'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía a lo largo de un intervalo inferior a 360 grados. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía enintervalos de 90 grados a lo largo de los 360 grados posibles del ángulo azimutal. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Plan-position indicator, PPI</t>
+          <t>DBS</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -17004,14 +17076,14 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>Wind speed and direction values can be obtained through a wind field reconstruction process, for example by assuming a sinusoidal dependence on azimuth angle.</t>
+          <t>Reference: Kelberlau, F. and Mann, J. “Cross-contamination effect on turbulence spectra from Doppler beam swinging wind lidar”, Wind Energ. Sci., 5, 519–541, 2020</t>
         </is>
       </c>
       <c r="W199" t="inlineStr"/>
       <c r="X199" t="inlineStr"/>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>La velocidad y dirección del viento puedens ser obtenidos mediante un proceso de reconstrucción del campo de vientos, asumiendo por ejemplo una dependencia senoidal con el ángulo azimutal.</t>
+          <t>Referencias: Kelberlau, F. and Mann, J. “Cross-contamination effect on turbulence spectra from Doppler beam swinging wind lidar”, Wind Energ. Sci., 5, 519–541, 2020</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr"/>
@@ -17036,66 +17108,62 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ontolidar:DopplerBeamSwinging</t>
+          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Doppler beam swinging</t>
+          <t>Variable elevation scan</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Schwingender Dopplerstrahl</t>
-        </is>
-      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Geometria ad oscillazione del fascio laser</t>
+          <t>Geometria ad elevazione variabile</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Geometría de oscilación del haz Doppler</t>
+          <t>Geometría de elevación variable</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>多普勒光束摆动扫描法</t>
+          <t>可变仰角扫描法</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>A scan measurement principle in which the wind velocity reconstruction algorithm calculates wind velocity vector components immediately upon a new radial wind velocity becoming available. This technique provides the maximum sampling rate of the wind velocity components and consequently the wind velocity vector, which is desirable for instance in turbulence measurements.</t>
+          <t>A simple scan geometry with variable elevation angle</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>一种扫描方式，其中光束的方位角在可能的方位角的整个 360 度范围内间隔90度变化。风速和风向值可以通过气流流场重建推算获得，例如通过假定计算值（风速，风向）与方位角存在正弦函数关系。</t>
+          <t>具有可变仰角的简单扫描方式</t>
         </is>
       </c>
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui il fascio laser è mosso in intervalli di 90 gradi lungo l'angolo azimutale. La velocità e la direzione del vento possono essere ottenute attraverso un processo di ricostruzione del campo ventoso che assume, per esempio, una dipendenza sinusoidale della velocità radiale dall'angolo di azimuth.</t>
+          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía enintervalos de 90 grados a lo largo de los 360 grados posibles del ángulo azimutal. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+          <t>Geometría de escaneo simple que sólo depende del ángulo de elevación.</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>DBS</t>
+          <t>RHI</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>ontolidar:VariableAzimuthScan</t>
+          <t>ontolidar:SimpleScan</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr"/>
@@ -17105,14 +17173,18 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr">
         <is>
-          <t>Reference: Kelberlau, F. and Mann, J. “Cross-contamination effect on turbulence spectra from Doppler beam swinging wind lidar”, Wind Energ. Sci., 5, 519–541, 2020</t>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
         </is>
       </c>
       <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>Referencias: Kelberlau, F. and Mann, J. “Cross-contamination effect on turbulence spectra from Doppler beam swinging wind lidar”, Wind Energ. Sci., 5, 519–541, 2020</t>
+          <t>La taxonomía de la geometría de escaneo se basa en la Figura 3 en NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
         </is>
       </c>
       <c r="Z200" t="inlineStr"/>
@@ -17137,62 +17209,58 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevationScan</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Variable elevation scan</t>
+          <t>Compound scan</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Geometria ad elevazione variabile</t>
+          <t>Scansione composita</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Geometría de elevación variable</t>
+          <t>Escaneo compuesto</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>可变仰角扫描法</t>
+          <t>复合扫描扫描法</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>A simple scan geometry with variable elevation angle</t>
+          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>具有可变仰角的简单扫描方式</t>
+          <t>复合扫描包括更多的自由度，通常由一系列简单的扫描方法组成</t>
         </is>
       </c>
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Una geometria di scansione dello spazio in cui l'angolo di elevazione varia.</t>
+          <t>Una scansione composita include più gradi di libertà ed è tipicamente il risultato di una combinazione di più sequenze di scansioni semplici.</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>Geometría de escaneo simple que sólo depende del ángulo de elevación.</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>RHI</t>
-        </is>
-      </c>
+          <t>Los escaneos compuestos incluyen más grados de libertad y suelen estar formados por una secuencia de escaneos simples.</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>ontolidar:SimpleScan</t>
+          <t>ontolidar:SingleLidar</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr"/>
@@ -17200,22 +17268,10 @@
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
-      <c r="X201" t="inlineStr">
-        <is>
-          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
-      <c r="Y201" t="inlineStr">
-        <is>
-          <t>La taxonomía de la geometría de escaneo se basa en la Figura 3 en NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
       <c r="Z201" t="inlineStr"/>
       <c r="AA201" t="inlineStr"/>
       <c r="AB201" t="inlineStr"/>
@@ -17238,52 +17294,52 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:ArbitraryTrajectory</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Compound scan</t>
+          <t>Arbitrary trajectory</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Scansione composita</t>
+          <t>Traiettoria arbitraria</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Escaneo compuesto</t>
+          <t>Trayectoria arbitraria</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>复合扫描扫描法</t>
+          <t>任意运动轨迹扫描法</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Compound scans include more degrees of freedom and are typically made up of a sequence of simple scans</t>
+          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>复合扫描包括更多的自由度，通常由一系列简单的扫描方法组成</t>
+          <t>一种测风激光雷达的扫描方法，可以通过仰角和方位角的任意组合，跟踪所需轨迹进行扫描。比如：站在一个固定位置跟踪飞鸟的路径。</t>
         </is>
       </c>
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Una scansione composita include più gradi di libertà ed è tipicamente il risultato di una combinazione di più sequenze di scansioni semplici.</t>
+          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>Los escaneos compuestos incluyen más grados de libertad y suelen estar formados por una secuencia de escaneos simples.</t>
+          <t>Se pueden realizar escaneos en los que el haz realiza un barrido variando arbitrariamente los ángulos de elevación y acimut para seguir una trayectoria determinada. Esto podría considerarse análogo al seguimiento de la trayectoria de un pájaro en vuelo desde una ubicación fija.</t>
         </is>
       </c>
       <c r="O202" t="inlineStr"/>
@@ -17323,52 +17379,52 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ontolidar:ArbitraryTrajectory</t>
+          <t>ontolidar:StopStare</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Arbitrary trajectory</t>
+          <t>Stop-stare</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Traiettoria arbitraria</t>
+          <t>Geometria "osserva da fisso"</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Trayectoria arbitraria</t>
+          <t>Geometría de punto fijo</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>任意运动轨迹扫描法</t>
+          <t>停止-凝视扫描法</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through an arbitrary combination of elevation and azimuth angles to follow a desired trajectory. This could be considered analagous to tracking the path of a flying bird from a fixed location.</t>
+          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position.</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>一种测风激光雷达的扫描方法，可以通过仰角和方位角的任意组合，跟踪所需轨迹进行扫描。比如：站在一个固定位置跟踪飞鸟的路径。</t>
+          <t>一种测风激光雷达的扫描方法，只有当光束在预设扫描方向上保持静止时，才获取视线方向(LOS)的数据。当光束在预设位置之间切换移动时，不获取数据。</t>
         </is>
       </c>
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso lungo una combinazione arbitraria di angoli di elevazione e azimutali per seguire una specifica traiettoria spaziale. Questo è del tutto analogo ad una situazione in cui si volesse descrivere in termini geometrici il volo di un uccello utilizzando un punto di riferimento fisso.</t>
+          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>Se pueden realizar escaneos en los que el haz realiza un barrido variando arbitrariamente los ángulos de elevación y acimut para seguir una trayectoria determinada. Esto podría considerarse análogo al seguimiento de la trayectoria de un pájaro en vuelo desde una ubicación fija.</t>
+          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos mientras el rayo permanece estacionario en una de las orientaciones predeterminada a lo largo de la secuencia de escaneo. Ninguna medida se realiza durante la fase de reposicionamiento del laser a su siguiente posición.</t>
         </is>
       </c>
       <c r="O203" t="inlineStr"/>
@@ -17408,52 +17464,52 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ontolidar:StopStare</t>
+          <t>ontolidar:SweepStare</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Stop-stare</t>
+          <t>Sweep-stare</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Geometria "osserva da fisso"</t>
+          <t>Geometria "osserva in movimento"</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Geometría de punto fijo</t>
+          <t>Geometría de barrido</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>停止-凝视扫描法</t>
+          <t>扫视扫描法</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired while the beam remains stationary in one of the pre-determined orientations comprising the scan geometry. No data are acquired while the beam is moved to its next position.</t>
+          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>一种测风激光雷达的扫描方法，只有当光束在预设扫描方向上保持静止时，才获取视线方向(LOS)的数据。当光束在预设位置之间切换移动时，不获取数据。</t>
+          <t>一种测风激光雷达的扫描方法，当光束在预定位置之间移动时，也会连续获取视线方向(LOS)的数据。</t>
         </is>
       </c>
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è mantenuto fermo nello spazio in una direzione predefinita. Nessuna misurazione è effettuata durante la fase di riposizionamento del fascio laser. </t>
+          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos mientras el rayo permanece estacionario en una de las orientaciones predeterminada a lo largo de la secuencia de escaneo. Ninguna medida se realiza durante la fase de reposicionamiento del laser a su siguiente posición.</t>
+          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos continuamente, mientras el rayo recorre las posiciones de escaneo programadas.</t>
         </is>
       </c>
       <c r="O204" t="inlineStr"/>
@@ -17493,52 +17549,52 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ontolidar:SweepStare</t>
+          <t>ontolidar:Staring</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sweep-stare</t>
+          <t>Staring</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Geometria "osserva in movimento"</t>
+          <t>Geometria fissa</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Geometría de barrido</t>
+          <t>Geometría fija</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>扫视扫描法</t>
+          <t>凝视（单向）扫描法</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Line-of-sight data are acquired continuously as the beam is scanned between pre-determined positions.</t>
+          <t>A scan geometry comprised of a single beam orientation.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>一种测风激光雷达的扫描方法，当光束在预定位置之间移动时，也会连续获取视线方向(LOS)的数据。</t>
+          <t>光束仅在单一方向扫描的扫描方式。</t>
         </is>
       </c>
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Metodo di acquisizione dati in cui la misurazione avviene mentre il fascio laser è costantemente mosso nello spazio.</t>
+          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>Los datos de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) son adquiridos continuamente, mientras el rayo recorre las posiciones de escaneo programadas.</t>
+          <t>Geometría de escaneo que comprende una sola orientación del rayo de medición.</t>
         </is>
       </c>
       <c r="O205" t="inlineStr"/>
@@ -17578,58 +17634,62 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ontolidar:Staring</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Staring</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Geometria fissa</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Geometría fija</t>
+          <t>Multi-lidar</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>凝视（单向）扫描法</t>
+          <t>多激光雷达</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A scan geometry comprised of a single beam orientation.</t>
+          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>光束仅在单一方向扫描的扫描方式。</t>
+          <t>多个激光雷达在同一区域进行的协调测量。测量结果在时间上可能会（或不会）同步。</t>
         </is>
       </c>
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Un lidar con orientazione del fascio laser fissa nello spazio.</t>
+          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>Geometría de escaneo que comprende una sola orientación del rayo de medición.</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr"/>
+          <t>Medidas coordinadas relizadas en la misma región por diferentes dispositivos lidar. Las medidas pueden estar sincronizadas en el tiempo.</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>multilidar, multistatic</t>
+        </is>
+      </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>ontolidar:SingleLidar</t>
+          <t>ontolidar:ScanGeometry</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr"/>
@@ -17663,59 +17723,55 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ontolidar:MultiLidar</t>
+          <t>ontolidar:MeasurementVolume</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Measurement volume</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Volume di misurazione</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Multi-lidar</t>
+          <t>Volumen de medición</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>多激光雷达</t>
+          <t>测量范围</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Coordinated measurements made in the same region by multiple lidar. Measurements may or may not be synchronised in time.</t>
+          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>多个激光雷达在同一区域进行的协调测量。测量结果在时间上可能会（或不会）同步。</t>
+          <t>测风激光雷达采集信号的空间范围。具体来说，由光束预设的扫描位置所围成的空间，激光雷达将在这个空间内进行测量。</t>
         </is>
       </c>
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Misurazioni coordinate effettuate nella stessa regione da più sistemi lidar. Le misurazioni possono essere sincronizzate nel tempo.</t>
+          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>Medidas coordinadas relizadas en la misma región por diferentes dispositivos lidar. Las medidas pueden estar sincronizadas en el tiempo.</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>multilidar, multistatic</t>
-        </is>
-      </c>
+          <t>Región caracterizada por el lidar de viento. Corresponde a la región en la que los diferentes rayos con diversas orientaciones (o líneas de visión, LOS por sus siglas en inglés) penetran en la atmósfera tomando datos a lo largo de un volumen de muestreo. A lo largo de estos volúmenes de muestreo, cada uno correspondiente a una orientación (o línea de visión) el sistema adquiere datos intermedios de los que se extraen las mediciones finales.</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
           <t>ontolidar:ScanGeometry</t>
@@ -17752,58 +17808,58 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementVolume</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Measurement volume</t>
+          <t>Probe</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Volume di misurazione</t>
+          <t>Sonda</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Volumen de medición</t>
+          <t>Sonda</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>测量范围</t>
+          <t>探测</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>The region characterised by the wind lidar. Corresponds to the region penetrated by the various beam orientations / lines of sight and probe volumes where intermediate data are acquired to produce a final measurement.</t>
+          <t xml:space="preserve">In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a part of the laser beam that has a highest power density along the line of sight determined by the optical focus of the system. </t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>测风激光雷达采集信号的空间范围。具体来说，由光束预设的扫描位置所围成的空间，激光雷达将在这个空间内进行测量。</t>
+          <t>对于脉冲激光雷达，探测是沿视线发射的激光脉冲，其方向和位置由激光雷达的设置决定。对于连续波激光雷达，探测是沿视线方向聚集灵敏度相对较高的区域，由取决于系统的光学焦点。</t>
         </is>
       </c>
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Lo spazio illuminato dai fasci laser del lidar. Corresponde all'unione di tutte le regioni investigata dai singoli fasci laser (e loro singole aree di misurazione - probe volumes) che possono costituire un sistema lidar da cui le misurazioni grezze sono prese e combinate per costruire la misurazione finale.</t>
+          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>Región caracterizada por el lidar de viento. Corresponde a la región en la que los diferentes rayos con diversas orientaciones (o líneas de visión, LOS por sus siglas en inglés) penetran en la atmósfera tomando datos a lo largo de un volumen de muestreo. A lo largo de estos volúmenes de muestreo, cada uno correspondiente a una orientación (o línea de visión) el sistema adquiere datos intermedios de los que se extraen las mediciones finales.</t>
+          <t>En el caso de un lidar pulsado, el sondeo es un pulso láser emitido a lo largo de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) cuya orientación se determina por la configuración del lidar. En el caso de un lidar de onda continua el sondeo es una región relativamenta sensible a lo largo de la línea de visión determinada por la  distancia focal del sistema.</t>
         </is>
       </c>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>ontolidar:ScanGeometry</t>
+          <t>ontolidar:MeasurementSetup</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr"/>
@@ -17837,58 +17893,54 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:Range</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Probe</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sonda</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sonda</t>
-        </is>
-      </c>
+          <t>Range</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t>探测</t>
+          <t>探测距离</t>
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the case of pulsed lidar, the probe is a laser pulse emitted along a line of sight whose orientation is determined by the configuration of the lidar. In the case of a continuous wave lidar, the probe is a part of the laser beam that has a highest power density along the line of sight determined by the optical focus of the system. </t>
+          <t>The maximum distance beyond which detection is limited by a data availability criterion, for example, SNR.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>对于脉冲激光雷达，探测是沿视线发射的激光脉冲，其方向和位置由激光雷达的设置决定。对于连续波激光雷达，探测是沿视线方向聚集灵敏度相对较高的区域，由取决于系统的光学焦点。</t>
+          <t>探测的最大距离。超过这个距离，数据可用性会降低，例如，信噪比超出正常范围。</t>
         </is>
       </c>
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Parte del lidar che interagisce con lo spazio esterno e permette di effettuare la misurazione. In un sistema pulsato, questo corrisponde ad un impulso di luce laser; in un sistema ad onda continua, è definita in modo statistico sulla distribuzione in potenza della luce emessa dal lidar nella direzione di misurazione.</t>
+          <t>La distanza massima oltre cui la misurazione è inibita a causa di criteri sulla disponibilità di segnale (ad esemçpio, insufficiente SNR)</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>En el caso de un lidar pulsado, el sondeo es un pulso láser emitido a lo largo de la línea de visión (line-of-sight o LOS, por sus siglas en inglés) cuya orientación se determina por la configuración del lidar. En el caso de un lidar de onda continua el sondeo es una región relativamenta sensible a lo largo de la línea de visión determinada por la  distancia focal del sistema.</t>
+          <t>Distancia máxima a partir de la cual la detección está limitada por un criterio de disponibilidad de datos, por ejemplo, la SNR.</t>
         </is>
       </c>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementSetup</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr"/>
@@ -17922,50 +17974,54 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ontolidar:Range</t>
+          <t>ontolidar:FocusDistance</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>Focus distance</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>Distanza di messa a fuoco</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
-          <t>探测距离</t>
+          <t>焦距</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>The maximum distance beyond which detection is limited by a data availability criterion, for example, SNR.</t>
+          <t>The distance from the lidar to the telescope focal length.  Ideally coincides with the laser beam waist.</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>探测的最大距离。超过这个距离，数据可用性会降低，例如，信噪比超出正常范围。</t>
+          <t>从测风激光雷达到激光束汇聚点的距离，由望远镜的焦距规定。</t>
         </is>
       </c>
       <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr">
         <is>
-          <t>La distanza massima oltre cui la misurazione è inibita a causa di criteri sulla disponibilità di segnale (ad esemçpio, insufficiente SNR)</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr"/>
+          <t>La distanza fra il centro della lente ottica e il suo fuoco.</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Distancia desde el lidar hasta la distancia focal del telescopio. Idealmente coincide con el punto de convergencia máxima de luz del rayo.</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:Range</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr"/>
@@ -17999,51 +18055,59 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ontolidar:FocusDistance</t>
+          <t>ontolidar:TimeOfFlight</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Focus distance</t>
+          <t>Time of flight</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Distanza di messa a fuoco</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr"/>
+          <t>Tempo di volo</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Tiempo de vuelo</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>焦距</t>
+          <t>飞行时间</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>The distance from the lidar to the telescope focal length.  Ideally coincides with the laser beam waist.</t>
+          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>从测风激光雷达到激光束汇聚点的距离，由望远镜的焦距规定。</t>
+          <t>从激光雷达脉冲发射，到反射信号返回并被系统检测到所需要的时间。</t>
         </is>
       </c>
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr">
         <is>
-          <t>La distanza fra il centro della lente ottica e il suo fuoco.</t>
+          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>Distancia desde el lidar hasta la distancia focal del telescopio. Idealmente coincide con el punto de convergencia máxima de luz del rayo.</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr"/>
+          <t>El tiempo empleado por un sistema de lidar pulsado desde el momento en que es emitido hasta que es recibio por el sistema, durante el cual interacciona con la atmósfera a lo largo de un volumen de muestreo desde el cual la señal se retrodispersa.</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>TOF</t>
+        </is>
+      </c>
       <c r="P211" t="inlineStr">
         <is>
           <t>ontolidar:Range</t>
@@ -18080,59 +18144,55 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ontolidar:TimeOfFlight</t>
+          <t>ontolidar:RangeResolution</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Time of flight</t>
+          <t>Range resolution</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Tempo di volo</t>
+          <t>Risoluzione della distanza</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Tiempo de vuelo</t>
+          <t>Resolución de distancia</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>飞行时间</t>
+          <t>探测间隔分辨率</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>The time taken for a lidar pulse to be emitted, interact with the atmosphere in a probe volume such that it is backscattered, and return to be detected by the system.</t>
+          <t>The range resolution is the distance that can be resolved by the laser pulse length. This is given by (half) the speed of light multiplied by the pulse duration.</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>从激光雷达脉冲发射，到反射信号返回并被系统检测到所需要的时间。</t>
+          <t>探测间隔分辨率是激光脉冲波所覆盖的距离。数值上等于光速乘以脉冲持续时间除以二。</t>
         </is>
       </c>
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr">
         <is>
-          <t xml:space="preserve">In un sistema lidar pulsato, il tempo necessario fra l'istante dell'emissione di un impulso laser emissione e della ricezione del segnale riflesso. </t>
+          <t>La distanza che può essere risolta dalla lunghezza dell'impulso laser. E' data dalla metà del prodotto fra la velocità della luce e la durata dall'impulso.</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>El tiempo empleado por un sistema de lidar pulsado desde el momento en que es emitido hasta que es recibio por el sistema, durante el cual interacciona con la atmósfera a lo largo de un volumen de muestreo desde el cual la señal se retrodispersa.</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>TOF</t>
-        </is>
-      </c>
+          <t>Distancia que puede ser resuelta por la longitud del pulso láser. Viene dada por la relación entre la velocidad de la luz y la mitad de la duración del pulso.</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
           <t>ontolidar:Range</t>
@@ -18169,58 +18229,58 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ontolidar:RangeResolution</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Range resolution</t>
+          <t>Probe volume</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Risoluzione della distanza</t>
+          <t>Volume della sonda</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Resolución de distancia</t>
+          <t>Volumen de la sonda</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>探测间隔分辨率</t>
+          <t>探测体积</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>The range resolution is the distance that can be resolved by the laser pulse length. This is given by (half) the speed of light multiplied by the pulse duration.</t>
+          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>探测间隔分辨率是激光脉冲波所覆盖的距离。数值上等于光速乘以脉冲持续时间除以二。</t>
+          <t>测风激光雷达测量视线方向速度所覆盖的空间范围。</t>
         </is>
       </c>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr">
         <is>
-          <t>La distanza che può essere risolta dalla lunghezza dell'impulso laser. E' data dalla metà del prodotto fra la velocità della luce e la durata dall'impulso.</t>
+          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>Distancia que puede ser resuelta por la longitud del pulso láser. Viene dada por la relación entre la velocidad de la luz y la mitad de la duración del pulso.</t>
+          <t>Volumen a lo largo del cual la sonda interactúa con la atmósfera dando como resultado la medida de la velocidad radial.</t>
         </is>
       </c>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr">
         <is>
-          <t>ontolidar:Range</t>
+          <t>ontolidar:Probe</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr"/>
@@ -18254,62 +18314,67 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ontolidar:ProbeVolume</t>
+          <t>ontolidar:RayleighLength</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Probe volume</t>
+          <t>Rayleigh length</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Volume della sonda</t>
+          <t>Lunghezza Rayleigh</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Volumen de la sonda</t>
+          <t>Longitud Rayleigh</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>探测体积</t>
+          <t>瑞利长度</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>The volume in which the probe interacts with the atmosphere resulting in the measurement of a radial velocity.</t>
+          <t>Distance, from the beam waist in the propagation direction, where the area of the beam section is increased by a factor of 2, or the radius is increased by a factor of the squared root of 2. The Rayleigh length is used to characterise the probe volume and corresponds to the half of the probe length. It also can be defined as half of the full-width half-maximum (FWHM) of the weighting function characterising the probe volume.</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>测风激光雷达测量视线方向速度所覆盖的空间范围。</t>
+          <t xml:space="preserve">一种距离的表示方式，从传播方向的光束腰部开始，光束部分的截面积面积增加了2倍，或者截面半径增加了根号2倍。瑞利长度用于描述探测体积的特征，相当于探测体长度的一半。
+</t>
         </is>
       </c>
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr">
         <is>
-          <t>Volume spaziale investito dalla sonda del lidar (probe). In questa regione avviene l'interazione fra il sistema lidar e l'atmosfera e da questa regione di deriva la velocità radiale del vento.</t>
+          <t>Distanza lungo la direzione di propagazione del raggio laser fra il punto di minima apertura radiale del raggio laser al punto di apertura radiale doppia rispetto al valor minimo. La distanza di Rayleigh è usata per caratterizzare il volume della sonda di misurazione e corrisponde a metà della lunghezza della sonda di prova.</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>Volumen a lo largo del cual la sonda interactúa con la atmósfera dando como resultado la medida de la velocidad radial.</t>
+          <t>Distancia, tomando como referencia la distancia focal del haz, en la dirección de propagación del mismo, donde el área de la sección del haz se duplica, o dicho de otro modo, el radio se incrementa en un factor raíz de 2. La longitud de Rayleigh se utiliza para caracterizar el volumen de la sonda y corresponde a la mitad de la longitud de muestreo.</t>
         </is>
       </c>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>ontolidar:Probe</t>
+          <t>ontolidar:ProbeVolume</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>ontolidar:FullWidthAtHalfMaximum</t>
+        </is>
+      </c>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr"/>
@@ -18339,53 +18404,40 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ontolidar:RayleighLength</t>
+          <t>ontolidar:BeamDiameter</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Rayleigh length</t>
+          <t>Beam diameter</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Lunghezza Rayleigh</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Longitud Rayleigh</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>瑞利长度</t>
-        </is>
-      </c>
+          <t>Diametro del fascio</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Distance, from the beam waist in the propagation direction, where the area of the beam section is increased by a factor of 2, or the radius is increased by a factor of the squared root of 2. The Rayleigh length is used to characterise the probe volume and corresponds to the half of the probe length. It also can be defined as half of the full-width half-maximum (FWHM) of the weighting function characterising the probe volume.</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">一种距离的表示方式，从传播方向的光束腰部开始，光束部分的截面积面积增加了2倍，或者截面半径增加了根号2倍。瑞利长度用于描述探测体积的特征，相当于探测体长度的一半。
-</t>
-        </is>
-      </c>
+          <t>Diameter of the laser beam</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Distanza lungo la direzione di propagazione del raggio laser fra il punto di minima apertura radiale del raggio laser al punto di apertura radiale doppia rispetto al valor minimo. La distanza di Rayleigh è usata per caratterizzare il volume della sonda di misurazione e corrisponde a metà della lunghezza della sonda di prova.</t>
+          <t>Diametro del raggio laser</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>Distancia, tomando como referencia la distancia focal del haz, en la dirección de propagación del mismo, donde el área de la sección del haz se duplica, o dicho de otro modo, el radio se incrementa en un factor raíz de 2. La longitud de Rayleigh se utiliza para caracterizar el volumen de la sonda y corresponde a la mitad de la longitud de muestreo.</t>
+          <t>Diámetro del rayo láser.</t>
         </is>
       </c>
       <c r="O215" t="inlineStr"/>
@@ -18395,11 +18447,7 @@
         </is>
       </c>
       <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>ontolidar:FullWidthAtHalfMaximum</t>
-        </is>
-      </c>
+      <c r="R215" t="inlineStr"/>
       <c r="S215" t="inlineStr"/>
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr"/>
@@ -18429,46 +18477,58 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ontolidar:BeamDiameter</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Beam diameter</t>
+          <t>Measurement height</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Diametro del fascio</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
+          <t>Altezza di misurazione</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Altura de medición</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>测量高度</t>
+        </is>
+      </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Diameter of the laser beam</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr"/>
+          <t xml:space="preserve">The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. </t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>气流流场重建生成风速的位置相距基准平面的标称高度。 通常用于计算激光雷达所测的垂直剖面测量值，以与风速计的点风速测量值进行比较。</t>
+        </is>
+      </c>
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Diametro del raggio laser</t>
+          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>Diámetro del rayo láser.</t>
+          <t>Altura nominal sobre el plano de referencia donde la reconstrucción del viento devuelve la velocidad del viento. Normalmente utilizado para lidar de viento de perfil vertical en comparación con medidas de viento procedentes de un anemómetro.</t>
         </is>
       </c>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>ontolidar:ProbeVolume</t>
+          <t>ontolidar:MeasurementSetup</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr"/>
@@ -18476,10 +18536,18 @@
       <c r="S216" t="inlineStr"/>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="inlineStr"/>
-      <c r="V216" t="inlineStr"/>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
+        </is>
+      </c>
       <c r="W216" t="inlineStr"/>
       <c r="X216" t="inlineStr"/>
-      <c r="Y216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>A menudo se utiliza para los lidares de viento de perfil vertical, para compararlos con las mediciones de velocidad del viento puntuales de un anemómetro.</t>
+        </is>
+      </c>
       <c r="Z216" t="inlineStr"/>
       <c r="AA216" t="inlineStr"/>
       <c r="AB216" t="inlineStr"/>
@@ -18502,58 +18570,62 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementHeight</t>
+          <t>ontolidar:DatumFeature</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Measurement height</t>
+          <t>Datum feature</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Altezza di misurazione</t>
+          <t>Elemento di riferimento</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Altura de medición</t>
+          <t>Característica de referencia</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>测量高度</t>
+          <t>基准特征</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t xml:space="preserve">The nominal height above the datum plane at which a windfield reconstruction process returns a wind speed. </t>
+          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>气流流场重建生成风速的位置相距基准平面的标称高度。 通常用于计算激光雷达所测的垂直剖面测量值，以与风速计的点风速测量值进行比较。</t>
+          <t>用于识别或定义测量高度的基准平面的主要特征(值)</t>
         </is>
       </c>
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Altezza nominale sopra il piano di riferimento. Ad essa viene associato il processo di ricostruzione del campo eolico e la misurazione della velocità del vento ad essa associata. Spesso usato nei lidar eolici ad asse verticale per confronto fra le misurazioni dal lidar e da anemometri tradizionali.</t>
+          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>Altura nominal sobre el plano de referencia donde la reconstrucción del viento devuelve la velocidad del viento. Normalmente utilizado para lidar de viento de perfil vertical en comparación con medidas de viento procedentes de un anemómetro.</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr"/>
+          <t>Característica específica utilizada para distinguir o definit el plano de referencia desde el que  se define la medida de altura.</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Reference marker</t>
+        </is>
+      </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementSetup</t>
+          <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr"/>
@@ -18561,18 +18633,10 @@
       <c r="S217" t="inlineStr"/>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr">
-        <is>
-          <t>Often used for vertically-profiling wind lidars for comparison to point wind speed measurements from an anemometer.</t>
-        </is>
-      </c>
+      <c r="V217" t="inlineStr"/>
       <c r="W217" t="inlineStr"/>
       <c r="X217" t="inlineStr"/>
-      <c r="Y217" t="inlineStr">
-        <is>
-          <t>A menudo se utiliza para los lidares de viento de perfil vertical, para compararlos con las mediciones de velocidad del viento puntuales de un anemómetro.</t>
-        </is>
-      </c>
+      <c r="Y217" t="inlineStr"/>
       <c r="Z217" t="inlineStr"/>
       <c r="AA217" t="inlineStr"/>
       <c r="AB217" t="inlineStr"/>
@@ -18595,73 +18659,85 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ontolidar:DatumFeature</t>
+          <t>ontolidar:DatumElevation</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Datum feature</t>
+          <t>Datum elevation</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Elemento di riferimento</t>
+          <t>Elevazione di riferimento</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Característica de referencia</t>
+          <t>Elevación de referencia</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>基准特征</t>
+          <t>基准高程</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>A distinguishing feature used to recognise or define the datum plane from which the measurement height is defined</t>
+          <t>The height of the datum plane above sea level</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>用于识别或定义测量高度的基准平面的主要特征(值)</t>
+          <t>基准面相距海平面的高度</t>
         </is>
       </c>
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un elemento ben distinguibile atto a riconoscere o definire un piano di riferimento per la definizione dell'altezza di misurazione. </t>
+          <t>Altezza di un piano di riferimento sul livello del mare.</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>Característica específica utilizada para distinguir o definit el plano de referencia desde el que  se define la medida de altura.</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr">
-        <is>
-          <t>Reference marker</t>
-        </is>
-      </c>
+          <t>Altura de plano de referencia sobre el nivel del mar.</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
-      <c r="Q218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>meters</t>
+        </is>
+      </c>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="inlineStr"/>
       <c r="T218" t="inlineStr"/>
       <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
+        </is>
+      </c>
       <c r="W218" t="inlineStr"/>
-      <c r="X218" t="inlineStr"/>
-      <c r="Y218" t="inlineStr"/>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>Il livello del mare dovrebbe essere definito progetto per progetto e farlo non è fra gli obiettivi di questo progetto.</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>El nivel del mar debe definirse según el proyecto y está fuera del alcance de este esquema.</t>
+        </is>
+      </c>
       <c r="Z218" t="inlineStr"/>
       <c r="AA218" t="inlineStr"/>
       <c r="AB218" t="inlineStr"/>
@@ -18684,85 +18760,73 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ontolidar:DatumElevation</t>
+          <t>ontolidar:DatumPlane</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Datum elevation</t>
+          <t>Datum plane</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Elevazione di riferimento</t>
+          <t>Piano di riferimento</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Elevación de referencia</t>
+          <t>Plano de referencia</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>基准高程</t>
+          <t>基准面</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>The height of the datum plane above sea level</t>
+          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>基准面相距海平面的高度</t>
+          <t>各种测量高度的参考水平面，例如激光雷达窗口、本地地面、平台顶面或其他高度值的参考。</t>
         </is>
       </c>
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Altezza di un piano di riferimento sul livello del mare.</t>
+          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>Altura de plano de referencia sobre el nivel del mar.</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr"/>
+          <t>Plano horizontal desde el que se definen la alrura de referencia. Típicamente ventana del lidar, plano local de tierra, parte superior de una plataforma u otra referencia.</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Reference height</t>
+        </is>
+      </c>
       <c r="P219" t="inlineStr">
         <is>
           <t>ontolidar:MeasurementHeight</t>
         </is>
       </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>meters</t>
-        </is>
-      </c>
+      <c r="Q219" t="inlineStr"/>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="inlineStr"/>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="inlineStr"/>
-      <c r="V219" t="inlineStr">
-        <is>
-          <t>Sea level should be defined on a project basis and is out of scope of this schema.</t>
-        </is>
-      </c>
+      <c r="V219" t="inlineStr"/>
       <c r="W219" t="inlineStr"/>
-      <c r="X219" t="inlineStr">
-        <is>
-          <t>Il livello del mare dovrebbe essere definito progetto per progetto e farlo non è fra gli obiettivi di questo progetto.</t>
-        </is>
-      </c>
-      <c r="Y219" t="inlineStr">
-        <is>
-          <t>El nivel del mar debe definirse según el proyecto y está fuera del alcance de este esquema.</t>
-        </is>
-      </c>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
       <c r="Z219" t="inlineStr"/>
       <c r="AA219" t="inlineStr"/>
       <c r="AB219" t="inlineStr"/>
@@ -18785,64 +18849,56 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ontolidar:DatumPlane</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Datum plane</t>
+          <t>Measurement principles</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Piano di riferimento</t>
+          <t>Principi di misurazione</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Plano de referencia</t>
+          <t>Principios de medición</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>基准面</t>
+          <t>测量原则</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>The horizontal plane from which the measurement height is defined, e.g., lidar window, local ground, a platform top surface, or other reference.</t>
+          <t>The means by which a lidar makes a measurement of the wind</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>各种测量高度的参考水平面，例如激光雷达窗口、本地地面、平台顶面或其他高度值的参考。</t>
+          <t>激光雷达的测风方法</t>
         </is>
       </c>
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Piano orizzontale di riferimento per la misurazione delle altezze locali. Tipicamente la finestra del lidar, il piano terra locale, la parte superiore di una piattaforma o un qualsiasi altro riferimento.</t>
+          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>Plano horizontal desde el que se definen la alrura de referencia. Típicamente ventana del lidar, plano local de tierra, parte superior de una plataforma u otra referencia.</t>
-        </is>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>Reference height</t>
-        </is>
-      </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>ontolidar:MeasurementHeight</t>
-        </is>
-      </c>
+          <t>Medios utilizados por el lidar para realizar medidas de viento.</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="inlineStr"/>
@@ -18874,65 +18930,77 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Emitter/ReceiverConfiguration</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Measurement principles</t>
+          <t>Emitter/receiver configuration</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Principi di misurazione</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Principios de medición</t>
-        </is>
-      </c>
+          <t>Configurazione dell'emettitore/ricevitore</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
-          <t>测量原则</t>
+          <t>发射器/接收器配置</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>The means by which a lidar makes a measurement of the wind</t>
+          <t>The positioning and arrangement of the emitter and receiver devices.</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>激光雷达的测风方法</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr"/>
+          <t>发射器和接收器在雷达中的安装和配置。</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Die Positionierung und Anordnung der Sende- und Empfangsgeräte.</t>
+        </is>
+      </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Assunti concettuali alla base della misurazione del vento da parte di un sistema lidar.</t>
+          <t>Il posizionamento e la disposizione dei dispositivi emettitore e ricevitore.</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>Medios utilizados por el lidar para realizar medidas de viento.</t>
+          <t>El posicionamiento y disposición de los dispositivos emisores y receptores.</t>
         </is>
       </c>
       <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="inlineStr"/>
-      <c r="V221" t="inlineStr"/>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>This can be monostatic (with biaxial or a coaxial sensor arrangement) or bistatic</t>
+        </is>
+      </c>
       <c r="W221" t="inlineStr"/>
       <c r="X221" t="inlineStr"/>
-      <c r="Y221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>Puede ser monoestático (con una configuración coaxial o biaxial) o biestático.</t>
+        </is>
+      </c>
       <c r="Z221" t="inlineStr"/>
       <c r="AA221" t="inlineStr"/>
       <c r="AB221" t="inlineStr"/>
@@ -18955,58 +19023,58 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ontolidar:Emitter/ReceiverConfiguration</t>
+          <t>ontolidar:Monostatic</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Emitter/receiver configuration</t>
+          <t>Monostatic</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Configurazione dell'emettitore/ricevitore</t>
+          <t>Monostatico</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
-          <t>发射器/接收器配置</t>
+          <t>单稳态</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>The positioning and arrangement of the emitter and receiver devices.</t>
+          <t xml:space="preserve">A lidar configuration where the transmitter and receiver are positioned in close proximity, the transmit and receive paths share common optics, and range determination is achieved by pulsed laser timing. </t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>发射器和接收器在雷达中的安装和配置。</t>
+          <t>一种激光雷达配置，发射器和接收器的位置很近，通过脉冲激光计时来确定范围。</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Die Positionierung und Anordnung der Sende- und Empfangsgeräte.</t>
+          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger in unmittelbarer Nähe positioniert sind und die Entfernungsbestimmung durch gepulstes Laser-Timing erreicht wird.</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Il posizionamento e la disposizione dei dispositivi emettitore e ricevitore.</t>
+          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono posizionati nelle immediate vicinanze e la determinazione della portata è ottenuta mediante la temporizzazione del laser pulsato.</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>El posicionamiento y disposición de los dispositivos emisores y receptores.</t>
+          <t>Una configuración lidar en la que el transmisor y el receptor se colocan en estrecha proximidad, y la determinación del alcance se logra mediante la temporización de láser pulsado.</t>
         </is>
       </c>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Emmiter/ReceiverConfiguration</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr"/>
@@ -19014,18 +19082,10 @@
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr">
-        <is>
-          <t>This can be monostatic (with biaxial or a coaxial sensor arrangement) or bistatic</t>
-        </is>
-      </c>
+      <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
       <c r="X222" t="inlineStr"/>
-      <c r="Y222" t="inlineStr">
-        <is>
-          <t>Puede ser monoestático (con una configuración coaxial o biaxial) o biestático.</t>
-        </is>
-      </c>
+      <c r="Y222" t="inlineStr"/>
       <c r="Z222" t="inlineStr"/>
       <c r="AA222" t="inlineStr"/>
       <c r="AB222" t="inlineStr"/>
@@ -19048,52 +19108,52 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ontolidar:Monostatic</t>
+          <t>ontolidar:Bistatic</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Monostatic</t>
+          <t>Bistatic</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Monostatico</t>
+          <t>Bistatico</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
-          <t>单稳态</t>
+          <t>双稳态</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t xml:space="preserve">A lidar configuration where the transmitter and receiver are positioned in close proximity, the transmit and receive paths share common optics, and range determination is achieved by pulsed laser timing. </t>
+          <t>A lidar configuration where the transmitter and receiver are arranged to have considerable spatial separation, and the transmit and receive paths do not share common optics.</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>一种激光雷达配置，发射器和接收器的位置很近，通过脉冲激光计时来确定范围。</t>
+          <t>一种激光雷达配置，发射器和接收器被安排成具有相当大的空间距离，导致光学探测的直接空间分辨率。</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger in unmittelbarer Nähe positioniert sind und die Entfernungsbestimmung durch gepulstes Laser-Timing erreicht wird.</t>
+          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger so angeordnet sind, dass sie eine beträchtliche räumliche Trennung aufweisen, was zu einer direkten räumlichen Auflösung bei der optischen Sondierung führt.</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono posizionati nelle immediate vicinanze e la determinazione della portata è ottenuta mediante la temporizzazione del laser pulsato.</t>
+          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono disposti in modo da avere una notevole separazione spaziale, portando a una risoluzione spaziale diretta nel sondaggio ottico.</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>Una configuración lidar en la que el transmisor y el receptor se colocan en estrecha proximidad, y la determinación del alcance se logra mediante la temporización de láser pulsado.</t>
+          <t>Una configuración lidar en la que el transmisor y el receptor están dispuestos para tener una separación espacial considerable, lo que lleva a una resolución espacial directa en el sondeo óptico.</t>
         </is>
       </c>
       <c r="O223" t="inlineStr"/>
@@ -19133,58 +19193,58 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ontolidar:Bistatic</t>
+          <t>ontolidar:Scattering</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Bistatic</t>
+          <t>Scattering</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Bistatico</t>
+          <t>Scattering</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
-          <t>双稳态</t>
+          <t>散射</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>A lidar configuration where the transmitter and receiver are arranged to have considerable spatial separation, and the transmit and receive paths do not share common optics.</t>
+          <t>The change in direction of motion of a particle or wave due to collision with another particle.</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>一种激光雷达配置，发射器和接收器被安排成具有相当大的空间距离，导致光学探测的直接空间分辨率。</t>
+          <t>一个粒子或波由于与另一个粒子的碰撞而改变运动方向。</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Eine Lidar-Konfiguration, bei der Sender und Empfänger so angeordnet sind, dass sie eine beträchtliche räumliche Trennung aufweisen, was zu einer direkten räumlichen Auflösung bei der optischen Sondierung führt.</t>
+          <t>Die Änderung der Bewegungsrichtung eines Teilchens oder einer Welle durch Kollision mit einem anderen Teilchen.</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Una configurazione lidar in cui il trasmettitore e il ricevitore sono disposti in modo da avere una notevole separazione spaziale, portando a una risoluzione spaziale diretta nel sondaggio ottico.</t>
+          <t>Il cambiamento nella direzione del movimento di una particella o di un'onda a causa della collisione con un'altra particella.</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>Una configuración lidar en la que el transmisor y el receptor están dispuestos para tener una separación espacial considerable, lo que lleva a una resolución espacial directa en el sondeo óptico.</t>
+          <t>El cambio en la dirección del movimiento de una partícula u onda debido a la colisión con otra partícula.</t>
         </is>
       </c>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>ontolidar:Emmiter/ReceiverConfiguration</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr"/>
@@ -19218,58 +19278,58 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ontolidar:Scattering</t>
+          <t>ontolidar:Raman</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Scattering</t>
+          <t>Raman</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Scattering</t>
+          <t>Raman</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
-          <t>散射</t>
+          <t>拉曼</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>The change in direction of motion of a particle or wave due to collision with another particle.</t>
+          <t>Inelastic scattering of light from objects whereby the scattered photon has a higher or lower energy than the incident photon.</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>一个粒子或波由于与另一个粒子的碰撞而改变运动方向。</t>
+          <t>光的非弹性散射，散射的光子比入射的光子有更高或更低的能量。</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Die Änderung der Bewegungsrichtung eines Teilchens oder einer Welle durch Kollision mit einem anderen Teilchen.</t>
+          <t>Inelastische Streuung von Licht an Objekten, wobei das gestreute Photon eine höhere oder niedrigere Energie hat als das einfallende Photon.</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Il cambiamento nella direzione del movimento di una particella o di un'onda a causa della collisione con un'altra particella.</t>
+          <t>Diffusione anelastica della luce da oggetti per cui il fotone diffuso ha un'energia superiore o inferiore rispetto al fotone incidente.</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>El cambio en la dirección del movimiento de una partícula u onda debido a la colisión con otra partícula.</t>
+          <t>Dispersión inelástica de la luz de los objetos en la que el fotón dispersado tiene una energía mayor o menor que el fotón incidente.</t>
         </is>
       </c>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:Scattering</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr"/>
@@ -19303,52 +19363,52 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ontolidar:Raman</t>
+          <t>ontolidar:Mie</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Raman</t>
+          <t>Mie</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Raman</t>
+          <t>Mie</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr">
         <is>
-          <t>拉曼</t>
+          <t>米氏</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Inelastic scattering of light from objects whereby the scattered photon has a higher or lower energy than the incident photon.</t>
+          <t>Elastic scattering of light where the scattering particles diameter is larger than about the wavelength of the incident light.</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>光的非弹性散射，散射的光子比入射的光子有更高或更低的能量。</t>
+          <t>光的弹性散射，散射粒子的直径大于入射光的波长。</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Inelastische Streuung von Licht an Objekten, wobei das gestreute Photon eine höhere oder niedrigere Energie hat als das einfallende Photon.</t>
+          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel größer ist als etwa die Wellenlänge des einfallenden Lichts.</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Diffusione anelastica della luce da oggetti per cui il fotone diffuso ha un'energia superiore o inferiore rispetto al fotone incidente.</t>
+          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è maggiore della lunghezza d'onda della luce incidente.</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>Dispersión inelástica de la luz de los objetos en la que el fotón dispersado tiene una energía mayor o menor que el fotón incidente.</t>
+          <t>Dispersión elástica de la luz donde el diámetro de las partículas dispersas es mayor que la longitud de onda de la luz incidente.</t>
         </is>
       </c>
       <c r="O226" t="inlineStr"/>
@@ -19388,52 +19448,52 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ontolidar:Mie</t>
+          <t>ontolidar:Rayleigh</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Mie</t>
+          <t>Rayleigh</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Mie</t>
+          <t>Raylegih</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
-          <t>米氏</t>
+          <t>瑞利</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Elastic scattering of light where the scattering particles diameter is larger than about the wavelength of the incident light.</t>
+          <t>Elastic scattering of light where the scattering particles diameter is less than about one-tenth of the wavelength of the incident light.</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>光的弹性散射，散射粒子的直径大于入射光的波长。</t>
+          <t>光的弹性散射，其中散射粒子的直径小于入射光波长的十分之一。</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel größer ist als etwa die Wellenlänge des einfallenden Lichts.</t>
+          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel kleiner als etwa ein Zehntel der Wellenlänge des einfallenden Lichts ist.</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è maggiore della lunghezza d'onda della luce incidente.</t>
+          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è inferiore a circa un decimo della lunghezza d'onda della luce incidente.</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>Dispersión elástica de la luz donde el diámetro de las partículas dispersas es mayor que la longitud de onda de la luz incidente.</t>
+          <t>Dispersión elástica de la luz en la que el diámetro de las partículas dispersas es inferior a aproximadamente una décima parte de la longitud de onda de la luz incidente.</t>
         </is>
       </c>
       <c r="O227" t="inlineStr"/>
@@ -19473,58 +19533,58 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ontolidar:Rayleigh</t>
+          <t>ontolidar:DetectionType</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Rayleigh</t>
+          <t>Detection type</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Raylegih</t>
+          <t>Tipo di rilevamento</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr">
         <is>
-          <t>瑞利</t>
+          <t>检测类型</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Elastic scattering of light where the scattering particles diameter is less than about one-tenth of the wavelength of the incident light.</t>
+          <t>The method by which the frequency shift of the scattered radiation is determined.</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>光的弹性散射，其中散射粒子的直径小于入射光波长的十分之一。</t>
+          <t>确定散射辐射的频移的方法。</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Elastische Lichtstreuung, bei der der Durchmesser der Streupartikel kleiner als etwa ein Zehntel der Wellenlänge des einfallenden Lichts ist.</t>
+          <t>Das Verfahren, mit dem die Frequenzverschiebung der gestreuten Strahlung bestimmt wird.</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Diffusione elastica della luce in cui il diametro delle particelle di dispersione è inferiore a circa un decimo della lunghezza d'onda della luce incidente.</t>
+          <t>Il metodo con cui viene determinato lo spostamento di frequenza della radiazione diffusa.</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>Dispersión elástica de la luz en la que el diámetro de las partículas dispersas es inferior a aproximadamente una décima parte de la longitud de onda de la luz incidente.</t>
+          <t>El método por el cual se determina el cambio de frecuencia de la radiación dispersada.</t>
         </is>
       </c>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>ontolidar:Scattering</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr"/>
@@ -19558,58 +19618,58 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ontolidar:DetectionType</t>
+          <t>ontolidar:Coherent</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Detection type</t>
+          <t>Coherent</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Tipo di rilevamento</t>
+          <t>Coerente</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr">
         <is>
-          <t>检测类型</t>
+          <t>相干</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>The method by which the frequency shift of the scattered radiation is determined.</t>
+          <t>A lidar system where the frequency shift is measured by comparing the return signal to a reference signal.</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>确定散射辐射的频移的方法。</t>
+          <t>一种激光雷达系统，其中频率偏移是通过比较返回信号和参考信号来测量的。</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Das Verfahren, mit dem die Frequenzverschiebung der gestreuten Strahlung bestimmt wird.</t>
+          <t>Ein Lidar-System, bei dem die Frequenzverschiebung gemessen wird, indem das Rücksignal mit einem Referenzsignal verglichen wird.</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Il metodo con cui viene determinato lo spostamento di frequenza della radiazione diffusa.</t>
+          <t>Un sistema lidar in cui lo spostamento di frequenza viene misurato confrontando il segnale di ritorno con un segnale di riferimento.</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>El método por el cual se determina el cambio de frecuencia de la radiación dispersada.</t>
+          <t>Sistema lidar donde el cambio de frecuencia se mide comparando la señal de retorno con una señal de referencia.</t>
         </is>
       </c>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:DetectionType</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr"/>
@@ -19643,55 +19703,59 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ontolidar:Coherent</t>
+          <t>ontolidar:Incoherent</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coherent</t>
+          <t>Incoherent</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Coerente</t>
+          <t>Incoerente</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
-          <t>相干</t>
+          <t>非相干</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A lidar system where the frequency shift is measured by comparing the return signal to a reference signal.</t>
+          <t>A lidar system where the return signal is filtered or resolved into its spectral components to obtain the frequency shift. Also known as time-of-flight lidar or direct-detection lidar.</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>一种激光雷达系统，其中频率偏移是通过比较返回信号和参考信号来测量的。</t>
+          <t>一种激光雷达系统，其中返回信号被过滤或分解成其光谱成分以获得频移。也被称为飞行时间激光雷达或直接探测激光雷达。</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Ein Lidar-System, bei dem die Frequenzverschiebung gemessen wird, indem das Rücksignal mit einem Referenzsignal verglichen wird.</t>
+          <t>Ein Lidar-System, bei dem das Rücksignal gefiltert oder in seine Spektralkomponenten aufgelöst wird, um die Frequenzverschiebung zu erhalten. Auch bekannt als Time-of-Flight-Lidar oder Direkterkennungs-Lidar.</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Un sistema lidar in cui lo spostamento di frequenza viene misurato confrontando il segnale di ritorno con un segnale di riferimento.</t>
+          <t>Un sistema lidar in cui il segnale di ritorno viene filtrato o risolto nelle sue componenti spettrali per ottenere lo spostamento di frequenza. Conosciuto anche come lidar del tempo di volo o lidar a rilevamento diretto.</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>Sistema lidar donde el cambio de frecuencia se mide comparando la señal de retorno con una señal de referencia.</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr"/>
+          <t>Sistema lidar donde la señal de retorno se filtra o se resuelve en sus componentes espectrales para obtener el cambio de frecuencia. También conocido como lidar de tiempo de vuelo o lidar de detección directa.</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="P230" t="inlineStr">
         <is>
           <t>ontolidar:DetectionType</t>
@@ -19728,59 +19792,39 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ontolidar:Incoherent</t>
+          <t>ontolidar:DetectionConfiguration</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Incoherent</t>
+          <t>Detection Configuration</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Incoerente</t>
+          <t>Configurazione</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
         <is>
-          <t>非相干</t>
+          <t>配置</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A lidar system where the return signal is filtered or resolved into its spectral components to obtain the frequency shift. Also known as time-of-flight lidar or direct-detection lidar.</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>一种激光雷达系统，其中返回信号被过滤或分解成其光谱成分以获得频移。也被称为飞行时间激光雷达或直接探测激光雷达。</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Ein Lidar-System, bei dem das Rücksignal gefiltert oder in seine Spektralkomponenten aufgelöst wird, um die Frequenzverschiebung zu erhalten. Auch bekannt als Time-of-Flight-Lidar oder Direkterkennungs-Lidar.</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>Un sistema lidar in cui il segnale di ritorno viene filtrato o risolto nelle sue componenti spettrali per ottenere lo spostamento di frequenza. Conosciuto anche come lidar del tempo di volo o lidar a rilevamento diretto.</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>Sistema lidar donde la señal de retorno se filtra o se resuelve en sus componentes espectrales para obtener el cambio de frecuencia. También conocido como lidar de tiempo de vuelo o lidar de detección directa.</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
+          <t>The process of detecting a radio wave by the aid of a locally generated current or wave of exactly the same frequency as that of the incoming wave. A signal frequency that is created by combining or mixing two other frequencies using a signal processing technique called heterodyning.</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr">
         <is>
           <t>ontolidar:DetectionType</t>
@@ -19817,42 +19861,58 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ontolidar:DetectionConfiguration</t>
+          <t>ontolidar:Homodyne</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Detection Configuration</t>
+          <t>Homodyne</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Configurazione</t>
+          <t>Omodinamico</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
         <is>
-          <t>配置</t>
+          <t>同位素</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>The process of detecting a radio wave by the aid of a locally generated current or wave of exactly the same frequency as that of the incoming wave. A signal frequency that is created by combining or mixing two other frequencies using a signal processing technique called heterodyning.</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr"/>
+          <t>A frequency shift detection method. The lidar directly downmixes the reference and the backscattered signals retrieving a (Doppler) frequency shift. Only the magnitude of the Doppler shift can be known, but not the sign. This means that we can infer only the module (and not the direction) of the wind speed vector.</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>一种激光雷达检测方法，其中参考辐射在调制过程之前来自与信号相同的来源。</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von derselben Quelle stammt wie das Signal.</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata dalla stessa sorgente del segnale prima del processo di modulazione.</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Un método de detección de desplazamiento de frecuencia. El lidar mezcla directamente la señal de referencia y la retrodispersada, obteniendo un desplazamiento de frecuencia (Doppler). Sólo se puede conocer la magnitud del desplazamiento de la frecuencia, pero no la dirección del mismo. Esto significa que sólo podemos inferir el módulo (y no la dirección) del vector de velocidad del viento.</t>
+        </is>
+      </c>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>ontolidar:DetectionType</t>
+          <t>ontolidar:Configuration</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr"/>
@@ -19886,52 +19946,52 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ontolidar:Homodyne</t>
+          <t>ontolidar:Heterodyne</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Homodyne</t>
+          <t>Heterodyne</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Omodinamico</t>
+          <t>Eterodinamico</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
-          <t>同位素</t>
+          <t>异频雷达</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>A frequency shift detection method. The lidar directly downmixes the reference and the backscattered signals retrieving a (Doppler) frequency shift. Only the magnitude of the Doppler shift can be known, but not the sign. This means that we can infer only the module (and not the direction) of the wind speed vector.</t>
+          <t>A frequency shift detection method. Prior to the dowmix of the original and the backscattered signals, the original one is frequency-shifted. This allows to retrieve not only the magnitude of the frequency shift between the original and the backscattered signals, but also the direction of the change. This means that we can infer both module and direction of the wind speed vector.</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>一种激光雷达检测方法，其中参考辐射在调制过程之前来自与信号相同的来源。</t>
+          <t>一种激光雷达检测方法，其中参考辐射在调制过程之前来自与信号不同的来源。</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von derselben Quelle stammt wie das Signal.</t>
+          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von einer anderen Quelle als das Signal stammt.</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata dalla stessa sorgente del segnale prima del processo di modulazione.</t>
+          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata da una sorgente diversa come il segnale prima del processo di modulazione.</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>Un método de detección de desplazamiento de frecuencia. El lidar mezcla directamente la señal de referencia y la retrodispersada, obteniendo un desplazamiento de frecuencia (Doppler). Sólo se puede conocer la magnitud del desplazamiento de la frecuencia, pero no la dirección del mismo. Esto significa que sólo podemos inferir el módulo (y no la dirección) del vector de velocidad del viento.</t>
+          <t>Un método de detección de desplazamiento de frecuencia. Antes de la mezcla de las señales original y retrodispersada, la original se desplaza en frecuencia. Esto permite obtener no sólo la magnitud del cambio de frecuencia entre la señal original y la retrodispersa, sino también la dirección del cambio. Esto significa que podemos inferir tanto el módulo como la dirección del vector de velocidad del viento.</t>
         </is>
       </c>
       <c r="O233" t="inlineStr"/>
@@ -19971,58 +20031,58 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ontolidar:Heterodyne</t>
+          <t>ontolidar:WindSpeedEvaluation</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Heterodyne</t>
+          <t>Wind speed evaluation</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Eterodinamico</t>
+          <t>Valutazione della velocità del vento</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
         <is>
-          <t>异频雷达</t>
+          <t>风速评估</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>A frequency shift detection method. Prior to the dowmix of the original and the backscattered signals, the original one is frequency-shifted. This allows to retrieve not only the magnitude of the frequency shift between the original and the backscattered signals, but also the direction of the change. This means that we can infer both module and direction of the wind speed vector.</t>
+          <t>Calculation of the wind velocity using a wind field reconstruction method.</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>一种激光雷达检测方法，其中参考辐射在调制过程之前来自与信号不同的来源。</t>
+          <t>使用气流(风)流场重建方法计算风速。</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Ein Lidar-Detektionsverfahren, bei dem die Referenzstrahlung vor dem Modulationsprozess von einer anderen Quelle als das Signal stammt.</t>
+          <t>Berechnung der Windgeschwindigkeit mit einem Windfeld-Rekonstruktionsverfahren.</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Un metodo di rilevamento lidar in cui la radiazione di riferimento è derivata da una sorgente diversa come il segnale prima del processo di modulazione.</t>
+          <t>Calcolo della velocità del vento mediante un metodo di ricostruzione del campo eolico.</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>Un método de detección de desplazamiento de frecuencia. Antes de la mezcla de las señales original y retrodispersada, la original se desplaza en frecuencia. Esto permite obtener no sólo la magnitud del cambio de frecuencia entre la señal original y la retrodispersa, sino también la dirección del cambio. Esto significa que podemos inferir tanto el módulo como la dirección del vector de velocidad del viento.</t>
+          <t>Cálculo de la velocidad del viento mediante un método de reconstrucción del campo de viento.</t>
         </is>
       </c>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>ontolidar:Configuration</t>
+          <t>ontolidar:MeasurementPrinciples</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr"/>
@@ -20056,58 +20116,54 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ontolidar:WindSpeedEvaluation</t>
+          <t>ontolidar:ParticleTracking</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Wind speed evaluation</t>
+          <t>Particle tracking</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Valutazione della velocità del vento</t>
+          <t>Tracciamento di particella</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr">
         <is>
-          <t>风速评估</t>
+          <t>粒子跟踪</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Calculation of the wind velocity using a wind field reconstruction method.</t>
+          <t>Particle tracking as a method where the lidar beam follows the particle in the flow (refer to Langrangian statistics).</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>使用气流(风)流场重建方法计算风速。</t>
-        </is>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Berechnung der Windgeschwindigkeit mit einem Windfeld-Rekonstruktionsverfahren.</t>
-        </is>
-      </c>
+          <t>一种气流流场模型：粒子跟踪作为一种应用，激光雷达光束在流动中跟随粒子（参考Langrangian统计）。</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Calcolo della velocità del vento mediante un metodo di ricostruzione del campo eolico.</t>
+          <t>Applicazione dove il raggio laser segue le singole prticelle nel loro moto nell'aria (statistica Lagrangiana)</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>Cálculo de la velocidad del viento mediante un método de reconstrucción del campo de viento.</t>
+          <t>Seguimiento de partículas como método en la que el haz lidar sigue a la partícula en el flujo.</t>
         </is>
       </c>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:WindSpeedEvaluation</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr"/>
@@ -20141,48 +20197,48 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ontolidar:ParticleTracking</t>
+          <t>ontolidar:CrossCorrelation</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Particle tracking</t>
+          <t>Cross-correlation</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Tracciamento di particella</t>
+          <t>Correlazione incrociata</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr">
         <is>
-          <t>粒子跟踪</t>
+          <t>交叉相关</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Particle tracking as a method where the lidar beam follows the particle in the flow (refer to Langrangian statistics).</t>
+          <t>Cross-correlation as a method to describe turbulence in the field using statistics.</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>一种气流流场模型：粒子跟踪作为一种应用，激光雷达光束在流动中跟随粒子（参考Langrangian统计）。</t>
+          <t>一种气流流场模型：交叉相关作为一个术语，用统计学描述流场中的湍流情况</t>
         </is>
       </c>
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Applicazione dove il raggio laser segue le singole prticelle nel loro moto nell'aria (statistica Lagrangiana)</t>
+          <t xml:space="preserve">Metodo per calcolare la turbolenza con metodi prettamente statistici </t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>Seguimiento de partículas como método en la que el haz lidar sigue a la partícula en el flujo.</t>
+          <t>Correlación cruzada como método para describir la turbulencia en el campo utilizando la estadística.</t>
         </is>
       </c>
       <c r="O236" t="inlineStr"/>
@@ -20222,56 +20278,36 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ontolidar:CrossCorrelation</t>
+          <t>ontolidar:DopplerPeak</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cross-correlation</t>
+          <t>Doppler peak</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Correlazione incrociata</t>
-        </is>
-      </c>
+      <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>交叉相关</t>
-        </is>
-      </c>
+      <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Cross-correlation as a method to describe turbulence in the field using statistics.</t>
-        </is>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>一种气流流场模型：交叉相关作为一个术语，用统计学描述流场中的湍流情况</t>
-        </is>
-      </c>
+          <t>Doppler peak as a method to describe the amplitude of the wind speed asumming that the aerosols flow at the same speed as the wind.</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Metodo per calcolare la turbolenza con metodi prettamente statistici </t>
-        </is>
-      </c>
+      <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>Correlación cruzada como método para describir la turbulencia en el campo utilizando la estadística.</t>
+          <t>Pico Doppler como método para describir la amplitud de la velocidad del viento asumiendo que los aerosoles se desplazan a la misma velocidad que el viento.</t>
         </is>
       </c>
       <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr">
-        <is>
-          <t>ontolidar:WindSpeedEvaluation</t>
-        </is>
-      </c>
+      <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr"/>
       <c r="R237" t="inlineStr"/>
       <c r="S237" t="inlineStr"/>
@@ -20303,36 +20339,60 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ontolidar:DopplerPeak</t>
+          <t>ontolidar:LineOfSight</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Doppler peak</t>
+          <t>Line of sight</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Linea di visuale</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Línea de visión</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>光束视线（视向线）</t>
+        </is>
+      </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Doppler peak as a method to describe the amplitude of the wind speed asumming that the aerosols flow at the same speed as the wind.</t>
-        </is>
-      </c>
-      <c r="K238" t="inlineStr"/>
+          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>激光雷达信号沿其发射和反射（以被系统识别）的路径。</t>
+        </is>
+      </c>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>Pico Doppler como método para describir la amplitud de la velocidad del viento asumiendo que los aerosoles se desplazan a la misma velocidad que el viento.</t>
+          <t>Línea a lo largo de la cual las señales lidar son emitidas y retrodispersadas para ser detectadas por el sistema.</t>
         </is>
       </c>
       <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>ontolidar:MeasurementPrinciples</t>
+        </is>
+      </c>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="inlineStr"/>
@@ -20364,52 +20424,60 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ontolidar:LineOfSight</t>
+          <t>ontolidar:LidarSampleRate</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Line of sight</t>
+          <t>Lidar sample rate</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>LidarSampleRate</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Linea di visuale</t>
+          <t>Frequenza di campionamento del lidar</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Línea de visión</t>
+          <t>Tasa de muestreo lidar</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>光束视线（视向线）</t>
+          <t>激光雷达采样率</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>The line along which lidar signals are emitted and backscattered to be detected by the system.</t>
+          <t>Sample rate frequency. Number of samples per second.</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>激光雷达信号沿其发射和反射（以被系统识别）的路径。</t>
+          <t>采样率频率。每秒采样的样本数。</t>
         </is>
       </c>
       <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr">
         <is>
-          <t>La direzione lungo cui il raggio laser del lidar è emesso e riflesso dall'atmosfera verso il lidar.</t>
+          <t>Frequenza di campionamento. Numero di misurazioni al secondo.</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>Línea a lo largo de la cual las señales lidar son emitidas y retrodispersadas para ser detectadas por el sistema.</t>
+          <t>Frecuencia de medición lidar. Número de muestras por segundo.</t>
         </is>
       </c>
       <c r="O239" t="inlineStr"/>
@@ -20449,66 +20517,62 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ontolidar:LidarSampleRate</t>
+          <t>ontolidar:VerticalSlice</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Lidar sample rate</t>
+          <t>Vertical slice</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>LidarSampleRate</t>
-        </is>
-      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Frequenza di campionamento del lidar</t>
+          <t>Geometria a taglio verticale</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Tasa de muestreo lidar</t>
+          <t>Geometría de corte vertical</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>激光雷达采样率</t>
+          <t>垂直切面扫描法</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Sample rate frequency. Number of samples per second.</t>
+          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>采样率频率。每秒采样的样本数。</t>
+          <t>通过改变仰角而非方位角，可以在光束扫过垂直切面的情况下进行扫描。这些扫描也称为范围高度指示器 (RHI) 扫描。该种扫描方式可用于观察采样横截面中的流场详细信息</t>
         </is>
       </c>
       <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Frequenza di campionamento. Numero di misurazioni al secondo.</t>
+          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>Frecuencia de medición lidar. Número de muestras por segundo.</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr"/>
+          <t>Geometría de medida en la que el haz realiza un barrido en sentido vertical variando el ángulo de elevación pero no el ángulo de azimut. Estos barridos también se conocen como RHI (del inglés, range-high-indicator). Esta geometría de escaneo puede utilizarse para observar los detalles del flujo en la superficie de la sección transversal muestreada por el escaneo.</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Range-height indicator, RHI</t>
+        </is>
+      </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>ontolidar:MeasurementPrinciples</t>
+          <t>ontolidar:VariableElevationScan</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr"/>
@@ -20542,62 +20606,58 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ontolidar:VerticalSlice</t>
+          <t>ontolidar:SequentialScan</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Vertical slice</t>
+          <t>Sequential scan</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Geometria a taglio verticale</t>
+          <t>Scansione sequenziale</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Geometría de corte vertical</t>
+          <t>Escaneo secuencial</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>垂直切面扫描法</t>
+          <t>顺序扫描扫描法</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Scans can be made where the beam is swept through a vertical slice by varying the elevation angle but not the azimuth angle. These scans are also known as range-height-indicator (RHI) scans. This scan geometry may be used to look at details in the flow in the cross-sectional surface sampled by the scan</t>
+          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>通过改变仰角而非方位角，可以在光束扫过垂直切面的情况下进行扫描。这些扫描也称为范围高度指示器 (RHI) 扫描。该种扫描方式可用于观察采样横截面中的流场详细信息</t>
+          <t>在顺序扫描中，由同一个设备依次执行简单和/或复合扫描，以捕捉流场特性。</t>
         </is>
       </c>
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Una geometria di misurazione dove il fascio laser è mosso verticalmente variando solo l'angolo di elevazione ma non l'angolo azimutale. Questo tipo di scansioni sono anche note come scansioni RHI - range-height-indicator. E' comune utilizzare questo tipo di scansioni per osservare dettagli nel flusso nella sezione trasversa al piano di scansione.</t>
+          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>Geometría de medida en la que el haz realiza un barrido en sentido vertical variando el ángulo de elevación pero no el ángulo de azimut. Estos barridos también se conocen como RHI (del inglés, range-high-indicator). Esta geometría de escaneo puede utilizarse para observar los detalles del flujo en la superficie de la sección transversal muestreada por el escaneo.</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>Range-height indicator, RHI</t>
-        </is>
-      </c>
+          <t>En un barrido secuencial, se ejecutan escaneos simples y/o compuestos, uno tras otro, realizados por el mismo dispositivo para revelar las características del flujo.</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr">
         <is>
-          <t>ontolidar:VariableElevationScan</t>
+          <t>ontolidar:CompoundScan</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr"/>
@@ -20605,10 +20665,22 @@
       <c r="S241" t="inlineStr"/>
       <c r="T241" t="inlineStr"/>
       <c r="U241" t="inlineStr"/>
-      <c r="V241" t="inlineStr"/>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="W241" t="inlineStr"/>
-      <c r="X241" t="inlineStr"/>
-      <c r="Y241" t="inlineStr"/>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>La taxonomía de la geometría de escaneo se basa en la Figura 3 en NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
+        </is>
+      </c>
       <c r="Z241" t="inlineStr"/>
       <c r="AA241" t="inlineStr"/>
       <c r="AB241" t="inlineStr"/>
@@ -20631,58 +20703,62 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ontolidar:SequentialScan</t>
+          <t>ontolidar:ConvergentScan</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Sequential scan</t>
+          <t>Convergent scan</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Scansione sequenziale</t>
+          <t>Scansione convergente</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Escaneo secuencial</t>
+          <t>Escaneo convergente</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>顺序扫描扫描法</t>
+          <t>聚合扫描</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>In a sequential scan, simple and/or compound scans are executed one after another by the same device to reveal flow characteristics.</t>
+          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>在顺序扫描中，由同一个设备依次执行简单和/或复合扫描，以捕捉流场特性。</t>
+          <t>一种涉及多个激光雷达单元的测量配置，这些单元以协调和同步的方式运行，使其光束在连续的探测体积中汇聚并相交。如果使用三个或更多激光雷达单元，则可以在探测体长度、采样间隔和扫描规定的空间内表征光束相交处的探测体积中的风速矢量。</t>
         </is>
       </c>
       <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr">
         <is>
-          <t>In una scansione sequenziale, scansioni semplici e/o combinate, sono eseguite in sequenza una dopo l'altra per ricostruire le caratteristiche del flusso ventoso.</t>
+          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>En un barrido secuencial, se ejecutan escaneos simples y/o compuestos, uno tras otro, realizados por el mismo dispositivo para revelar las características del flujo.</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr"/>
+          <t>Una configuración de medición que incluye múltiples unidades lidar que funcionan de forma coordinada y sincronizada para que sus haces converjan y se crucen en una sucesión de volúmenes de muestreo. Si se utilizan tres o más unidades lidar, es posible caracterizar el vector de la velocidad del viento en el volumen de muestreo donde se cruzan los haces, dentro de las limitaciones prescritas por la longitud del muestreo, el intervalo de muestreo y la geometría de escaneo.</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Convergent beam, convergent-beam lidar</t>
+        </is>
+      </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>ontolidar:CompoundScan</t>
+          <t>ontolidar:MultiLidar</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr"/>
@@ -20690,22 +20766,10 @@
       <c r="S242" t="inlineStr"/>
       <c r="T242" t="inlineStr"/>
       <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr">
-        <is>
-          <t>The scanning geometry taxonomy is based on Figure 3 in NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="V242" t="inlineStr"/>
       <c r="W242" t="inlineStr"/>
-      <c r="X242" t="inlineStr">
-        <is>
-          <t>La tassonomia della geometria di scansione è basata sulla figura 3 di NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
-      <c r="Y242" t="inlineStr">
-        <is>
-          <t>La taxonomía de la geometría de escaneo se basa en la Figura 3 en NREL/TP-5000-64634 https://www.nrel.gov/docs/fy16osti/64634.pdf</t>
-        </is>
-      </c>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr"/>
       <c r="Z242" t="inlineStr"/>
       <c r="AA242" t="inlineStr"/>
       <c r="AB242" t="inlineStr"/>
@@ -20728,64 +20792,56 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ontolidar:ConvergentScan</t>
+          <t>ontolidar:Parameters</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Convergent scan</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Scansione convergente</t>
+          <t>Parametri</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Escaneo convergente</t>
+          <t>Parámetros</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>聚合扫描</t>
+          <t>参数</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>A measurement configuration involving multiple lidar units which are operated in a coordinated and synchronised manner so that their beams converge and intersect at a succession of probe volumes. If three or more lidar units are used, it is possible to characterise the wind velocity vector in the probe volume where the beams intersect within the limitations prescribed by the probe length, sampling interval, and scan geometry.</t>
+          <t>Wind lidar-specific parameters.</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>一种涉及多个激光雷达单元的测量配置，这些单元以协调和同步的方式运行，使其光束在连续的探测体积中汇聚并相交。如果使用三个或更多激光雷达单元，则可以在探测体长度、采样间隔和扫描规定的空间内表征光束相交处的探测体积中的风速矢量。</t>
+          <t>测风激光雷达特定参数。</t>
         </is>
       </c>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Una configurazione di misurazione che coinvolge più unità lidar operate in un modo coordinato e sincronizzato in modo tale che i loro fasci convergano e si intersechino in specifici punti dello spazio. Se sono utilizzate tre o più unità lidar, è possibile ricostruire integralmente il vettore velocità del vento nelle aree dove i fasci laser si intersecano, fatto salvi i limiti definiti dalla lunghezza dell'area sensivile, l'intervallo di campionamento e la geometria di misurazione.</t>
+          <t>Specifici parametri del lidar.</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>Una configuración de medición que incluye múltiples unidades lidar que funcionan de forma coordinada y sincronizada para que sus haces converjan y se crucen en una sucesión de volúmenes de muestreo. Si se utilizan tres o más unidades lidar, es posible caracterizar el vector de la velocidad del viento en el volumen de muestreo donde se cruzan los haces, dentro de las limitaciones prescritas por la longitud del muestreo, el intervalo de muestreo y la geometría de escaneo.</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>Convergent beam, convergent-beam lidar</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>ontolidar:MultiLidar</t>
-        </is>
-      </c>
+          <t>Parámetros específicos del lidar de viento.</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="inlineStr"/>
@@ -20817,65 +20873,85 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ontolidar:Parameters</t>
+          <t>ontolidar:CarrierToNoiseRatio</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>Carrier to noise ratio</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Parametri</t>
+          <t>Rapporto portante-rumore</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Parámetros</t>
+          <t>Relación portadora-ruido</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>参数</t>
+          <t>载噪比</t>
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Wind lidar-specific parameters.</t>
+          <t>In a modulated signal (i.e. the pulse), the carrier to noise ratio is the ratio of the signal power to the signal noise power.</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>测风激光雷达特定参数。</t>
+          <t>在调制信号中，载波噪声比是信号功率与信号噪声功率的比值。</t>
         </is>
       </c>
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Specifici parametri del lidar.</t>
+          <t>Una misura della forza del segnale di ritorno al lidar.</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>Parámetros específicos del lidar de viento.</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
+          <t>En una señal modulada, CNR es el cociente entre la potencia de la señal y la potencia del ruido de es señal.</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>ontolidar:Parameters</t>
+        </is>
+      </c>
       <c r="Q244" t="inlineStr"/>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="inlineStr"/>
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr"/>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>A measure of lidar return signal quality. Is the signal to noise ratio of the modulated signal sent to probe the atmosphere and defines the lidar data availability. If CNR is below a certain threshold the information carried by the backscattered (modulated) light is discarded. Often used interchangably with SNR.</t>
+        </is>
+      </c>
       <c r="W244" t="inlineStr"/>
-      <c r="X244" t="inlineStr"/>
-      <c r="Y244" t="inlineStr"/>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>Spesso usato in modo interscambiabile con SNR</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>Una medida de la calidad de la señal de retorno del lidar. Es la relación señal/ruido de la señal modulada enviada para sondear la atmósfera y define la disponibilidad de los datos lidar. Si el CNR está por debajo de un determinado umbral, la información transportada por la luz retrodispersada (modulada) se descarta. A menudo se utiliza de forma intercambiable con SNR.</t>
+        </is>
+      </c>
       <c r="Z244" t="inlineStr"/>
       <c r="AA244" t="inlineStr"/>
       <c r="AB244" t="inlineStr"/>
@@ -20898,41 +20974,41 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ontolidar:CarrierToNoiseRatio</t>
+          <t>ontolidar:SignalToNoiseRatio</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Carrier to noise ratio</t>
+          <t>Signal to noise ratio</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Rapporto portante-rumore</t>
+          <t>Rapporto segnale-rumore</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Relación portadora-ruido</t>
+          <t>Relación señal-ruido</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>载噪比</t>
+          <t>信噪比</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>In a modulated signal (i.e. the pulse), the carrier to noise ratio is the ratio of the signal power to the signal noise power.</t>
+          <t>The ratio of signal power to signal noise power before modulation.</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>在调制信号中，载波噪声比是信号功率与信号噪声功率的比值。</t>
+          <t>信号功率与信号噪声功率之比。</t>
         </is>
       </c>
       <c r="L245" t="inlineStr"/>
@@ -20943,12 +21019,12 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>Medida de la fuerza de la señal de retorno.</t>
+          <t>SNR es el cociente entre la potencia de la señaly la potencia del ruido de esa señal.</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>CNR</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
@@ -20963,18 +21039,18 @@
       <c r="U245" t="inlineStr"/>
       <c r="V245" t="inlineStr">
         <is>
-          <t>A measure of lidar return signal quality. Is the signal to noise ratio of the modulated signal sent to probe the atmosphere and defines the lidar data availability. If CNR is below a certain threshold the information carried by the backscattered (modulated) light is discarded. Often used interchangably with SNR.</t>
+          <t>Often used interchangably with CNR.</t>
         </is>
       </c>
       <c r="W245" t="inlineStr"/>
       <c r="X245" t="inlineStr">
         <is>
-          <t>Spesso usato in modo interscambiabile con SNR</t>
+          <t>Spesso usato in modo interscambiabile con CNR</t>
         </is>
       </c>
       <c r="Y245" t="inlineStr">
         <is>
-          <t>Una medida de la calidad de la señal de retorno del lidar. Es la relación señal/ruido de la señal modulada enviada para sondear la atmósfera y define la disponibilidad de los datos lidar. Si el CNR está por debajo de un determinado umbral, la información transportada por la luz retrodispersada (modulada) se descarta. A menudo se utiliza de forma intercambiable con SNR.</t>
+          <t>A menudo se usa de forma intercambiable con CNR.</t>
         </is>
       </c>
       <c r="Z245" t="inlineStr"/>
@@ -20999,85 +21075,61 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ontolidar:SignalToNoiseRatio</t>
+          <t>ontolidar:DataFormats</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Signal to noise ratio</t>
+          <t>Data formats</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Rapporto segnale-rumore</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Relación señal-ruido</t>
-        </is>
-      </c>
+          <t>Formato dei dati</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr">
         <is>
-          <t>信噪比</t>
+          <t>数据格式</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>The ratio of signal power to signal noise power before modulation.</t>
+          <t>Format of the lidar data file. It is generally common across products from the same lidar manufacturer.</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>信号功率与信号噪声功率之比。</t>
+          <t>激光雷达数据文件的格式。一般来说，它在同一激光雷达制造商的产品中是通用的。</t>
         </is>
       </c>
       <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Una misura della forza del segnale di ritorno al lidar.</t>
+          <t>Formato del file dati prodotto dal lidar. Questo è tipicamente comune per tutti i tipi di lidars prodotti dallo stesso costruttore.</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>Medida de la fuerza de la señal de retorno.</t>
-        </is>
-      </c>
-      <c r="O246" t="inlineStr">
-        <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="P246" t="inlineStr">
-        <is>
-          <t>ontolidar:Parameters</t>
-        </is>
-      </c>
+          <t>Formato de datos lidar. Esto suele ser común para todo tipo de lidares desarrollados por un mismo fabricante.</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
       <c r="Q246" t="inlineStr"/>
       <c r="R246" t="inlineStr"/>
       <c r="S246" t="inlineStr"/>
       <c r="T246" t="inlineStr"/>
       <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr">
-        <is>
-          <t>Often used interchangably with CNR.</t>
-        </is>
-      </c>
+      <c r="V246" t="inlineStr"/>
       <c r="W246" t="inlineStr"/>
-      <c r="X246" t="inlineStr">
-        <is>
-          <t>Spesso usato in modo interscambiabile con CNR</t>
-        </is>
-      </c>
-      <c r="Y246" t="inlineStr">
-        <is>
-          <t>A menudo se usa de forma intercambiable con CNR.</t>
-        </is>
-      </c>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
       <c r="Z246" t="inlineStr"/>
       <c r="AA246" t="inlineStr"/>
       <c r="AB246" t="inlineStr"/>
@@ -21100,52 +21152,56 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ontolidar:DataFormats</t>
+          <t>ontolidar:Leosphere</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Data formats</t>
+          <t>Leosphere</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Formato dei dati</t>
+          <t>Leosphere</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>数据格式</t>
+          <t>Leosphere</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Format of the lidar data file. It is generally common across products from the same lidar manufacturer.</t>
+          <t>Common data format for the products of the company Leosphere.</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>激光雷达数据文件的格式。一般来说，它在同一激光雷达制造商的产品中是通用的。</t>
+          <t>Leosphere公司产品的通用数据格式。</t>
         </is>
       </c>
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Formato del file dati prodotto dal lidar. Questo è tipicamente comune per tutti i tipi di lidars prodotti dallo stesso costruttore.</t>
+          <t>Formato dati comune per i prodotti dell'azienda Leosphere.</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>Formato de datos lidar. Esto suele ser común para todo tipo de lidares desarrollados por un mismo fabricante.</t>
+          <t>Formato de datos común para productos de la compañía Leosphere.</t>
         </is>
       </c>
       <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>ontolidar:DataFormats</t>
+        </is>
+      </c>
       <c r="Q247" t="inlineStr"/>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="inlineStr"/>
@@ -21177,43 +21233,43 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ontolidar:Leosphere</t>
+          <t>ontolidar:Zx</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Leosphere</t>
+          <t>ZX</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Leosphere</t>
+          <t>ZX</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Leosphere</t>
+          <t>ZX</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Common data format for the products of the company Leosphere.</t>
+          <t>Common data format for the products of the company ZX lidars (.zph extension).</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Leosphere公司产品的通用数据格式。</t>
+          <t>ZX激光雷达公司产品的通用数据格式（.zph扩展）。</t>
         </is>
       </c>
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Formato dati comune per i prodotti dell'azienda Leosphere.</t>
+          <t>Formato dati comune per i prodotti dell'azienda ZX lidars (estensione .zph).</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -21258,48 +21314,48 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ontolidar:Zx</t>
+          <t>ontolidar:HaloPhotonics</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ZX</t>
+          <t>Halo photonics</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>ZX</t>
+          <t>Halo photonics</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
-          <t>ZX</t>
+          <t>Halo photonics</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Common data format for the products of the company ZX lidars (.zph extension).</t>
+          <t>Common data format for the products of the company Halo photonics.</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>ZX激光雷达公司产品的通用数据格式（.zph扩展）。</t>
+          <t>Halo photonics公司产品的通用数据格式。</t>
         </is>
       </c>
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Formato dati comune per i prodotti dell'azienda ZX lidars (estensione .zph).</t>
+          <t>Formato dati comune per i prodotti dell'azienda Halo photonics.</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>Formato de datos común para productos de la compañía Leosphere.</t>
+          <t>Formato de datos común para productos de la compañía Halo photonics.</t>
         </is>
       </c>
       <c r="O249" t="inlineStr"/>
@@ -21339,48 +21395,48 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ontolidar:HaloPhotonics</t>
+          <t>ontolidar:EWindlidar</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Halo photonics</t>
+          <t>e-windLidar</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Halo photonics</t>
+          <t>e-windLidar</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Halo photonics</t>
+          <t>e-windLidar</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Common data format for the products of the company Halo photonics.</t>
+          <t xml:space="preserve">An attempt to standardize wind lidar data formats and making them to follow the FAIR principle (Findable, Accessible, Interoperable, Reusable). </t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Halo photonics公司产品的通用数据格式。</t>
+          <t>测风雷达数据的一种标准化格式，并使其遵循FAIR（Findable, Accessible, Interoperable, Reusable）原则。</t>
         </is>
       </c>
       <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Formato dati comune per i prodotti dell'azienda Halo photonics.</t>
+          <t>Un tentativo di standardizzare il formato dati dei lidar e di costruirlo secondo i principi FAIR (dati ricercabili, accessibili, interoperabili e riutilizzabili).</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>Formato de datos común para productos de la compañía Halo photonics.</t>
+          <t>Intento de estandarización de los datos de los lidares de viento construidos según el principio FAIR (datos al alcance (Findable), accesibles (Accesible), interoperables (Interoperable) y reproducibles (reproducible)).</t>
         </is>
       </c>
       <c r="O250" t="inlineStr"/>
@@ -21394,10 +21450,22 @@
       <c r="S250" t="inlineStr"/>
       <c r="T250" t="inlineStr"/>
       <c r="U250" t="inlineStr"/>
-      <c r="V250" t="inlineStr"/>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
+        </is>
+      </c>
       <c r="W250" t="inlineStr"/>
-      <c r="X250" t="inlineStr"/>
-      <c r="Y250" t="inlineStr"/>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
+        </is>
+      </c>
       <c r="Z250" t="inlineStr"/>
       <c r="AA250" t="inlineStr"/>
       <c r="AB250" t="inlineStr"/>
@@ -21420,77 +21488,49 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ontolidar:EWindlidar</t>
+          <t>ontolidar:DataCommunication</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>e-windLidar</t>
+          <t>Data communication</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>e-windLidar</t>
+          <t>Comunicazione dati</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
-          <t>e-windLidar</t>
+          <t>数据通信</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An attempt to standardize wind lidar data formats and making them to follow the FAIR principle (Findable, Accessible, Interoperable, Reusable). </t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>测风雷达数据的一种标准化格式，并使其遵循FAIR（Findable, Accessible, Interoperable, Reusable）原则。</t>
+          <t>数据通信</t>
         </is>
       </c>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>Un tentativo di standardizzare il formato dati dei lidar e di costruirlo secondo i principi FAIR (dati ricercabili, accessibili, interoperabili e riutilizzabili).</t>
-        </is>
-      </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>Intento de estandarización de los datos de los lidares de viento construidos según el principio FAIR (datos al alcance (Findable), accesibles (Accesible), interoperables (Interoperable) y reproducibles (reproducible)).</t>
-        </is>
-      </c>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr">
-        <is>
-          <t>ontolidar:DataFormats</t>
-        </is>
-      </c>
+      <c r="P251" t="inlineStr"/>
       <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="inlineStr"/>
       <c r="T251" t="inlineStr"/>
       <c r="U251" t="inlineStr"/>
-      <c r="V251" t="inlineStr">
-        <is>
-          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
-        </is>
-      </c>
+      <c r="V251" t="inlineStr"/>
       <c r="W251" t="inlineStr"/>
-      <c r="X251" t="inlineStr">
-        <is>
-          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
-        </is>
-      </c>
-      <c r="Y251" t="inlineStr">
-        <is>
-          <t>https://zenodo.org/record/2478051/files/e_WindLidar.pdf?download=1</t>
-        </is>
-      </c>
+      <c r="X251" t="inlineStr"/>
+      <c r="Y251" t="inlineStr"/>
       <c r="Z251" t="inlineStr"/>
       <c r="AA251" t="inlineStr"/>
       <c r="AB251" t="inlineStr"/>
@@ -21513,41 +21553,61 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ontolidar:DataCommunication</t>
+          <t>ontolidar:NtpTimeSynchronisation</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Data communication</t>
+          <t>NTP time synchronisation</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Comunicazione dati</t>
+          <t>Sincronizzazione temporale NTP</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
-          <t>数据通信</t>
+          <t>NTP时间同步</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>A networking protocol for clock synchronization between computer systems and Lidar computer over packet-switched, variable-latency data networks. The maximum difference in the clock times between systems.</t>
+        </is>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>数据通信</t>
+          <t xml:space="preserve">一种网络协议，用于通过分组交换、可变延迟的数据网络实现计算机系统和激光雷达计算机之间的时钟同步。 </t>
         </is>
       </c>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Un protocollo di rete per la sincronizzazione dei compute e del lidar.</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un protocolo de red para la sincronización del reloj entre los sistemas informáticos y el ordenador del lidar a través de redes de datos con conmutación de paquetes y latencia variable. Corresponde a la diferencia máxima en los tiempos de reloj entre los sistemas. </t>
+        </is>
+      </c>
       <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>ontolidar:DataCommunication</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>milliseconds</t>
+        </is>
+      </c>
       <c r="R252" t="inlineStr"/>
       <c r="S252" t="inlineStr"/>
       <c r="T252" t="inlineStr"/>
@@ -21578,48 +21638,48 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ontolidar:NtpTimeSynchronisation</t>
+          <t>ontolidar:FtpDataTransfer</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NTP time synchronisation</t>
+          <t>FTP data transfer</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Sincronizzazione temporale NTP</t>
+          <t>Trasferimento dati FTP</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
-          <t>NTP时间同步</t>
+          <t>FTP数据传输</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>A networking protocol for clock synchronization between computer systems and Lidar computer over packet-switched, variable-latency data networks. The maximum difference in the clock times between systems.</t>
+          <t>Data transfer protocol based on FTP.</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t xml:space="preserve">一种网络协议，用于通过分组交换、可变延迟的数据网络实现计算机系统和激光雷达计算机之间的时钟同步。 </t>
+          <t>基于FTP的数据传输协议</t>
         </is>
       </c>
       <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Un protocollo di rete per la sincronizzazione dei compute e del lidar.</t>
+          <t>Protocollo di trasferimento dati basato sul sistema FTP.</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un protocolo de red para la sincronización del reloj entre los sistemas informáticos y el ordenador del lidar a través de redes de datos con conmutación de paquetes y latencia variable. Corresponde a la diferencia máxima en los tiempos de reloj entre los sistemas. </t>
+          <t>Protocolo de transferencia de datos basado en FTP.</t>
         </is>
       </c>
       <c r="O253" t="inlineStr"/>
@@ -21630,7 +21690,7 @@
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>milliseconds</t>
+          <t>text</t>
         </is>
       </c>
       <c r="R253" t="inlineStr"/>
@@ -21663,48 +21723,48 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ontolidar:FtpDataTransfer</t>
+          <t>ontolidar:UserInterface</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FTP data transfer</t>
+          <t>User interface</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Trasferimento dati FTP</t>
+          <t>Interfaccia utente</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
-          <t>FTP数据传输</t>
+          <t>用户界面</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Data transfer protocol based on FTP.</t>
+          <t>A graphical user interface implemented for Lidar data at  Lidar end or at user end.</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>基于FTP的数据传输协议</t>
+          <t>用户和激光雷达交互的图形界面</t>
         </is>
       </c>
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Protocollo di trasferimento dati basato sul sistema FTP.</t>
+          <t>Interfaccia grafica per la visualizzazione e l'interpretazione dei dati lidar.</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>Protocolo de transferencia de datos basado en FTP.</t>
+          <t>Interfaz gráfica de usuario implementada para los datos lidar en el extremo del lidar o en el extremo del usuario.</t>
         </is>
       </c>
       <c r="O254" t="inlineStr"/>
@@ -21748,48 +21808,48 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ontolidar:UserInterface</t>
+          <t>ontolidar:Wifi</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>User interface</t>
+          <t>WIFI</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Interfaccia utente</t>
+          <t>Wi-Fi</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
-          <t>用户界面</t>
+          <t>WIFI</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>A graphical user interface implemented for Lidar data at  Lidar end or at user end.</t>
+          <t>Data transfer over WLAN protocol.</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>用户和激光雷达交互的图形界面</t>
+          <t>通过WLAN协议的数据传输</t>
         </is>
       </c>
       <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Interfaccia grafica per la visualizzazione e l'interpretazione dei dati lidar.</t>
+          <t>Protocollo di trasferimento dati basato sul sistema WLAN.</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>Interfaz gráfica de usuario implementada para los datos lidar en el extremo del lidar o en el extremo del usuario.</t>
+          <t>Transferencia de datos a través del protocolo WLAN.</t>
         </is>
       </c>
       <c r="O255" t="inlineStr"/>
@@ -21833,48 +21893,48 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ontolidar:Wifi</t>
+          <t>ontolidar:Lan</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>WIFI</t>
+          <t>LAN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Wi-Fi</t>
+          <t>LAN</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
-          <t>WIFI</t>
+          <t>局域网</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Data transfer over WLAN protocol.</t>
+          <t>Data transfer over LAN protocol.</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>通过WLAN协议的数据传输</t>
+          <t>通过局域网协议的数据传输</t>
         </is>
       </c>
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Protocollo di trasferimento dati basato sul sistema WLAN.</t>
+          <t>Protocollo di trasferimento dati basato sul sistema LAN.</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>Transferencia de datos a través del protocolo WLAN.</t>
+          <t>Transferencia de datos a través del protocolo LAN.</t>
         </is>
       </c>
       <c r="O256" t="inlineStr"/>
@@ -21918,48 +21978,48 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ontolidar:Lan</t>
+          <t>ontolidar:SamplingFrequency</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>LAN</t>
+          <t>Sampling frequency</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>LAN</t>
+          <t>Frequenza di campionamento</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
-          <t>局域网</t>
+          <t>采样频率</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Data transfer over LAN protocol.</t>
+          <t>Maximum sampling frequency of the Lidar measurement device.</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>通过局域网协议的数据传输</t>
+          <t>激光雷达的最大采样频率</t>
         </is>
       </c>
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Protocollo di trasferimento dati basato sul sistema LAN.</t>
+          <t>Frequenza massima di campionamento dei dati di un lidar</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>Transferencia de datos a través del protocolo LAN.</t>
+          <t>Frecuencia máxima de muestreo del dispositivo de medición lidar.</t>
         </is>
       </c>
       <c r="O257" t="inlineStr"/>
@@ -21970,7 +22030,7 @@
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Hz</t>
         </is>
       </c>
       <c r="R257" t="inlineStr"/>
@@ -22003,48 +22063,48 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ontolidar:SamplingFrequency</t>
+          <t>ontolidar:LoggingFrequency</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sampling frequency</t>
+          <t>Logging frequency</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Frequenza di campionamento</t>
+          <t>Frequenza di registrazione</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr">
         <is>
-          <t>采样频率</t>
+          <t>记录频率</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Maximum sampling frequency of the Lidar measurement device.</t>
+          <t>Maximum logging frequency of the logger or the Lidar measurement device.</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>激光雷达的最大采样频率</t>
+          <t>记录器或激光雷达的最大记录频率</t>
         </is>
       </c>
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Frequenza massima di campionamento dei dati di un lidar</t>
+          <t>Frequenza massima di scrittura dei logs di un lidar</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>Frecuencia máxima de muestreo del dispositivo de medición lidar.</t>
+          <t>Frecuencia máxima de registro del dispositivo de medición lidar.</t>
         </is>
       </c>
       <c r="O258" t="inlineStr"/>
@@ -22088,48 +22148,48 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ontolidar:LoggingFrequency</t>
+          <t>ontolidar:FileGranulity</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Logging frequency</t>
+          <t>File granulity</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Frequenza di registrazione</t>
+          <t>Granularita' del file</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr">
         <is>
-          <t>记录频率</t>
+          <t>文件颗粒度</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Maximum logging frequency of the logger or the Lidar measurement device.</t>
+          <t>The size of the file in terms of time period or samples e.g. 10-min files or 1 hour files.</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>记录器或激光雷达的最大记录频率</t>
+          <t>以时间或采样单位来表示的文件大小，例如，10分钟文件或1小时文件</t>
         </is>
       </c>
       <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Frequenza massima di scrittura dei logs di un lidar</t>
+          <t>Intervallo temporale coperto da dei dati contenuti in un file dati.</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>Frecuencia máxima de registro del dispositivo de medición lidar.</t>
+          <t>El tamaño del archivo en términos de período de tiempo o muestras, por ejemplo, archivos de 10 minutos o archivos de 1 hora.</t>
         </is>
       </c>
       <c r="O259" t="inlineStr"/>
@@ -22140,7 +22200,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="R259" t="inlineStr"/>
@@ -22173,48 +22233,48 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ontolidar:FileGranulity</t>
+          <t>ontolidar:DataTransferFrequency</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>File granulity</t>
+          <t>Data transfer frequency</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Granularita' del file</t>
+          <t>Frequenza di trasferimento dati</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>文件颗粒度</t>
+          <t>数据传输频率</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>The size of the file in terms of time period or samples e.g. 10-min files or 1 hour files.</t>
+          <t>The frequency at which data is transferred between the measurement device (primary) and a secondary device</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>以时间或采样单位来表示的文件大小，例如，10分钟文件或1小时文件</t>
+          <t>测量设备（主设备）和辅助设备之间传输数据的频率</t>
         </is>
       </c>
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Intervallo temporale coperto da dei dati contenuti in un file dati.</t>
+          <t>Frequenza di trasferimento dati da un sistema di misurazione (principale) ad uno secondario.</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>El tamaño del archivo en términos de período de tiempo o muestras, por ejemplo, archivos de 10 minutos o archivos de 1 hora.</t>
+          <t>La frecuencia con la que se transfieren los datos entre el dispositivo de medición (primario) y un dispositivo secundario.</t>
         </is>
       </c>
       <c r="O260" t="inlineStr"/>
@@ -22225,7 +22285,7 @@
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>samples</t>
+          <t>Hz</t>
         </is>
       </c>
       <c r="R260" t="inlineStr"/>
@@ -22258,48 +22318,48 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ontolidar:DataTransferFrequency</t>
+          <t>ontolidar:DataAveragingPeriod</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Data transfer frequency</t>
+          <t>Data averaging period</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Frequenza di trasferimento dati</t>
+          <t>Durata del periodo di media</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t>数据传输频率</t>
+          <t>数据均值周期</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>The frequency at which data is transferred between the measurement device (primary) and a secondary device</t>
+          <t>Data averaging period for the data, e.g., 20 Hz data can be averaged to 10 min data.</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>测量设备（主设备）和辅助设备之间传输数据的频率</t>
+          <t>计算均值所设定的周期，例如，用20赫兹的数据计算出10分钟平均的数据，10分钟就是数据均值周期</t>
         </is>
       </c>
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Frequenza di trasferimento dati da un sistema di misurazione (principale) ad uno secondario.</t>
+          <t>Periodo temporale di media delle misurazioni grezze</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>La frecuencia con la que se transfieren los datos entre el dispositivo de medición (primario) y un dispositivo secundario.</t>
+          <t>Periodo de promediación de los datos, por ejemplo, los datos de 20 Hz se pueden promediar a datos de 10 minutos.</t>
         </is>
       </c>
       <c r="O261" t="inlineStr"/>
@@ -22310,7 +22370,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>seconds</t>
         </is>
       </c>
       <c r="R261" t="inlineStr"/>
@@ -22343,61 +22403,53 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ontolidar:DataAveragingPeriod</t>
+          <t>ontolidar:Installation</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Data averaging period</t>
+          <t>Installation</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Durata del periodo di media</t>
+          <t>Installazione</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
-          <t>数据均值周期</t>
+          <t>安装</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Data averaging period for the data, e.g., 20 Hz data can be averaged to 10 min data.</t>
+          <t>Installation date and time, location (gps).</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>计算均值所设定的周期，例如，用20赫兹的数据计算出10分钟平均的数据，10分钟就是数据均值周期</t>
+          <t>安装日期和时间，位置（gps）</t>
         </is>
       </c>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Periodo temporale di media delle misurazioni grezze</t>
+          <t>Data, luogo e posizione della installazione di un lidar</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>Periodo de promediación de los datos, por ejemplo, los datos de 20 Hz se pueden promediar a datos de 10 minutos.</t>
+          <t>Fecha y hora de instalación, ubicación (gps).</t>
         </is>
       </c>
       <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr">
-        <is>
-          <t>ontolidar:DataCommunication</t>
-        </is>
-      </c>
-      <c r="Q262" t="inlineStr">
-        <is>
-          <t>seconds</t>
-        </is>
-      </c>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
       <c r="R262" t="inlineStr"/>
       <c r="S262" t="inlineStr"/>
       <c r="T262" t="inlineStr"/>
@@ -22428,53 +22480,61 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ontolidar:Installation</t>
+          <t>ontolidar:Deployment</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Installation</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Installazione</t>
+          <t>Messa in opera</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
-          <t>安装</t>
+          <t>部署</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Installation date and time, location (gps).</t>
+          <t>Deployment date and time, location (gps).</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>安装日期和时间，位置（gps）</t>
+          <t>部署日期和时间，位置（gps）</t>
         </is>
       </c>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Data, luogo e posizione della installazione di un lidar</t>
+          <t>Data, luogo e posizione della messa in opera di un lidar</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>Fecha y hora de instalación, ubicación (gps).</t>
+          <t>Datos y hora de instalación, ubicación (gps).</t>
         </is>
       </c>
       <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>ontolidar:Installation</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>DateTime, GPS coordinates</t>
+        </is>
+      </c>
       <c r="R263" t="inlineStr"/>
       <c r="S263" t="inlineStr"/>
       <c r="T263" t="inlineStr"/>
@@ -22505,48 +22565,48 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ontolidar:Deployment</t>
+          <t>ontolidar:Repair</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Messa in opera</t>
+          <t>Riparazione</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
-          <t>部署</t>
+          <t>修复</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Deployment date and time, location (gps).</t>
+          <t>Repair date and time, location (gps).</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>部署日期和时间，位置（gps）</t>
+          <t>维修日期和时间，位置（gps）</t>
         </is>
       </c>
       <c r="L264" t="inlineStr"/>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Data, luogo e posizione della messa in opera di un lidar</t>
+          <t>Data, luogo e posizione della riparazione di un lidar</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>Datos y hora de instalación, ubicación (gps).</t>
+          <t>Datos y hora de reparación, ubicación (gps).</t>
         </is>
       </c>
       <c r="O264" t="inlineStr"/>
@@ -22590,48 +22650,48 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ontolidar:Repair</t>
+          <t>ontolidar:Relocation</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Relocation</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Riparazione</t>
+          <t>Rilocalizzazione</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
-          <t>修复</t>
+          <t>搬迁</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Repair date and time, location (gps).</t>
+          <t>Relocation date and time, location (gps).</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>维修日期和时间，位置（gps）</t>
+          <t>搬迁日期和时间，地点（gps）</t>
         </is>
       </c>
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Data, luogo e posizione della riparazione di un lidar</t>
+          <t>Data, luogo e posizione di una nuova messa in opera di un lidar</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>Datos y hora de reparación, ubicación (gps).</t>
+          <t>Datos de la reubicación y hora, ubicación (gps).</t>
         </is>
       </c>
       <c r="O265" t="inlineStr"/>
@@ -22675,48 +22735,48 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ontolidar:Relocation</t>
+          <t>ontolidar:Decommission</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Relocation</t>
+          <t>Decommission</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Rilocalizzazione</t>
+          <t>Ritiro</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr">
         <is>
-          <t>搬迁</t>
+          <t>退役</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Relocation date and time, location (gps).</t>
+          <t>Decommission date and time, location (gps).</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>搬迁日期和时间，地点（gps）</t>
+          <t>退役日期和时间，地点(gps)</t>
         </is>
       </c>
       <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Data, luogo e posizione di una nuova messa in opera di un lidar</t>
+          <t>Data, luogo e posizione di una rimozione di un lidar</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>Datos de la reubicación y hora, ubicación (gps).</t>
+          <t>Datos y hora de desmantelamiento, ubicación (gps).</t>
         </is>
       </c>
       <c r="O266" t="inlineStr"/>
@@ -22757,91 +22817,6 @@
       <c r="AP266" t="inlineStr"/>
       <c r="AQ266" t="inlineStr"/>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>ontolidar:Decommission</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Decommission</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Ritiro</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>退役</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Decommission date and time, location (gps).</t>
-        </is>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>退役日期和时间，地点(gps)</t>
-        </is>
-      </c>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>Data, luogo e posizione di una rimozione di un lidar</t>
-        </is>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>Datos y hora de desmantelamiento, ubicación (gps).</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr">
-        <is>
-          <t>ontolidar:Installation</t>
-        </is>
-      </c>
-      <c r="Q267" t="inlineStr">
-        <is>
-          <t>DateTime, GPS coordinates</t>
-        </is>
-      </c>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="inlineStr"/>
-      <c r="T267" t="inlineStr"/>
-      <c r="U267" t="inlineStr"/>
-      <c r="V267" t="inlineStr"/>
-      <c r="W267" t="inlineStr"/>
-      <c r="X267" t="inlineStr"/>
-      <c r="Y267" t="inlineStr"/>
-      <c r="Z267" t="inlineStr"/>
-      <c r="AA267" t="inlineStr"/>
-      <c r="AB267" t="inlineStr"/>
-      <c r="AC267" t="inlineStr"/>
-      <c r="AD267" t="inlineStr"/>
-      <c r="AE267" t="inlineStr"/>
-      <c r="AF267" t="inlineStr"/>
-      <c r="AG267" t="inlineStr"/>
-      <c r="AH267" t="inlineStr"/>
-      <c r="AI267" t="inlineStr"/>
-      <c r="AJ267" t="inlineStr"/>
-      <c r="AK267" t="inlineStr"/>
-      <c r="AL267" t="inlineStr"/>
-      <c r="AM267" t="inlineStr"/>
-      <c r="AN267" t="inlineStr"/>
-      <c r="AO267" t="inlineStr"/>
-      <c r="AP267" t="inlineStr"/>
-      <c r="AQ267" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -2101,7 +2101,11 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Azimut Geschwindigkeitsanzeige</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Campionamento di velocità in azimut</t>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -837,11 +837,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>The idea is to download a lidar ontology concept and use its ```alternative label``` as input for user's in-built workflow.</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1586,11 +1582,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Ways that wind lidar can be used. The combination of three elements: 1. Outcome-driven data requirements (as opposed to constraint-driven requirements, see 1st generation sensor / 1st generation measurements); 2. The measurement method selected to fulfil them; 3. The operational conditions that determine the performance of the method with respect to accuracy</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -4859,7 +4851,11 @@
           <t xml:space="preserve">Dispositivo que convierte la señal analógica proveniente del fotodetector en una señal digital, con lo que puede ser analizada adecuadamente por el analizador de frecuencias. </t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>ADC</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>ontolidar:SignalProcessingModule</t>
@@ -10044,7 +10040,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Azimuth angle</t>
+          <t>Azimuth</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -10323,7 +10319,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Elevation angle</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -10499,7 +10495,11 @@
           <t>Espejos destinados a modificar la trayectoria del haz entre el telescopio y la atmósfera.</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>ScanModule</t>
+        </is>
+      </c>
       <c r="P124" t="inlineStr">
         <is>
           <t>ontolidar:ScannerModule</t>
@@ -19036,7 +19036,11 @@
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Monostatisch</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>Monostatico</t>
@@ -19121,7 +19125,11 @@
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Bistatisch</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>Bistatico</t>
@@ -19206,7 +19214,11 @@
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Streuung</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
           <t>Scattering</t>
@@ -19291,7 +19303,11 @@
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Raman</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
           <t>Raman</t>
@@ -19376,7 +19392,11 @@
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Mie</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
           <t>Mie</t>
@@ -19461,7 +19481,11 @@
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Rayleigh</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>Raylegih</t>
@@ -19546,7 +19570,11 @@
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Detektionsart</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>Tipo di rilevamento</t>
@@ -19631,7 +19659,11 @@
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Kohärent</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>Coerente</t>
@@ -19716,7 +19748,11 @@
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Inkohärent</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>Incoerente</t>
@@ -19805,7 +19841,11 @@
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Detektions-Konfiguration</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr">
         <is>
           <t>Configurazione</t>
@@ -19874,7 +19914,11 @@
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Homodyn</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
           <t>Omodinamico</t>
@@ -19959,7 +20003,11 @@
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Heterodyn</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
           <t>Eterodinamico</t>
@@ -20044,7 +20092,11 @@
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Windgeschwindigkeits-Auswertung</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr">
         <is>
           <t>Valutazione della velocità del vento</t>
@@ -20129,7 +20181,11 @@
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Partikel-Nachlauf</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>Tracciamento di particella</t>
@@ -20210,7 +20266,11 @@
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Kreuzkorrelation</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
           <t>Correlazione incrociata</t>
@@ -20291,7 +20351,11 @@
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Doppler-Höhepunkt</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
@@ -20352,7 +20416,11 @@
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Sichtlinie</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
           <t>Linea di visuale</t>
@@ -20439,7 +20507,7 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>LidarSampleRate</t>
+          <t>Lidar-Abtastrate</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -20805,7 +20873,11 @@
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr">
         <is>
           <t>Parametri</t>
@@ -20833,7 +20905,11 @@
           <t>测风激光雷达特定参数。</t>
         </is>
       </c>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>Wind-Lidar spezifische Parameter.</t>
+        </is>
+      </c>
       <c r="M243" t="inlineStr">
         <is>
           <t>Specifici parametri del lidar.</t>
@@ -21088,7 +21164,11 @@
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Datenformatierung</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
           <t>Formato dei dati</t>
@@ -21112,7 +21192,11 @@
           <t>激光雷达数据文件的格式。一般来说，它在同一激光雷达制造商的产品中是通用的。</t>
         </is>
       </c>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Formatierung der Lidardaten. Diese ist normalerweise identisch bei Produkten vom gleichen Hersteller.</t>
+        </is>
+      </c>
       <c r="M246" t="inlineStr">
         <is>
           <t>Formato del file dati prodotto dal lidar. Questo è tipicamente comune per tutti i tipi di lidars prodotti dallo stesso costruttore.</t>
@@ -21165,7 +21249,11 @@
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Leosphere</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
           <t>Leosphere</t>
@@ -21189,7 +21277,11 @@
           <t>Leosphere公司产品的通用数据格式。</t>
         </is>
       </c>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Übliches Datenformat für Produkte des Herstellers Leosphere.</t>
+        </is>
+      </c>
       <c r="M247" t="inlineStr">
         <is>
           <t>Formato dati comune per i prodotti dell'azienda Leosphere.</t>
@@ -21246,7 +21338,11 @@
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>ZX</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr">
         <is>
           <t>ZX</t>
@@ -21270,7 +21366,11 @@
           <t>ZX激光雷达公司产品的通用数据格式（.zph扩展）。</t>
         </is>
       </c>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Übliches Datenformat für Produkte des Herstellers ZX lidars (.zph Dateiendung).</t>
+        </is>
+      </c>
       <c r="M248" t="inlineStr">
         <is>
           <t>Formato dati comune per i prodotti dell'azienda ZX lidars (estensione .zph).</t>
@@ -21327,7 +21427,11 @@
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Halo photonics</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
           <t>Halo photonics</t>
@@ -21351,7 +21455,11 @@
           <t>Halo photonics公司产品的通用数据格式。</t>
         </is>
       </c>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Übliches Datenformat für Produkte des Herstellers Halo photonics.</t>
+        </is>
+      </c>
       <c r="M249" t="inlineStr">
         <is>
           <t>Formato dati comune per i prodotti dell'azienda Halo photonics.</t>
@@ -21408,7 +21516,11 @@
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>e-windLidar</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
           <t>e-windLidar</t>
@@ -21432,7 +21544,11 @@
           <t>测风雷达数据的一种标准化格式，并使其遵循FAIR（Findable, Accessible, Interoperable, Reusable）原则。</t>
         </is>
       </c>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Wind Lidar Daten-Standard der das FAIR-Prinzip befolgt.</t>
+        </is>
+      </c>
       <c r="M250" t="inlineStr">
         <is>
           <t>Un tentativo di standardizzare il formato dati dei lidar e di costruirlo secondo i principi FAIR (dati ricercabili, accessibili, interoperabili e riutilizzabili).</t>
@@ -21501,7 +21617,11 @@
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Datenübertragung</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
           <t>Comunicazione dati</t>
@@ -21566,7 +21686,11 @@
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>NTP-Zeitsynchronisation</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>Sincronizzazione temporale NTP</t>
@@ -21590,7 +21714,11 @@
           <t xml:space="preserve">一种网络协议，用于通过分组交换、可变延迟的数据网络实现计算机系统和激光雷达计算机之间的时钟同步。 </t>
         </is>
       </c>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Das Netzwerk-Protokoll für Uhrzeit-Synchronisation zwischen Lidar und Rechner ist NTP.</t>
+        </is>
+      </c>
       <c r="M252" t="inlineStr">
         <is>
           <t>Un protocollo di rete per la sincronizzazione dei compute e del lidar.</t>
@@ -21651,7 +21779,11 @@
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>FTP-Datenübertragung</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr">
         <is>
           <t>Trasferimento dati FTP</t>
@@ -21675,7 +21807,11 @@
           <t>基于FTP的数据传输协议</t>
         </is>
       </c>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Das Datenübertragungs-Protokoll ist FTP.</t>
+        </is>
+      </c>
       <c r="M253" t="inlineStr">
         <is>
           <t>Protocollo di trasferimento dati basato sul sistema FTP.</t>
@@ -21736,7 +21872,11 @@
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Benutzeroberfläche</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
           <t>Interfaccia utente</t>
@@ -21760,7 +21900,11 @@
           <t>用户和激光雷达交互的图形界面</t>
         </is>
       </c>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Die grafische Benutzeroberfläche zu den Lidar-Daten auf Seiten des Lidar oder des Endnutzers.</t>
+        </is>
+      </c>
       <c r="M254" t="inlineStr">
         <is>
           <t>Interfaccia grafica per la visualizzazione e l'interpretazione dei dati lidar.</t>
@@ -21821,7 +21965,11 @@
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>WLAN</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
           <t>Wi-Fi</t>
@@ -21845,7 +21993,11 @@
           <t>通过WLAN协议的数据传输</t>
         </is>
       </c>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Datenübertragung mittels WLAN Protokoll.</t>
+        </is>
+      </c>
       <c r="M255" t="inlineStr">
         <is>
           <t>Protocollo di trasferimento dati basato sul sistema WLAN.</t>
@@ -21906,7 +22058,11 @@
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>LAN</t>
+        </is>
+      </c>
       <c r="E256" t="inlineStr">
         <is>
           <t>LAN</t>
@@ -21930,7 +22086,11 @@
           <t>通过局域网协议的数据传输</t>
         </is>
       </c>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Datenübertragung mittels LAN Protokoll.</t>
+        </is>
+      </c>
       <c r="M256" t="inlineStr">
         <is>
           <t>Protocollo di trasferimento dati basato sul sistema LAN.</t>
@@ -21991,7 +22151,11 @@
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Abtastfrequenz</t>
+        </is>
+      </c>
       <c r="E257" t="inlineStr">
         <is>
           <t>Frequenza di campionamento</t>
@@ -22015,7 +22179,11 @@
           <t>激光雷达的最大采样频率</t>
         </is>
       </c>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Maximale Abtastfrequenz des Lidar-Messgerätes.</t>
+        </is>
+      </c>
       <c r="M257" t="inlineStr">
         <is>
           <t>Frequenza massima di campionamento dei dati di un lidar</t>
@@ -22076,7 +22244,11 @@
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Aufzeichnungsfrequenz</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
           <t>Frequenza di registrazione</t>
@@ -22100,7 +22272,11 @@
           <t>记录器或激光雷达的最大记录频率</t>
         </is>
       </c>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Maximale Aufzeichnungsfrequenz des Lidar-Messgerätes.</t>
+        </is>
+      </c>
       <c r="M258" t="inlineStr">
         <is>
           <t>Frequenza massima di scrittura dei logs di un lidar</t>
@@ -22161,7 +22337,11 @@
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Datei-Granularität</t>
+        </is>
+      </c>
       <c r="E259" t="inlineStr">
         <is>
           <t>Granularita' del file</t>
@@ -22185,7 +22365,11 @@
           <t>以时间或采样单位来表示的文件大小，例如，10分钟文件或1小时文件</t>
         </is>
       </c>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Die Größe der von Dateien abgedeckten Zeitintervalle der Messung, z.B. 10-min oder 1-h Dateien.</t>
+        </is>
+      </c>
       <c r="M259" t="inlineStr">
         <is>
           <t>Intervallo temporale coperto da dei dati contenuti in un file dati.</t>
@@ -22246,7 +22430,11 @@
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Datenübertragungs-Frequenz</t>
+        </is>
+      </c>
       <c r="E260" t="inlineStr">
         <is>
           <t>Frequenza di trasferimento dati</t>
@@ -22270,7 +22458,11 @@
           <t>测量设备（主设备）和辅助设备之间传输数据的频率</t>
         </is>
       </c>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Die Frequenz der Datenübertragung zwischen Messgerät (Primär) und Sekundär-Geräten.</t>
+        </is>
+      </c>
       <c r="M260" t="inlineStr">
         <is>
           <t>Frequenza di trasferimento dati da un sistema di misurazione (principale) ad uno secondario.</t>
@@ -22331,7 +22523,11 @@
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Daten-Mittelungszeitraum</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
           <t>Durata del periodo di media</t>
@@ -22355,7 +22551,11 @@
           <t>计算均值所设定的周期，例如，用20赫兹的数据计算出10分钟平均的数据，10分钟就是数据均值周期</t>
         </is>
       </c>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Die Mittelungszeit der Daten, z.B. für 20 Hz gemittelt als 10 min Daten.</t>
+        </is>
+      </c>
       <c r="M261" t="inlineStr">
         <is>
           <t>Periodo temporale di media delle misurazioni grezze</t>
@@ -22416,7 +22616,11 @@
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Aufbau</t>
+        </is>
+      </c>
       <c r="E262" t="inlineStr">
         <is>
           <t>Installazione</t>
@@ -22440,7 +22644,11 @@
           <t>安装日期和时间，位置（gps）</t>
         </is>
       </c>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Datum, Uhrzeit und Ort des Aufbaus</t>
+        </is>
+      </c>
       <c r="M262" t="inlineStr">
         <is>
           <t>Data, luogo e posizione della installazione di un lidar</t>
@@ -22493,7 +22701,11 @@
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Bereitstellung</t>
+        </is>
+      </c>
       <c r="E263" t="inlineStr">
         <is>
           <t>Messa in opera</t>
@@ -22517,7 +22729,11 @@
           <t>部署日期和时间，位置（gps）</t>
         </is>
       </c>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Datum, Uhrzeit und Ort der Bereitstellung</t>
+        </is>
+      </c>
       <c r="M263" t="inlineStr">
         <is>
           <t>Data, luogo e posizione della messa in opera di un lidar</t>
@@ -22578,7 +22794,11 @@
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Reparatur</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
           <t>Riparazione</t>
@@ -22602,7 +22822,11 @@
           <t>维修日期和时间，位置（gps）</t>
         </is>
       </c>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Datum, Uhrzeit und Ort der Reparatur</t>
+        </is>
+      </c>
       <c r="M264" t="inlineStr">
         <is>
           <t>Data, luogo e posizione della riparazione di un lidar</t>
@@ -22663,7 +22887,11 @@
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Standortwechsel</t>
+        </is>
+      </c>
       <c r="E265" t="inlineStr">
         <is>
           <t>Rilocalizzazione</t>
@@ -22687,7 +22915,11 @@
           <t>搬迁日期和时间，地点（gps）</t>
         </is>
       </c>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Datum, Uhrzeit und Ort des neuen Standortes</t>
+        </is>
+      </c>
       <c r="M265" t="inlineStr">
         <is>
           <t>Data, luogo e posizione di una nuova messa in opera di un lidar</t>
@@ -22748,7 +22980,11 @@
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Stilllegung</t>
+        </is>
+      </c>
       <c r="E266" t="inlineStr">
         <is>
           <t>Ritiro</t>
@@ -22772,7 +23008,11 @@
           <t>退役日期和时间，地点(gps)</t>
         </is>
       </c>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Datum, Uhrzeit und Ort der Stilllegung</t>
+        </is>
+      </c>
       <c r="M266" t="inlineStr">
         <is>
           <t>Data, luogo e posizione di una rimozione di un lidar</t>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -2095,7 +2095,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Azimut Geschwindigkeitsanzeige</t>
+          <t>Geschwindigkeits-Azimut-Anzeige</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2198,7 +2198,11 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Anwendungsfall</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>Casi di uso</t>
@@ -2279,7 +2283,11 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zusätzlicher Sensor</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Sensore aggiuntivo</t>
@@ -2364,7 +2372,11 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Charakterisierung des Windes</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Identificazione delle proprietà del vento</t>
@@ -2449,7 +2461,11 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>IEC-Norm 61400-12-1</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Standard IEC 61400-12-1</t>
@@ -2534,7 +2550,11 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Zertifizierung von Turbinen</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>Certificazione per turbine eoliche</t>
@@ -2619,7 +2639,11 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Leistungsüberprüfung</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>Verifica delle performances</t>
@@ -2704,7 +2728,11 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>IEC-Norm 61400-50-2</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>IEC Standard 61400-50-2</t>
@@ -2789,7 +2817,11 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>IEC-Norm 61400-50-3</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>IEC Standard 61400-50-3</t>
@@ -2874,7 +2906,11 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Task32 Empfohlene Vorgehensweisen</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Raccomandazioni della IEA Task32</t>
@@ -2959,7 +2995,11 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Steuerung von Windkraftanlagen</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Controllo dei generatori eolici</t>
@@ -3044,7 +3084,11 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Turbulenz (Kontrolle in Gegenwart von)</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Turbolenza (controllo in presenza di)</t>
@@ -3129,7 +3173,11 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wakes (Steuerung von)</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Scie (controllo delle)</t>
@@ -3214,7 +3262,11 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Steuerung von Windkraftanlagen</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>Controllo del parco eolico</t>
@@ -3299,7 +3351,11 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ausrichtung des Gierens</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>Allineamento della turbina</t>
@@ -3384,7 +3440,11 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Verifizierung der Metmast-Leistung</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Verifica delle torri anemometriche</t>
@@ -3469,7 +3529,11 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Windkanal-Messungen</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Misurazioni in galleria del vento</t>
@@ -3554,7 +3618,11 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Virtueller Messmast</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>Torre meteorologica virtuale</t>
@@ -3645,7 +3713,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Auslegung</t>
+          <t>Entwurf</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3740,7 +3808,11 @@
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Chassis-Modul</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Telaio</t>
@@ -3837,7 +3909,11 @@
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Standort-Erkennung</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Localizzazione</t>
@@ -3922,7 +3998,11 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>GPS</t>
@@ -4007,7 +4087,11 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Neigungsmesser</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>Inclinometro</t>
@@ -4092,7 +4176,11 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Bewegungserkennung</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>Sensore di moto</t>
@@ -4177,7 +4265,11 @@
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Beschleunigungsmesser</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Accelerometro</t>
@@ -4262,7 +4354,11 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Gyrometer</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Girometro</t>
@@ -4347,7 +4443,11 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Erkennung von Umgebungsbedingungen</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>Rilevamento delle condizioni ambientali</t>
@@ -4432,7 +4532,11 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Lokale Messstation</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>Stazione meteorologica locale</t>
@@ -4517,7 +4621,11 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Steuermodul</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>Componente di controllo</t>
@@ -4614,7 +4722,11 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kommunikations-Modul</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>Componente di comunicazione</t>
@@ -4711,7 +4823,11 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Modul zur Signalverarbeitung</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Componente di processamento dati</t>
@@ -4812,7 +4928,11 @@
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Analog-Digital-Wandler</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Convertitore analogico-digitale</t>
@@ -4901,7 +5021,11 @@
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Anzahl der Bits</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>Numero di bit</t>
@@ -4994,7 +5118,11 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Filter</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Filtro</t>
@@ -5091,7 +5219,11 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Frequenz-Analysator</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>Analizzatore della frequenza</t>
@@ -5188,7 +5320,11 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Peak-Identifizierung</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>Identificazione del picco</t>
@@ -5289,7 +5425,11 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Schnelle Fourier-Transformation</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>FFT</t>
@@ -5378,7 +5518,11 @@
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Abtastrate des Frequenzanalysators</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>Frequenza di campionamento dell'analizzatore</t>
@@ -5467,7 +5611,11 @@
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Speichermodul</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Componente di memorizzazione dati</t>
@@ -5564,7 +5712,11 @@
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Optik-Modul</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>Componenti ottiche</t>
@@ -5663,7 +5815,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Teleskop</t>
+          <t>Fernrohr</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5750,7 +5902,11 @@
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Öffnungsdurchmesser des Teleskops</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>Diametro dell'apertura del telescopio</t>
@@ -5839,7 +5995,11 @@
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Brennweite</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Lunghezza focale</t>
@@ -5924,7 +6084,11 @@
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Abstand von der Endfaser zur Linse</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>Distanza fra il termine della fibra ottica e la la lente</t>
@@ -6021,7 +6185,11 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Linse</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Lente</t>
@@ -6106,7 +6274,11 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Photonik-Modul</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Componente fotonica</t>
@@ -6203,7 +6375,11 @@
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Laserquelle</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Sorgente laser</t>
@@ -6288,7 +6464,11 @@
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Laserdiode</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>Diodo laser</t>
@@ -6373,7 +6553,11 @@
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Laser-Modus</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>Modo del laser</t>
@@ -6466,7 +6650,11 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Laserfrequenz</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>Frequenza del laser</t>
@@ -6547,7 +6735,11 @@
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Laser polarisation</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>Polarizzazione del laser</t>
@@ -6628,7 +6820,11 @@
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Laserphase</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>Fase del laser</t>
@@ -6709,7 +6905,11 @@
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Laserintensität</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>Intensità del laser</t>
@@ -6790,7 +6990,11 @@
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Laser-Wellenlänge</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>Lunghezza d'onda del laser</t>
@@ -6891,7 +7095,11 @@
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Akusto-optischer Modulator</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>Modulatore acusto-ottico</t>
@@ -6992,7 +7200,11 @@
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Radiofrequenz</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>Frequenza radio AOM</t>
@@ -7073,7 +7285,11 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Pulsierungsmethode</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>Metodo impulsato AOM</t>
@@ -7154,7 +7370,11 @@
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>QSwitching</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>QSwitch AOM</t>
@@ -7235,7 +7455,11 @@
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Leistungsverlust</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>Perdita di potenza AOM</t>
@@ -7316,7 +7540,11 @@
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ausgestrahltes Licht</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>Luce emessa</t>
@@ -7401,7 +7629,11 @@
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Kontinuierliches Lidar</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>Lidar ad onda continua</t>
@@ -7482,7 +7714,11 @@
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Gepulstes Lidar</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>Lidar pulsati</t>
@@ -7563,7 +7799,11 @@
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Dauer des Pulses</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Durata dell'impulso</t>
@@ -7652,7 +7892,11 @@
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Volle Breite bei halbem Maximum</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Larghezza a meta' altezza</t>
@@ -7741,7 +7985,11 @@
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Puls-Abtastrate</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>Frequenza di campionamento del laser pulsato</t>
@@ -7822,7 +8070,11 @@
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Form des Pulses</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>Forma dell'impulso</t>
@@ -7911,7 +8163,11 @@
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Rückgestreutes Licht</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>Luce riflessa</t>
@@ -7992,7 +8248,11 @@
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Gewünschtes Rückstreulicht</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>Luce riflessa portatrice di segnale</t>
@@ -8073,7 +8333,11 @@
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Nicht erwünschtes Rückstreulicht</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>Luce riflessa portatrice di rumore ambientale</t>
@@ -8154,7 +8418,11 @@
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Detektor</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>Rilevatore</t>
@@ -8239,7 +8507,11 @@
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Optischer Verstärker</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>Amplificatore ottico</t>
@@ -8336,7 +8608,11 @@
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Verstärkung des optischen Verstärkers</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>Guadagno dell'amplificatore ottico</t>
@@ -8417,7 +8693,11 @@
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Bandbreite des optischen Verstärkers</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>Larghezza d'onda dell'amplificatore ottico</t>
@@ -8498,7 +8778,11 @@
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Strahlteiler</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>Sdoppiatore ottico</t>
@@ -8595,7 +8879,11 @@
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Photodetektor</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>Fotorivelatore</t>
@@ -8680,7 +8968,11 @@
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Verstärkung des Photodetektors</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>Guadagno del fotorivelatore</t>
@@ -8765,7 +9057,11 @@
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Aktive Fläche des Photodetektors</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>Area attiva del fotorivelatore</t>
@@ -8854,7 +9150,11 @@
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Photodetektor SNR</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>SNR del fotorivelatore</t>
@@ -8935,7 +9235,11 @@
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Spannungsrauschen des Photodetektors</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>Rumore di tensione del fotorivelatore</t>
@@ -9020,7 +9324,11 @@
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Schnittstellen</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>Interfacce</t>
@@ -9113,7 +9421,11 @@
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Faser</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>Fibra</t>
@@ -9202,7 +9514,11 @@
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Netzteil</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>Componente di alimentazione</t>
@@ -9299,7 +9615,11 @@
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Wechselrichter</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>Converter di potenza</t>
@@ -9380,7 +9700,11 @@
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Unterbrechungsfreie Stromversorgung</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>Gruppo di continuità (UPS)</t>
@@ -9465,7 +9789,11 @@
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>USV-Batteriespannung</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>Voltaggio della batteria dell'UPS</t>
@@ -9554,7 +9882,11 @@
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>USV-Batteriekapazität</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>Capacità della batteria dell'UPS</t>
@@ -9643,7 +9975,11 @@
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>USV-Batteriebetrieb</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>Potenza</t>
@@ -9728,7 +10064,11 @@
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>USV-Batterieintensität</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>Intensità</t>
@@ -9813,7 +10153,11 @@
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Scanner-Modul</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>Componente di scansione</t>
@@ -9914,7 +10258,11 @@
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Azimut-Positionierservo des Scanners</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>Servomotore per la scansione nella direzione azimutale</t>
@@ -9999,7 +10347,11 @@
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Azimut-Winkel</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>Azimut</t>
@@ -10104,7 +10456,11 @@
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Azimut-Anstiegsrate</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>Velocità massima azimutale</t>
@@ -10193,7 +10549,11 @@
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Scanner Höhenpositionierungsservo</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>Servomotore per la scansione nella direzione di elevazione</t>
@@ -10278,7 +10638,11 @@
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Elevationswinkel</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>Elevazione</t>
@@ -10371,7 +10735,11 @@
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Höhenanstiegsrate</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>Velocità massima di elevazione</t>
@@ -10460,7 +10828,11 @@
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Scanner-Spiegel</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>Specchi dello scanner</t>
@@ -10547,7 +10919,7 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Scanning sample rate</t>
+          <t>Scan-Abtastrate</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -10638,7 +11010,11 @@
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Verriegelungs-Modul</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>Dispositivi di sicurezza</t>
@@ -10927,7 +11303,7 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>WindCube</t>
+          <t>Windcube</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11016,7 +11392,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>WindCube</t>
+          <t>WindcubeV2</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11640,7 +12016,7 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Wind Eye</t>
+          <t>Windauge</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -11729,7 +12105,7 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Wind Vision</t>
+          <t>Wind-Vision</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -11818,7 +12194,7 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Epsiline</t>
+          <t>Lidar 'Epsiline'</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -11907,7 +12283,7 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Wind Eagle</t>
+          <t>Lidar 'Wind Eagle'</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -11996,7 +12372,7 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>MoveLaser</t>
+          <t>Lidar 'MoveLaser'</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12085,7 +12461,7 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Molas B300</t>
+          <t>Lidar 'Molas B300'</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12263,7 +12639,7 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Leice</t>
+          <t>Lidar 'Leice'</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12619,7 +12995,7 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>HaloPhotonics</t>
+          <t>HaloPhotonik</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12708,7 +13084,7 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>WindMast</t>
+          <t>WindPro</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12886,7 +13262,7 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>StreamLine</t>
+          <t>Stromlinie</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -13153,7 +13529,7 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Vindicator</t>
+          <t>Lidar Vindicator'</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -13321,7 +13697,11 @@
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Seriennummer (erweiterte Definition)</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>Numero seriale</t>
@@ -13406,7 +13786,11 @@
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Lidar-Typ (erweiterte Definition)</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>Tipologia di lidar</t>
@@ -13495,7 +13879,11 @@
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Datenverarbeitung</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>Processamento dati</t>
@@ -13667,7 +14055,7 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Doppler-Spektren</t>
+          <t>Doppler-Spektrum</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -13756,7 +14144,7 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Zeitintegration</t>
+          <t>Zeitliche Integration</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -13853,7 +14241,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Schwerpunkt</t>
+          <t>Wert der Schwerpunktleistung</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -13950,7 +14338,7 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>der Mittelwert</t>
+          <t>Mittlerer Leistungswert</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -14033,7 +14421,11 @@
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Maximaler Leistungswert</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>Massimo</t>
@@ -14207,7 +14599,11 @@
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Geräuschschwelle des Systems</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>Soglia di rumore del sistema</t>
@@ -14290,7 +14686,7 @@
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Windfeld Rekonstruktion</t>
+          <t>Windfeld-Rekonstruktion</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -14383,7 +14779,7 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Windfeldmodell</t>
+          <t>Windfeld-Modell</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -14834,7 +15230,11 @@
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Scan-Geometrie</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>Geometria di scansionamento</t>
@@ -14919,7 +15319,11 @@
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Statisch</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>Statico</t>
@@ -15000,7 +15404,11 @@
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Nicht statisch</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>Non statico</t>
@@ -15081,7 +15489,11 @@
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Filterstrategie</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>Strategia di filtraggio dati</t>
@@ -15162,7 +15574,11 @@
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Rohdaten</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>RawData</t>
@@ -15243,7 +15659,11 @@
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Vorverarbeitete Daten</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>Dati pre-processati</t>
@@ -15324,7 +15744,11 @@
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ausreißer</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>Anomalie</t>
@@ -15405,7 +15829,11 @@
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>CNR-Schwellenwert</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>Soglia CNR</t>
@@ -15486,7 +15914,11 @@
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Verarbeitete Daten</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>Dati post-processati</t>
@@ -15567,7 +15999,11 @@
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Ausgaben</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>Risultati</t>
@@ -15648,7 +16084,11 @@
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Windgeschwindigkeit</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>Velocità del vento</t>
@@ -15733,7 +16173,11 @@
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Turbulenzintensität</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>Intensità della turbolenza</t>
@@ -15814,7 +16258,11 @@
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Ungewissheiten</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>Incertezze</t>
@@ -15895,7 +16343,11 @@
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Filterung von Daten</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>Filtraggio dati per qualità</t>
@@ -16142,7 +16594,11 @@
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Erkennung sauberer Luft</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>Rilevamento di condizione di aria pulita</t>
@@ -16223,7 +16679,11 @@
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Nebel-Erkennung</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>Rilevamento di nebbia</t>
@@ -16304,7 +16764,11 @@
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Transformation des Koordinatensystems</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>Trasformazione del sistema di coordinate</t>
@@ -16385,7 +16849,11 @@
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Aufbau der Messung</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>Disposizione di misurazione</t>
@@ -16448,7 +16916,7 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Geometrie scannen</t>
+          <t>Scan-Geometrie</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -16553,7 +17021,7 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Einzel-Lidar</t>
+          <t>Einzelnes Lidar</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -16642,7 +17110,7 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>einfacher Scan</t>
+          <t>Einfacher Scan</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -16824,7 +17292,7 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Vollständiger Kegel</t>
+          <t>Kompletter Kegel</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -16921,7 +17389,7 @@
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Kegelsektor</t>
+          <t>Kegel-Sektor</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -17020,11 +17488,7 @@
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Schwingender Dopplerstrahl</t>
-        </is>
-      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
           <t>Geometria ad oscillazione del fascio laser</t>
@@ -17060,7 +17524,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía enintervalos de 90 grados a lo largo de los 360 grados posibles del ángulo azimutal. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
+          <t>Geometría de escaneo en la cual el ángulo de escaneo azimutal se varía en intervalos de 90 grados a lo largo de los 360 grados posibles del ángulo azimutal. Los valores de velocidad y dirección del viento se pueden obertener a través de un proceso de reconstrucción del campo de viento asumiendo, por ejemplo, una dependencia sinusoidal de la velocidad radial con el ángulo azimutal.</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -17121,7 +17585,11 @@
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Scan mit variabler Höhe</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>Geometria ad elevazione variabile</t>
@@ -17222,7 +17690,11 @@
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Zusammengesetzter Scan</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>Scansione composita</t>
@@ -17307,7 +17779,11 @@
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Willkürliche Flugbahn</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>Traiettoria arbitraria</t>
@@ -17392,7 +17868,11 @@
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Stop-starren</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>Geometria "osserva da fisso"</t>
@@ -17477,7 +17957,11 @@
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Sweep-starren</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>Geometria "osserva in movimento"</t>
@@ -17562,7 +18046,11 @@
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Glotzend</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>Geometria fissa</t>
@@ -17647,7 +18135,11 @@
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Multi-Lidar</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>Multi-lidar</t>
@@ -17736,7 +18228,11 @@
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Messvolumen</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>Volume di misurazione</t>
@@ -17821,7 +18317,11 @@
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Sonde</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>Sonda</t>
@@ -17906,7 +18406,11 @@
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Bereich</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>Range</t>
@@ -17987,7 +18491,11 @@
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Fokus-Distanz</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>Distanza di messa a fuoco</t>
@@ -18068,7 +18576,11 @@
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Flugzeit</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>Tempo di volo</t>
@@ -18157,7 +18669,11 @@
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Bereichsauflösung</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>Risoluzione della distanza</t>
@@ -18242,7 +18758,11 @@
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Sondenvolumen</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>Volume della sonda</t>
@@ -18327,7 +18847,11 @@
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Rayleigh Länge</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>Lunghezza Rayleigh</t>
@@ -18417,7 +18941,11 @@
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Strahldurchmesser</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>Diametro del fascio</t>
@@ -18490,7 +19018,11 @@
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Messhöhe</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>Altezza di misurazione</t>
@@ -18862,7 +19394,11 @@
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Messprinzipien</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>Principi di misurazione</t>
@@ -18943,7 +19479,11 @@
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Sender-/Empfängerkonfiguration</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>Configurazione dell'emettitore/ricevitore</t>
@@ -19392,11 +19932,7 @@
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Mie</t>
-        </is>
-      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
           <t>Mie</t>
@@ -19572,7 +20108,7 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Detektionsart</t>
+          <t>Art der Erkennung</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -19843,7 +20379,7 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Detektions-Konfiguration</t>
+          <t>Konfiguration der Erkennung</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -19914,11 +20450,7 @@
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Homodyn</t>
-        </is>
-      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
           <t>Omodinamico</t>
@@ -20005,7 +20537,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Heterodyn</t>
+          <t>Überlagern</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -20094,7 +20626,7 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Windgeschwindigkeits-Auswertung</t>
+          <t>Windgeschwindigkeitsevaluation</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -20183,7 +20715,7 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Partikel-Nachlauf</t>
+          <t>Partikel-Tracking</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -20351,11 +20883,7 @@
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Doppler-Höhepunkt</t>
-        </is>
-      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
@@ -20375,9 +20903,17 @@
         </is>
       </c>
       <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>ontolidar:FrequencyAnalyser</t>
+        </is>
+      </c>
       <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>ontolidar:DopplerSpectra</t>
+        </is>
+      </c>
       <c r="S237" t="inlineStr"/>
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="inlineStr"/>
@@ -20598,7 +21134,11 @@
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Vertikale Scheibe</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
           <t>Geometria a taglio verticale</t>
@@ -20687,7 +21227,11 @@
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Sequenzieller Scan</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>Scansione sequenziale</t>
@@ -20784,7 +21328,11 @@
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Konvergente Suche</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>Scansione convergente</t>
@@ -20998,7 +21546,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>En una señal modulada, CNR es el cociente entre la potencia de la señal y la potencia del ruido de es señal.</t>
+          <t>En una señal modulada, cociente entre la potencia de la señal y la potencia del ruido de esa señal.</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -21063,7 +21611,11 @@
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Signal-Rausch-Verhältnis</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
           <t>Rapporto segnale-rumore</t>
@@ -21099,7 +21651,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>SNR es el cociente entre la potencia de la señaly la potencia del ruido de esa señal.</t>
+          <t>SNR es el cociente entre la potencia de la señal y la potencia del ruido de esa señal.</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -21166,7 +21718,7 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Datenformatierung</t>
+          <t>Datenformate</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -21429,7 +21981,7 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Halo photonics</t>
+          <t>Halo-Photonik</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -21967,7 +22519,7 @@
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>WLAN</t>
+          <t>Wi-Fi</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -22246,7 +22798,7 @@
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Aufzeichnungsfrequenz</t>
+          <t>Häufigkeit der Protokollierung</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -22339,7 +22891,7 @@
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Datei-Granularität</t>
+          <t>Granularität der Datei</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -22432,7 +22984,7 @@
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Datenübertragungs-Frequenz</t>
+          <t>Häufigkeit der Datenübertragung</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -22525,7 +23077,7 @@
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Daten-Mittelungszeitraum</t>
+          <t>Zeitraum der Datenmittelung</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -22618,7 +23170,7 @@
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Aufbau</t>
+          <t>Installation</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -22703,7 +23255,7 @@
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Bereitstellung</t>
+          <t>Einsatz</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -22796,7 +23348,7 @@
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Reparatur</t>
+          <t>Reparieren</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -20905,15 +20905,11 @@
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr">
         <is>
-          <t>ontolidar:FrequencyAnalyser</t>
+          <t>ontolidar:DopplerSpectra</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr">
-        <is>
-          <t>ontolidar:DopplerSpectra</t>
-        </is>
-      </c>
+      <c r="R237" t="inlineStr"/>
       <c r="S237" t="inlineStr"/>
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -23289,7 +23289,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>Datos y hora de instalación, ubicación (gps).</t>
+          <t>Fecha y hora de instalación, ubicación (gps).</t>
         </is>
       </c>
       <c r="O263" t="inlineStr"/>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>Datos y hora de reparación, ubicación (gps).</t>
+          <t>Fecha y hora de reparación, ubicación (gps).</t>
         </is>
       </c>
       <c r="O264" t="inlineStr"/>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>Datos de la reubicación y hora, ubicación (gps).</t>
+          <t>Fecha de la reubicación y hora, ubicación (gps).</t>
         </is>
       </c>
       <c r="O265" t="inlineStr"/>

--- a/ontology.xlsx
+++ b/ontology.xlsx
@@ -5153,7 +5153,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Filtro passa-basso</t>
+          <t>Filtro passa-basso.</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5355,7 +5355,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Metodo di determinazione della frequenza di shift Doppler dagli spettri di potenza</t>
+          <t>Metodo di determinazione della frequenza di shift Doppler dagli spettri di potenza.</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6851,7 +6851,7 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Fase della luce della sorgente laser</t>
+          <t>Fase della luce della sorgente laser.</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7316,12 +7316,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Metodo per regolare la forma dell'impulso in lidar impulsati</t>
+          <t>Metodo per regolare la forma dell'impulso in lidar impulsati.</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Método para regular la forma de un pulso de luz</t>
+          <t>Método para regular la forma de un pulso de luz.</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -8724,7 +8724,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Banda di frequenza attiva nell'amplificatore ottico</t>
+          <t>Banda di frequenza attiva nell'amplificatore ottico.</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -9344,7 +9344,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Beam transmission system</t>
+          <t>Beam transmission system.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9906,7 +9906,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve">The maximum capacity of the uninterruptable power supplier in units of Ampere-hour </t>
+          <t>The maximum capacity of the uninterruptable power supplier in units of Ampere-hour.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -9917,12 +9917,12 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah))</t>
+          <t>La capacità massima del gruppo di continuità (in unità di Ampere-ora (Ah)).</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>La capacidad máxima del sistema de alimentación ininterrumpida en unidades de amperio-hora.</t>
+          <t>La capacidad máxima del sistema de alimentación ininterrumpida en unidades de amperio-hora (Ah).</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -9995,7 +9995,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Lidar working power provided by the UPS when working off-line</t>
+          <t>Lidar working power provided by the UPS when working off-line.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10084,7 +10084,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Lidar working current intensity provided by the UPS when working off-line</t>
+          <t>Lidar working current intensity provided by the UPS when working off-line.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -11425,7 +11425,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Lidar verticale prodotto da Leosphere - a Vaisala company</t>
+          <t>Lidar verticale prodotto da Leosphere - a Vaisala company.</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -13462,7 +13462,7 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>